--- a/DataPD_Analysis.xlsx
+++ b/DataPD_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meikeepauline/Desktop/IP/CaseStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F53FEE-2C9D-034B-BDCC-B9739F3ACE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C478827-E211-E546-AD57-4E4F4441195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="4" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="VAR" sheetId="5" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -528,9 +528,6 @@
   </si>
   <si>
     <t>model 1</t>
-  </si>
-  <si>
-    <t>model 2</t>
   </si>
   <si>
     <t>After missing and outlier treatment</t>
@@ -1427,7 +1424,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="8" t="str">
         <f>STAT!A31</f>
@@ -1446,10 +1443,10 @@
         <v>Sum (all to be replaced)</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
@@ -2188,8 +2185,8 @@
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2199,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -2946,7 +2943,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -3693,7 +3690,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>2</v>
@@ -4443,107 +4440,107 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:AA31" si="0">$A$36-B2</f>
+        <f>$A$37-B2</f>
         <v>384</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>$A$37-C2</f>
         <v>2365</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f>$A$37-D2</f>
         <v>3644</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>$A$37-E2</f>
         <v>806</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f>$A$37-F2</f>
         <v>3874</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f>$A$37-G2</f>
         <v>2966</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f>$A$37-H2</f>
         <v>2213</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f>$A$37-I2</f>
         <v>3173</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f>$A$37-J2</f>
         <v>1402</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f>$A$37-K2</f>
         <v>4213</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f>$A$37-L2</f>
         <v>5064</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f>$A$37-M2</f>
         <v>1997</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f>$A$37-N2</f>
         <v>4381</v>
       </c>
       <c r="O31">
-        <f t="shared" si="0"/>
+        <f>$A$37-O2</f>
         <v>580</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
+        <f>$A$37-P2</f>
         <v>5581</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
+        <f>$A$37-Q2</f>
         <v>1464</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f>$A$37-R2</f>
         <v>2178</v>
       </c>
       <c r="S31">
-        <f t="shared" si="0"/>
+        <f>$A$37-S2</f>
         <v>3055</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
+        <f>$A$37-T2</f>
         <v>5110</v>
       </c>
       <c r="U31">
-        <f t="shared" si="0"/>
+        <f>$A$37-U2</f>
         <v>702</v>
       </c>
       <c r="V31">
-        <f t="shared" si="0"/>
+        <f>$A$37-V2</f>
         <v>1389</v>
       </c>
       <c r="W31">
-        <f t="shared" si="0"/>
+        <f>$A$37-W2</f>
         <v>5425</v>
       </c>
       <c r="X31">
-        <f t="shared" si="0"/>
+        <f>$A$37-X2</f>
         <v>4031</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="0"/>
+        <f>$A$37-Y2</f>
         <v>3373</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="0"/>
+        <f>$A$37-Z2</f>
         <v>4389</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="0"/>
+        <f>$A$37-AA2</f>
         <v>4890</v>
       </c>
     </row>
@@ -4556,103 +4553,103 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:AA32" si="1">C2-C12</f>
+        <f t="shared" ref="C32:AA32" si="0">C2-C12</f>
         <v>8</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="T32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="V32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="X32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -4665,103 +4662,103 @@
         <v>1515</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:AA33" si="2">C12-C22</f>
+        <f t="shared" ref="C33:AA33" si="1">C12-C22</f>
         <v>1281</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>798</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1187</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>747</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>989</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>674</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1094</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1509</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1175</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>841</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>713</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>514</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1444</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>699</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1616</v>
       </c>
       <c r="R33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>792</v>
       </c>
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1098</v>
       </c>
       <c r="U33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1254</v>
       </c>
       <c r="V33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1445</v>
       </c>
       <c r="W33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1014</v>
       </c>
       <c r="X33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>414</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1164</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>401</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1646</v>
       </c>
     </row>
@@ -4774,319 +4771,425 @@
         <v>1905</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:AA34" si="3">SUM(C31:C33)</f>
+        <f t="shared" ref="C34:AA34" si="2">SUM(C31:C33)</f>
         <v>3654</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4443</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1994</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4629</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3966</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2889</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4269</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2916</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5388</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5908</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2724</v>
       </c>
       <c r="N34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4906</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6282</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3080</v>
       </c>
       <c r="R34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2192</v>
       </c>
       <c r="S34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3852</v>
       </c>
       <c r="T34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6211</v>
       </c>
       <c r="U34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1966</v>
       </c>
       <c r="V34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2839</v>
       </c>
       <c r="W34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6442</v>
       </c>
       <c r="X34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4456</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4541</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4790</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6547</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B35" s="13">
-        <f>B31/$A$36</f>
+        <f>B31/$A$37</f>
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="C35" s="13">
-        <f t="shared" ref="C35:AA35" si="4">C31/$A$36</f>
+        <f>C31/$A$37</f>
         <v>7.8833333333333339E-2</v>
       </c>
       <c r="D35" s="13">
-        <f>D31/$A$36</f>
+        <f>D31/$A$37</f>
         <v>0.12146666666666667</v>
       </c>
       <c r="E35" s="13">
-        <f t="shared" si="4"/>
+        <f>E31/$A$37</f>
         <v>2.6866666666666667E-2</v>
       </c>
       <c r="F35" s="13">
-        <f t="shared" si="4"/>
+        <f>F31/$A$37</f>
         <v>0.12913333333333332</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" si="4"/>
+        <f>G31/$A$37</f>
         <v>9.8866666666666672E-2</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="4"/>
+        <f>H31/$A$37</f>
         <v>7.3766666666666661E-2</v>
       </c>
       <c r="I35" s="13">
-        <f t="shared" si="4"/>
+        <f>I31/$A$37</f>
         <v>0.10576666666666666</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="4"/>
+        <f>J31/$A$37</f>
         <v>4.6733333333333335E-2</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" si="4"/>
+        <f>K31/$A$37</f>
         <v>0.14043333333333333</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" si="4"/>
+        <f>L31/$A$37</f>
         <v>0.16880000000000001</v>
       </c>
       <c r="M35" s="13">
-        <f t="shared" si="4"/>
+        <f>M31/$A$37</f>
         <v>6.6566666666666663E-2</v>
       </c>
       <c r="N35" s="13">
-        <f t="shared" si="4"/>
+        <f>N31/$A$37</f>
         <v>0.14603333333333332</v>
       </c>
       <c r="O35" s="13">
-        <f t="shared" si="4"/>
+        <f>O31/$A$37</f>
         <v>1.9333333333333334E-2</v>
       </c>
       <c r="P35" s="13">
-        <f t="shared" si="4"/>
+        <f>P31/$A$37</f>
         <v>0.18603333333333333</v>
       </c>
       <c r="Q35" s="13">
-        <f t="shared" si="4"/>
+        <f>Q31/$A$37</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="R35" s="13">
-        <f t="shared" si="4"/>
+        <f>R31/$A$37</f>
         <v>7.2599999999999998E-2</v>
       </c>
       <c r="S35" s="13">
-        <f t="shared" si="4"/>
+        <f>S31/$A$37</f>
         <v>0.10183333333333333</v>
       </c>
       <c r="T35" s="13">
-        <f t="shared" si="4"/>
+        <f>T31/$A$37</f>
         <v>0.17033333333333334</v>
       </c>
       <c r="U35" s="13">
-        <f t="shared" si="4"/>
+        <f>U31/$A$37</f>
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="V35" s="13">
-        <f t="shared" si="4"/>
+        <f>V31/$A$37</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="W35" s="13">
-        <f t="shared" si="4"/>
+        <f>W31/$A$37</f>
         <v>0.18083333333333335</v>
       </c>
       <c r="X35" s="13">
-        <f t="shared" si="4"/>
+        <f>X31/$A$37</f>
         <v>0.13436666666666666</v>
       </c>
       <c r="Y35" s="13">
-        <f t="shared" si="4"/>
+        <f>Y31/$A$37</f>
         <v>0.11243333333333333</v>
       </c>
       <c r="Z35" s="13">
-        <f t="shared" si="4"/>
+        <f>Z31/$A$37</f>
         <v>0.14630000000000001</v>
       </c>
       <c r="AA35" s="13">
-        <f t="shared" si="4"/>
+        <f>AA31/$A$37</f>
         <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="B36" s="13">
+        <f>SUM(B31:B32)/$A$37</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C36" s="13">
+        <f>SUM(C31:C32)/$A$37</f>
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="D36" s="13">
+        <f>SUM(D31:D32)/$A$37</f>
+        <v>0.1215</v>
+      </c>
+      <c r="E36" s="13">
+        <f>SUM(E31:E32)/$A$37</f>
+        <v>2.69E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <f>SUM(F31:F32)/$A$37</f>
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="G36" s="13">
+        <f>SUM(G31:G32)/$A$37</f>
+        <v>9.923333333333334E-2</v>
+      </c>
+      <c r="H36" s="13">
+        <f>SUM(H31:H32)/$A$37</f>
+        <v>7.3833333333333334E-2</v>
+      </c>
+      <c r="I36" s="13">
+        <f>SUM(I31:I32)/$A$37</f>
+        <v>0.10583333333333333</v>
+      </c>
+      <c r="J36" s="13">
+        <f>SUM(J31:J32)/$A$37</f>
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K36" s="13">
+        <f>SUM(K31:K32)/$A$37</f>
+        <v>0.14043333333333333</v>
+      </c>
+      <c r="L36" s="13">
+        <f>SUM(L31:L32)/$A$37</f>
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="M36" s="13">
+        <f>SUM(M31:M32)/$A$37</f>
+        <v>6.7033333333333334E-2</v>
+      </c>
+      <c r="N36" s="13">
+        <f>SUM(N31:N32)/$A$37</f>
+        <v>0.1464</v>
+      </c>
+      <c r="O36" s="13">
+        <f>SUM(O31:O32)/$A$37</f>
+        <v>1.9366666666666667E-2</v>
+      </c>
+      <c r="P36" s="13">
+        <f>SUM(P31:P32)/$A$37</f>
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="Q36" s="13">
+        <f>SUM(Q31:Q32)/$A$37</f>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="R36" s="13">
+        <f>SUM(R31:R32)/$A$37</f>
+        <v>7.2633333333333328E-2</v>
+      </c>
+      <c r="S36" s="13">
+        <f>SUM(S31:S32)/$A$37</f>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="T36" s="13">
+        <f>SUM(T31:T32)/$A$37</f>
+        <v>0.17043333333333333</v>
+      </c>
+      <c r="U36" s="13">
+        <f>SUM(U31:U32)/$A$37</f>
+        <v>2.3733333333333332E-2</v>
+      </c>
+      <c r="V36" s="13">
+        <f>SUM(V31:V32)/$A$37</f>
+        <v>4.646666666666667E-2</v>
+      </c>
+      <c r="W36" s="13">
+        <f>SUM(W31:W32)/$A$37</f>
+        <v>0.18093333333333333</v>
+      </c>
+      <c r="X36" s="13">
+        <f>SUM(X31:X32)/$A$37</f>
+        <v>0.13473333333333334</v>
+      </c>
+      <c r="Y36" s="13">
+        <f>SUM(Y31:Y32)/$A$37</f>
+        <v>0.11256666666666666</v>
+      </c>
+      <c r="Z36" s="13">
+        <f>SUM(Z31:Z32)/$A$37</f>
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="AA36" s="13">
+        <f>SUM(AA31:AA32)/$A$37</f>
+        <v>0.16336666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>30000</v>
       </c>
-      <c r="B36" s="13">
-        <f>SUM(B31:B32)/$A$36</f>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C36" s="13">
-        <f t="shared" ref="C36:AA36" si="5">SUM(C31:C32)/$A$36</f>
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="D36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.1215</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="5"/>
-        <v>2.69E-2</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.12939999999999999</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="5"/>
-        <v>9.923333333333334E-2</v>
-      </c>
-      <c r="H36" s="13">
-        <f t="shared" si="5"/>
-        <v>7.3833333333333334E-2</v>
-      </c>
-      <c r="I36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.10583333333333333</v>
-      </c>
-      <c r="J36" s="13">
-        <f t="shared" si="5"/>
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.14043333333333333</v>
-      </c>
-      <c r="L36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.16889999999999999</v>
-      </c>
-      <c r="M36" s="13">
-        <f t="shared" si="5"/>
-        <v>6.7033333333333334E-2</v>
-      </c>
-      <c r="N36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.1464</v>
-      </c>
-      <c r="O36" s="13">
-        <f t="shared" si="5"/>
-        <v>1.9366666666666667E-2</v>
-      </c>
-      <c r="P36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.18609999999999999</v>
-      </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="5"/>
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="R36" s="13">
-        <f t="shared" si="5"/>
-        <v>7.2633333333333328E-2</v>
-      </c>
-      <c r="S36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="T36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.17043333333333333</v>
-      </c>
-      <c r="U36" s="13">
-        <f t="shared" si="5"/>
-        <v>2.3733333333333332E-2</v>
-      </c>
-      <c r="V36" s="13">
-        <f t="shared" si="5"/>
-        <v>4.646666666666667E-2</v>
-      </c>
-      <c r="W36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.18093333333333333</v>
-      </c>
-      <c r="X36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.13473333333333334</v>
-      </c>
-      <c r="Y36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.11256666666666666</v>
-      </c>
-      <c r="Z36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.14630000000000001</v>
-      </c>
-      <c r="AA36" s="13">
-        <f t="shared" si="5"/>
-        <v>0.16336666666666666</v>
+      <c r="B37" s="13">
+        <f>B34/$A$37</f>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" ref="C37:AA37" si="3">C34/$A$37</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="3"/>
+        <v>6.646666666666666E-2</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="3"/>
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="J37" s="13">
+        <f t="shared" si="3"/>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.19693333333333332</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="3"/>
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.16353333333333334</v>
+      </c>
+      <c r="O37" s="13">
+        <f t="shared" si="3"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.2094</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.10266666666666667</v>
+      </c>
+      <c r="R37" s="13">
+        <f t="shared" si="3"/>
+        <v>7.3066666666666669E-2</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.12839999999999999</v>
+      </c>
+      <c r="T37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.20703333333333335</v>
+      </c>
+      <c r="U37" s="13">
+        <f t="shared" si="3"/>
+        <v>6.5533333333333332E-2</v>
+      </c>
+      <c r="V37" s="13">
+        <f t="shared" si="3"/>
+        <v>9.4633333333333333E-2</v>
+      </c>
+      <c r="W37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.21473333333333333</v>
+      </c>
+      <c r="X37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14853333333333332</v>
+      </c>
+      <c r="Y37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15136666666666668</v>
+      </c>
+      <c r="Z37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15966666666666668</v>
+      </c>
+      <c r="AA37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.21823333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -5095,7 +5198,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>2</v>
@@ -5844,7 +5947,19 @@
   <mergeCells count="1">
     <mergeCell ref="A38:B38"/>
   </mergeCells>
-  <conditionalFormatting sqref="B36:Z36">
+  <conditionalFormatting sqref="B36:AA36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:AA37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6396,7 +6511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31AA758-05F1-A249-8767-85116A9B04D3}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:X70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6409,85 +6526,85 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -6501,85 +6618,85 @@
         <v>-7.0084726590426407E-3</v>
       </c>
       <c r="D2">
-        <v>-5.0702238117405389E-3</v>
+        <v>-7.9935366271215759E-3</v>
       </c>
       <c r="E2">
-        <v>7.1997148129554151E-3</v>
+        <v>-4.6119662562037747E-3</v>
       </c>
       <c r="F2">
-        <v>-7.0852357425709269E-4</v>
+        <v>7.5362199343070443E-3</v>
       </c>
       <c r="G2">
-        <v>1.9966500173558919E-3</v>
+        <v>-2.415049173882731E-3</v>
       </c>
       <c r="H2">
-        <v>-1.3445810769082359E-2</v>
+        <v>1.628499125510919E-3</v>
       </c>
       <c r="I2">
-        <v>5.3278439423323698E-3</v>
+        <v>-1.3780513293745231E-2</v>
       </c>
       <c r="J2">
-        <v>-6.7518211484551326E-3</v>
+        <v>3.9545848175119363E-3</v>
       </c>
       <c r="K2">
-        <v>-4.8415070455899208E-3</v>
+        <v>-7.36739062099462E-3</v>
       </c>
       <c r="L2">
-        <v>-3.8101154009343762E-3</v>
+        <v>-4.4917081498867407E-3</v>
       </c>
       <c r="M2">
-        <v>-7.8066763201543616E-3</v>
+        <v>-3.6272959647052328E-3</v>
       </c>
       <c r="N2">
-        <v>-1.9540095106477542E-3</v>
+        <v>-7.6040818835596312E-3</v>
       </c>
       <c r="O2">
-        <v>5.8191225174005646E-3</v>
+        <v>-2.3953345386127532E-3</v>
       </c>
       <c r="P2">
-        <v>-8.4408698399748364E-3</v>
+        <v>5.7252724018054804E-3</v>
       </c>
       <c r="Q2">
-        <v>-1.5824954872275039E-2</v>
+        <v>-8.9365652853722003E-3</v>
       </c>
       <c r="R2">
-        <v>2.415649425689221E-3</v>
+        <v>-1.5630009416878209E-2</v>
       </c>
       <c r="S2">
-        <v>-9.8078239328105781E-4</v>
+        <v>2.8941020204352281E-3</v>
       </c>
       <c r="T2">
-        <v>3.9111572328758334E-3</v>
+        <v>-8.5538396710585377E-4</v>
       </c>
       <c r="U2">
-        <v>5.9670405281967679E-4</v>
+        <v>4.0525822781531636E-3</v>
       </c>
       <c r="V2">
-        <v>9.4973266238804407E-3</v>
+        <v>1.5681932251355589E-3</v>
       </c>
       <c r="W2">
-        <v>2.9414325853872069E-3</v>
+        <v>9.094235058689679E-3</v>
       </c>
       <c r="X2">
-        <v>5.0039109714455189E-3</v>
+        <v>3.144793836341803E-3</v>
       </c>
       <c r="Y2">
-        <v>8.0104302984189434E-4</v>
+        <v>5.1550387806782658E-3</v>
       </c>
       <c r="Z2">
-        <v>-9.4080971500331238E-3</v>
+        <v>9.3443041365751155E-4</v>
       </c>
       <c r="AA2">
-        <v>5.4260995323194222E-3</v>
+        <v>-9.1793614979261313E-3</v>
       </c>
       <c r="AB2">
-        <v>-4.392818585108896E-3</v>
+        <v>4.4267648941320103E-3</v>
       </c>
       <c r="AC2">
-        <v>-1.0827100658902491E-2</v>
+        <v>-5.0405288800206959E-3</v>
       </c>
       <c r="AD2">
-        <v>-7.9935366271215759E-3</v>
+        <v>-1.1891984420722699E-2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -6593,2566 +6710,2566 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.0442084619167181E-2</v>
+        <v>1.06089585031679E-2</v>
       </c>
       <c r="E3">
-        <v>6.7799276678540507E-2</v>
+        <v>5.0297197571996952E-2</v>
       </c>
       <c r="F3">
-        <v>-4.6454676090199563E-2</v>
+        <v>6.8003442724390226E-2</v>
       </c>
       <c r="G3">
-        <v>-1.8771363991885479E-2</v>
+        <v>-4.6784357110360553E-2</v>
       </c>
       <c r="H3">
-        <v>0.13478525539566161</v>
+        <v>-1.8170879535351549E-2</v>
       </c>
       <c r="I3">
-        <v>-5.5957036622363891E-2</v>
+        <v>0.1341988910190591</v>
       </c>
       <c r="J3">
-        <v>-6.7007929960326104E-2</v>
+        <v>-5.5448076584786607E-2</v>
       </c>
       <c r="K3">
-        <v>-2.4125740754413559E-2</v>
+        <v>-6.6671136009710488E-2</v>
       </c>
       <c r="L3">
-        <v>5.6714639196880669E-2</v>
+        <v>-2.453764502345035E-2</v>
       </c>
       <c r="M3">
-        <v>-2.6219113216796909E-2</v>
+        <v>5.6399402181203921E-2</v>
       </c>
       <c r="N3">
-        <v>2.516347794757309E-2</v>
+        <v>-2.7517353901567291E-2</v>
       </c>
       <c r="O3">
-        <v>-2.006199593661594E-3</v>
+        <v>2.320545832293187E-2</v>
       </c>
       <c r="P3">
-        <v>4.4076459867710173E-2</v>
+        <v>-1.2440841381334219E-3</v>
       </c>
       <c r="Q3">
-        <v>0.118973569968957</v>
+        <v>4.4327600942383472E-2</v>
       </c>
       <c r="R3">
-        <v>-4.2218014638485617E-2</v>
+        <v>0.1182964987308035</v>
       </c>
       <c r="S3">
-        <v>7.0343257365374459E-2</v>
+        <v>-4.2500330212004632E-2</v>
       </c>
       <c r="T3">
-        <v>-3.7941086793873719E-3</v>
+        <v>6.970073553262629E-2</v>
       </c>
       <c r="U3">
-        <v>-4.5786480215259058E-2</v>
+        <v>-2.3655631797528821E-3</v>
       </c>
       <c r="V3">
-        <v>2.7811254979521222E-2</v>
+        <v>-4.4297212707705723E-2</v>
       </c>
       <c r="W3">
-        <v>4.4819436912410068E-2</v>
+        <v>2.6027544704194262E-2</v>
       </c>
       <c r="X3">
-        <v>-3.5860522574293903E-2</v>
+        <v>4.4929856963209933E-2</v>
       </c>
       <c r="Y3">
-        <v>1.2520016349723301E-2</v>
+        <v>-3.5310592849809648E-2</v>
       </c>
       <c r="Z3">
-        <v>-3.4833637000393869E-3</v>
+        <v>1.1598683899269669E-2</v>
       </c>
       <c r="AA3">
-        <v>-6.6129443813897196E-2</v>
+        <v>-3.4737496742839749E-3</v>
       </c>
       <c r="AB3">
-        <v>1.3554405874830091E-2</v>
+        <v>-6.3272767396847715E-2</v>
       </c>
       <c r="AC3">
-        <v>8.4200907631323402E-2</v>
+        <v>1.324665908712336E-2</v>
       </c>
       <c r="AD3">
-        <v>1.06089585031679E-2</v>
+        <v>7.9489624411600734E-2</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B4">
-        <v>-5.0702238117405389E-3</v>
+        <v>-7.9935366271215759E-3</v>
       </c>
       <c r="C4">
-        <v>5.0442084619167181E-2</v>
+        <v>1.06089585031679E-2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.28542284599192791</v>
+        <v>2.376412415385163E-3</v>
       </c>
       <c r="F4">
-        <v>3.8765881196248783E-2</v>
+        <v>-1.3371284365148461E-2</v>
       </c>
       <c r="G4">
-        <v>0.10310362057330991</v>
+        <v>-1.0551481859123789E-2</v>
       </c>
       <c r="H4">
-        <v>2.50676840370101E-2</v>
+        <v>-3.2045181989772769E-3</v>
       </c>
       <c r="I4">
-        <v>-0.1240683217221162</v>
+        <v>-6.545753183858233E-3</v>
       </c>
       <c r="J4">
-        <v>0.20154002084972519</v>
+        <v>-1.544292867805913E-2</v>
       </c>
       <c r="K4">
-        <v>0.22448924933899281</v>
+        <v>-9.3078781500059056E-3</v>
       </c>
       <c r="L4">
-        <v>0.127729567213234</v>
+        <v>-1.0005009400135391E-2</v>
       </c>
       <c r="M4">
-        <v>0.2335739591475389</v>
+        <v>-2.6950764100921801E-3</v>
       </c>
       <c r="N4">
-        <v>4.1045063066549627E-2</v>
+        <v>-1.8128036465502529E-2</v>
       </c>
       <c r="O4">
-        <v>-0.1093791755856602</v>
+        <v>-1.553266439308279E-3</v>
       </c>
       <c r="P4">
-        <v>0.21348372743469229</v>
+        <v>-1.093052563486587E-2</v>
       </c>
       <c r="Q4">
-        <v>0.1232799394662013</v>
+        <v>-1.354557805280498E-2</v>
       </c>
       <c r="R4">
-        <v>-0.22116267708491191</v>
+        <v>2.998252498279062E-3</v>
       </c>
       <c r="S4">
-        <v>-0.1342813671830736</v>
+        <v>-8.3338424937734502E-3</v>
       </c>
       <c r="T4">
-        <v>3.189711144304417E-2</v>
+        <v>1.2886157922722191E-3</v>
       </c>
       <c r="U4">
-        <v>5.370476839399517E-2</v>
+        <v>6.371811060045785E-3</v>
       </c>
       <c r="V4">
-        <v>3.6639484747601543E-2</v>
+        <v>-1.3965185112855921E-2</v>
       </c>
       <c r="W4">
-        <v>-0.108249922874552</v>
+        <v>-2.9366790259264149E-3</v>
       </c>
       <c r="X4">
-        <v>-6.4552202616111554E-2</v>
+        <v>-4.6668173012120806E-3</v>
       </c>
       <c r="Y4">
-        <v>8.380594414087883E-2</v>
+        <v>-7.9566396619113328E-3</v>
       </c>
       <c r="Z4">
-        <v>0.25686603449352879</v>
+        <v>4.8538311453334818E-4</v>
       </c>
       <c r="AA4">
-        <v>-2.6775724359741789E-2</v>
+        <v>-2.342842889533279E-3</v>
       </c>
       <c r="AB4">
-        <v>4.1372577110039971E-2</v>
+        <v>1.4324617332722349E-2</v>
       </c>
       <c r="AC4">
-        <v>1.170716638941764E-2</v>
+        <v>6.4433479626116374E-3</v>
       </c>
       <c r="AD4">
-        <v>4.5447237413244546E-3</v>
+        <v>-1.9768955489666649E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>7.1997148129554151E-3</v>
+        <v>-4.6119662562037747E-3</v>
       </c>
       <c r="C5">
-        <v>6.7799276678540507E-2</v>
+        <v>5.0297197571996952E-2</v>
       </c>
       <c r="D5">
-        <v>-0.28542284599192791</v>
+        <v>2.376412415385163E-3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.16594422364388339</v>
+        <v>-0.26637513838083182</v>
       </c>
       <c r="G5">
-        <v>-0.19159845745060991</v>
+        <v>3.6649838719012257E-2</v>
       </c>
       <c r="H5">
-        <v>3.1780085364211723E-2</v>
+        <v>0.1001933470707458</v>
       </c>
       <c r="I5">
-        <v>0.13324316411809101</v>
+        <v>1.758351481106844E-2</v>
       </c>
       <c r="J5">
-        <v>-0.1588929993566435</v>
+        <v>-0.11487278703138221</v>
       </c>
       <c r="K5">
-        <v>-0.13590161799974229</v>
+        <v>0.18879349314754651</v>
       </c>
       <c r="L5">
-        <v>-9.4821639260371279E-2</v>
+        <v>0.20852773409855069</v>
       </c>
       <c r="M5">
-        <v>-0.18413775984454581</v>
+        <v>0.1225507335186211</v>
       </c>
       <c r="N5">
-        <v>-1.823123135068536E-2</v>
+        <v>0.21258820281134719</v>
       </c>
       <c r="O5">
-        <v>6.4880221956941264E-2</v>
+        <v>3.462147288602907E-2</v>
       </c>
       <c r="P5">
-        <v>-0.16103122670275261</v>
+        <v>-0.1031031906149201</v>
       </c>
       <c r="Q5">
-        <v>-6.4719082310363316E-2</v>
+        <v>0.19421421909071859</v>
       </c>
       <c r="R5">
-        <v>0.21372946679453941</v>
+        <v>0.1210242838366339</v>
       </c>
       <c r="S5">
-        <v>0.2404141307388282</v>
+        <v>-0.18536700676155929</v>
       </c>
       <c r="T5">
-        <v>-8.6993275818948335E-2</v>
+        <v>-0.12743251480901291</v>
       </c>
       <c r="U5">
-        <v>-0.16473995066539041</v>
+        <v>3.004834167376997E-2</v>
       </c>
       <c r="V5">
-        <v>-9.9270454684014416E-3</v>
+        <v>4.7995637917764768E-2</v>
       </c>
       <c r="W5">
-        <v>0.18574022663908341</v>
+        <v>3.4065088240700821E-2</v>
       </c>
       <c r="X5">
-        <v>1.0482130814969581E-2</v>
+        <v>-0.1067272793663452</v>
       </c>
       <c r="Y5">
-        <v>-6.123995584416253E-2</v>
+        <v>-6.0986776102747282E-2</v>
       </c>
       <c r="Z5">
-        <v>-0.14219768540045749</v>
+        <v>6.5460630616731658E-2</v>
       </c>
       <c r="AA5">
-        <v>-5.0870085872000002E-2</v>
+        <v>0.2306091754743996</v>
       </c>
       <c r="AB5">
-        <v>-7.1139795281959614E-2</v>
+        <v>-1.9885579531341881E-2</v>
       </c>
       <c r="AC5">
-        <v>8.1535727375991712E-2</v>
+        <v>4.0308440583595652E-2</v>
       </c>
       <c r="AD5">
-        <v>-9.0270574059976554E-3</v>
+        <v>1.376794396127571E-2</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>-7.0852357425709269E-4</v>
+        <v>7.5362199343070443E-3</v>
       </c>
       <c r="C6">
-        <v>-4.6454676090199563E-2</v>
+        <v>6.8003442724390226E-2</v>
       </c>
       <c r="D6">
-        <v>3.8765881196248783E-2</v>
+        <v>-1.3371284365148461E-2</v>
       </c>
       <c r="E6">
-        <v>-0.16594422364388339</v>
+        <v>-0.26637513838083182</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3937092311458022</v>
+        <v>-0.15739106527721211</v>
       </c>
       <c r="H6">
-        <v>-0.16477104511716731</v>
+        <v>-0.18680864642406869</v>
       </c>
       <c r="I6">
-        <v>6.749129753345906E-2</v>
+        <v>3.2781973116620892E-2</v>
       </c>
       <c r="J6">
-        <v>8.6773177061237161E-2</v>
+        <v>0.1266320166195965</v>
       </c>
       <c r="K6">
-        <v>-8.3674886817192054E-2</v>
+        <v>-0.14743561982886641</v>
       </c>
       <c r="L6">
-        <v>-6.3998267954573945E-2</v>
+        <v>-0.12951531585841319</v>
       </c>
       <c r="M6">
-        <v>6.6954120661917804E-2</v>
+        <v>-9.0720048510837856E-2</v>
       </c>
       <c r="N6">
-        <v>-9.1033586266563202E-2</v>
+        <v>-0.1727754541600873</v>
       </c>
       <c r="O6">
-        <v>8.1705205005108104E-3</v>
+        <v>-1.92854326603774E-2</v>
       </c>
       <c r="P6">
-        <v>-6.1328150585855903E-2</v>
+        <v>6.229084761763827E-2</v>
       </c>
       <c r="Q6">
-        <v>-0.14248483953216501</v>
+        <v>-0.1493888446263236</v>
       </c>
       <c r="R6">
-        <v>5.3635102072637601E-2</v>
+        <v>-6.1922588352781499E-2</v>
       </c>
       <c r="S6">
-        <v>-0.1108649630770487</v>
+        <v>0.191364251520248</v>
       </c>
       <c r="T6">
-        <v>-5.6572143390247933E-3</v>
+        <v>0.2243660297260345</v>
       </c>
       <c r="U6">
-        <v>0.51633899160326902</v>
+        <v>-8.4063220184212764E-2</v>
       </c>
       <c r="V6">
-        <v>-0.1089322791113146</v>
+        <v>-0.1571966344248957</v>
       </c>
       <c r="W6">
-        <v>-9.9015209573411131E-2</v>
+        <v>-1.3409826908462791E-2</v>
       </c>
       <c r="X6">
-        <v>7.3586700421981399E-2</v>
+        <v>0.1791387824432312</v>
       </c>
       <c r="Y6">
-        <v>-4.7882223865839048E-2</v>
+        <v>8.8426104747472735E-3</v>
       </c>
       <c r="Z6">
-        <v>-0.1206321809120469</v>
+        <v>-5.4095048336022633E-2</v>
       </c>
       <c r="AA6">
-        <v>0.1230084554100962</v>
+        <v>-0.124586140238716</v>
       </c>
       <c r="AB6">
-        <v>-3.2748468078702832E-2</v>
+        <v>-5.0035609684366607E-2</v>
       </c>
       <c r="AC6">
-        <v>-0.14959794064896531</v>
+        <v>-6.9497751185884499E-2</v>
       </c>
       <c r="AD6">
-        <v>1.9182469180192921E-3</v>
+        <v>7.5878909367969635E-2</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.9966500173558919E-3</v>
+        <v>-2.415049173882731E-3</v>
       </c>
       <c r="C7">
-        <v>-1.8771363991885479E-2</v>
+        <v>-4.6784357110360553E-2</v>
       </c>
       <c r="D7">
-        <v>0.10310362057330991</v>
+        <v>-1.0551481859123789E-2</v>
       </c>
       <c r="E7">
-        <v>-0.19159845745060991</v>
+        <v>3.6649838719012257E-2</v>
       </c>
       <c r="F7">
-        <v>0.3937092311458022</v>
+        <v>-0.15739106527721211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-1.7444452234075682E-2</v>
+        <v>0.38481916755413692</v>
       </c>
       <c r="I7">
-        <v>-1.110522927200638E-2</v>
+        <v>-0.1496233840417947</v>
       </c>
       <c r="J7">
-        <v>9.3599330086227173E-2</v>
+        <v>5.8934730574137652E-2</v>
       </c>
       <c r="K7">
-        <v>4.8845810389402361E-2</v>
+        <v>8.3456328495866733E-2</v>
       </c>
       <c r="L7">
-        <v>-6.4800892227440565E-2</v>
+        <v>-8.1630081136981572E-2</v>
       </c>
       <c r="M7">
-        <v>0.21836859933998951</v>
+        <v>-6.1568422280968087E-2</v>
       </c>
       <c r="N7">
-        <v>-1.106716854842715E-2</v>
+        <v>5.8736989094573637E-2</v>
       </c>
       <c r="O7">
-        <v>-6.1446475280486933E-2</v>
+        <v>-8.4308092418933944E-2</v>
       </c>
       <c r="P7">
-        <v>5.7452047728093272E-2</v>
+        <v>9.2212408169567127E-3</v>
       </c>
       <c r="Q7">
-        <v>-0.1017707294568496</v>
+        <v>-5.8171037375904018E-2</v>
       </c>
       <c r="R7">
-        <v>8.5479592740025645E-2</v>
+        <v>-0.1345177433702005</v>
       </c>
       <c r="S7">
-        <v>-0.13967158661693149</v>
+        <v>5.2317622991559148E-2</v>
       </c>
       <c r="T7">
-        <v>0.14744249342691829</v>
+        <v>-0.1020464820703378</v>
       </c>
       <c r="U7">
-        <v>0.37696933847880332</v>
+        <v>-3.8808260996119151E-3</v>
       </c>
       <c r="V7">
-        <v>-3.1785114209703411E-2</v>
+        <v>0.49503077347355318</v>
       </c>
       <c r="W7">
-        <v>-9.6647023639803251E-2</v>
+        <v>-0.102361367216654</v>
       </c>
       <c r="X7">
-        <v>4.8111966991307119E-2</v>
+        <v>-9.7139869536196327E-2</v>
       </c>
       <c r="Y7">
-        <v>1.6881052262240581E-2</v>
+        <v>6.8822383951634161E-2</v>
       </c>
       <c r="Z7">
-        <v>-5.1010353308685322E-2</v>
+        <v>-4.2230073999860507E-2</v>
       </c>
       <c r="AA7">
-        <v>9.5739806751386949E-2</v>
+        <v>-0.1186401969546188</v>
       </c>
       <c r="AB7">
-        <v>1.09430165515314E-2</v>
+        <v>0.1113163515264937</v>
       </c>
       <c r="AC7">
-        <v>-0.16137216877414179</v>
+        <v>-2.3629816954394901E-2</v>
       </c>
       <c r="AD7">
-        <v>4.2136666333614172E-4</v>
+        <v>-0.13825955919553631</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>-1.3445810769082359E-2</v>
+        <v>1.628499125510919E-3</v>
       </c>
       <c r="C8">
-        <v>0.13478525539566161</v>
+        <v>-1.8170879535351549E-2</v>
       </c>
       <c r="D8">
-        <v>2.50676840370101E-2</v>
+        <v>-3.2045181989772769E-3</v>
       </c>
       <c r="E8">
-        <v>3.1780085364211723E-2</v>
+        <v>0.1001933470707458</v>
       </c>
       <c r="F8">
-        <v>-0.16477104511716731</v>
+        <v>-0.18680864642406869</v>
       </c>
       <c r="G8">
-        <v>-1.7444452234075682E-2</v>
+        <v>0.38481916755413692</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-0.1025703582654419</v>
+        <v>-1.098113740820467E-2</v>
       </c>
       <c r="J8">
-        <v>-8.8825470271735513E-2</v>
+        <v>-1.383678566064914E-2</v>
       </c>
       <c r="K8">
-        <v>3.9677487780253533E-2</v>
+        <v>9.0545874418870825E-2</v>
       </c>
       <c r="L8">
-        <v>0.14338090497801079</v>
+        <v>4.8774024551547543E-2</v>
       </c>
       <c r="M8">
-        <v>1.0064040301030509E-2</v>
+        <v>-6.6328690843644608E-2</v>
       </c>
       <c r="N8">
-        <v>6.6502539866227811E-2</v>
+        <v>0.21450215388916449</v>
       </c>
       <c r="O8">
-        <v>-8.3298100504246061E-2</v>
+        <v>-7.6489354308668534E-3</v>
       </c>
       <c r="P8">
-        <v>8.2743654492289431E-2</v>
+        <v>-6.0842196744374938E-2</v>
       </c>
       <c r="Q8">
-        <v>0.2116712719142603</v>
+        <v>5.7974570248246891E-2</v>
       </c>
       <c r="R8">
-        <v>-0.16028287423658041</v>
+        <v>-0.1001856983163137</v>
       </c>
       <c r="S8">
-        <v>4.6868977937993231E-2</v>
+        <v>8.7949701177869016E-2</v>
       </c>
       <c r="T8">
-        <v>-0.10275931341809549</v>
+        <v>-0.13536384958842079</v>
       </c>
       <c r="U8">
-        <v>-0.15633663996267019</v>
+        <v>0.14740256881073011</v>
       </c>
       <c r="V8">
-        <v>8.1505823664476423E-2</v>
+        <v>0.37045834150178297</v>
       </c>
       <c r="W8">
-        <v>2.3060224914834931E-2</v>
+        <v>-2.7524887658522689E-2</v>
       </c>
       <c r="X8">
-        <v>-7.7742970949390144E-2</v>
+        <v>-9.5174535307193248E-2</v>
       </c>
       <c r="Y8">
-        <v>6.8377579274922065E-2</v>
+        <v>4.6616835146251277E-2</v>
       </c>
       <c r="Z8">
-        <v>6.1110480466726728E-2</v>
+        <v>1.8249275753378692E-2</v>
       </c>
       <c r="AA8">
-        <v>-0.27793570624498359</v>
+        <v>-5.2360405215018523E-2</v>
       </c>
       <c r="AB8">
-        <v>-4.252764104902889E-2</v>
+        <v>8.990711908168926E-2</v>
       </c>
       <c r="AC8">
-        <v>0.18495324312834349</v>
+        <v>1.1655838017988321E-2</v>
       </c>
       <c r="AD8">
-        <v>5.4261097593951138E-3</v>
+        <v>-0.1541875922123</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>5.3278439423323698E-3</v>
+        <v>-1.3780513293745231E-2</v>
       </c>
       <c r="C9">
-        <v>-5.5957036622363891E-2</v>
+        <v>0.1341988910190591</v>
       </c>
       <c r="D9">
-        <v>-0.1240683217221162</v>
+        <v>-6.545753183858233E-3</v>
       </c>
       <c r="E9">
-        <v>0.13324316411809101</v>
+        <v>1.758351481106844E-2</v>
       </c>
       <c r="F9">
-        <v>6.749129753345906E-2</v>
+        <v>3.2781973116620892E-2</v>
       </c>
       <c r="G9">
-        <v>-1.110522927200638E-2</v>
+        <v>-0.1496233840417947</v>
       </c>
       <c r="H9">
-        <v>-0.1025703582654419</v>
+        <v>-1.098113740820467E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-4.9555287681310171E-2</v>
+        <v>-9.491498467554986E-2</v>
       </c>
       <c r="K9">
-        <v>-5.9481509686605288E-2</v>
+        <v>-8.8448075306022222E-2</v>
       </c>
       <c r="L9">
-        <v>-8.4935552408593143E-2</v>
+        <v>3.3661320177665773E-2</v>
       </c>
       <c r="M9">
-        <v>-4.8705249493857537E-2</v>
+        <v>0.13856788353900509</v>
       </c>
       <c r="N9">
-        <v>1.6729707070558451E-2</v>
+        <v>8.7090598988367254E-3</v>
       </c>
       <c r="O9">
-        <v>3.7340493816157831E-2</v>
+        <v>6.0838416995063128E-2</v>
       </c>
       <c r="P9">
-        <v>-0.15285840431540579</v>
+        <v>-7.9449365167668443E-2</v>
       </c>
       <c r="Q9">
-        <v>-0.23868486256944771</v>
+        <v>7.8744113021635379E-2</v>
       </c>
       <c r="R9">
-        <v>0.13625669163412671</v>
+        <v>0.20631975561559709</v>
       </c>
       <c r="S9">
-        <v>4.0369978843909367E-2</v>
+        <v>-0.14545284735749639</v>
       </c>
       <c r="T9">
-        <v>-9.5184560505526469E-2</v>
+        <v>4.6425306485098933E-2</v>
       </c>
       <c r="U9">
-        <v>4.955333063480253E-2</v>
+        <v>-9.9698919798411209E-2</v>
       </c>
       <c r="V9">
-        <v>3.9142214147888738E-2</v>
+        <v>-0.14385806772025619</v>
       </c>
       <c r="W9">
-        <v>5.9484598238988683E-2</v>
+        <v>7.8857908775097768E-2</v>
       </c>
       <c r="X9">
-        <v>0.2163664193155172</v>
+        <v>2.180660262917173E-2</v>
       </c>
       <c r="Y9">
-        <v>-1.9987906611046188E-3</v>
+        <v>-7.0070773019087193E-2</v>
       </c>
       <c r="Z9">
-        <v>-8.9802496774346333E-2</v>
+        <v>6.4693143391616997E-2</v>
       </c>
       <c r="AA9">
-        <v>1.072743307583247E-2</v>
+        <v>5.5591095059783213E-2</v>
       </c>
       <c r="AB9">
-        <v>-0.15665920734951011</v>
+        <v>-0.26803793224502559</v>
       </c>
       <c r="AC9">
-        <v>-2.0581445074986649E-2</v>
+        <v>-4.1387194992709812E-2</v>
       </c>
       <c r="AD9">
-        <v>-7.568510999958534E-3</v>
+        <v>0.17206546815193721</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>-6.7518211484551326E-3</v>
+        <v>3.9545848175119363E-3</v>
       </c>
       <c r="C10">
-        <v>-6.7007929960326104E-2</v>
+        <v>-5.5448076584786607E-2</v>
       </c>
       <c r="D10">
-        <v>0.20154002084972519</v>
+        <v>-1.544292867805913E-2</v>
       </c>
       <c r="E10">
-        <v>-0.1588929993566435</v>
+        <v>-0.11487278703138221</v>
       </c>
       <c r="F10">
-        <v>8.6773177061237161E-2</v>
+        <v>0.1266320166195965</v>
       </c>
       <c r="G10">
-        <v>9.3599330086227173E-2</v>
+        <v>5.8934730574137652E-2</v>
       </c>
       <c r="H10">
-        <v>-8.8825470271735513E-2</v>
+        <v>-1.383678566064914E-2</v>
       </c>
       <c r="I10">
-        <v>-4.9555287681310171E-2</v>
+        <v>-9.491498467554986E-2</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.38451280535789573</v>
+        <v>-4.6142150200091769E-2</v>
       </c>
       <c r="L10">
-        <v>-1.851781681925864E-2</v>
+        <v>-5.3880418636342763E-2</v>
       </c>
       <c r="M10">
-        <v>0.36703881566092489</v>
+        <v>-8.0436034454467717E-2</v>
       </c>
       <c r="N10">
-        <v>5.3831671611794659E-3</v>
+        <v>-4.2348123573487113E-2</v>
       </c>
       <c r="O10">
-        <v>-0.27193234366474411</v>
+        <v>1.974283415371185E-2</v>
       </c>
       <c r="P10">
-        <v>9.0338578412944334E-2</v>
+        <v>3.282163851284229E-2</v>
       </c>
       <c r="Q10">
-        <v>-2.7928813480680709E-4</v>
+        <v>-0.14171355715510561</v>
       </c>
       <c r="R10">
-        <v>-4.0494576582652778E-2</v>
+        <v>-0.23393340139770161</v>
       </c>
       <c r="S10">
-        <v>-0.1919958065818631</v>
+        <v>0.1239791591694737</v>
       </c>
       <c r="T10">
-        <v>-5.1524591656617838E-2</v>
+        <v>3.4441135458292457E-2</v>
       </c>
       <c r="U10">
-        <v>9.6244598350325325E-2</v>
+        <v>-9.2373270138078695E-2</v>
       </c>
       <c r="V10">
-        <v>-1.492358163074485E-2</v>
+        <v>4.3939936530639462E-2</v>
       </c>
       <c r="W10">
-        <v>-0.17153915092112459</v>
+        <v>3.8196236290184239E-2</v>
       </c>
       <c r="X10">
-        <v>4.6691915148049188E-3</v>
+        <v>5.7376648115419961E-2</v>
       </c>
       <c r="Y10">
-        <v>4.1327314412042029E-2</v>
+        <v>0.20759635027990381</v>
       </c>
       <c r="Z10">
-        <v>0.41862827313991402</v>
+        <v>3.415939983460048E-3</v>
       </c>
       <c r="AA10">
-        <v>3.8073586254585637E-2</v>
+        <v>-8.0738706434907229E-2</v>
       </c>
       <c r="AB10">
-        <v>-2.671046812049865E-2</v>
+        <v>5.3536778827797853E-3</v>
       </c>
       <c r="AC10">
-        <v>-2.8380624446991801E-2</v>
+        <v>-0.14748835209019481</v>
       </c>
       <c r="AD10">
-        <v>-8.6966293403386071E-3</v>
+        <v>-1.299764114289002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>-4.8415070455899208E-3</v>
+        <v>-7.36739062099462E-3</v>
       </c>
       <c r="C11">
-        <v>-2.4125740754413559E-2</v>
+        <v>-6.6671136009710488E-2</v>
       </c>
       <c r="D11">
-        <v>0.22448924933899281</v>
+        <v>-9.3078781500059056E-3</v>
       </c>
       <c r="E11">
-        <v>-0.13590161799974229</v>
+        <v>0.18879349314754651</v>
       </c>
       <c r="F11">
-        <v>-8.3674886817192054E-2</v>
+        <v>-0.14743561982886641</v>
       </c>
       <c r="G11">
-        <v>4.8845810389402361E-2</v>
+        <v>8.3456328495866733E-2</v>
       </c>
       <c r="H11">
-        <v>3.9677487780253533E-2</v>
+        <v>9.0545874418870825E-2</v>
       </c>
       <c r="I11">
-        <v>-5.9481509686605288E-2</v>
+        <v>-8.8448075306022222E-2</v>
       </c>
       <c r="J11">
-        <v>0.38451280535789573</v>
+        <v>-4.6142150200091769E-2</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>5.3426502599198011E-2</v>
+        <v>0.38418088740490902</v>
       </c>
       <c r="M11">
-        <v>0.4110876095477542</v>
+        <v>-2.1979858999103909E-2</v>
       </c>
       <c r="N11">
-        <v>8.1917711642652699E-2</v>
+        <v>0.36431790548151688</v>
       </c>
       <c r="O11">
-        <v>-0.20237855274047431</v>
+        <v>3.9733362760644457E-3</v>
       </c>
       <c r="P11">
-        <v>0.174290094998102</v>
+        <v>-0.27158549692143402</v>
       </c>
       <c r="Q11">
-        <v>1.807801528670424E-2</v>
+        <v>8.418221084052363E-2</v>
       </c>
       <c r="R11">
-        <v>-7.8898934627798067E-2</v>
+        <v>-1.0029614469298899E-3</v>
       </c>
       <c r="S11">
-        <v>-0.16851123940326221</v>
+        <v>-2.679443447487985E-2</v>
       </c>
       <c r="T11">
-        <v>3.9730433690833851E-2</v>
+        <v>-0.1847597959482509</v>
       </c>
       <c r="U11">
-        <v>-6.4329225748121541E-2</v>
+        <v>-5.3321797100514171E-2</v>
       </c>
       <c r="V11">
-        <v>7.4193103377846931E-2</v>
+        <v>9.3525325550013041E-2</v>
       </c>
       <c r="W11">
-        <v>-0.12341979141886281</v>
+        <v>-1.341359268942203E-2</v>
       </c>
       <c r="X11">
-        <v>1.1601060550807341E-2</v>
+        <v>-0.16705523722122309</v>
       </c>
       <c r="Y11">
-        <v>8.432036723016692E-2</v>
+        <v>4.1072554872390093E-3</v>
       </c>
       <c r="Z11">
-        <v>0.41939975600189322</v>
+        <v>3.6849212527514871E-2</v>
       </c>
       <c r="AA11">
-        <v>-1.8012236004081399E-2</v>
+        <v>0.41624075630565011</v>
       </c>
       <c r="AB11">
-        <v>1.4402635806295361E-2</v>
+        <v>3.6671889809479878E-2</v>
       </c>
       <c r="AC11">
-        <v>-1.7249226055090629E-2</v>
+        <v>-2.749130549960262E-2</v>
       </c>
       <c r="AD11">
-        <v>-4.5712824433452219E-3</v>
+        <v>-2.5543330014809299E-2</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>-3.8101154009343762E-3</v>
+        <v>-4.4917081498867407E-3</v>
       </c>
       <c r="C12">
-        <v>5.6714639196880669E-2</v>
+        <v>-2.453764502345035E-2</v>
       </c>
       <c r="D12">
-        <v>0.127729567213234</v>
+        <v>-1.0005009400135391E-2</v>
       </c>
       <c r="E12">
-        <v>-9.4821639260371279E-2</v>
+        <v>0.20852773409855069</v>
       </c>
       <c r="F12">
-        <v>-6.3998267954573945E-2</v>
+        <v>-0.12951531585841319</v>
       </c>
       <c r="G12">
-        <v>-6.4800892227440565E-2</v>
+        <v>-8.1630081136981572E-2</v>
       </c>
       <c r="H12">
-        <v>0.14338090497801079</v>
+        <v>4.8774024551547543E-2</v>
       </c>
       <c r="I12">
-        <v>-8.4935552408593143E-2</v>
+        <v>3.3661320177665773E-2</v>
       </c>
       <c r="J12">
-        <v>-1.851781681925864E-2</v>
+        <v>-5.3880418636342763E-2</v>
       </c>
       <c r="K12">
-        <v>5.3426502599198011E-2</v>
+        <v>0.38418088740490902</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.047199712390748E-2</v>
+        <v>4.9377781855938011E-2</v>
       </c>
       <c r="N12">
-        <v>4.8308548012342897E-2</v>
+        <v>0.4091405569622642</v>
       </c>
       <c r="O12">
-        <v>-4.6251057744196807E-2</v>
+        <v>7.8759871706050255E-2</v>
       </c>
       <c r="P12">
-        <v>0.3389168996468343</v>
+        <v>-0.20096302411326569</v>
       </c>
       <c r="Q12">
-        <v>0.15922808125051291</v>
+        <v>0.1679444364136656</v>
       </c>
       <c r="R12">
-        <v>-0.324243374336253</v>
+        <v>1.539597399132525E-2</v>
       </c>
       <c r="S12">
-        <v>2.3840171321836211E-2</v>
+        <v>-6.5637541918667039E-2</v>
       </c>
       <c r="T12">
-        <v>-6.8031336074508078E-2</v>
+        <v>-0.16110173092692409</v>
       </c>
       <c r="U12">
-        <v>-5.2206271353872978E-2</v>
+        <v>3.5902216643811637E-2</v>
       </c>
       <c r="V12">
-        <v>5.8625241835233842E-2</v>
+        <v>-6.1706835312659761E-2</v>
       </c>
       <c r="W12">
-        <v>3.8973030225623068E-2</v>
+        <v>7.2179605547206691E-2</v>
       </c>
       <c r="X12">
-        <v>-7.3040352300774547E-2</v>
+        <v>-0.1202819829960005</v>
       </c>
       <c r="Y12">
-        <v>5.2578136137342392E-2</v>
+        <v>1.16743115657186E-2</v>
       </c>
       <c r="Z12">
-        <v>9.7628312603988646E-2</v>
+        <v>7.5224459177094041E-2</v>
       </c>
       <c r="AA12">
-        <v>-0.15848012445119289</v>
+        <v>0.41483371562242449</v>
       </c>
       <c r="AB12">
-        <v>4.8979133154731007E-2</v>
+        <v>-1.920617363733023E-2</v>
       </c>
       <c r="AC12">
-        <v>0.14668665684003249</v>
+        <v>1.0626461115835239E-2</v>
       </c>
       <c r="AD12">
-        <v>5.8739259073063111E-3</v>
+        <v>-1.52266184181226E-2</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>-7.8066763201543616E-3</v>
+        <v>-3.6272959647052328E-3</v>
       </c>
       <c r="C13">
-        <v>-2.6219113216796909E-2</v>
+        <v>5.6399402181203921E-2</v>
       </c>
       <c r="D13">
-        <v>0.2335739591475389</v>
+        <v>-2.6950764100921801E-3</v>
       </c>
       <c r="E13">
-        <v>-0.18413775984454581</v>
+        <v>0.1225507335186211</v>
       </c>
       <c r="F13">
-        <v>6.6954120661917804E-2</v>
+        <v>-9.0720048510837856E-2</v>
       </c>
       <c r="G13">
-        <v>0.21836859933998951</v>
+        <v>-6.1568422280968087E-2</v>
       </c>
       <c r="H13">
-        <v>1.0064040301030509E-2</v>
+        <v>-6.6328690843644608E-2</v>
       </c>
       <c r="I13">
-        <v>-4.8705249493857537E-2</v>
+        <v>0.13856788353900509</v>
       </c>
       <c r="J13">
-        <v>0.36703881566092489</v>
+        <v>-8.0436034454467717E-2</v>
       </c>
       <c r="K13">
-        <v>0.4110876095477542</v>
+        <v>-2.1979858999103909E-2</v>
       </c>
       <c r="L13">
-        <v>2.047199712390748E-2</v>
+        <v>4.9377781855938011E-2</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>4.6609495621495488E-2</v>
+        <v>1.6764173340198651E-2</v>
       </c>
       <c r="O13">
-        <v>-0.18292860588769741</v>
+        <v>4.5447433459414842E-2</v>
       </c>
       <c r="P13">
-        <v>0.16682721798653549</v>
+        <v>-4.3900174111058711E-2</v>
       </c>
       <c r="Q13">
-        <v>-3.2341294215647368E-2</v>
+        <v>0.33505808742568111</v>
       </c>
       <c r="R13">
-        <v>-3.789591040141408E-2</v>
+        <v>0.15694003107108309</v>
       </c>
       <c r="S13">
-        <v>-0.1734339124309828</v>
+        <v>-0.31775387000876731</v>
       </c>
       <c r="T13">
-        <v>9.9172566996369865E-2</v>
+        <v>2.5104215217058141E-2</v>
       </c>
       <c r="U13">
-        <v>7.6065736782383903E-2</v>
+        <v>-6.6908445769690197E-2</v>
       </c>
       <c r="V13">
-        <v>3.6244126381982787E-2</v>
+        <v>-4.9454134321630067E-2</v>
       </c>
       <c r="W13">
-        <v>-0.13755422320907651</v>
+        <v>5.7373435248875629E-2</v>
       </c>
       <c r="X13">
-        <v>1.9430648136027559E-2</v>
+        <v>4.0469743673095727E-2</v>
       </c>
       <c r="Y13">
-        <v>6.4900967211776572E-2</v>
+        <v>-6.8937430584425904E-2</v>
       </c>
       <c r="Z13">
-        <v>0.29466193576614857</v>
+        <v>5.0756228511320972E-2</v>
       </c>
       <c r="AA13">
-        <v>4.0402438387882843E-2</v>
+        <v>9.044991471841457E-2</v>
       </c>
       <c r="AB13">
-        <v>2.1139755376094228E-2</v>
+        <v>-0.15254060059603261</v>
       </c>
       <c r="AC13">
-        <v>-8.5539316586107514E-2</v>
+        <v>5.1778569515341412E-2</v>
       </c>
       <c r="AD13">
-        <v>-1.5945845070322338E-2</v>
+        <v>0.14184548526964519</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>-1.9540095106477542E-3</v>
+        <v>-7.6040818835596312E-3</v>
       </c>
       <c r="C14">
-        <v>2.516347794757309E-2</v>
+        <v>-2.7517353901567291E-2</v>
       </c>
       <c r="D14">
-        <v>4.1045063066549627E-2</v>
+        <v>-1.8128036465502529E-2</v>
       </c>
       <c r="E14">
-        <v>-1.823123135068536E-2</v>
+        <v>0.21258820281134719</v>
       </c>
       <c r="F14">
-        <v>-9.1033586266563202E-2</v>
+        <v>-0.1727754541600873</v>
       </c>
       <c r="G14">
-        <v>-1.106716854842715E-2</v>
+        <v>5.8736989094573637E-2</v>
       </c>
       <c r="H14">
-        <v>6.6502539866227811E-2</v>
+        <v>0.21450215388916449</v>
       </c>
       <c r="I14">
-        <v>1.6729707070558451E-2</v>
+        <v>8.7090598988367254E-3</v>
       </c>
       <c r="J14">
-        <v>5.3831671611794659E-3</v>
+        <v>-4.2348123573487113E-2</v>
       </c>
       <c r="K14">
-        <v>8.1917711642652699E-2</v>
+        <v>0.36431790548151688</v>
       </c>
       <c r="L14">
-        <v>4.8308548012342897E-2</v>
+        <v>0.4091405569622642</v>
       </c>
       <c r="M14">
-        <v>4.6609495621495488E-2</v>
+        <v>1.6764173340198651E-2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>-2.9528566417541379E-2</v>
+        <v>4.5588232046041163E-2</v>
       </c>
       <c r="P14">
-        <v>7.5593230314625365E-2</v>
+        <v>-0.1815832521224216</v>
       </c>
       <c r="Q14">
-        <v>-1.9599057216627431E-3</v>
+        <v>0.1631501968050621</v>
       </c>
       <c r="R14">
-        <v>-2.8916014546217051E-2</v>
+        <v>-3.3560181345214338E-2</v>
       </c>
       <c r="S14">
-        <v>4.1383456206040793E-3</v>
+        <v>-3.058529084414836E-2</v>
       </c>
       <c r="T14">
-        <v>2.4718912106571822E-3</v>
+        <v>-0.15886705420590391</v>
       </c>
       <c r="U14">
-        <v>-8.3609571693629647E-2</v>
+        <v>9.3671716148398892E-2</v>
       </c>
       <c r="V14">
-        <v>0.27698908935499089</v>
+        <v>6.8990207825082916E-2</v>
       </c>
       <c r="W14">
-        <v>5.4936229717480606E-3</v>
+        <v>3.3082686296236723E-2</v>
       </c>
       <c r="X14">
-        <v>2.8243527165587201E-2</v>
+        <v>-0.12979812423361439</v>
       </c>
       <c r="Y14">
-        <v>0.31714853461676662</v>
+        <v>2.1104570993879881E-2</v>
       </c>
       <c r="Z14">
-        <v>3.9752305754596047E-2</v>
+        <v>5.7606481201268107E-2</v>
       </c>
       <c r="AA14">
-        <v>-3.988356159728796E-2</v>
+        <v>0.28732400736183511</v>
       </c>
       <c r="AB14">
-        <v>-1.023285931755934E-2</v>
+        <v>3.6736240067152252E-2</v>
       </c>
       <c r="AC14">
-        <v>1.462849170605041E-2</v>
+        <v>1.4967752605748921E-2</v>
       </c>
       <c r="AD14">
-        <v>-4.0394049393096647E-3</v>
+        <v>-7.8883975245999646E-2</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>5.8191225174005646E-3</v>
+        <v>-2.3953345386127532E-3</v>
       </c>
       <c r="C15">
-        <v>-2.006199593661594E-3</v>
+        <v>2.320545832293187E-2</v>
       </c>
       <c r="D15">
-        <v>-0.1093791755856602</v>
+        <v>-1.553266439308279E-3</v>
       </c>
       <c r="E15">
-        <v>6.4880221956941264E-2</v>
+        <v>3.462147288602907E-2</v>
       </c>
       <c r="F15">
-        <v>8.1705205005108104E-3</v>
+        <v>-1.92854326603774E-2</v>
       </c>
       <c r="G15">
-        <v>-6.1446475280486933E-2</v>
+        <v>-8.4308092418933944E-2</v>
       </c>
       <c r="H15">
-        <v>-8.3298100504246061E-2</v>
+        <v>-7.6489354308668534E-3</v>
       </c>
       <c r="I15">
-        <v>3.7340493816157831E-2</v>
+        <v>6.0838416995063128E-2</v>
       </c>
       <c r="J15">
-        <v>-0.27193234366474411</v>
+        <v>1.974283415371185E-2</v>
       </c>
       <c r="K15">
-        <v>-0.20237855274047431</v>
+        <v>3.9733362760644457E-3</v>
       </c>
       <c r="L15">
-        <v>-4.6251057744196807E-2</v>
+        <v>7.8759871706050255E-2</v>
       </c>
       <c r="M15">
-        <v>-0.18292860588769741</v>
+        <v>4.5447433459414842E-2</v>
       </c>
       <c r="N15">
-        <v>-2.9528566417541379E-2</v>
+        <v>4.5588232046041163E-2</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>-6.6785040734088919E-2</v>
+        <v>-2.6364108246028251E-2</v>
       </c>
       <c r="Q15">
-        <v>-4.71293049239924E-2</v>
+        <v>7.2267773654757617E-2</v>
       </c>
       <c r="R15">
-        <v>7.5241898484822781E-2</v>
+        <v>-4.5579020682800491E-3</v>
       </c>
       <c r="S15">
-        <v>6.6280403118391548E-2</v>
+        <v>-2.3265843249896931E-2</v>
       </c>
       <c r="T15">
-        <v>2.1979733655357821E-2</v>
+        <v>-3.9416942842675296E-3</v>
       </c>
       <c r="U15">
-        <v>-1.20577283038844E-2</v>
+        <v>4.5580654805072422E-4</v>
       </c>
       <c r="V15">
-        <v>-5.0073673497424552E-2</v>
+        <v>-7.8488122131509297E-2</v>
       </c>
       <c r="W15">
-        <v>-1.4866754049820529E-3</v>
+        <v>0.27438865553623681</v>
       </c>
       <c r="X15">
-        <v>2.3873927252606009E-2</v>
+        <v>3.1192253584841289E-3</v>
       </c>
       <c r="Y15">
-        <v>-2.634277216924626E-2</v>
+        <v>3.0574740834050731E-2</v>
       </c>
       <c r="Z15">
-        <v>-0.27333455420538671</v>
+        <v>0.3211009999428216</v>
       </c>
       <c r="AA15">
-        <v>5.7458020779972523E-2</v>
+        <v>3.8862276130018102E-2</v>
       </c>
       <c r="AB15">
-        <v>6.3781764454302035E-4</v>
+        <v>-3.60520389877131E-2</v>
       </c>
       <c r="AC15">
-        <v>-4.0607496427685477E-2</v>
+        <v>-9.7666698044742047E-3</v>
       </c>
       <c r="AD15">
-        <v>-4.2340089579056446E-3</v>
+        <v>1.2778207651370671E-2</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>-8.4408698399748364E-3</v>
+        <v>5.7252724018054804E-3</v>
       </c>
       <c r="C16">
-        <v>4.4076459867710173E-2</v>
+        <v>-1.2440841381334219E-3</v>
       </c>
       <c r="D16">
-        <v>0.21348372743469229</v>
+        <v>-1.093052563486587E-2</v>
       </c>
       <c r="E16">
-        <v>-0.16103122670275261</v>
+        <v>-0.1031031906149201</v>
       </c>
       <c r="F16">
-        <v>-6.1328150585855903E-2</v>
+        <v>6.229084761763827E-2</v>
       </c>
       <c r="G16">
-        <v>5.7452047728093272E-2</v>
+        <v>9.2212408169567127E-3</v>
       </c>
       <c r="H16">
-        <v>8.2743654492289431E-2</v>
+        <v>-6.0842196744374938E-2</v>
       </c>
       <c r="I16">
-        <v>-0.15285840431540579</v>
+        <v>-7.9449365167668443E-2</v>
       </c>
       <c r="J16">
-        <v>9.0338578412944334E-2</v>
+        <v>3.282163851284229E-2</v>
       </c>
       <c r="K16">
-        <v>0.174290094998102</v>
+        <v>-0.27158549692143402</v>
       </c>
       <c r="L16">
-        <v>0.3389168996468343</v>
+        <v>-0.20096302411326569</v>
       </c>
       <c r="M16">
-        <v>0.16682721798653549</v>
+        <v>-4.3900174111058711E-2</v>
       </c>
       <c r="N16">
-        <v>7.5593230314625365E-2</v>
+        <v>-0.1815832521224216</v>
       </c>
       <c r="O16">
-        <v>-6.6785040734088919E-2</v>
+        <v>-2.6364108246028251E-2</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.12066557576281139</v>
+        <v>-6.1479361504484048E-2</v>
       </c>
       <c r="R16">
-        <v>-0.26613411576519042</v>
+        <v>-4.6059906790094647E-2</v>
       </c>
       <c r="S16">
-        <v>-4.7652875736835118E-2</v>
+        <v>6.612774423023178E-2</v>
       </c>
       <c r="T16">
-        <v>7.4233663677665956E-2</v>
+        <v>6.6749121454883861E-2</v>
       </c>
       <c r="U16">
-        <v>-5.4657118345925543E-2</v>
+        <v>2.275811679441863E-2</v>
       </c>
       <c r="V16">
-        <v>4.578199743103132E-2</v>
+        <v>-1.0724598469343909E-2</v>
       </c>
       <c r="W16">
-        <v>2.4832635575145058E-3</v>
+        <v>-4.852784447612337E-2</v>
       </c>
       <c r="X16">
-        <v>-5.7203845523940387E-2</v>
+        <v>-2.7354488793700591E-3</v>
       </c>
       <c r="Y16">
-        <v>7.5051070358091262E-2</v>
+        <v>2.3458167792466789E-2</v>
       </c>
       <c r="Z16">
-        <v>0.19676768084987711</v>
+        <v>-2.416824218371507E-2</v>
       </c>
       <c r="AA16">
-        <v>-2.5320829559138749E-2</v>
+        <v>-0.2723536851446578</v>
       </c>
       <c r="AB16">
-        <v>0.100842758956742</v>
+        <v>5.6744366890256533E-2</v>
       </c>
       <c r="AC16">
-        <v>-5.9128179153738244E-3</v>
+        <v>1.914621890336661E-3</v>
       </c>
       <c r="AD16">
-        <v>1.2720513568850269E-3</v>
+        <v>-4.0448619280832383E-2</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>-1.5824954872275039E-2</v>
+        <v>-8.9365652853722003E-3</v>
       </c>
       <c r="C17">
-        <v>0.118973569968957</v>
+        <v>4.4327600942383472E-2</v>
       </c>
       <c r="D17">
-        <v>0.1232799394662013</v>
+        <v>-1.354557805280498E-2</v>
       </c>
       <c r="E17">
-        <v>-6.4719082310363316E-2</v>
+        <v>0.19421421909071859</v>
       </c>
       <c r="F17">
-        <v>-0.14248483953216501</v>
+        <v>-0.1493888446263236</v>
       </c>
       <c r="G17">
-        <v>-0.1017707294568496</v>
+        <v>-5.8171037375904018E-2</v>
       </c>
       <c r="H17">
-        <v>0.2116712719142603</v>
+        <v>5.7974570248246891E-2</v>
       </c>
       <c r="I17">
-        <v>-0.23868486256944771</v>
+        <v>7.8744113021635379E-2</v>
       </c>
       <c r="J17">
-        <v>-2.7928813480680709E-4</v>
+        <v>-0.14171355715510561</v>
       </c>
       <c r="K17">
-        <v>1.807801528670424E-2</v>
+        <v>8.418221084052363E-2</v>
       </c>
       <c r="L17">
-        <v>0.15922808125051291</v>
+        <v>0.1679444364136656</v>
       </c>
       <c r="M17">
-        <v>-3.2341294215647368E-2</v>
+        <v>0.33505808742568111</v>
       </c>
       <c r="N17">
-        <v>-1.9599057216627431E-3</v>
+        <v>0.1631501968050621</v>
       </c>
       <c r="O17">
-        <v>-4.71293049239924E-2</v>
+        <v>7.2267773654757617E-2</v>
       </c>
       <c r="P17">
-        <v>0.12066557576281139</v>
+        <v>-6.1479361504484048E-2</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>-0.18855159001377991</v>
+        <v>0.116782468161299</v>
       </c>
       <c r="S17">
-        <v>4.9222118310631377E-2</v>
+        <v>-0.24545580852674739</v>
       </c>
       <c r="T17">
-        <v>-0.14961102970527709</v>
+        <v>-3.9484492919335867E-2</v>
       </c>
       <c r="U17">
-        <v>-0.103698342794782</v>
+        <v>7.3172645061626684E-2</v>
       </c>
       <c r="V17">
-        <v>1.1587331988584719E-3</v>
+        <v>-5.280300604295321E-2</v>
       </c>
       <c r="W17">
-        <v>3.7671084328243343E-2</v>
+        <v>4.4014246701369122E-2</v>
       </c>
       <c r="X17">
-        <v>-0.1315965272369784</v>
+        <v>8.4925613665584772E-3</v>
       </c>
       <c r="Y17">
-        <v>1.1882649177833251E-3</v>
+        <v>-4.8594926423102189E-2</v>
       </c>
       <c r="Z17">
-        <v>9.7360585524799509E-2</v>
+        <v>6.8399709549363016E-2</v>
       </c>
       <c r="AA17">
-        <v>-0.17993484389482101</v>
+        <v>0.18643373602776681</v>
       </c>
       <c r="AB17">
-        <v>1.928345916355061E-2</v>
+        <v>-1.970444172840332E-2</v>
       </c>
       <c r="AC17">
-        <v>0.27742377646599842</v>
+        <v>9.6306904189423198E-2</v>
       </c>
       <c r="AD17">
-        <v>4.2193006383063917E-3</v>
+        <v>-8.7688932739201243E-3</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>2.415649425689221E-3</v>
+        <v>-1.5630009416878209E-2</v>
       </c>
       <c r="C18">
-        <v>-4.2218014638485617E-2</v>
+        <v>0.1182964987308035</v>
       </c>
       <c r="D18">
-        <v>-0.22116267708491191</v>
+        <v>2.998252498279062E-3</v>
       </c>
       <c r="E18">
-        <v>0.21372946679453941</v>
+        <v>0.1210242838366339</v>
       </c>
       <c r="F18">
-        <v>5.3635102072637601E-2</v>
+        <v>-6.1922588352781499E-2</v>
       </c>
       <c r="G18">
-        <v>8.5479592740025645E-2</v>
+        <v>-0.1345177433702005</v>
       </c>
       <c r="H18">
-        <v>-0.16028287423658041</v>
+        <v>-0.1001856983163137</v>
       </c>
       <c r="I18">
-        <v>0.13625669163412671</v>
+        <v>0.20631975561559709</v>
       </c>
       <c r="J18">
-        <v>-4.0494576582652778E-2</v>
+        <v>-0.23393340139770161</v>
       </c>
       <c r="K18">
-        <v>-7.8898934627798067E-2</v>
+        <v>-1.0029614469298899E-3</v>
       </c>
       <c r="L18">
-        <v>-0.324243374336253</v>
+        <v>1.539597399132525E-2</v>
       </c>
       <c r="M18">
-        <v>-3.789591040141408E-2</v>
+        <v>0.15694003107108309</v>
       </c>
       <c r="N18">
-        <v>-2.8916014546217051E-2</v>
+        <v>-3.3560181345214338E-2</v>
       </c>
       <c r="O18">
-        <v>7.5241898484822781E-2</v>
+        <v>-4.5579020682800491E-3</v>
       </c>
       <c r="P18">
-        <v>-0.26613411576519042</v>
+        <v>-4.6059906790094647E-2</v>
       </c>
       <c r="Q18">
-        <v>-0.18855159001377991</v>
+        <v>0.116782468161299</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>2.956655358049631E-2</v>
+        <v>-0.17937456622993181</v>
       </c>
       <c r="T18">
-        <v>0.1312233563446126</v>
+        <v>4.9252499146167368E-2</v>
       </c>
       <c r="U18">
-        <v>3.637625638365085E-2</v>
+        <v>-0.14842992405398939</v>
       </c>
       <c r="V18">
-        <v>-4.5232040881409488E-2</v>
+        <v>-9.9601608024128499E-2</v>
       </c>
       <c r="W18">
-        <v>2.9851383728212139E-2</v>
+        <v>6.3133027357314899E-4</v>
       </c>
       <c r="X18">
-        <v>7.4240549174401191E-2</v>
+        <v>3.8023967126500489E-2</v>
       </c>
       <c r="Y18">
-        <v>-2.4421886411421879E-2</v>
+        <v>-0.1270807984343032</v>
       </c>
       <c r="Z18">
-        <v>-0.13645833032187271</v>
+        <v>-3.380366071031348E-3</v>
       </c>
       <c r="AA18">
-        <v>0.1970722535658273</v>
+        <v>9.262958946817712E-2</v>
       </c>
       <c r="AB18">
-        <v>-1.7232098239151769E-2</v>
+        <v>-0.17404387809145599</v>
       </c>
       <c r="AC18">
-        <v>-0.1640239568781148</v>
+        <v>2.0054806968380169E-2</v>
       </c>
       <c r="AD18">
-        <v>4.2149177366283966E-3</v>
+        <v>0.26922774576175079</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>-9.8078239328105781E-4</v>
+        <v>2.8941020204352281E-3</v>
       </c>
       <c r="C19">
-        <v>7.0343257365374459E-2</v>
+        <v>-4.2500330212004632E-2</v>
       </c>
       <c r="D19">
-        <v>-0.1342813671830736</v>
+        <v>-8.3338424937734502E-3</v>
       </c>
       <c r="E19">
-        <v>0.2404141307388282</v>
+        <v>-0.18536700676155929</v>
       </c>
       <c r="F19">
-        <v>-0.1108649630770487</v>
+        <v>0.191364251520248</v>
       </c>
       <c r="G19">
-        <v>-0.13967158661693149</v>
+        <v>5.2317622991559148E-2</v>
       </c>
       <c r="H19">
-        <v>4.6868977937993231E-2</v>
+        <v>8.7949701177869016E-2</v>
       </c>
       <c r="I19">
-        <v>4.0369978843909367E-2</v>
+        <v>-0.14545284735749639</v>
       </c>
       <c r="J19">
-        <v>-0.1919958065818631</v>
+        <v>0.1239791591694737</v>
       </c>
       <c r="K19">
-        <v>-0.16851123940326221</v>
+        <v>-2.679443447487985E-2</v>
       </c>
       <c r="L19">
-        <v>2.3840171321836211E-2</v>
+        <v>-6.5637541918667039E-2</v>
       </c>
       <c r="M19">
-        <v>-0.1734339124309828</v>
+        <v>-0.31775387000876731</v>
       </c>
       <c r="N19">
-        <v>4.1383456206040793E-3</v>
+        <v>-3.058529084414836E-2</v>
       </c>
       <c r="O19">
-        <v>6.6280403118391548E-2</v>
+        <v>-2.3265843249896931E-2</v>
       </c>
       <c r="P19">
-        <v>-4.7652875736835118E-2</v>
+        <v>6.612774423023178E-2</v>
       </c>
       <c r="Q19">
-        <v>4.9222118310631377E-2</v>
+        <v>-0.24545580852674739</v>
       </c>
       <c r="R19">
-        <v>2.956655358049631E-2</v>
+        <v>-0.17937456622993181</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>-0.1162433577448628</v>
+        <v>2.1806306470695602E-2</v>
       </c>
       <c r="U19">
-        <v>-0.11009625864656911</v>
+        <v>0.12212278465814901</v>
       </c>
       <c r="V19">
-        <v>7.2220147009288659E-3</v>
+        <v>3.217063479202481E-2</v>
       </c>
       <c r="W19">
-        <v>0.38062545186028762</v>
+        <v>-4.1892280772454493E-2</v>
       </c>
       <c r="X19">
-        <v>-4.3026141113010119E-2</v>
+        <v>2.501049789493566E-2</v>
       </c>
       <c r="Y19">
-        <v>-3.8993818075712443E-2</v>
+        <v>7.0657223422462487E-2</v>
       </c>
       <c r="Z19">
-        <v>-0.190701823841399</v>
+        <v>-1.9174540828426841E-2</v>
       </c>
       <c r="AA19">
-        <v>-7.5095901364473111E-2</v>
+        <v>-0.1137764591834499</v>
       </c>
       <c r="AB19">
-        <v>-4.1558752204095821E-2</v>
+        <v>0.17808466455629779</v>
       </c>
       <c r="AC19">
-        <v>0.1281674556597141</v>
+        <v>-2.1458656674085759E-2</v>
       </c>
       <c r="AD19">
-        <v>5.8551447670808811E-3</v>
+        <v>-0.1540132606048295</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>3.9111572328758334E-3</v>
+        <v>-8.5538396710585377E-4</v>
       </c>
       <c r="C20">
-        <v>-3.7941086793873719E-3</v>
+        <v>6.970073553262629E-2</v>
       </c>
       <c r="D20">
-        <v>3.189711144304417E-2</v>
+        <v>1.2886157922722191E-3</v>
       </c>
       <c r="E20">
-        <v>-8.6993275818948335E-2</v>
+        <v>-0.12743251480901291</v>
       </c>
       <c r="F20">
-        <v>-5.6572143390247933E-3</v>
+        <v>0.2243660297260345</v>
       </c>
       <c r="G20">
-        <v>0.14744249342691829</v>
+        <v>-0.1020464820703378</v>
       </c>
       <c r="H20">
-        <v>-0.10275931341809549</v>
+        <v>-0.13536384958842079</v>
       </c>
       <c r="I20">
-        <v>-9.5184560505526469E-2</v>
+        <v>4.6425306485098933E-2</v>
       </c>
       <c r="J20">
-        <v>-5.1524591656617838E-2</v>
+        <v>3.4441135458292457E-2</v>
       </c>
       <c r="K20">
-        <v>3.9730433690833851E-2</v>
+        <v>-0.1847597959482509</v>
       </c>
       <c r="L20">
-        <v>-6.8031336074508078E-2</v>
+        <v>-0.16110173092692409</v>
       </c>
       <c r="M20">
-        <v>9.9172566996369865E-2</v>
+        <v>2.5104215217058141E-2</v>
       </c>
       <c r="N20">
-        <v>2.4718912106571822E-3</v>
+        <v>-0.15886705420590391</v>
       </c>
       <c r="O20">
-        <v>2.1979733655357821E-2</v>
+        <v>-3.9416942842675296E-3</v>
       </c>
       <c r="P20">
-        <v>7.4233663677665956E-2</v>
+        <v>6.6749121454883861E-2</v>
       </c>
       <c r="Q20">
-        <v>-0.14961102970527709</v>
+        <v>-3.9484492919335867E-2</v>
       </c>
       <c r="R20">
-        <v>0.1312233563446126</v>
+        <v>4.9252499146167368E-2</v>
       </c>
       <c r="S20">
-        <v>-0.1162433577448628</v>
+        <v>2.1806306470695602E-2</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>-6.2224827903629388E-3</v>
+        <v>-0.1090063264409003</v>
       </c>
       <c r="V20">
-        <v>-1.596469403155534E-2</v>
+        <v>-9.9615925183492771E-2</v>
       </c>
       <c r="W20">
-        <v>-0.1145480770662133</v>
+        <v>4.0702261797213749E-4</v>
       </c>
       <c r="X20">
-        <v>4.166142694064974E-2</v>
+        <v>0.3765676755771078</v>
       </c>
       <c r="Y20">
-        <v>-7.9102295732843188E-3</v>
+        <v>-4.0242047126953111E-2</v>
       </c>
       <c r="Z20">
-        <v>-4.0087357337898512E-2</v>
+        <v>-3.2791796287261588E-2</v>
       </c>
       <c r="AA20">
-        <v>0.26497651406238149</v>
+        <v>-0.17538741250091419</v>
       </c>
       <c r="AB20">
-        <v>0.39917558762044347</v>
+        <v>-6.5789864191195105E-2</v>
       </c>
       <c r="AC20">
-        <v>-0.27526135525206541</v>
+        <v>-3.3126294628390507E-2</v>
       </c>
       <c r="AD20">
-        <v>-3.1914641642186322E-4</v>
+        <v>0.1117638632444812</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>5.9670405281967679E-4</v>
+        <v>4.0525822781531636E-3</v>
       </c>
       <c r="C21">
-        <v>-4.5786480215259058E-2</v>
+        <v>-2.3655631797528821E-3</v>
       </c>
       <c r="D21">
-        <v>5.370476839399517E-2</v>
+        <v>6.371811060045785E-3</v>
       </c>
       <c r="E21">
-        <v>-0.16473995066539041</v>
+        <v>3.004834167376997E-2</v>
       </c>
       <c r="F21">
-        <v>0.51633899160326902</v>
+        <v>-8.4063220184212764E-2</v>
       </c>
       <c r="G21">
-        <v>0.37696933847880332</v>
+        <v>-3.8808260996119151E-3</v>
       </c>
       <c r="H21">
-        <v>-0.15633663996267019</v>
+        <v>0.14740256881073011</v>
       </c>
       <c r="I21">
-        <v>4.955333063480253E-2</v>
+        <v>-9.9698919798411209E-2</v>
       </c>
       <c r="J21">
-        <v>9.6244598350325325E-2</v>
+        <v>-9.2373270138078695E-2</v>
       </c>
       <c r="K21">
-        <v>-6.4329225748121541E-2</v>
+        <v>-5.3321797100514171E-2</v>
       </c>
       <c r="L21">
-        <v>-5.2206271353872978E-2</v>
+        <v>3.5902216643811637E-2</v>
       </c>
       <c r="M21">
-        <v>7.6065736782383903E-2</v>
+        <v>-6.6908445769690197E-2</v>
       </c>
       <c r="N21">
-        <v>-8.3609571693629647E-2</v>
+        <v>9.3671716148398892E-2</v>
       </c>
       <c r="O21">
-        <v>-1.20577283038844E-2</v>
+        <v>4.5580654805072422E-4</v>
       </c>
       <c r="P21">
-        <v>-5.4657118345925543E-2</v>
+        <v>2.275811679441863E-2</v>
       </c>
       <c r="Q21">
-        <v>-0.103698342794782</v>
+        <v>7.3172645061626684E-2</v>
       </c>
       <c r="R21">
-        <v>3.637625638365085E-2</v>
+        <v>-0.14842992405398939</v>
       </c>
       <c r="S21">
-        <v>-0.11009625864656911</v>
+        <v>0.12212278465814901</v>
       </c>
       <c r="T21">
-        <v>-6.2224827903629388E-3</v>
+        <v>-0.1090063264409003</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>-9.4906855293869302E-2</v>
+        <v>-8.4238932090553841E-3</v>
       </c>
       <c r="W21">
-        <v>-8.9933150449372945E-2</v>
+        <v>-1.5211404115074019E-2</v>
       </c>
       <c r="X21">
-        <v>5.1373003566907292E-2</v>
+        <v>-0.11186976132220471</v>
       </c>
       <c r="Y21">
-        <v>-4.5722441151799492E-2</v>
+        <v>3.9627828195639002E-2</v>
       </c>
       <c r="Z21">
-        <v>-9.7353675177309848E-2</v>
+        <v>-9.6234292576660128E-3</v>
       </c>
       <c r="AA21">
-        <v>0.10543957559292649</v>
+        <v>-4.4323771206698781E-2</v>
       </c>
       <c r="AB21">
-        <v>-1.4115378349411071E-2</v>
+        <v>0.25356730203312039</v>
       </c>
       <c r="AC21">
-        <v>-0.119148661185463</v>
+        <v>0.38272417330665071</v>
       </c>
       <c r="AD21">
-        <v>-1.15073652370464E-2</v>
+        <v>-0.26262909571983822</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>9.4973266238804407E-3</v>
+        <v>1.5681932251355589E-3</v>
       </c>
       <c r="C22">
-        <v>2.7811254979521222E-2</v>
+        <v>-4.4297212707705723E-2</v>
       </c>
       <c r="D22">
-        <v>3.6639484747601543E-2</v>
+        <v>-1.3965185112855921E-2</v>
       </c>
       <c r="E22">
-        <v>-9.9270454684014416E-3</v>
+        <v>4.7995637917764768E-2</v>
       </c>
       <c r="F22">
-        <v>-0.1089322791113146</v>
+        <v>-0.1571966344248957</v>
       </c>
       <c r="G22">
-        <v>-3.1785114209703411E-2</v>
+        <v>0.49503077347355318</v>
       </c>
       <c r="H22">
-        <v>8.1505823664476423E-2</v>
+        <v>0.37045834150178297</v>
       </c>
       <c r="I22">
-        <v>3.9142214147888738E-2</v>
+        <v>-0.14385806772025619</v>
       </c>
       <c r="J22">
-        <v>-1.492358163074485E-2</v>
+        <v>4.3939936530639462E-2</v>
       </c>
       <c r="K22">
-        <v>7.4193103377846931E-2</v>
+        <v>9.3525325550013041E-2</v>
       </c>
       <c r="L22">
-        <v>5.8625241835233842E-2</v>
+        <v>-6.1706835312659761E-2</v>
       </c>
       <c r="M22">
-        <v>3.6244126381982787E-2</v>
+        <v>-4.9454134321630067E-2</v>
       </c>
       <c r="N22">
-        <v>0.27698908935499089</v>
+        <v>6.8990207825082916E-2</v>
       </c>
       <c r="O22">
-        <v>-5.0073673497424552E-2</v>
+        <v>-7.8488122131509297E-2</v>
       </c>
       <c r="P22">
-        <v>4.578199743103132E-2</v>
+        <v>-1.0724598469343909E-2</v>
       </c>
       <c r="Q22">
-        <v>1.1587331988584719E-3</v>
+        <v>-5.280300604295321E-2</v>
       </c>
       <c r="R22">
-        <v>-4.5232040881409488E-2</v>
+        <v>-9.9601608024128499E-2</v>
       </c>
       <c r="S22">
-        <v>7.2220147009288659E-3</v>
+        <v>3.217063479202481E-2</v>
       </c>
       <c r="T22">
-        <v>-1.596469403155534E-2</v>
+        <v>-9.9615925183492771E-2</v>
       </c>
       <c r="U22">
-        <v>-9.4906855293869302E-2</v>
+        <v>-8.4238932090553841E-3</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>8.6725484609936152E-3</v>
+        <v>-8.8659600668535107E-2</v>
       </c>
       <c r="X22">
-        <v>2.5071391539475081E-2</v>
+        <v>-8.7793318932232939E-2</v>
       </c>
       <c r="Y22">
-        <v>0.19484799590176391</v>
+        <v>4.8733307540452797E-2</v>
       </c>
       <c r="Z22">
-        <v>6.5745725250988138E-2</v>
+        <v>-4.1664935408230692E-2</v>
       </c>
       <c r="AA22">
-        <v>-6.5017553823514637E-2</v>
+        <v>-9.546739326221089E-2</v>
       </c>
       <c r="AB22">
-        <v>-3.0422914026749921E-2</v>
+        <v>9.7152469549731807E-2</v>
       </c>
       <c r="AC22">
-        <v>3.3579454722379679E-2</v>
+        <v>-1.180449912908571E-2</v>
       </c>
       <c r="AD22">
-        <v>-1.035051011862847E-2</v>
+        <v>-0.1050714855629996</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>2.9414325853872069E-3</v>
+        <v>9.094235058689679E-3</v>
       </c>
       <c r="C23">
-        <v>4.4819436912410068E-2</v>
+        <v>2.6027544704194262E-2</v>
       </c>
       <c r="D23">
-        <v>-0.108249922874552</v>
+        <v>-2.9366790259264149E-3</v>
       </c>
       <c r="E23">
-        <v>0.18574022663908341</v>
+        <v>3.4065088240700821E-2</v>
       </c>
       <c r="F23">
-        <v>-9.9015209573411131E-2</v>
+        <v>-1.3409826908462791E-2</v>
       </c>
       <c r="G23">
-        <v>-9.6647023639803251E-2</v>
+        <v>-0.102361367216654</v>
       </c>
       <c r="H23">
-        <v>2.3060224914834931E-2</v>
+        <v>-2.7524887658522689E-2</v>
       </c>
       <c r="I23">
-        <v>5.9484598238988683E-2</v>
+        <v>7.8857908775097768E-2</v>
       </c>
       <c r="J23">
-        <v>-0.17153915092112459</v>
+        <v>3.8196236290184239E-2</v>
       </c>
       <c r="K23">
-        <v>-0.12341979141886281</v>
+        <v>-1.341359268942203E-2</v>
       </c>
       <c r="L23">
-        <v>3.8973030225623068E-2</v>
+        <v>7.2179605547206691E-2</v>
       </c>
       <c r="M23">
-        <v>-0.13755422320907651</v>
+        <v>5.7373435248875629E-2</v>
       </c>
       <c r="N23">
-        <v>5.4936229717480606E-3</v>
+        <v>3.3082686296236723E-2</v>
       </c>
       <c r="O23">
-        <v>-1.4866754049820529E-3</v>
+        <v>0.27438865553623681</v>
       </c>
       <c r="P23">
-        <v>2.4832635575145058E-3</v>
+        <v>-4.852784447612337E-2</v>
       </c>
       <c r="Q23">
-        <v>3.7671084328243343E-2</v>
+        <v>4.4014246701369122E-2</v>
       </c>
       <c r="R23">
-        <v>2.9851383728212139E-2</v>
+        <v>6.3133027357314899E-4</v>
       </c>
       <c r="S23">
-        <v>0.38062545186028762</v>
+        <v>-4.1892280772454493E-2</v>
       </c>
       <c r="T23">
-        <v>-0.1145480770662133</v>
+        <v>4.0702261797213749E-4</v>
       </c>
       <c r="U23">
-        <v>-8.9933150449372945E-2</v>
+        <v>-1.5211404115074019E-2</v>
       </c>
       <c r="V23">
-        <v>8.6725484609936152E-3</v>
+        <v>-8.8659600668535107E-2</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>-3.4397434603970427E-2</v>
+        <v>4.4185520431556709E-3</v>
       </c>
       <c r="Y23">
-        <v>-3.9925610529435523E-2</v>
+        <v>2.379600707250909E-2</v>
       </c>
       <c r="Z23">
-        <v>-0.12391943964503969</v>
+        <v>0.19430513124523391</v>
       </c>
       <c r="AA23">
-        <v>-6.4251969388895117E-2</v>
+        <v>6.5460146359294702E-2</v>
       </c>
       <c r="AB23">
-        <v>-4.1774862286212987E-2</v>
+        <v>-5.8386301068321142E-2</v>
       </c>
       <c r="AC23">
-        <v>0.1138778076145074</v>
+        <v>-2.871240890359875E-2</v>
       </c>
       <c r="AD23">
-        <v>-3.5359879990106858E-3</v>
+        <v>3.0758445300150879E-2</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>5.0039109714455189E-3</v>
+        <v>3.144793836341803E-3</v>
       </c>
       <c r="C24">
-        <v>-3.5860522574293903E-2</v>
+        <v>4.4929856963209933E-2</v>
       </c>
       <c r="D24">
-        <v>-6.4552202616111554E-2</v>
+        <v>-4.6668173012120806E-3</v>
       </c>
       <c r="E24">
-        <v>1.0482130814969581E-2</v>
+        <v>-0.1067272793663452</v>
       </c>
       <c r="F24">
-        <v>7.3586700421981399E-2</v>
+        <v>0.1791387824432312</v>
       </c>
       <c r="G24">
-        <v>4.8111966991307119E-2</v>
+        <v>-9.7139869536196327E-2</v>
       </c>
       <c r="H24">
-        <v>-7.7742970949390144E-2</v>
+        <v>-9.5174535307193248E-2</v>
       </c>
       <c r="I24">
-        <v>0.2163664193155172</v>
+        <v>2.180660262917173E-2</v>
       </c>
       <c r="J24">
-        <v>4.6691915148049188E-3</v>
+        <v>5.7376648115419961E-2</v>
       </c>
       <c r="K24">
-        <v>1.1601060550807341E-2</v>
+        <v>-0.16705523722122309</v>
       </c>
       <c r="L24">
-        <v>-7.3040352300774547E-2</v>
+        <v>-0.1202819829960005</v>
       </c>
       <c r="M24">
-        <v>1.9430648136027559E-2</v>
+        <v>4.0469743673095727E-2</v>
       </c>
       <c r="N24">
-        <v>2.8243527165587201E-2</v>
+        <v>-0.12979812423361439</v>
       </c>
       <c r="O24">
-        <v>2.3873927252606009E-2</v>
+        <v>3.1192253584841289E-3</v>
       </c>
       <c r="P24">
-        <v>-5.7203845523940387E-2</v>
+        <v>-2.7354488793700591E-3</v>
       </c>
       <c r="Q24">
-        <v>-0.1315965272369784</v>
+        <v>8.4925613665584772E-3</v>
       </c>
       <c r="R24">
-        <v>7.4240549174401191E-2</v>
+        <v>3.8023967126500489E-2</v>
       </c>
       <c r="S24">
-        <v>-4.3026141113010119E-2</v>
+        <v>2.501049789493566E-2</v>
       </c>
       <c r="T24">
-        <v>4.166142694064974E-2</v>
+        <v>0.3765676755771078</v>
       </c>
       <c r="U24">
-        <v>5.1373003566907292E-2</v>
+        <v>-0.11186976132220471</v>
       </c>
       <c r="V24">
-        <v>2.5071391539475081E-2</v>
+        <v>-8.7793318932232939E-2</v>
       </c>
       <c r="W24">
-        <v>-3.4397434603970427E-2</v>
+        <v>4.4185520431556709E-3</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>1.772476306817743E-2</v>
+        <v>-3.4139636279764927E-2</v>
       </c>
       <c r="Z24">
-        <v>-3.6732569704928393E-2</v>
+        <v>-3.8027296297844362E-2</v>
       </c>
       <c r="AA24">
-        <v>9.5926452064851064E-2</v>
+        <v>-0.1175929698162798</v>
       </c>
       <c r="AB24">
-        <v>-1.631311760248445E-2</v>
+        <v>-5.8813501325139107E-2</v>
       </c>
       <c r="AC24">
-        <v>-0.12789183152373229</v>
+        <v>-4.0164913505734472E-2</v>
       </c>
       <c r="AD24">
-        <v>-4.8648059401357798E-3</v>
+        <v>0.10697807640660729</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>8.0104302984189434E-4</v>
+        <v>5.1550387806782658E-3</v>
       </c>
       <c r="C25">
-        <v>1.2520016349723301E-2</v>
+        <v>-3.5310592849809648E-2</v>
       </c>
       <c r="D25">
-        <v>8.380594414087883E-2</v>
+        <v>-7.9566396619113328E-3</v>
       </c>
       <c r="E25">
-        <v>-6.123995584416253E-2</v>
+        <v>-6.0986776102747282E-2</v>
       </c>
       <c r="F25">
-        <v>-4.7882223865839048E-2</v>
+        <v>8.8426104747472735E-3</v>
       </c>
       <c r="G25">
-        <v>1.6881052262240581E-2</v>
+        <v>6.8822383951634161E-2</v>
       </c>
       <c r="H25">
-        <v>6.8377579274922065E-2</v>
+        <v>4.6616835146251277E-2</v>
       </c>
       <c r="I25">
-        <v>-1.9987906611046188E-3</v>
+        <v>-7.0070773019087193E-2</v>
       </c>
       <c r="J25">
-        <v>4.1327314412042029E-2</v>
+        <v>0.20759635027990381</v>
       </c>
       <c r="K25">
-        <v>8.432036723016692E-2</v>
+        <v>4.1072554872390093E-3</v>
       </c>
       <c r="L25">
-        <v>5.2578136137342392E-2</v>
+        <v>1.16743115657186E-2</v>
       </c>
       <c r="M25">
-        <v>6.4900967211776572E-2</v>
+        <v>-6.8937430584425904E-2</v>
       </c>
       <c r="N25">
-        <v>0.31714853461676662</v>
+        <v>2.1104570993879881E-2</v>
       </c>
       <c r="O25">
-        <v>-2.634277216924626E-2</v>
+        <v>3.0574740834050731E-2</v>
       </c>
       <c r="P25">
-        <v>7.5051070358091262E-2</v>
+        <v>2.3458167792466789E-2</v>
       </c>
       <c r="Q25">
-        <v>1.1882649177833251E-3</v>
+        <v>-4.8594926423102189E-2</v>
       </c>
       <c r="R25">
-        <v>-2.4421886411421879E-2</v>
+        <v>-0.1270807984343032</v>
       </c>
       <c r="S25">
-        <v>-3.8993818075712443E-2</v>
+        <v>7.0657223422462487E-2</v>
       </c>
       <c r="T25">
-        <v>-7.9102295732843188E-3</v>
+        <v>-4.0242047126953111E-2</v>
       </c>
       <c r="U25">
-        <v>-4.5722441151799492E-2</v>
+        <v>3.9627828195639002E-2</v>
       </c>
       <c r="V25">
-        <v>0.19484799590176391</v>
+        <v>4.8733307540452797E-2</v>
       </c>
       <c r="W25">
-        <v>-3.9925610529435523E-2</v>
+        <v>2.379600707250909E-2</v>
       </c>
       <c r="X25">
-        <v>1.772476306817743E-2</v>
+        <v>-3.4139636279764927E-2</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>5.8142505556850549E-2</v>
+        <v>2.137657186416958E-2</v>
       </c>
       <c r="AA25">
-        <v>-3.06882798565359E-2</v>
+        <v>-3.4408459723673873E-2</v>
       </c>
       <c r="AB25">
-        <v>-2.5806227941391369E-2</v>
+        <v>9.0357570265272968E-2</v>
       </c>
       <c r="AC25">
-        <v>6.063364069331491E-3</v>
+        <v>-1.4441625732118921E-2</v>
       </c>
       <c r="AD25">
-        <v>1.023912269725002E-2</v>
+        <v>-0.11984394527620799</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>-9.4080971500331238E-3</v>
+        <v>9.3443041365751155E-4</v>
       </c>
       <c r="C26">
-        <v>-3.4833637000393869E-3</v>
+        <v>1.1598683899269669E-2</v>
       </c>
       <c r="D26">
-        <v>0.25686603449352879</v>
+        <v>4.8538311453334818E-4</v>
       </c>
       <c r="E26">
-        <v>-0.14219768540045749</v>
+        <v>6.5460630616731658E-2</v>
       </c>
       <c r="F26">
-        <v>-0.1206321809120469</v>
+        <v>-5.4095048336022633E-2</v>
       </c>
       <c r="G26">
-        <v>-5.1010353308685322E-2</v>
+        <v>-4.2230073999860507E-2</v>
       </c>
       <c r="H26">
-        <v>6.1110480466726728E-2</v>
+        <v>1.8249275753378692E-2</v>
       </c>
       <c r="I26">
-        <v>-8.9802496774346333E-2</v>
+        <v>6.4693143391616997E-2</v>
       </c>
       <c r="J26">
-        <v>0.41862827313991402</v>
+        <v>3.415939983460048E-3</v>
       </c>
       <c r="K26">
-        <v>0.41939975600189322</v>
+        <v>3.6849212527514871E-2</v>
       </c>
       <c r="L26">
-        <v>9.7628312603988646E-2</v>
+        <v>7.5224459177094041E-2</v>
       </c>
       <c r="M26">
-        <v>0.29466193576614857</v>
+        <v>5.0756228511320972E-2</v>
       </c>
       <c r="N26">
-        <v>3.9752305754596047E-2</v>
+        <v>5.7606481201268107E-2</v>
       </c>
       <c r="O26">
-        <v>-0.27333455420538671</v>
+        <v>0.3211009999428216</v>
       </c>
       <c r="P26">
-        <v>0.19676768084987711</v>
+        <v>-2.416824218371507E-2</v>
       </c>
       <c r="Q26">
-        <v>9.7360585524799509E-2</v>
+        <v>6.8399709549363016E-2</v>
       </c>
       <c r="R26">
-        <v>-0.13645833032187271</v>
+        <v>-3.380366071031348E-3</v>
       </c>
       <c r="S26">
-        <v>-0.190701823841399</v>
+        <v>-1.9174540828426841E-2</v>
       </c>
       <c r="T26">
-        <v>-4.0087357337898512E-2</v>
+        <v>-3.2791796287261588E-2</v>
       </c>
       <c r="U26">
-        <v>-9.7353675177309848E-2</v>
+        <v>-9.6234292576660128E-3</v>
       </c>
       <c r="V26">
-        <v>6.5745725250988138E-2</v>
+        <v>-4.1664935408230692E-2</v>
       </c>
       <c r="W26">
-        <v>-0.12391943964503969</v>
+        <v>0.19430513124523391</v>
       </c>
       <c r="X26">
-        <v>-3.6732569704928393E-2</v>
+        <v>-3.8027296297844362E-2</v>
       </c>
       <c r="Y26">
-        <v>5.8142505556850549E-2</v>
+        <v>2.137657186416958E-2</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>-6.6697052074248434E-2</v>
+        <v>4.8419978261709858E-2</v>
       </c>
       <c r="AB26">
-        <v>6.8696614192122673E-3</v>
+        <v>-2.7235314733698258E-2</v>
       </c>
       <c r="AC26">
-        <v>6.7410035091636678E-2</v>
+        <v>-2.6572409632093081E-2</v>
       </c>
       <c r="AD26">
-        <v>-1.8249296264092581E-3</v>
+        <v>5.4574263539779386E-3</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>5.4260995323194222E-3</v>
+        <v>-9.1793614979261313E-3</v>
       </c>
       <c r="C27">
-        <v>-6.6129443813897196E-2</v>
+        <v>-3.4737496742839749E-3</v>
       </c>
       <c r="D27">
-        <v>-2.6775724359741789E-2</v>
+        <v>-2.342842889533279E-3</v>
       </c>
       <c r="E27">
-        <v>-5.0870085872000002E-2</v>
+        <v>0.2306091754743996</v>
       </c>
       <c r="F27">
-        <v>0.1230084554100962</v>
+        <v>-0.124586140238716</v>
       </c>
       <c r="G27">
-        <v>9.5739806751386949E-2</v>
+        <v>-0.1186401969546188</v>
       </c>
       <c r="H27">
-        <v>-0.27793570624498359</v>
+        <v>-5.2360405215018523E-2</v>
       </c>
       <c r="I27">
-        <v>1.072743307583247E-2</v>
+        <v>5.5591095059783213E-2</v>
       </c>
       <c r="J27">
-        <v>3.8073586254585637E-2</v>
+        <v>-8.0738706434907229E-2</v>
       </c>
       <c r="K27">
-        <v>-1.8012236004081399E-2</v>
+        <v>0.41624075630565011</v>
       </c>
       <c r="L27">
-        <v>-0.15848012445119289</v>
+        <v>0.41483371562242449</v>
       </c>
       <c r="M27">
-        <v>4.0402438387882843E-2</v>
+        <v>9.044991471841457E-2</v>
       </c>
       <c r="N27">
-        <v>-3.988356159728796E-2</v>
+        <v>0.28732400736183511</v>
       </c>
       <c r="O27">
-        <v>5.7458020779972523E-2</v>
+        <v>3.8862276130018102E-2</v>
       </c>
       <c r="P27">
-        <v>-2.5320829559138749E-2</v>
+        <v>-0.2723536851446578</v>
       </c>
       <c r="Q27">
-        <v>-0.17993484389482101</v>
+        <v>0.18643373602776681</v>
       </c>
       <c r="R27">
-        <v>0.1970722535658273</v>
+        <v>9.262958946817712E-2</v>
       </c>
       <c r="S27">
-        <v>-7.5095901364473111E-2</v>
+        <v>-0.1137764591834499</v>
       </c>
       <c r="T27">
-        <v>0.26497651406238149</v>
+        <v>-0.17538741250091419</v>
       </c>
       <c r="U27">
-        <v>0.10543957559292649</v>
+        <v>-4.4323771206698781E-2</v>
       </c>
       <c r="V27">
-        <v>-6.5017553823514637E-2</v>
+        <v>-9.546739326221089E-2</v>
       </c>
       <c r="W27">
-        <v>-6.4251969388895117E-2</v>
+        <v>6.5460146359294702E-2</v>
       </c>
       <c r="X27">
-        <v>9.5926452064851064E-2</v>
+        <v>-0.1175929698162798</v>
       </c>
       <c r="Y27">
-        <v>-3.06882798565359E-2</v>
+        <v>-3.4408459723673873E-2</v>
       </c>
       <c r="Z27">
-        <v>-6.6697052074248434E-2</v>
+        <v>4.8419978261709858E-2</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.1236080503189724</v>
+        <v>-6.4066298839745697E-2</v>
       </c>
       <c r="AC27">
-        <v>-0.3039817849297376</v>
+        <v>5.7084956111025393E-3</v>
       </c>
       <c r="AD27">
-        <v>7.4928643676583093E-3</v>
+        <v>6.5949384982303697E-2</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>-4.392818585108896E-3</v>
+        <v>4.4267648941320103E-3</v>
       </c>
       <c r="C28">
-        <v>1.3554405874830091E-2</v>
+        <v>-6.3272767396847715E-2</v>
       </c>
       <c r="D28">
-        <v>4.1372577110039971E-2</v>
+        <v>1.4324617332722349E-2</v>
       </c>
       <c r="E28">
-        <v>-7.1139795281959614E-2</v>
+        <v>-1.9885579531341881E-2</v>
       </c>
       <c r="F28">
-        <v>-3.2748468078702832E-2</v>
+        <v>-5.0035609684366607E-2</v>
       </c>
       <c r="G28">
-        <v>1.09430165515314E-2</v>
+        <v>0.1113163515264937</v>
       </c>
       <c r="H28">
-        <v>-4.252764104902889E-2</v>
+        <v>8.990711908168926E-2</v>
       </c>
       <c r="I28">
-        <v>-0.15665920734951011</v>
+        <v>-0.26803793224502559</v>
       </c>
       <c r="J28">
-        <v>-2.671046812049865E-2</v>
+        <v>5.3536778827797853E-3</v>
       </c>
       <c r="K28">
-        <v>1.4402635806295361E-2</v>
+        <v>3.6671889809479878E-2</v>
       </c>
       <c r="L28">
-        <v>4.8979133154731007E-2</v>
+        <v>-1.920617363733023E-2</v>
       </c>
       <c r="M28">
-        <v>2.1139755376094228E-2</v>
+        <v>-0.15254060059603261</v>
       </c>
       <c r="N28">
-        <v>-1.023285931755934E-2</v>
+        <v>3.6736240067152252E-2</v>
       </c>
       <c r="O28">
-        <v>6.3781764454302035E-4</v>
+        <v>-3.60520389877131E-2</v>
       </c>
       <c r="P28">
-        <v>0.100842758956742</v>
+        <v>5.6744366890256533E-2</v>
       </c>
       <c r="Q28">
-        <v>1.928345916355061E-2</v>
+        <v>-1.970444172840332E-2</v>
       </c>
       <c r="R28">
-        <v>-1.7232098239151769E-2</v>
+        <v>-0.17404387809145599</v>
       </c>
       <c r="S28">
-        <v>-4.1558752204095821E-2</v>
+        <v>0.17808466455629779</v>
       </c>
       <c r="T28">
-        <v>0.39917558762044347</v>
+        <v>-6.5789864191195105E-2</v>
       </c>
       <c r="U28">
-        <v>-1.4115378349411071E-2</v>
+        <v>0.25356730203312039</v>
       </c>
       <c r="V28">
-        <v>-3.0422914026749921E-2</v>
+        <v>9.7152469549731807E-2</v>
       </c>
       <c r="W28">
-        <v>-4.1774862286212987E-2</v>
+        <v>-5.8386301068321142E-2</v>
       </c>
       <c r="X28">
-        <v>-1.631311760248445E-2</v>
+        <v>-5.8813501325139107E-2</v>
       </c>
       <c r="Y28">
-        <v>-2.5806227941391369E-2</v>
+        <v>9.0357570265272968E-2</v>
       </c>
       <c r="Z28">
-        <v>6.8696614192122673E-3</v>
+        <v>-2.7235314733698258E-2</v>
       </c>
       <c r="AA28">
-        <v>0.1236080503189724</v>
+        <v>-6.4066298839745697E-2</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>-9.8808664919643227E-2</v>
+        <v>0.11250252758439561</v>
       </c>
       <c r="AD28">
-        <v>-8.7624220815886722E-3</v>
+        <v>-0.2922674476739015</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>-1.0827100658902491E-2</v>
+        <v>-5.0405288800206959E-3</v>
       </c>
       <c r="C29">
-        <v>8.4200907631323402E-2</v>
+        <v>1.324665908712336E-2</v>
       </c>
       <c r="D29">
-        <v>1.170716638941764E-2</v>
+        <v>6.4433479626116374E-3</v>
       </c>
       <c r="E29">
-        <v>8.1535727375991712E-2</v>
+        <v>4.0308440583595652E-2</v>
       </c>
       <c r="F29">
-        <v>-0.14959794064896531</v>
+        <v>-6.9497751185884499E-2</v>
       </c>
       <c r="G29">
-        <v>-0.16137216877414179</v>
+        <v>-2.3629816954394901E-2</v>
       </c>
       <c r="H29">
-        <v>0.18495324312834349</v>
+        <v>1.1655838017988321E-2</v>
       </c>
       <c r="I29">
-        <v>-2.0581445074986649E-2</v>
+        <v>-4.1387194992709812E-2</v>
       </c>
       <c r="J29">
-        <v>-2.8380624446991801E-2</v>
+        <v>-0.14748835209019481</v>
       </c>
       <c r="K29">
-        <v>-1.7249226055090629E-2</v>
+        <v>-2.749130549960262E-2</v>
       </c>
       <c r="L29">
-        <v>0.14668665684003249</v>
+        <v>1.0626461115835239E-2</v>
       </c>
       <c r="M29">
-        <v>-8.5539316586107514E-2</v>
+        <v>5.1778569515341412E-2</v>
       </c>
       <c r="N29">
-        <v>1.462849170605041E-2</v>
+        <v>1.4967752605748921E-2</v>
       </c>
       <c r="O29">
-        <v>-4.0607496427685477E-2</v>
+        <v>-9.7666698044742047E-3</v>
       </c>
       <c r="P29">
-        <v>-5.9128179153738244E-3</v>
+        <v>1.914621890336661E-3</v>
       </c>
       <c r="Q29">
-        <v>0.27742377646599842</v>
+        <v>9.6306904189423198E-2</v>
       </c>
       <c r="R29">
-        <v>-0.1640239568781148</v>
+        <v>2.0054806968380169E-2</v>
       </c>
       <c r="S29">
-        <v>0.1281674556597141</v>
+        <v>-2.1458656674085759E-2</v>
       </c>
       <c r="T29">
-        <v>-0.27526135525206541</v>
+        <v>-3.3126294628390507E-2</v>
       </c>
       <c r="U29">
-        <v>-0.119148661185463</v>
+        <v>0.38272417330665071</v>
       </c>
       <c r="V29">
-        <v>3.3579454722379679E-2</v>
+        <v>-1.180449912908571E-2</v>
       </c>
       <c r="W29">
-        <v>0.1138778076145074</v>
+        <v>-2.871240890359875E-2</v>
       </c>
       <c r="X29">
-        <v>-0.12789183152373229</v>
+        <v>-4.0164913505734472E-2</v>
       </c>
       <c r="Y29">
-        <v>6.063364069331491E-3</v>
+        <v>-1.4441625732118921E-2</v>
       </c>
       <c r="Z29">
-        <v>6.7410035091636678E-2</v>
+        <v>-2.6572409632093081E-2</v>
       </c>
       <c r="AA29">
-        <v>-0.3039817849297376</v>
+        <v>5.7084956111025393E-3</v>
       </c>
       <c r="AB29">
-        <v>-9.8808664919643227E-2</v>
+        <v>0.11250252758439561</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
       <c r="AD29">
-        <v>-1.3295285527945131E-2</v>
+        <v>-8.7917745648252027E-2</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>-7.9935366271215759E-3</v>
+        <v>-1.1891984420722699E-2</v>
       </c>
       <c r="C30">
-        <v>1.06089585031679E-2</v>
+        <v>7.9489624411600734E-2</v>
       </c>
       <c r="D30">
-        <v>4.5447237413244546E-3</v>
+        <v>-1.9768955489666649E-2</v>
       </c>
       <c r="E30">
-        <v>-9.0270574059976554E-3</v>
+        <v>1.376794396127571E-2</v>
       </c>
       <c r="F30">
-        <v>1.9182469180192921E-3</v>
+        <v>7.5878909367969635E-2</v>
       </c>
       <c r="G30">
-        <v>4.2136666333614172E-4</v>
+        <v>-0.13825955919553631</v>
       </c>
       <c r="H30">
-        <v>5.4261097593951138E-3</v>
+        <v>-0.1541875922123</v>
       </c>
       <c r="I30">
-        <v>-7.568510999958534E-3</v>
+        <v>0.17206546815193721</v>
       </c>
       <c r="J30">
-        <v>-8.6966293403386071E-3</v>
+        <v>-1.299764114289002E-2</v>
       </c>
       <c r="K30">
-        <v>-4.5712824433452219E-3</v>
+        <v>-2.5543330014809299E-2</v>
       </c>
       <c r="L30">
-        <v>5.8739259073063111E-3</v>
+        <v>-1.52266184181226E-2</v>
       </c>
       <c r="M30">
-        <v>-1.5945845070322338E-2</v>
+        <v>0.14184548526964519</v>
       </c>
       <c r="N30">
-        <v>-4.0394049393096647E-3</v>
+        <v>-7.8883975245999646E-2</v>
       </c>
       <c r="O30">
-        <v>-4.2340089579056446E-3</v>
+        <v>1.2778207651370671E-2</v>
       </c>
       <c r="P30">
-        <v>1.2720513568850269E-3</v>
+        <v>-4.0448619280832383E-2</v>
       </c>
       <c r="Q30">
-        <v>4.2193006383063917E-3</v>
+        <v>-8.7688932739201243E-3</v>
       </c>
       <c r="R30">
-        <v>4.2149177366283966E-3</v>
+        <v>0.26922774576175079</v>
       </c>
       <c r="S30">
-        <v>5.8551447670808811E-3</v>
+        <v>-0.1540132606048295</v>
       </c>
       <c r="T30">
-        <v>-3.1914641642186322E-4</v>
+        <v>0.1117638632444812</v>
       </c>
       <c r="U30">
-        <v>-1.15073652370464E-2</v>
+        <v>-0.26262909571983822</v>
       </c>
       <c r="V30">
-        <v>-1.035051011862847E-2</v>
+        <v>-0.1050714855629996</v>
       </c>
       <c r="W30">
-        <v>-3.5359879990106858E-3</v>
+        <v>3.0758445300150879E-2</v>
       </c>
       <c r="X30">
-        <v>-4.8648059401357798E-3</v>
+        <v>0.10697807640660729</v>
       </c>
       <c r="Y30">
-        <v>1.023912269725002E-2</v>
+        <v>-0.11984394527620799</v>
       </c>
       <c r="Z30">
-        <v>-1.8249296264092581E-3</v>
+        <v>5.4574263539779386E-3</v>
       </c>
       <c r="AA30">
-        <v>7.4928643676583093E-3</v>
+        <v>6.5949384982303697E-2</v>
       </c>
       <c r="AB30">
-        <v>-8.7624220815886722E-3</v>
+        <v>-0.2922674476739015</v>
       </c>
       <c r="AC30">
-        <v>-1.3295285527945131E-2</v>
+        <v>-8.7917745648252027E-2</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -9615,9 +9732,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
@@ -9696,70 +9811,70 @@
         <v>1</v>
       </c>
       <c r="C48" s="14">
-        <v>-0.27977273143161169</v>
+        <v>-0.26137418725113792</v>
       </c>
       <c r="D48" s="14">
-        <v>3.9208221126227662E-2</v>
+        <v>3.8265911314701688E-2</v>
       </c>
       <c r="E48" s="14">
-        <v>0.10054885346062251</v>
+        <v>9.7772995079595942E-2</v>
       </c>
       <c r="F48" s="14">
-        <v>2.9746642741857909E-2</v>
+        <v>2.2204801027248269E-2</v>
       </c>
       <c r="G48" s="14">
-        <v>-0.1190286884053835</v>
+        <v>-0.1088676201038782</v>
       </c>
       <c r="H48" s="14">
-        <v>0.20265588439288101</v>
+        <v>0.18958109368905859</v>
       </c>
       <c r="I48" s="14">
-        <v>0.224550815638626</v>
+        <v>0.20726066315316169</v>
       </c>
       <c r="J48" s="14">
-        <v>0.12621123543937879</v>
+        <v>0.1213679763111309</v>
       </c>
       <c r="K48" s="14">
-        <v>0.23131570847334931</v>
+        <v>0.21166640861400399</v>
       </c>
       <c r="L48" s="14">
-        <v>4.7560031976576073E-2</v>
+        <v>4.049706527717261E-2</v>
       </c>
       <c r="M48" s="14">
-        <v>0.21029198112492159</v>
+        <v>0.19195844100041251</v>
       </c>
       <c r="N48" s="14">
-        <v>0.1226111300670176</v>
+        <v>0.12060323683919839</v>
       </c>
       <c r="O48" s="14">
-        <v>-0.22074224948199431</v>
+        <v>-0.18424161890824151</v>
       </c>
       <c r="P48" s="14">
-        <v>-0.13754647094968619</v>
+        <v>-0.13009451347724879</v>
       </c>
       <c r="Q48" s="14">
-        <v>5.1764357826274678E-2</v>
+        <v>4.6769652955710998E-2</v>
       </c>
       <c r="R48" s="14">
-        <v>3.7109561731192238E-2</v>
+        <v>3.4645714841517662E-2</v>
       </c>
       <c r="S48" s="14">
-        <v>-0.1159204596047714</v>
+        <v>-0.1146805211806993</v>
       </c>
       <c r="T48" s="14">
-        <v>-6.2750243511928233E-2</v>
+        <v>-5.9190794045742949E-2</v>
       </c>
       <c r="U48" s="14">
-        <v>8.5454198806125273E-2</v>
+        <v>6.7301011193528756E-2</v>
       </c>
       <c r="V48" s="14">
-        <v>-2.310008747152674E-2</v>
+        <v>-1.5515696624193829E-2</v>
       </c>
       <c r="W48" s="14">
-        <v>4.3831153531282273E-2</v>
+        <v>4.1944309825564921E-2</v>
       </c>
       <c r="X48" s="14">
-        <v>7.9397401628896417E-3</v>
+        <v>9.0777747346638543E-3</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -9767,73 +9882,73 @@
         <v>3</v>
       </c>
       <c r="B49" s="14">
-        <v>-0.27977273143161169</v>
+        <v>-0.26137418725113792</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.1625239993632733</v>
+        <v>-0.15596603515602969</v>
       </c>
       <c r="E49" s="14">
-        <v>-0.18446855804912621</v>
+        <v>-0.17960712921836591</v>
       </c>
       <c r="F49">
-        <v>3.0349322944823641E-2</v>
+        <v>3.098417289222782E-2</v>
       </c>
       <c r="G49">
-        <v>0.12526287892849691</v>
+        <v>0.1187262536551963</v>
       </c>
       <c r="H49">
-        <v>-0.1605040288970776</v>
+        <v>-0.14928074409428899</v>
       </c>
       <c r="I49" s="14">
-        <v>-0.1376283739016656</v>
+        <v>-0.13079737507435149</v>
       </c>
       <c r="J49">
-        <v>-9.9951194632918933E-2</v>
+        <v>-9.5509220003969442E-2</v>
       </c>
       <c r="K49" s="14">
-        <v>-0.18719046667354761</v>
+        <v>-0.1766808226391656</v>
       </c>
       <c r="L49" s="14">
-        <v>-2.396617107337827E-2</v>
+        <v>-2.3864283414730909E-2</v>
       </c>
       <c r="M49" s="14">
-        <v>-0.16485791112159101</v>
+        <v>-0.15431868997752271</v>
       </c>
       <c r="N49">
-        <v>-6.084151847845793E-2</v>
+        <v>-5.8297815829115647E-2</v>
       </c>
       <c r="O49" s="14">
-        <v>0.21833277612280871</v>
+        <v>0.19640588191226929</v>
       </c>
       <c r="P49">
-        <v>0.24274831386244869</v>
+        <v>0.22666189234615389</v>
       </c>
       <c r="Q49">
-        <v>-0.1596361618078227</v>
+        <v>-0.1518445271379984</v>
       </c>
       <c r="R49">
-        <v>-1.5031874052216331E-2</v>
+        <v>-1.9573696009567682E-2</v>
       </c>
       <c r="S49" s="14">
-        <v>0.18612361129666449</v>
+        <v>0.17985564250006131</v>
       </c>
       <c r="T49">
-        <v>1.1245837016278929E-2</v>
+        <v>9.8942657701809999E-3</v>
       </c>
       <c r="U49">
-        <v>-6.2981334047702453E-2</v>
+        <v>-5.4626038732460268E-2</v>
       </c>
       <c r="V49" s="14">
-        <v>-5.4555059838367718E-2</v>
+        <v>-5.4023227804442207E-2</v>
       </c>
       <c r="W49">
-        <v>-7.1050611381487785E-2</v>
+        <v>-7.0514488065189423E-2</v>
       </c>
       <c r="X49" s="14">
-        <v>8.5872272911446987E-2</v>
+        <v>8.1319098144337049E-2</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -9841,73 +9956,73 @@
         <v>4</v>
       </c>
       <c r="B50" s="14">
-        <v>3.9208221126227662E-2</v>
+        <v>3.8265911314701688E-2</v>
       </c>
       <c r="C50" s="14">
-        <v>-0.1625239993632733</v>
+        <v>-0.15596603515602969</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="14">
-        <v>0.38806036317842291</v>
+        <v>0.38012453214157682</v>
       </c>
       <c r="F50" s="14">
-        <v>-0.16527644148836099</v>
+        <v>-0.1494342928057471</v>
       </c>
       <c r="G50" s="14">
-        <v>7.1550017521407661E-2</v>
+        <v>6.1682001543720708E-2</v>
       </c>
       <c r="H50" s="14">
-        <v>8.3181699540400361E-2</v>
+        <v>7.9937727432642505E-2</v>
       </c>
       <c r="I50" s="14">
-        <v>-8.2149618530162755E-2</v>
+        <v>-8.0329877752637474E-2</v>
       </c>
       <c r="J50" s="14">
-        <v>-5.450870907588181E-2</v>
+        <v>-5.3289392678985047E-2</v>
       </c>
       <c r="K50" s="14">
-        <v>6.9216025466090306E-2</v>
+        <v>6.2872217575618297E-2</v>
       </c>
       <c r="L50" s="14">
-        <v>-9.511914312626174E-2</v>
+        <v>-8.9565987459938531E-2</v>
       </c>
       <c r="M50" s="14">
-        <v>-5.6929386249423439E-2</v>
+        <v>-5.2996272231054117E-2</v>
       </c>
       <c r="N50" s="14">
-        <v>-0.14806424797469989</v>
+        <v>-0.13916558636084569</v>
       </c>
       <c r="O50" s="14">
-        <v>5.218228190943365E-2</v>
+        <v>5.0950366385388669E-2</v>
       </c>
       <c r="P50" s="14">
-        <v>-0.1067363692665227</v>
+        <v>-9.8182515495621264E-2</v>
       </c>
       <c r="Q50" s="14">
-        <v>0.51953420585288967</v>
+        <v>0.49892288849901972</v>
       </c>
       <c r="R50" s="14">
-        <v>-0.10847399344214489</v>
+        <v>-0.1015295855942827</v>
       </c>
       <c r="S50" s="14">
-        <v>-9.9844260502034626E-2</v>
+        <v>-9.8706487278832231E-2</v>
       </c>
       <c r="T50" s="14">
-        <v>6.9576857880913626E-2</v>
+        <v>6.4683188308091596E-2</v>
       </c>
       <c r="U50" s="14">
-        <v>-4.9096817971125209E-2</v>
+        <v>-4.3859971974811202E-2</v>
       </c>
       <c r="V50" s="14">
-        <v>0.1229351664332254</v>
+        <v>0.1116778017247707</v>
       </c>
       <c r="W50" s="14">
-        <v>-4.0452236186095697E-2</v>
+        <v>-3.0404217575343409E-2</v>
       </c>
       <c r="X50" s="14">
-        <v>-0.15354298693497229</v>
+        <v>-0.14108177244651551</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -9915,73 +10030,73 @@
         <v>10</v>
       </c>
       <c r="B51" s="14">
-        <v>0.10054885346062251</v>
+        <v>9.7772995079595942E-2</v>
       </c>
       <c r="C51" s="14">
-        <v>-0.18446855804912621</v>
+        <v>-0.17960712921836591</v>
       </c>
       <c r="D51" s="14">
-        <v>0.38806036317842291</v>
+        <v>0.38012453214157682</v>
       </c>
       <c r="E51" s="14">
         <v>1</v>
       </c>
       <c r="F51" s="14">
-        <v>-1.561196977740415E-2</v>
+        <v>-8.7105942480548062E-3</v>
       </c>
       <c r="G51" s="14">
-        <v>-6.4125288214636408E-3</v>
+        <v>-8.9303285433316379E-3</v>
       </c>
       <c r="H51" s="14">
-        <v>8.6592935493235892E-2</v>
+        <v>8.317179402248924E-2</v>
       </c>
       <c r="I51" s="14">
-        <v>5.0511337481029997E-2</v>
+        <v>4.8910583532353967E-2</v>
       </c>
       <c r="J51" s="14">
-        <v>-6.250040393662494E-2</v>
+        <v>-6.4704336926022038E-2</v>
       </c>
       <c r="K51" s="14">
-        <v>0.21824335618072829</v>
+        <v>0.2136146241128529</v>
       </c>
       <c r="L51" s="14">
-        <v>-1.309862978560276E-2</v>
+        <v>-1.0305985758535261E-2</v>
       </c>
       <c r="M51" s="14">
-        <v>5.3236991833142303E-2</v>
+        <v>5.4383047587265289E-2</v>
       </c>
       <c r="N51" s="14">
-        <v>-0.11065961092397281</v>
+        <v>-0.1088025933540708</v>
       </c>
       <c r="O51" s="14">
-        <v>8.8323170135251053E-2</v>
+        <v>9.0441499834923847E-2</v>
       </c>
       <c r="P51" s="14">
-        <v>-0.13906266133008291</v>
+        <v>-0.1355216775912837</v>
       </c>
       <c r="Q51" s="14">
-        <v>0.37359040578923791</v>
+        <v>0.36633212833382361</v>
       </c>
       <c r="R51" s="14">
-        <v>-3.5307820727593031E-2</v>
+        <v>-3.1377702116266941E-2</v>
       </c>
       <c r="S51" s="14">
-        <v>-9.3025826201603906E-2</v>
+        <v>-9.1514971337069859E-2</v>
       </c>
       <c r="T51" s="14">
-        <v>4.5820770830932563E-2</v>
+        <v>4.4917725031447732E-2</v>
       </c>
       <c r="U51" s="14">
-        <v>1.806459150719603E-2</v>
+        <v>1.7909734216816769E-2</v>
       </c>
       <c r="V51" s="14">
-        <v>9.8018983918653282E-2</v>
+        <v>9.2225600214285774E-2</v>
       </c>
       <c r="W51" s="14">
-        <v>1.13998893805131E-2</v>
+        <v>1.2954173694352219E-2</v>
       </c>
       <c r="X51" s="14">
-        <v>-0.1657350554243042</v>
+        <v>-0.15800910802431051</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -9989,73 +10104,73 @@
         <v>11</v>
       </c>
       <c r="B52" s="14">
-        <v>2.9746642741857909E-2</v>
+        <v>2.2204801027248269E-2</v>
       </c>
       <c r="C52">
-        <v>3.0349322944823641E-2</v>
+        <v>3.098417289222782E-2</v>
       </c>
       <c r="D52" s="14">
-        <v>-0.16527644148836099</v>
+        <v>-0.1494342928057471</v>
       </c>
       <c r="E52" s="14">
-        <v>-1.561196977740415E-2</v>
+        <v>-8.7105942480548062E-3</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>-0.1071061226549231</v>
+        <v>-9.9531207772887403E-2</v>
       </c>
       <c r="H52">
-        <v>-8.532197024002959E-2</v>
+        <v>-8.5339767338676986E-2</v>
       </c>
       <c r="I52" s="14">
-        <v>4.0688599024606822E-2</v>
+        <v>3.5291977075941589E-2</v>
       </c>
       <c r="J52">
-        <v>0.13793306809312689</v>
+        <v>0.13349854003587111</v>
       </c>
       <c r="K52" s="14">
-        <v>7.5787850078514237E-3</v>
+        <v>5.772488239091462E-3</v>
       </c>
       <c r="L52" s="14">
-        <v>6.5426192385454371E-2</v>
+        <v>6.0560299198514321E-2</v>
       </c>
       <c r="M52" s="14">
-        <v>8.3223742403792586E-2</v>
+        <v>8.0534920273628047E-2</v>
       </c>
       <c r="N52">
-        <v>0.21231002999501869</v>
+        <v>0.2070699479970442</v>
       </c>
       <c r="O52" s="14">
-        <v>-0.15719834139986699</v>
+        <v>-0.14329898566525501</v>
       </c>
       <c r="P52">
-        <v>4.3138130387966177E-2</v>
+        <v>4.2230149739737648E-2</v>
       </c>
       <c r="Q52">
-        <v>-0.1524330778905546</v>
+        <v>-0.13918817966065991</v>
       </c>
       <c r="R52">
-        <v>8.1960762826048014E-2</v>
+        <v>8.0024742228012868E-2</v>
       </c>
       <c r="S52" s="14">
-        <v>2.2363826647809879E-2</v>
+        <v>2.1215212495365812E-2</v>
       </c>
       <c r="T52">
-        <v>-8.231104678970419E-2</v>
+        <v>-7.4675948116477112E-2</v>
       </c>
       <c r="U52">
-        <v>6.5844590883221754E-2</v>
+        <v>6.2456738531358837E-2</v>
       </c>
       <c r="V52" s="14">
-        <v>-0.27512392343363962</v>
+        <v>-0.26233081285000931</v>
       </c>
       <c r="W52">
-        <v>-4.315821822069929E-2</v>
+        <v>-4.3260006229646653E-2</v>
       </c>
       <c r="X52" s="14">
-        <v>0.17972987767559709</v>
+        <v>0.16856851257778321</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -10063,73 +10178,73 @@
         <v>12</v>
       </c>
       <c r="B53" s="14">
-        <v>-0.1190286884053835</v>
+        <v>-0.1088676201038782</v>
       </c>
       <c r="C53">
-        <v>0.12526287892849691</v>
+        <v>0.1187262536551963</v>
       </c>
       <c r="D53" s="14">
-        <v>7.1550017521407661E-2</v>
+        <v>6.1682001543720708E-2</v>
       </c>
       <c r="E53" s="14">
-        <v>-6.4125288214636408E-3</v>
+        <v>-8.9303285433316379E-3</v>
       </c>
       <c r="F53">
-        <v>-0.1071061226549231</v>
+        <v>-9.9531207772887403E-2</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>-5.9340642319897323E-2</v>
+        <v>-5.4972436044750932E-2</v>
       </c>
       <c r="I53" s="14">
-        <v>-5.9610432886445693E-2</v>
+        <v>-5.3458326071329623E-2</v>
       </c>
       <c r="J53">
-        <v>-8.7772972988717751E-2</v>
+        <v>-8.3829165497522548E-2</v>
       </c>
       <c r="K53" s="14">
-        <v>-4.9038355507988192E-2</v>
+        <v>-4.1679090576994267E-2</v>
       </c>
       <c r="L53" s="14">
-        <v>2.459278767408081E-2</v>
+        <v>2.790482365521111E-2</v>
       </c>
       <c r="M53" s="14">
-        <v>-0.15310354614205809</v>
+        <v>-0.14227975561473361</v>
       </c>
       <c r="N53">
-        <v>-0.2414084925065049</v>
+        <v>-0.2373779419912441</v>
       </c>
       <c r="O53" s="14">
-        <v>0.13803430865712801</v>
+        <v>0.123707888288475</v>
       </c>
       <c r="P53">
-        <v>4.0828887718335059E-2</v>
+        <v>3.5243799579317628E-2</v>
       </c>
       <c r="Q53">
-        <v>5.0504450678870723E-2</v>
+        <v>4.3341497937303068E-2</v>
       </c>
       <c r="R53">
-        <v>3.6720686899801652E-2</v>
+        <v>3.6573470878985333E-2</v>
       </c>
       <c r="S53" s="14">
-        <v>5.6527678202311547E-2</v>
+        <v>5.5686934034782608E-2</v>
       </c>
       <c r="T53">
-        <v>0.21080070779115859</v>
+        <v>0.2017484985419869</v>
       </c>
       <c r="U53">
-        <v>-3.7798515879055818E-4</v>
+        <v>5.9336856385667014E-3</v>
       </c>
       <c r="V53" s="14">
-        <v>7.8270529478005214E-3</v>
+        <v>2.2159993300839582E-3</v>
       </c>
       <c r="W53">
-        <v>-0.16278973850920539</v>
+        <v>-0.15205954440890099</v>
       </c>
       <c r="X53" s="14">
-        <v>-2.2731582119105129E-2</v>
+        <v>-1.5535118749922231E-2</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -10137,73 +10252,73 @@
         <v>13</v>
       </c>
       <c r="B54" s="14">
-        <v>0.20265588439288101</v>
+        <v>0.18958109368905859</v>
       </c>
       <c r="C54">
-        <v>-0.1605040288970776</v>
+        <v>-0.14928074409428899</v>
       </c>
       <c r="D54" s="14">
-        <v>8.3181699540400361E-2</v>
+        <v>7.9937727432642505E-2</v>
       </c>
       <c r="E54" s="14">
-        <v>8.6592935493235892E-2</v>
+        <v>8.317179402248924E-2</v>
       </c>
       <c r="F54">
-        <v>-8.532197024002959E-2</v>
+        <v>-8.5339767338676986E-2</v>
       </c>
       <c r="G54">
-        <v>-5.9340642319897323E-2</v>
+        <v>-5.4972436044750932E-2</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="14">
-        <v>0.38583909441768538</v>
+        <v>0.38425128458431912</v>
       </c>
       <c r="J54">
-        <v>-2.1281895877903599E-2</v>
+        <v>-2.5545637208624811E-2</v>
       </c>
       <c r="K54" s="14">
-        <v>0.36485186348717968</v>
+        <v>0.36213588041552608</v>
       </c>
       <c r="L54" s="14">
-        <v>5.7966260427085147E-3</v>
+        <v>3.4256559090411641E-3</v>
       </c>
       <c r="M54" s="14">
-        <v>8.983812570135824E-2</v>
+        <v>8.1895188252721074E-2</v>
       </c>
       <c r="N54">
-        <v>2.3133693597457219E-3</v>
+        <v>7.4515442097197618E-4</v>
       </c>
       <c r="O54" s="14">
-        <v>-4.1885664820896618E-2</v>
+        <v>-2.6812121563571281E-2</v>
       </c>
       <c r="P54">
-        <v>-0.19397159107408141</v>
+        <v>-0.18725487414859329</v>
       </c>
       <c r="Q54">
-        <v>9.3960317638610888E-2</v>
+        <v>9.1775126600014412E-2</v>
       </c>
       <c r="R54">
-        <v>-1.7708105199397719E-2</v>
+        <v>-1.6987388219678819E-2</v>
       </c>
       <c r="S54" s="14">
-        <v>-0.1783286594669834</v>
+        <v>-0.1740809594711891</v>
       </c>
       <c r="T54">
-        <v>8.1418110159118791E-4</v>
+        <v>4.1389762824149191E-4</v>
       </c>
       <c r="U54">
-        <v>4.1335833489296578E-2</v>
+        <v>3.4584175190629431E-2</v>
       </c>
       <c r="V54" s="14">
-        <v>4.4889021423326743E-2</v>
+        <v>4.3590865735566767E-2</v>
       </c>
       <c r="W54">
-        <v>-2.49850743079543E-2</v>
+        <v>-2.6091030799728548E-2</v>
       </c>
       <c r="X54" s="14">
-        <v>-3.0465162211791661E-2</v>
+        <v>-2.6931237450697251E-2</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -10211,73 +10326,73 @@
         <v>14</v>
       </c>
       <c r="B55" s="14">
-        <v>0.224550815638626</v>
+        <v>0.20726066315316169</v>
       </c>
       <c r="C55" s="14">
-        <v>-0.1376283739016656</v>
+        <v>-0.13079737507435149</v>
       </c>
       <c r="D55" s="14">
-        <v>-8.2149618530162755E-2</v>
+        <v>-8.0329877752637474E-2</v>
       </c>
       <c r="E55" s="14">
-        <v>5.0511337481029997E-2</v>
+        <v>4.8910583532353967E-2</v>
       </c>
       <c r="F55" s="14">
-        <v>4.0688599024606822E-2</v>
+        <v>3.5291977075941589E-2</v>
       </c>
       <c r="G55" s="14">
-        <v>-5.9610432886445693E-2</v>
+        <v>-5.3458326071329623E-2</v>
       </c>
       <c r="H55" s="14">
-        <v>0.38583909441768538</v>
+        <v>0.38425128458431912</v>
       </c>
       <c r="I55" s="14">
         <v>1</v>
       </c>
       <c r="J55" s="14">
-        <v>4.7911236101567563E-2</v>
+        <v>4.4714081003106372E-2</v>
       </c>
       <c r="K55" s="14">
-        <v>0.41085111364445981</v>
+        <v>0.40771787958764472</v>
       </c>
       <c r="L55" s="14">
-        <v>7.8596064687776343E-2</v>
+        <v>7.5658177112613856E-2</v>
       </c>
       <c r="M55" s="14">
-        <v>0.1685384507000087</v>
+        <v>0.16343447305621009</v>
       </c>
       <c r="N55" s="14">
-        <v>1.8128909552688512E-2</v>
+        <v>1.6543198288672931E-2</v>
       </c>
       <c r="O55" s="14">
-        <v>-8.1189125212920474E-2</v>
+        <v>-6.7813517981677993E-2</v>
       </c>
       <c r="P55" s="14">
-        <v>-0.17111304216454001</v>
+        <v>-0.16295163089974071</v>
       </c>
       <c r="Q55" s="14">
-        <v>-6.1693147173659438E-2</v>
+        <v>-5.9485157213233698E-2</v>
       </c>
       <c r="R55" s="14">
-        <v>7.2357930169486898E-2</v>
+        <v>6.9997523736011313E-2</v>
       </c>
       <c r="S55" s="14">
-        <v>-0.12552007136172461</v>
+        <v>-0.1217794916620374</v>
       </c>
       <c r="T55" s="14">
-        <v>1.061002045127816E-2</v>
+        <v>1.0971854334785969E-2</v>
       </c>
       <c r="U55" s="14">
-        <v>8.5300905656760559E-2</v>
+        <v>7.613035617463608E-2</v>
       </c>
       <c r="V55" s="14">
-        <v>-1.271782715406228E-2</v>
+        <v>-1.1818622302189229E-2</v>
       </c>
       <c r="W55" s="14">
-        <v>1.51629535065006E-2</v>
+        <v>1.0287784829173439E-2</v>
       </c>
       <c r="X55" s="14">
-        <v>-2.3402346091531259E-2</v>
+        <v>-2.0791931883061641E-2</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -10285,73 +10400,73 @@
         <v>15</v>
       </c>
       <c r="B56" s="14">
-        <v>0.12621123543937879</v>
+        <v>0.1213679763111309</v>
       </c>
       <c r="C56">
-        <v>-9.9951194632918933E-2</v>
+        <v>-9.5509220003969442E-2</v>
       </c>
       <c r="D56" s="14">
-        <v>-5.450870907588181E-2</v>
+        <v>-5.3289392678985047E-2</v>
       </c>
       <c r="E56" s="14">
-        <v>-6.250040393662494E-2</v>
+        <v>-6.4704336926022038E-2</v>
       </c>
       <c r="F56">
-        <v>0.13793306809312689</v>
+        <v>0.13349854003587111</v>
       </c>
       <c r="G56">
-        <v>-8.7772972988717751E-2</v>
+        <v>-8.3829165497522548E-2</v>
       </c>
       <c r="H56">
-        <v>-2.1281895877903599E-2</v>
+        <v>-2.5545637208624811E-2</v>
       </c>
       <c r="I56" s="14">
-        <v>4.7911236101567563E-2</v>
+        <v>4.4714081003106372E-2</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" s="14">
-        <v>1.30029243657254E-2</v>
+        <v>8.621044323413091E-3</v>
       </c>
       <c r="L56" s="14">
-        <v>4.6898468702417997E-2</v>
+        <v>4.306908943608493E-2</v>
       </c>
       <c r="M56" s="14">
-        <v>0.33219858506456379</v>
+        <v>0.32789428445347341</v>
       </c>
       <c r="N56">
-        <v>0.15810616209430309</v>
+        <v>0.15602275394436391</v>
       </c>
       <c r="O56" s="14">
-        <v>-0.32548393126149983</v>
+        <v>-0.31876200684768208</v>
       </c>
       <c r="P56">
-        <v>2.3790140565094521E-2</v>
+        <v>2.4613547872748848E-2</v>
       </c>
       <c r="Q56">
-        <v>-4.0305481553159273E-2</v>
+        <v>-3.7957360234781468E-2</v>
       </c>
       <c r="R56">
-        <v>6.2618113861771699E-2</v>
+        <v>5.9535036068467419E-2</v>
       </c>
       <c r="S56" s="14">
-        <v>4.1438481786824757E-2</v>
+        <v>4.2693883081273802E-2</v>
       </c>
       <c r="T56">
-        <v>-7.5489688082124473E-2</v>
+        <v>-7.0639154663803716E-2</v>
       </c>
       <c r="U56">
-        <v>4.9693614707333633E-2</v>
+        <v>4.9199122367421078E-2</v>
       </c>
       <c r="V56" s="14">
-        <v>-0.15770745452282761</v>
+        <v>-0.15014394937546199</v>
       </c>
       <c r="W56">
-        <v>5.1980856999410179E-2</v>
+        <v>5.5453291180839692E-2</v>
       </c>
       <c r="X56" s="14">
-        <v>0.13939151031698849</v>
+        <v>0.1338084643563329</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -10359,73 +10474,73 @@
         <v>16</v>
       </c>
       <c r="B57" s="14">
-        <v>0.23131570847334931</v>
+        <v>0.21166640861400399</v>
       </c>
       <c r="C57" s="14">
-        <v>-0.18719046667354761</v>
+        <v>-0.1766808226391656</v>
       </c>
       <c r="D57" s="14">
-        <v>6.9216025466090306E-2</v>
+        <v>6.2872217575618297E-2</v>
       </c>
       <c r="E57" s="14">
-        <v>0.21824335618072829</v>
+        <v>0.2136146241128529</v>
       </c>
       <c r="F57" s="14">
-        <v>7.5787850078514237E-3</v>
+        <v>5.772488239091462E-3</v>
       </c>
       <c r="G57" s="14">
-        <v>-4.9038355507988192E-2</v>
+        <v>-4.1679090576994267E-2</v>
       </c>
       <c r="H57" s="14">
-        <v>0.36485186348717968</v>
+        <v>0.36213588041552608</v>
       </c>
       <c r="I57" s="14">
-        <v>0.41085111364445981</v>
+        <v>0.40771787958764472</v>
       </c>
       <c r="J57" s="14">
-        <v>1.30029243657254E-2</v>
+        <v>8.621044323413091E-3</v>
       </c>
       <c r="K57" s="14">
         <v>1</v>
       </c>
       <c r="L57" s="14">
-        <v>4.4872676889957858E-2</v>
+        <v>4.436691583772915E-2</v>
       </c>
       <c r="M57" s="14">
-        <v>0.15903497812986719</v>
+        <v>0.15518117043189161</v>
       </c>
       <c r="N57" s="14">
-        <v>-3.6681309129451722E-2</v>
+        <v>-3.7757564675848891E-2</v>
       </c>
       <c r="O57" s="14">
-        <v>-3.7195347810590813E-2</v>
+        <v>-2.9250178076818598E-2</v>
       </c>
       <c r="P57" s="14">
-        <v>-0.17595873255177419</v>
+        <v>-0.16191325501570469</v>
       </c>
       <c r="Q57" s="14">
-        <v>7.9097523543149917E-2</v>
+        <v>7.1885826990044394E-2</v>
       </c>
       <c r="R57" s="14">
-        <v>3.5143134436289872E-2</v>
+        <v>3.1957909881921202E-2</v>
       </c>
       <c r="S57" s="14">
-        <v>-0.1376065889884823</v>
+        <v>-0.12962756511679621</v>
       </c>
       <c r="T57" s="14">
-        <v>1.9108540710776781E-2</v>
+        <v>2.1013525640318439E-2</v>
       </c>
       <c r="U57" s="14">
-        <v>6.4489341160118049E-2</v>
+        <v>5.5614991140182229E-2</v>
       </c>
       <c r="V57" s="14">
-        <v>4.5739550423640807E-2</v>
+        <v>4.4123642186183511E-2</v>
       </c>
       <c r="W57" s="14">
-        <v>1.795574181478524E-2</v>
+        <v>1.166111382892712E-2</v>
       </c>
       <c r="X57" s="14">
-        <v>-8.8282702933610444E-2</v>
+        <v>-8.1544269401110786E-2</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -10433,73 +10548,73 @@
         <v>17</v>
       </c>
       <c r="B58" s="14">
-        <v>4.7560031976576073E-2</v>
+        <v>4.049706527717261E-2</v>
       </c>
       <c r="C58" s="14">
-        <v>-2.396617107337827E-2</v>
+        <v>-2.3864283414730909E-2</v>
       </c>
       <c r="D58" s="14">
-        <v>-9.511914312626174E-2</v>
+        <v>-8.9565987459938531E-2</v>
       </c>
       <c r="E58" s="14">
-        <v>-1.309862978560276E-2</v>
+        <v>-1.0305985758535261E-2</v>
       </c>
       <c r="F58" s="14">
-        <v>6.5426192385454371E-2</v>
+        <v>6.0560299198514321E-2</v>
       </c>
       <c r="G58" s="14">
-        <v>2.459278767408081E-2</v>
+        <v>2.790482365521111E-2</v>
       </c>
       <c r="H58" s="14">
-        <v>5.7966260427085147E-3</v>
+        <v>3.4256559090411641E-3</v>
       </c>
       <c r="I58" s="14">
-        <v>7.8596064687776343E-2</v>
+        <v>7.5658177112613856E-2</v>
       </c>
       <c r="J58" s="14">
-        <v>4.6898468702417997E-2</v>
+        <v>4.306908943608493E-2</v>
       </c>
       <c r="K58" s="14">
-        <v>4.4872676889957858E-2</v>
+        <v>4.436691583772915E-2</v>
       </c>
       <c r="L58" s="14">
         <v>1</v>
       </c>
       <c r="M58" s="14">
-        <v>6.9490373286759111E-2</v>
+        <v>6.5509278986559533E-2</v>
       </c>
       <c r="N58" s="14">
-        <v>-2.6969403185146861E-3</v>
+        <v>-5.0792989052443182E-3</v>
       </c>
       <c r="O58" s="14">
-        <v>-2.8466021862099591E-2</v>
+        <v>-2.2749816468973349E-2</v>
       </c>
       <c r="P58" s="14">
-        <v>-1.5689396901825889E-3</v>
+        <v>-9.6483060556540774E-3</v>
       </c>
       <c r="Q58" s="14">
-        <v>-8.542509621379607E-2</v>
+        <v>-8.20638309441791E-2</v>
       </c>
       <c r="R58" s="14">
-        <v>0.28262121581425009</v>
+        <v>0.27945347329690912</v>
       </c>
       <c r="S58" s="14">
-        <v>5.1602069835686376E-3</v>
+        <v>2.225764276003633E-3</v>
       </c>
       <c r="T58" s="14">
-        <v>2.9158877164817638E-2</v>
+        <v>3.1646242984017199E-2</v>
       </c>
       <c r="U58" s="14">
-        <v>0.32149067722688918</v>
+        <v>0.32505988811101932</v>
       </c>
       <c r="V58" s="14">
-        <v>-3.8388918467875538E-2</v>
+        <v>-3.4616628819356683E-2</v>
       </c>
       <c r="W58" s="14">
-        <v>-1.1685495427340971E-2</v>
+        <v>-1.0367494045587551E-2</v>
       </c>
       <c r="X58" s="14">
-        <v>9.7764512507866018E-3</v>
+        <v>9.7435543977717962E-3</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -10507,73 +10622,73 @@
         <v>19</v>
       </c>
       <c r="B59" s="14">
-        <v>0.21029198112492159</v>
+        <v>0.19195844100041251</v>
       </c>
       <c r="C59" s="14">
-        <v>-0.16485791112159101</v>
+        <v>-0.15431868997752271</v>
       </c>
       <c r="D59" s="14">
-        <v>-5.6929386249423439E-2</v>
+        <v>-5.2996272231054117E-2</v>
       </c>
       <c r="E59" s="14">
-        <v>5.3236991833142303E-2</v>
+        <v>5.4383047587265289E-2</v>
       </c>
       <c r="F59" s="14">
-        <v>8.3223742403792586E-2</v>
+        <v>8.0534920273628047E-2</v>
       </c>
       <c r="G59" s="14">
-        <v>-0.15310354614205809</v>
+        <v>-0.14227975561473361</v>
       </c>
       <c r="H59" s="14">
-        <v>8.983812570135824E-2</v>
+        <v>8.1895188252721074E-2</v>
       </c>
       <c r="I59" s="14">
-        <v>0.1685384507000087</v>
+        <v>0.16343447305621009</v>
       </c>
       <c r="J59" s="14">
-        <v>0.33219858506456379</v>
+        <v>0.32789428445347341</v>
       </c>
       <c r="K59" s="14">
-        <v>0.15903497812986719</v>
+        <v>0.15518117043189161</v>
       </c>
       <c r="L59" s="14">
-        <v>6.9490373286759111E-2</v>
+        <v>6.5509278986559533E-2</v>
       </c>
       <c r="M59" s="14">
         <v>1</v>
       </c>
       <c r="N59" s="14">
-        <v>0.1203791872264824</v>
+        <v>0.117220669409272</v>
       </c>
       <c r="O59" s="14">
-        <v>-0.26781557090487668</v>
+        <v>-0.24503212286686771</v>
       </c>
       <c r="P59" s="14">
-        <v>-4.6224121817428472E-2</v>
+        <v>-4.0038410433586018E-2</v>
       </c>
       <c r="Q59" s="14">
-        <v>-5.5316544751005933E-2</v>
+        <v>-5.3706951104861088E-2</v>
       </c>
       <c r="R59" s="14">
-        <v>5.0230135380452283E-2</v>
+        <v>4.7079157368713771E-2</v>
       </c>
       <c r="S59" s="14">
-        <v>-9.7267419356308633E-4</v>
+        <v>4.3688181298192396E-3</v>
       </c>
       <c r="T59" s="14">
-        <v>-5.8765907242077413E-2</v>
+        <v>-4.9962178910365682E-2</v>
       </c>
       <c r="U59" s="14">
-        <v>7.6238008933324539E-2</v>
+        <v>7.023366380481455E-2</v>
       </c>
       <c r="V59" s="14">
-        <v>-2.1629109015465369E-2</v>
+        <v>-1.5102555018010611E-2</v>
       </c>
       <c r="W59" s="14">
-        <v>0.1007360365083079</v>
+        <v>9.616543852347606E-2</v>
       </c>
       <c r="X59" s="14">
-        <v>-7.9302732650693552E-3</v>
+        <v>-1.139026167706811E-2</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -10581,73 +10696,73 @@
         <v>20</v>
       </c>
       <c r="B60" s="14">
-        <v>0.1226111300670176</v>
+        <v>0.12060323683919839</v>
       </c>
       <c r="C60">
-        <v>-6.084151847845793E-2</v>
+        <v>-5.8297815829115647E-2</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.14806424797469989</v>
+        <v>-0.13916558636084569</v>
       </c>
       <c r="E60" s="14">
-        <v>-0.11065961092397281</v>
+        <v>-0.1088025933540708</v>
       </c>
       <c r="F60">
-        <v>0.21231002999501869</v>
+        <v>0.2070699479970442</v>
       </c>
       <c r="G60">
-        <v>-0.2414084925065049</v>
+        <v>-0.2373779419912441</v>
       </c>
       <c r="H60">
-        <v>2.3133693597457219E-3</v>
+        <v>7.4515442097197618E-4</v>
       </c>
       <c r="I60" s="14">
-        <v>1.8128909552688512E-2</v>
+        <v>1.6543198288672931E-2</v>
       </c>
       <c r="J60">
-        <v>0.15810616209430309</v>
+        <v>0.15602275394436391</v>
       </c>
       <c r="K60" s="14">
-        <v>-3.6681309129451722E-2</v>
+        <v>-3.7757564675848891E-2</v>
       </c>
       <c r="L60" s="14">
-        <v>-2.6969403185146861E-3</v>
+        <v>-5.0792989052443182E-3</v>
       </c>
       <c r="M60" s="14">
-        <v>0.1203791872264824</v>
+        <v>0.117220669409272</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60" s="14">
-        <v>-0.18682949388980519</v>
+        <v>-0.17724274902069659</v>
       </c>
       <c r="P60">
-        <v>4.7754045093455579E-2</v>
+        <v>4.7195334525938673E-2</v>
       </c>
       <c r="Q60">
-        <v>-0.1035072310202472</v>
+        <v>-9.9165519927754769E-2</v>
       </c>
       <c r="R60">
-        <v>2.367353861596705E-3</v>
+        <v>2.0256620405094219E-3</v>
       </c>
       <c r="S60" s="14">
-        <v>3.7015483136730483E-2</v>
+        <v>3.6720879890772641E-2</v>
       </c>
       <c r="T60">
-        <v>-0.13309178005858249</v>
+        <v>-0.1288635154256913</v>
       </c>
       <c r="U60">
-        <v>3.2356867392892901E-3</v>
+        <v>-2.2911467483139858E-3</v>
       </c>
       <c r="V60" s="14">
-        <v>-0.18203428487924531</v>
+        <v>-0.17497741438294279</v>
       </c>
       <c r="W60">
-        <v>2.3817343731975589E-2</v>
+        <v>2.441097112982862E-2</v>
       </c>
       <c r="X60" s="14">
-        <v>0.27863104698453778</v>
+        <v>0.2701107199482542</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -10655,73 +10770,73 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <v>-0.22074224948199431</v>
+        <v>-0.18424161890824151</v>
       </c>
       <c r="C61" s="14">
-        <v>0.21833277612280871</v>
+        <v>0.19640588191226929</v>
       </c>
       <c r="D61" s="14">
-        <v>5.218228190943365E-2</v>
+        <v>5.0950366385388669E-2</v>
       </c>
       <c r="E61" s="14">
-        <v>8.8323170135251053E-2</v>
+        <v>9.0441499834923847E-2</v>
       </c>
       <c r="F61" s="14">
-        <v>-0.15719834139986699</v>
+        <v>-0.14329898566525501</v>
       </c>
       <c r="G61" s="14">
-        <v>0.13803430865712801</v>
+        <v>0.123707888288475</v>
       </c>
       <c r="H61" s="14">
-        <v>-4.1885664820896618E-2</v>
+        <v>-2.6812121563571281E-2</v>
       </c>
       <c r="I61" s="14">
-        <v>-8.1189125212920474E-2</v>
+        <v>-6.7813517981677993E-2</v>
       </c>
       <c r="J61" s="14">
-        <v>-0.32548393126149983</v>
+        <v>-0.31876200684768208</v>
       </c>
       <c r="K61" s="14">
-        <v>-3.7195347810590813E-2</v>
+        <v>-2.9250178076818598E-2</v>
       </c>
       <c r="L61" s="14">
-        <v>-2.8466021862099591E-2</v>
+        <v>-2.2749816468973349E-2</v>
       </c>
       <c r="M61" s="14">
-        <v>-0.26781557090487668</v>
+        <v>-0.24503212286686771</v>
       </c>
       <c r="N61" s="14">
-        <v>-0.18682949388980519</v>
+        <v>-0.17724274902069659</v>
       </c>
       <c r="O61" s="14">
         <v>1</v>
       </c>
       <c r="P61" s="14">
-        <v>2.8887638997858341E-2</v>
+        <v>2.0774875299367231E-2</v>
       </c>
       <c r="Q61" s="14">
-        <v>3.2605805939030702E-2</v>
+        <v>2.714539005462132E-2</v>
       </c>
       <c r="R61" s="14">
-        <v>-4.6258874350223918E-2</v>
+        <v>-4.2053142094340683E-2</v>
       </c>
       <c r="S61" s="14">
-        <v>3.5025542731714439E-2</v>
+        <v>2.9075792588753539E-2</v>
       </c>
       <c r="T61" s="14">
-        <v>7.7936395635970906E-2</v>
+        <v>7.221661490087973E-2</v>
       </c>
       <c r="U61" s="14">
-        <v>-2.5498696467048651E-2</v>
+        <v>-1.861711597304545E-2</v>
       </c>
       <c r="V61" s="14">
-        <v>0.1938915715453576</v>
+        <v>0.1747952333749756</v>
       </c>
       <c r="W61" s="14">
-        <v>-2.75830260787438E-2</v>
+        <v>-3.0427731273598969E-2</v>
       </c>
       <c r="X61" s="14">
-        <v>-0.15884907576418261</v>
+        <v>-0.15053657471592399</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -10729,73 +10844,73 @@
         <v>22</v>
       </c>
       <c r="B62" s="14">
-        <v>-0.13754647094968619</v>
+        <v>-0.13009451347724879</v>
       </c>
       <c r="C62">
-        <v>0.24274831386244869</v>
+        <v>0.22666189234615389</v>
       </c>
       <c r="D62" s="14">
-        <v>-0.1067363692665227</v>
+        <v>-9.8182515495621264E-2</v>
       </c>
       <c r="E62" s="14">
-        <v>-0.13906266133008291</v>
+        <v>-0.1355216775912837</v>
       </c>
       <c r="F62">
-        <v>4.3138130387966177E-2</v>
+        <v>4.2230149739737648E-2</v>
       </c>
       <c r="G62">
-        <v>4.0828887718335059E-2</v>
+        <v>3.5243799579317628E-2</v>
       </c>
       <c r="H62">
-        <v>-0.19397159107408141</v>
+        <v>-0.18725487414859329</v>
       </c>
       <c r="I62" s="14">
-        <v>-0.17111304216454001</v>
+        <v>-0.16295163089974071</v>
       </c>
       <c r="J62">
-        <v>2.3790140565094521E-2</v>
+        <v>2.4613547872748848E-2</v>
       </c>
       <c r="K62" s="14">
-        <v>-0.17595873255177419</v>
+        <v>-0.16191325501570469</v>
       </c>
       <c r="L62" s="14">
-        <v>-1.5689396901825889E-3</v>
+        <v>-9.6483060556540774E-3</v>
       </c>
       <c r="M62" s="14">
-        <v>-4.6224121817428472E-2</v>
+        <v>-4.0038410433586018E-2</v>
       </c>
       <c r="N62">
-        <v>4.7754045093455579E-2</v>
+        <v>4.7195334525938673E-2</v>
       </c>
       <c r="O62" s="14">
-        <v>2.8887638997858341E-2</v>
+        <v>2.0774875299367231E-2</v>
       </c>
       <c r="P62">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>-0.1088731746243394</v>
+        <v>-9.8114346034470154E-2</v>
       </c>
       <c r="R62">
-        <v>5.2037387048196309E-3</v>
+        <v>-1.8140993130186221E-3</v>
       </c>
       <c r="S62" s="14">
-        <v>0.37929437874659749</v>
+        <v>0.37548273401531351</v>
       </c>
       <c r="T62">
-        <v>-3.7369417668192829E-2</v>
+        <v>-3.5123919986245353E-2</v>
       </c>
       <c r="U62">
-        <v>-3.7494277165732073E-2</v>
+        <v>-3.0958964396047069E-2</v>
       </c>
       <c r="V62" s="14">
-        <v>-7.0726634866037599E-2</v>
+        <v>-6.1536870602572062E-2</v>
       </c>
       <c r="W62">
-        <v>-3.7420075363184972E-2</v>
+        <v>-2.9935141099367669E-2</v>
       </c>
       <c r="X62" s="14">
-        <v>0.12719164542283309</v>
+        <v>0.1105345384251093</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -10803,73 +10918,73 @@
         <v>24</v>
       </c>
       <c r="B63" s="14">
-        <v>5.1764357826274678E-2</v>
+        <v>4.6769652955710998E-2</v>
       </c>
       <c r="C63">
-        <v>-0.1596361618078227</v>
+        <v>-0.1518445271379984</v>
       </c>
       <c r="D63" s="14">
-        <v>0.51953420585288967</v>
+        <v>0.49892288849901972</v>
       </c>
       <c r="E63" s="14">
-        <v>0.37359040578923791</v>
+        <v>0.36633212833382361</v>
       </c>
       <c r="F63">
-        <v>-0.1524330778905546</v>
+        <v>-0.13918817966065991</v>
       </c>
       <c r="G63">
-        <v>5.0504450678870723E-2</v>
+        <v>4.3341497937303068E-2</v>
       </c>
       <c r="H63">
-        <v>9.3960317638610888E-2</v>
+        <v>9.1775126600014412E-2</v>
       </c>
       <c r="I63" s="14">
-        <v>-6.1693147173659438E-2</v>
+        <v>-5.9485157213233698E-2</v>
       </c>
       <c r="J63">
-        <v>-4.0305481553159273E-2</v>
+        <v>-3.7957360234781468E-2</v>
       </c>
       <c r="K63" s="14">
-        <v>7.9097523543149917E-2</v>
+        <v>7.1885826990044394E-2</v>
       </c>
       <c r="L63" s="14">
-        <v>-8.542509621379607E-2</v>
+        <v>-8.20638309441791E-2</v>
       </c>
       <c r="M63" s="14">
-        <v>-5.5316544751005933E-2</v>
+        <v>-5.3706951104861088E-2</v>
       </c>
       <c r="N63">
-        <v>-0.1035072310202472</v>
+        <v>-9.9165519927754769E-2</v>
       </c>
       <c r="O63" s="14">
-        <v>3.2605805939030702E-2</v>
+        <v>2.714539005462132E-2</v>
       </c>
       <c r="P63">
-        <v>-0.1088731746243394</v>
+        <v>-9.8114346034470154E-2</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>-9.6696042713468988E-2</v>
+        <v>-9.0135059818112942E-2</v>
       </c>
       <c r="S63" s="14">
-        <v>-8.9344826109860664E-2</v>
+        <v>-8.6169480901099632E-2</v>
       </c>
       <c r="T63">
-        <v>4.1504532901247317E-2</v>
+        <v>3.9312010060234159E-2</v>
       </c>
       <c r="U63">
-        <v>-4.5687290132462227E-2</v>
+        <v>-4.2724517716576579E-2</v>
       </c>
       <c r="V63" s="14">
-        <v>0.1051393112083459</v>
+        <v>9.6715769719325703E-2</v>
       </c>
       <c r="W63">
-        <v>-1.8163178139466139E-2</v>
+        <v>-1.417765453112888E-2</v>
       </c>
       <c r="X63" s="14">
-        <v>-0.1245972999285728</v>
+        <v>-0.1084910534421335</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -10877,73 +10992,73 @@
         <v>25</v>
       </c>
       <c r="B64" s="14">
-        <v>3.7109561731192238E-2</v>
+        <v>3.4645714841517662E-2</v>
       </c>
       <c r="C64">
-        <v>-1.5031874052216331E-2</v>
+        <v>-1.9573696009567682E-2</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.10847399344214489</v>
+        <v>-0.1015295855942827</v>
       </c>
       <c r="E64" s="14">
-        <v>-3.5307820727593031E-2</v>
+        <v>-3.1377702116266941E-2</v>
       </c>
       <c r="F64">
-        <v>8.1960762826048014E-2</v>
+        <v>8.0024742228012868E-2</v>
       </c>
       <c r="G64">
-        <v>3.6720686899801652E-2</v>
+        <v>3.6573470878985333E-2</v>
       </c>
       <c r="H64">
-        <v>-1.7708105199397719E-2</v>
+        <v>-1.6987388219678819E-2</v>
       </c>
       <c r="I64" s="14">
-        <v>7.2357930169486898E-2</v>
+        <v>6.9997523736011313E-2</v>
       </c>
       <c r="J64">
-        <v>6.2618113861771699E-2</v>
+        <v>5.9535036068467419E-2</v>
       </c>
       <c r="K64" s="14">
-        <v>3.5143134436289872E-2</v>
+        <v>3.1957909881921202E-2</v>
       </c>
       <c r="L64" s="14">
-        <v>0.28262121581425009</v>
+        <v>0.27945347329690912</v>
       </c>
       <c r="M64" s="14">
-        <v>5.0230135380452283E-2</v>
+        <v>4.7079157368713771E-2</v>
       </c>
       <c r="N64">
-        <v>2.367353861596705E-3</v>
+        <v>2.0256620405094219E-3</v>
       </c>
       <c r="O64" s="14">
-        <v>-4.6258874350223918E-2</v>
+        <v>-4.2053142094340683E-2</v>
       </c>
       <c r="P64">
-        <v>5.2037387048196309E-3</v>
+        <v>-1.8140993130186221E-3</v>
       </c>
       <c r="Q64">
-        <v>-9.6696042713468988E-2</v>
+        <v>-9.0135059818112942E-2</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64" s="14">
-        <v>1.11750718910043E-2</v>
+        <v>6.5542695654180064E-3</v>
       </c>
       <c r="T64">
-        <v>2.3681230636223589E-2</v>
+        <v>2.205814403098811E-2</v>
       </c>
       <c r="U64">
-        <v>0.19508328164023159</v>
+        <v>0.19448052067899399</v>
       </c>
       <c r="V64" s="14">
-        <v>-6.4444754019360853E-2</v>
+        <v>-5.6730340877790317E-2</v>
       </c>
       <c r="W64">
-        <v>-3.3246521216015401E-2</v>
+        <v>-3.0785030440416299E-2</v>
       </c>
       <c r="X64" s="14">
-        <v>2.9329863100859749E-2</v>
+        <v>2.6238308750082609E-2</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -10951,73 +11066,73 @@
         <v>26</v>
       </c>
       <c r="B65" s="14">
-        <v>-0.1159204596047714</v>
+        <v>-0.1146805211806993</v>
       </c>
       <c r="C65" s="14">
-        <v>0.18612361129666449</v>
+        <v>0.17985564250006131</v>
       </c>
       <c r="D65" s="14">
-        <v>-9.9844260502034626E-2</v>
+        <v>-9.8706487278832231E-2</v>
       </c>
       <c r="E65" s="14">
-        <v>-9.3025826201603906E-2</v>
+        <v>-9.1514971337069859E-2</v>
       </c>
       <c r="F65" s="14">
-        <v>2.2363826647809879E-2</v>
+        <v>2.1215212495365812E-2</v>
       </c>
       <c r="G65" s="14">
-        <v>5.6527678202311547E-2</v>
+        <v>5.5686934034782608E-2</v>
       </c>
       <c r="H65" s="14">
-        <v>-0.1783286594669834</v>
+        <v>-0.1740809594711891</v>
       </c>
       <c r="I65" s="14">
-        <v>-0.12552007136172461</v>
+        <v>-0.1217794916620374</v>
       </c>
       <c r="J65" s="14">
-        <v>4.1438481786824757E-2</v>
+        <v>4.2693883081273802E-2</v>
       </c>
       <c r="K65" s="14">
-        <v>-0.1376065889884823</v>
+        <v>-0.12962756511679621</v>
       </c>
       <c r="L65" s="14">
-        <v>5.1602069835686376E-3</v>
+        <v>2.225764276003633E-3</v>
       </c>
       <c r="M65" s="14">
-        <v>-9.7267419356308633E-4</v>
+        <v>4.3688181298192396E-3</v>
       </c>
       <c r="N65" s="14">
-        <v>3.7015483136730483E-2</v>
+        <v>3.6720879890772641E-2</v>
       </c>
       <c r="O65" s="14">
-        <v>3.5025542731714439E-2</v>
+        <v>2.9075792588753539E-2</v>
       </c>
       <c r="P65" s="14">
-        <v>0.37929437874659749</v>
+        <v>0.37548273401531351</v>
       </c>
       <c r="Q65" s="14">
-        <v>-8.9344826109860664E-2</v>
+        <v>-8.6169480901099632E-2</v>
       </c>
       <c r="R65" s="14">
-        <v>1.11750718910043E-2</v>
+        <v>6.5542695654180064E-3</v>
       </c>
       <c r="S65" s="14">
         <v>1</v>
       </c>
       <c r="T65" s="14">
-        <v>-3.4463944603068293E-2</v>
+        <v>-3.387761798524707E-2</v>
       </c>
       <c r="U65" s="14">
-        <v>-4.3144707734109063E-2</v>
+        <v>-4.0188345928828709E-2</v>
       </c>
       <c r="V65" s="14">
-        <v>-6.2426096117028318E-2</v>
+        <v>-5.6787465955228232E-2</v>
       </c>
       <c r="W65" s="14">
-        <v>-3.66360542588628E-2</v>
+        <v>-3.5612795691198823E-2</v>
       </c>
       <c r="X65" s="14">
-        <v>0.1066682453496897</v>
+        <v>9.9070759049781187E-2</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -11025,73 +11140,73 @@
         <v>27</v>
       </c>
       <c r="B66" s="14">
-        <v>-6.2750243511928233E-2</v>
+        <v>-5.9190794045742949E-2</v>
       </c>
       <c r="C66">
-        <v>1.1245837016278929E-2</v>
+        <v>9.8942657701809999E-3</v>
       </c>
       <c r="D66" s="14">
-        <v>6.9576857880913626E-2</v>
+        <v>6.4683188308091596E-2</v>
       </c>
       <c r="E66" s="14">
-        <v>4.5820770830932563E-2</v>
+        <v>4.4917725031447732E-2</v>
       </c>
       <c r="F66">
-        <v>-8.231104678970419E-2</v>
+        <v>-7.4675948116477112E-2</v>
       </c>
       <c r="G66">
-        <v>0.21080070779115859</v>
+        <v>0.2017484985419869</v>
       </c>
       <c r="H66">
-        <v>8.1418110159118791E-4</v>
+        <v>4.1389762824149191E-4</v>
       </c>
       <c r="I66" s="14">
-        <v>1.061002045127816E-2</v>
+        <v>1.0971854334785969E-2</v>
       </c>
       <c r="J66">
-        <v>-7.5489688082124473E-2</v>
+        <v>-7.0639154663803716E-2</v>
       </c>
       <c r="K66" s="14">
-        <v>1.9108540710776781E-2</v>
+        <v>2.1013525640318439E-2</v>
       </c>
       <c r="L66" s="14">
-        <v>2.9158877164817638E-2</v>
+        <v>3.1646242984017199E-2</v>
       </c>
       <c r="M66" s="14">
-        <v>-5.8765907242077413E-2</v>
+        <v>-4.9962178910365682E-2</v>
       </c>
       <c r="N66">
-        <v>-0.13309178005858249</v>
+        <v>-0.1288635154256913</v>
       </c>
       <c r="O66" s="14">
-        <v>7.7936395635970906E-2</v>
+        <v>7.221661490087973E-2</v>
       </c>
       <c r="P66">
-        <v>-3.7369417668192829E-2</v>
+        <v>-3.5123919986245353E-2</v>
       </c>
       <c r="Q66">
-        <v>4.1504532901247317E-2</v>
+        <v>3.9312010060234159E-2</v>
       </c>
       <c r="R66">
-        <v>2.3681230636223589E-2</v>
+        <v>2.205814403098811E-2</v>
       </c>
       <c r="S66" s="14">
-        <v>-3.4463944603068293E-2</v>
+        <v>-3.387761798524707E-2</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66">
-        <v>2.0390996637175571E-2</v>
+        <v>2.440955952009851E-2</v>
       </c>
       <c r="V66" s="14">
-        <v>0.1030333644515072</v>
+        <v>9.653476242392138E-2</v>
       </c>
       <c r="W66">
-        <v>-1.7954856893839119E-2</v>
+        <v>-1.558394189176731E-2</v>
       </c>
       <c r="X66" s="14">
-        <v>-0.12708142900860331</v>
+        <v>-0.11906181150714271</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -11099,73 +11214,73 @@
         <v>28</v>
       </c>
       <c r="B67" s="14">
-        <v>8.5454198806125273E-2</v>
+        <v>6.7301011193528756E-2</v>
       </c>
       <c r="C67">
-        <v>-6.2981334047702453E-2</v>
+        <v>-5.4626038732460268E-2</v>
       </c>
       <c r="D67" s="14">
-        <v>-4.9096817971125209E-2</v>
+        <v>-4.3859971974811202E-2</v>
       </c>
       <c r="E67" s="14">
-        <v>1.806459150719603E-2</v>
+        <v>1.7909734216816769E-2</v>
       </c>
       <c r="F67">
-        <v>6.5844590883221754E-2</v>
+        <v>6.2456738531358837E-2</v>
       </c>
       <c r="G67">
-        <v>-3.7798515879055818E-4</v>
+        <v>5.9336856385667014E-3</v>
       </c>
       <c r="H67">
-        <v>4.1335833489296578E-2</v>
+        <v>3.4584175190629431E-2</v>
       </c>
       <c r="I67" s="14">
-        <v>8.5300905656760559E-2</v>
+        <v>7.613035617463608E-2</v>
       </c>
       <c r="J67">
-        <v>4.9693614707333633E-2</v>
+        <v>4.9199122367421078E-2</v>
       </c>
       <c r="K67" s="14">
-        <v>6.4489341160118049E-2</v>
+        <v>5.5614991140182229E-2</v>
       </c>
       <c r="L67" s="14">
-        <v>0.32149067722688918</v>
+        <v>0.32505988811101932</v>
       </c>
       <c r="M67" s="14">
-        <v>7.6238008933324539E-2</v>
+        <v>7.023366380481455E-2</v>
       </c>
       <c r="N67">
-        <v>3.2356867392892901E-3</v>
+        <v>-2.2911467483139858E-3</v>
       </c>
       <c r="O67" s="14">
-        <v>-2.5498696467048651E-2</v>
+        <v>-1.861711597304545E-2</v>
       </c>
       <c r="P67">
-        <v>-3.7494277165732073E-2</v>
+        <v>-3.0958964396047069E-2</v>
       </c>
       <c r="Q67">
-        <v>-4.5687290132462227E-2</v>
+        <v>-4.2724517716576579E-2</v>
       </c>
       <c r="R67">
-        <v>0.19508328164023159</v>
+        <v>0.19448052067899399</v>
       </c>
       <c r="S67" s="14">
-        <v>-4.3144707734109063E-2</v>
+        <v>-4.0188345928828709E-2</v>
       </c>
       <c r="T67">
-        <v>2.0390996637175571E-2</v>
+        <v>2.440955952009851E-2</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="V67" s="14">
-        <v>-2.877729142517765E-2</v>
+        <v>-2.5373797227345011E-2</v>
       </c>
       <c r="W67">
-        <v>-2.4010816436539149E-2</v>
+        <v>-2.3510095167042791E-2</v>
       </c>
       <c r="X67" s="14">
-        <v>3.5206912764484768E-3</v>
+        <v>3.3292773060286359E-3</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -11173,73 +11288,73 @@
         <v>30</v>
       </c>
       <c r="B68" s="14">
-        <v>-2.310008747152674E-2</v>
+        <v>-1.5515696624193829E-2</v>
       </c>
       <c r="C68" s="14">
-        <v>-5.4555059838367718E-2</v>
+        <v>-5.4023227804442207E-2</v>
       </c>
       <c r="D68" s="14">
-        <v>0.1229351664332254</v>
+        <v>0.1116778017247707</v>
       </c>
       <c r="E68" s="14">
-        <v>9.8018983918653282E-2</v>
+        <v>9.2225600214285774E-2</v>
       </c>
       <c r="F68" s="14">
-        <v>-0.27512392343363962</v>
+        <v>-0.26233081285000931</v>
       </c>
       <c r="G68" s="14">
-        <v>7.8270529478005214E-3</v>
+        <v>2.2159993300839582E-3</v>
       </c>
       <c r="H68" s="14">
-        <v>4.4889021423326743E-2</v>
+        <v>4.3590865735566767E-2</v>
       </c>
       <c r="I68" s="14">
-        <v>-1.271782715406228E-2</v>
+        <v>-1.1818622302189229E-2</v>
       </c>
       <c r="J68" s="14">
-        <v>-0.15770745452282761</v>
+        <v>-0.15014394937546199</v>
       </c>
       <c r="K68" s="14">
-        <v>4.5739550423640807E-2</v>
+        <v>4.4123642186183511E-2</v>
       </c>
       <c r="L68" s="14">
-        <v>-3.8388918467875538E-2</v>
+        <v>-3.4616628819356683E-2</v>
       </c>
       <c r="M68" s="14">
-        <v>-2.1629109015465369E-2</v>
+        <v>-1.5102555018010611E-2</v>
       </c>
       <c r="N68" s="14">
-        <v>-0.18203428487924531</v>
+        <v>-0.17497741438294279</v>
       </c>
       <c r="O68" s="14">
-        <v>0.1938915715453576</v>
+        <v>0.1747952333749756</v>
       </c>
       <c r="P68" s="14">
-        <v>-7.0726634866037599E-2</v>
+        <v>-6.1536870602572062E-2</v>
       </c>
       <c r="Q68" s="14">
-        <v>0.1051393112083459</v>
+        <v>9.6715769719325703E-2</v>
       </c>
       <c r="R68" s="14">
-        <v>-6.4444754019360853E-2</v>
+        <v>-5.6730340877790317E-2</v>
       </c>
       <c r="S68" s="14">
-        <v>-6.2426096117028318E-2</v>
+        <v>-5.6787465955228232E-2</v>
       </c>
       <c r="T68" s="14">
-        <v>0.1030333644515072</v>
+        <v>9.653476242392138E-2</v>
       </c>
       <c r="U68" s="14">
-        <v>-2.877729142517765E-2</v>
+        <v>-2.5373797227345011E-2</v>
       </c>
       <c r="V68" s="14">
         <v>1</v>
       </c>
       <c r="W68" s="14">
-        <v>0.1209861082827494</v>
+        <v>0.1098003419015926</v>
       </c>
       <c r="X68" s="14">
-        <v>-0.30625345939093179</v>
+        <v>-0.29567326632008761</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -11247,73 +11362,73 @@
         <v>31</v>
       </c>
       <c r="B69" s="14">
-        <v>4.3831153531282273E-2</v>
+        <v>4.1944309825564921E-2</v>
       </c>
       <c r="C69">
-        <v>-7.1050611381487785E-2</v>
+        <v>-7.0514488065189423E-2</v>
       </c>
       <c r="D69" s="14">
-        <v>-4.0452236186095697E-2</v>
+        <v>-3.0404217575343409E-2</v>
       </c>
       <c r="E69" s="14">
-        <v>1.13998893805131E-2</v>
+        <v>1.2954173694352219E-2</v>
       </c>
       <c r="F69">
-        <v>-4.315821822069929E-2</v>
+        <v>-4.3260006229646653E-2</v>
       </c>
       <c r="G69">
-        <v>-0.16278973850920539</v>
+        <v>-0.15205954440890099</v>
       </c>
       <c r="H69">
-        <v>-2.49850743079543E-2</v>
+        <v>-2.6091030799728548E-2</v>
       </c>
       <c r="I69" s="14">
-        <v>1.51629535065006E-2</v>
+        <v>1.0287784829173439E-2</v>
       </c>
       <c r="J69">
-        <v>5.1980856999410179E-2</v>
+        <v>5.5453291180839692E-2</v>
       </c>
       <c r="K69" s="14">
-        <v>1.795574181478524E-2</v>
+        <v>1.166111382892712E-2</v>
       </c>
       <c r="L69" s="14">
-        <v>-1.1685495427340971E-2</v>
+        <v>-1.0367494045587551E-2</v>
       </c>
       <c r="M69" s="14">
-        <v>0.1007360365083079</v>
+        <v>9.616543852347606E-2</v>
       </c>
       <c r="N69">
-        <v>2.3817343731975589E-2</v>
+        <v>2.441097112982862E-2</v>
       </c>
       <c r="O69" s="14">
-        <v>-2.75830260787438E-2</v>
+        <v>-3.0427731273598969E-2</v>
       </c>
       <c r="P69">
-        <v>-3.7420075363184972E-2</v>
+        <v>-2.9935141099367669E-2</v>
       </c>
       <c r="Q69">
-        <v>-1.8163178139466139E-2</v>
+        <v>-1.417765453112888E-2</v>
       </c>
       <c r="R69">
-        <v>-3.3246521216015401E-2</v>
+        <v>-3.0785030440416299E-2</v>
       </c>
       <c r="S69" s="14">
-        <v>-3.66360542588628E-2</v>
+        <v>-3.5612795691198823E-2</v>
       </c>
       <c r="T69">
-        <v>-1.7954856893839119E-2</v>
+        <v>-1.558394189176731E-2</v>
       </c>
       <c r="U69">
-        <v>-2.4010816436539149E-2</v>
+        <v>-2.3510095167042791E-2</v>
       </c>
       <c r="V69" s="14">
-        <v>0.1209861082827494</v>
+        <v>0.1098003419015926</v>
       </c>
       <c r="W69">
         <v>1</v>
       </c>
       <c r="X69" s="14">
-        <v>-9.3712388019549925E-2</v>
+        <v>-8.431403138846276E-2</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
@@ -11321,70 +11436,70 @@
         <v>32</v>
       </c>
       <c r="B70" s="14">
-        <v>7.9397401628896417E-3</v>
+        <v>9.0777747346638543E-3</v>
       </c>
       <c r="C70" s="14">
-        <v>8.5872272911446987E-2</v>
+        <v>8.1319098144337049E-2</v>
       </c>
       <c r="D70" s="14">
-        <v>-0.15354298693497229</v>
+        <v>-0.14108177244651551</v>
       </c>
       <c r="E70" s="14">
-        <v>-0.1657350554243042</v>
+        <v>-0.15800910802431051</v>
       </c>
       <c r="F70" s="14">
-        <v>0.17972987767559709</v>
+        <v>0.16856851257778321</v>
       </c>
       <c r="G70" s="14">
-        <v>-2.2731582119105129E-2</v>
+        <v>-1.5535118749922231E-2</v>
       </c>
       <c r="H70" s="14">
-        <v>-3.0465162211791661E-2</v>
+        <v>-2.6931237450697251E-2</v>
       </c>
       <c r="I70" s="14">
-        <v>-2.3402346091531259E-2</v>
+        <v>-2.0791931883061641E-2</v>
       </c>
       <c r="J70" s="14">
-        <v>0.13939151031698849</v>
+        <v>0.1338084643563329</v>
       </c>
       <c r="K70" s="14">
-        <v>-8.8282702933610444E-2</v>
+        <v>-8.1544269401110786E-2</v>
       </c>
       <c r="L70" s="14">
-        <v>9.7764512507866018E-3</v>
+        <v>9.7435543977717962E-3</v>
       </c>
       <c r="M70" s="14">
-        <v>-7.9302732650693552E-3</v>
+        <v>-1.139026167706811E-2</v>
       </c>
       <c r="N70" s="14">
-        <v>0.27863104698453778</v>
+        <v>0.2701107199482542</v>
       </c>
       <c r="O70" s="14">
-        <v>-0.15884907576418261</v>
+        <v>-0.15053657471592399</v>
       </c>
       <c r="P70" s="14">
-        <v>0.12719164542283309</v>
+        <v>0.1105345384251093</v>
       </c>
       <c r="Q70" s="14">
-        <v>-0.1245972999285728</v>
+        <v>-0.1084910534421335</v>
       </c>
       <c r="R70" s="14">
-        <v>2.9329863100859749E-2</v>
+        <v>2.6238308750082609E-2</v>
       </c>
       <c r="S70" s="14">
-        <v>0.1066682453496897</v>
+        <v>9.9070759049781187E-2</v>
       </c>
       <c r="T70" s="14">
-        <v>-0.12708142900860331</v>
+        <v>-0.11906181150714271</v>
       </c>
       <c r="U70" s="14">
-        <v>3.5206912764484768E-3</v>
+        <v>3.3292773060286359E-3</v>
       </c>
       <c r="V70" s="14">
-        <v>-0.30625345939093179</v>
+        <v>-0.29567326632008761</v>
       </c>
       <c r="W70" s="14">
-        <v>-9.3712388019549925E-2</v>
+        <v>-8.431403138846276E-2</v>
       </c>
       <c r="X70" s="14">
         <v>1</v>
@@ -11472,8 +11587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77296828-A876-8F45-874B-CC8E549DDDDE}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11507,23 +11622,23 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.52103901965991628</v>
+        <v>0.76591809290453072</v>
       </c>
       <c r="D2">
-        <v>4.2078039319832561E-2</v>
+        <v>0.53183618580906145</v>
       </c>
       <c r="E2">
-        <v>5.0664585751958653E-2</v>
+        <v>0.39229146821888328</v>
       </c>
       <c r="F2">
         <f>ABS(D2)</f>
-        <v>4.2078039319832561E-2</v>
+        <v>0.53183618580906145</v>
       </c>
       <c r="H2" t="s">
         <v>110</v>
@@ -11531,23 +11646,23 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>0.65565373635604773</v>
+        <v>0.7418212881113837</v>
       </c>
       <c r="D3">
-        <v>0.31130747271209552</v>
+        <v>0.48364257622276741</v>
       </c>
       <c r="E3">
-        <v>0.24857721770804181</v>
+        <v>0.36659072771839413</v>
       </c>
       <c r="F3">
         <f>ABS(D3)</f>
-        <v>0.31130747271209552</v>
+        <v>0.48364257622276741</v>
       </c>
       <c r="H3">
         <v>0.05</v>
@@ -11555,128 +11670,128 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.53673858614629</v>
+        <v>0.3412725652710249</v>
       </c>
       <c r="D4">
-        <v>7.3477172292579995E-2</v>
+        <v>-0.31745486945795021</v>
       </c>
       <c r="E4">
-        <v>6.848833863268422E-2</v>
+        <v>0.2489492309547244</v>
       </c>
       <c r="F4">
         <f>ABS(D4)</f>
-        <v>7.3477172292579995E-2</v>
+        <v>0.31745486945795021</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.3293130723236275</v>
+        <v>0.34241263994571802</v>
       </c>
       <c r="D5">
-        <v>-0.341373855352745</v>
+        <v>-0.31517472010856401</v>
       </c>
       <c r="E5">
-        <v>0.28879070075172558</v>
+        <v>0.2541300799716229</v>
       </c>
       <c r="F5">
         <f>ABS(D5)</f>
-        <v>0.341373855352745</v>
+        <v>0.31517472010856401</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>0.49037011290212462</v>
+        <v>0.35792818070995758</v>
       </c>
       <c r="D6">
-        <v>-1.9259774195750871E-2</v>
+        <v>-0.28414363858008479</v>
       </c>
       <c r="E6">
-        <v>4.085806829645533E-2</v>
+        <v>0.29518412542749489</v>
       </c>
       <c r="F6">
         <f>ABS(D6)</f>
-        <v>1.9259774195750871E-2</v>
+        <v>0.28414363858008479</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>0.53099562339687323</v>
+        <v>0.639271815433888</v>
       </c>
       <c r="D7">
-        <v>6.1991246793746457E-2</v>
+        <v>0.278543630867776</v>
       </c>
       <c r="E7">
-        <v>6.8177205083098102E-2</v>
+        <v>0.21344263329913429</v>
       </c>
       <c r="F7">
         <f>ABS(D7)</f>
-        <v>6.1991246793746457E-2</v>
+        <v>0.278543630867776</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.41447313772506178</v>
+        <v>0.36243268402473172</v>
       </c>
       <c r="D8">
-        <v>-0.17105372454987641</v>
+        <v>-0.27513463195053661</v>
       </c>
       <c r="E8">
-        <v>0.1463476605754834</v>
+        <v>0.2605202031453806</v>
       </c>
       <c r="F8">
         <f>ABS(D8)</f>
-        <v>0.17105372454987641</v>
+        <v>0.27513463195053661</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>0.57450453368859256</v>
+        <v>0.36495978572459592</v>
       </c>
       <c r="D9">
-        <v>0.14900906737718511</v>
+        <v>-0.27008042855080833</v>
       </c>
       <c r="E9">
-        <v>0.1610565123381752</v>
+        <v>0.23586313346084181</v>
       </c>
       <c r="F9">
         <f>ABS(D9)</f>
-        <v>0.14900906737718511</v>
+        <v>0.27008042855080833</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>108</v>
@@ -11689,23 +11804,23 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>0.56665620310629083</v>
+        <v>0.6320636460916621</v>
       </c>
       <c r="D10">
-        <v>0.1333124062125817</v>
+        <v>0.2641272921833242</v>
       </c>
       <c r="E10">
-        <v>0.1208986265883691</v>
+        <v>0.22323647298691249</v>
       </c>
       <c r="F10">
         <f>ABS(D10)</f>
-        <v>0.1333124062125817</v>
+        <v>0.2641272921833242</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -11722,23 +11837,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0.35507522076153503</v>
+        <v>0.61275448142581579</v>
       </c>
       <c r="D11">
-        <v>-0.28984955847693011</v>
+        <v>0.22550896285163161</v>
       </c>
       <c r="E11">
-        <v>0.30328297398244741</v>
+        <v>0.17775194389136961</v>
       </c>
       <c r="F11">
         <f>ABS(D11)</f>
-        <v>0.28984955847693011</v>
+        <v>0.22550896285163161</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>4</v>
@@ -11755,23 +11870,23 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0.49742397004032191</v>
+        <v>0.599457682073544</v>
       </c>
       <c r="D12">
-        <v>-5.1520599193561889E-3</v>
+        <v>0.19891536414708799</v>
       </c>
       <c r="E12">
-        <v>3.6735680824519751E-2</v>
+        <v>0.27023678768608422</v>
       </c>
       <c r="F12">
         <f>ABS(D12)</f>
-        <v>5.1520599193561889E-3</v>
+        <v>0.19891536414708799</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -11788,23 +11903,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0.63695561368253362</v>
+        <v>0.59274784144496973</v>
       </c>
       <c r="D13">
-        <v>0.27391122736506718</v>
+        <v>0.18549568288993951</v>
       </c>
       <c r="E13">
-        <v>0.23089344851261401</v>
+        <v>0.1492742440187679</v>
       </c>
       <c r="F13">
         <f>ABS(D13)</f>
-        <v>0.27391122736506718</v>
+        <v>0.18549568288993951</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -11821,23 +11936,23 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.41943588951906502</v>
+        <v>0.41778652514404119</v>
       </c>
       <c r="D14">
-        <v>-0.1611282209618701</v>
+        <v>-0.16442694971191751</v>
       </c>
       <c r="E14">
-        <v>0.12401181092535681</v>
+        <v>0.14208396881744559</v>
       </c>
       <c r="F14">
         <f>ABS(D14)</f>
-        <v>0.1611282209618701</v>
+        <v>0.16442694971191751</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -11854,23 +11969,23 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>0.74331488762149356</v>
+        <v>0.4195134087863005</v>
       </c>
       <c r="D15">
-        <v>0.48662977524298712</v>
+        <v>-0.160973182427399</v>
       </c>
       <c r="E15">
-        <v>0.37205101586556588</v>
+        <v>0.13551199891288129</v>
       </c>
       <c r="F15">
         <f>ABS(D15)</f>
-        <v>0.48662977524298712</v>
+        <v>0.160973182427399</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -11887,23 +12002,23 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>0.59856231472796084</v>
+        <v>0.57303457293288673</v>
       </c>
       <c r="D16">
-        <v>0.19712462945592171</v>
+        <v>0.14606914586577349</v>
       </c>
       <c r="E16">
-        <v>0.16214283856011719</v>
+        <v>0.15738946802369849</v>
       </c>
       <c r="F16">
         <f>ABS(D16)</f>
-        <v>0.19712462945592171</v>
+        <v>0.14606914586577349</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -11920,23 +12035,23 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.50837993843623175</v>
+        <v>0.57236681113599275</v>
       </c>
       <c r="D17">
-        <v>1.6759876872463501E-2</v>
+        <v>0.1447336222719855</v>
       </c>
       <c r="E17">
-        <v>3.3315985040762393E-2</v>
+        <v>0.216131640657654</v>
       </c>
       <c r="F17">
         <f>ABS(D17)</f>
-        <v>1.6759876872463501E-2</v>
+        <v>0.1447336222719855</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -11953,23 +12068,23 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.55043486724198198</v>
+        <v>0.56728507320948651</v>
       </c>
       <c r="D18">
-        <v>0.100869734483964</v>
+        <v>0.134570146418973</v>
       </c>
       <c r="E18">
-        <v>8.4850450542773515E-2</v>
+        <v>0.1105583222876081</v>
       </c>
       <c r="F18">
         <f>ABS(D18)</f>
-        <v>0.100869734483964</v>
+        <v>0.134570146418973</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
@@ -11983,23 +12098,23 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
       <c r="C19">
-        <v>0.44717458118135928</v>
+        <v>0.43870292701924152</v>
       </c>
       <c r="D19">
-        <v>-0.10565083763728129</v>
+        <v>-0.12259414596151701</v>
       </c>
       <c r="E19">
-        <v>9.5174907633878147E-2</v>
+        <v>0.1837021749370833</v>
       </c>
       <c r="F19">
         <f>ABS(D19)</f>
-        <v>0.10565083763728129</v>
+        <v>0.12259414596151701</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
@@ -12013,23 +12128,23 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>0.61222835406522524</v>
+        <v>0.44061819436629063</v>
       </c>
       <c r="D20">
-        <v>0.22445670813045049</v>
+        <v>-0.1187636112674189</v>
       </c>
       <c r="E20">
-        <v>0.1777619804574852</v>
+        <v>0.1159016052034841</v>
       </c>
       <c r="F20">
         <f>ABS(D20)</f>
-        <v>0.22445670813045049</v>
+        <v>0.1187636112674189</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>32</v>
@@ -12043,23 +12158,23 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>0.44200020310840382</v>
+        <v>0.44268513271575882</v>
       </c>
       <c r="D21">
-        <v>-0.1159995937831925</v>
+        <v>-0.1146297345684824</v>
       </c>
       <c r="E21">
-        <v>0.1135230710941481</v>
+        <v>0.1036451091351108</v>
       </c>
       <c r="F21">
         <f>ABS(D21)</f>
-        <v>0.1159995937831925</v>
+        <v>0.1146297345684824</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>19</v>
@@ -12070,23 +12185,23 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>0.340672880445613</v>
+        <v>0.54196796724276119</v>
       </c>
       <c r="D22">
-        <v>-0.318654239108774</v>
+        <v>8.393593448552239E-2</v>
       </c>
       <c r="E22">
-        <v>0.26400579690929221</v>
+        <v>7.4425231610270592E-2</v>
       </c>
       <c r="F22">
         <f>ABS(D22)</f>
-        <v>0.318654239108774</v>
+        <v>8.393593448552239E-2</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -12094,23 +12209,23 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>0.36414167352608728</v>
+        <v>0.5321171436302603</v>
       </c>
       <c r="D23">
-        <v>-0.27171665294782532</v>
+        <v>6.4234287260520606E-2</v>
       </c>
       <c r="E23">
-        <v>0.23588082951162459</v>
+        <v>6.3362294549180631E-2</v>
       </c>
       <c r="F23">
         <f>ABS(D23)</f>
-        <v>0.27171665294782532</v>
+        <v>6.4234287260520606E-2</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>21</v>
@@ -12118,23 +12233,23 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>0.76649427103561907</v>
+        <v>0.52832444414921675</v>
       </c>
       <c r="D24">
-        <v>0.53298854207123814</v>
+        <v>5.6648888298433508E-2</v>
       </c>
       <c r="E24">
-        <v>0.39862282465683202</v>
+        <v>5.7043351758795928E-2</v>
       </c>
       <c r="F24">
         <f>ABS(D24)</f>
-        <v>0.53298854207123814</v>
+        <v>5.6648888298433508E-2</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -12142,23 +12257,23 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C25">
-        <v>0.43759599942474631</v>
+        <v>0.52103901965991628</v>
       </c>
       <c r="D25">
-        <v>-0.1248080011505075</v>
+        <v>4.2078039319832561E-2</v>
       </c>
       <c r="E25">
-        <v>0.18550611563629649</v>
+        <v>5.0664585751958653E-2</v>
       </c>
       <c r="F25">
         <f>ABS(D25)</f>
-        <v>0.1248080011505075</v>
+        <v>4.2078039319832561E-2</v>
       </c>
       <c r="J25" t="s">
         <v>24</v>
@@ -12166,23 +12281,23 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>0.3621907499573116</v>
+        <v>0.48923406605988579</v>
       </c>
       <c r="D26">
-        <v>-0.27561850008537681</v>
+        <v>-2.153186788022832E-2</v>
       </c>
       <c r="E26">
-        <v>0.26659919276955207</v>
+        <v>3.4433213321534151E-2</v>
       </c>
       <c r="F26">
         <f>ABS(D26)</f>
-        <v>0.27561850008537681</v>
+        <v>2.153186788022832E-2</v>
       </c>
       <c r="J26" t="s">
         <v>25</v>
@@ -12190,23 +12305,23 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>0.60193849671520361</v>
+        <v>0.50918550492709558</v>
       </c>
       <c r="D27">
-        <v>0.20387699343040719</v>
+        <v>1.8371009854191159E-2</v>
       </c>
       <c r="E27">
-        <v>0.27247692283108821</v>
+        <v>3.5873988799456358E-2</v>
       </c>
       <c r="F27">
         <f>ABS(D27)</f>
-        <v>0.20387699343040719</v>
+        <v>1.8371009854191159E-2</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>26</v>
@@ -12214,23 +12329,23 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>0.57270118725974151</v>
+        <v>0.5003854173448502</v>
       </c>
       <c r="D28">
-        <v>0.14540237451948301</v>
+        <v>7.7083468970040592E-4</v>
       </c>
       <c r="E28">
-        <v>0.21812944555499639</v>
+        <v>3.4145586466271687E-2</v>
       </c>
       <c r="F28">
         <f>ABS(D28)</f>
-        <v>0.14540237451948301</v>
+        <v>7.7083468970040592E-4</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
@@ -12259,7 +12374,7 @@
   </sheetData>
   <autoFilter ref="A1:F28" xr:uid="{77296828-A876-8F45-874B-CC8E549DDDDE}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-      <sortCondition descending="1" ref="A1:A28"/>
+      <sortCondition descending="1" ref="F1:F28"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">

--- a/DataPD_Analysis.xlsx
+++ b/DataPD_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meikeepauline/Desktop/IP/CaseStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C478827-E211-E546-AD57-4E4F4441195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65956105-C9AF-584D-BEDD-4E629C2A1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="4" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="VAR" sheetId="5" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -530,6 +530,9 @@
     <t>model 1</t>
   </si>
   <si>
+    <t>model 2</t>
+  </si>
+  <si>
     <t>After missing and outlier treatment</t>
   </si>
   <si>
@@ -555,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,15 +604,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -695,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -741,9 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,6 +951,170 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5626100" cy="3020186"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A505B45-E8F5-5CC4-0358-AB44D3187BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="736600"/>
+          <a:ext cx="5626100" cy="3020186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>                          Probit Regression Results                           </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>==============================================================================</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Dep. Variable:                 deflag   No. Observations:                21000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Model:                         Probit   Df Residuals:                    20996</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Method:                           MLE   Df Model:                            3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Date:                Sun, 26 Mar 2023   Pseudo R-squ.:                  -6.860</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Time:                        19:01:43   Log-Likelihood:                -14533.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>converged:                       True   LL-Null:                       -1849.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Covariance Type:            nonrobust   LLR p-value:                     1.000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>==============================================================================</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>                 coef    std err          z      P&gt;|z|      [0.025      0.975]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>------------------------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>var2_AQ        0.0232      0.009      2.674      0.008       0.006       0.040</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>var5_LF        0.0257      0.009      2.897      0.004       0.008       0.043</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>var9_LF        0.0207      0.009      2.338      0.019       0.003       0.038</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>var14_LF       0.0355      0.009      3.973      0.000       0.018       0.053</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>==============================================================================</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -1024,7 +1179,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1399,9 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A0F642-E2C6-6A40-83CE-61FFF53B7EF6}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1578,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="8" t="str">
         <f>STAT!A31</f>
@@ -1443,10 +1597,10 @@
         <v>Sum (all to be replaced)</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
@@ -2177,6 +2331,7 @@
   </sheetData>
   <autoFilter ref="A1:J27" xr:uid="{72A0F642-E2C6-6A40-83CE-61FFF53B7EF6}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2184,10 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8717C0BB-3494-D144-A5D7-2F936DCDBFF7}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2196,12 +2348,12 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2210,19 +2362,19 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2237,13 +2389,13 @@
       <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -2252,13 +2404,13 @@
       <c r="S1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -2270,7 +2422,7 @@
       <c r="Y1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AA1" s="3" t="s">
@@ -2943,7 +3095,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -3690,7 +3842,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>2</v>
@@ -4440,107 +4592,107 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <f>$A$37-B2</f>
+        <f t="shared" ref="B31:AA31" si="0">$A$36-B2</f>
         <v>384</v>
       </c>
       <c r="C31">
-        <f>$A$37-C2</f>
+        <f t="shared" si="0"/>
         <v>2365</v>
       </c>
       <c r="D31">
-        <f>$A$37-D2</f>
+        <f t="shared" si="0"/>
         <v>3644</v>
       </c>
       <c r="E31">
-        <f>$A$37-E2</f>
+        <f t="shared" si="0"/>
         <v>806</v>
       </c>
       <c r="F31">
-        <f>$A$37-F2</f>
+        <f t="shared" si="0"/>
         <v>3874</v>
       </c>
       <c r="G31">
-        <f>$A$37-G2</f>
+        <f t="shared" si="0"/>
         <v>2966</v>
       </c>
       <c r="H31">
-        <f>$A$37-H2</f>
+        <f t="shared" si="0"/>
         <v>2213</v>
       </c>
       <c r="I31">
-        <f>$A$37-I2</f>
+        <f t="shared" si="0"/>
         <v>3173</v>
       </c>
       <c r="J31">
-        <f>$A$37-J2</f>
+        <f t="shared" si="0"/>
         <v>1402</v>
       </c>
       <c r="K31">
-        <f>$A$37-K2</f>
+        <f t="shared" si="0"/>
         <v>4213</v>
       </c>
       <c r="L31">
-        <f>$A$37-L2</f>
+        <f t="shared" si="0"/>
         <v>5064</v>
       </c>
       <c r="M31">
-        <f>$A$37-M2</f>
+        <f t="shared" si="0"/>
         <v>1997</v>
       </c>
       <c r="N31">
-        <f>$A$37-N2</f>
+        <f t="shared" si="0"/>
         <v>4381</v>
       </c>
       <c r="O31">
-        <f>$A$37-O2</f>
+        <f t="shared" si="0"/>
         <v>580</v>
       </c>
       <c r="P31">
-        <f>$A$37-P2</f>
+        <f t="shared" si="0"/>
         <v>5581</v>
       </c>
       <c r="Q31">
-        <f>$A$37-Q2</f>
+        <f t="shared" si="0"/>
         <v>1464</v>
       </c>
       <c r="R31">
-        <f>$A$37-R2</f>
+        <f t="shared" si="0"/>
         <v>2178</v>
       </c>
       <c r="S31">
-        <f>$A$37-S2</f>
+        <f t="shared" si="0"/>
         <v>3055</v>
       </c>
       <c r="T31">
-        <f>$A$37-T2</f>
+        <f t="shared" si="0"/>
         <v>5110</v>
       </c>
       <c r="U31">
-        <f>$A$37-U2</f>
+        <f t="shared" si="0"/>
         <v>702</v>
       </c>
       <c r="V31">
-        <f>$A$37-V2</f>
+        <f t="shared" si="0"/>
         <v>1389</v>
       </c>
       <c r="W31">
-        <f>$A$37-W2</f>
+        <f t="shared" si="0"/>
         <v>5425</v>
       </c>
       <c r="X31">
-        <f>$A$37-X2</f>
+        <f t="shared" si="0"/>
         <v>4031</v>
       </c>
       <c r="Y31">
-        <f>$A$37-Y2</f>
+        <f t="shared" si="0"/>
         <v>3373</v>
       </c>
       <c r="Z31">
-        <f>$A$37-Z2</f>
+        <f t="shared" si="0"/>
         <v>4389</v>
       </c>
       <c r="AA31">
-        <f>$A$37-AA2</f>
+        <f t="shared" si="0"/>
         <v>4890</v>
       </c>
     </row>
@@ -4553,103 +4705,103 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:AA32" si="0">C2-C12</f>
+        <f t="shared" ref="C32:AA32" si="1">C2-C12</f>
         <v>8</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="O32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="U32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="V32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="W32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="X32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -4662,103 +4814,103 @@
         <v>1515</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:AA33" si="1">C12-C22</f>
+        <f t="shared" ref="C33:AA33" si="2">C12-C22</f>
         <v>1281</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>798</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1187</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>747</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>989</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>674</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1094</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1509</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1175</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>841</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>713</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>514</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1444</v>
       </c>
       <c r="P33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>699</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1616</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="S33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>792</v>
       </c>
       <c r="T33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1098</v>
       </c>
       <c r="U33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1254</v>
       </c>
       <c r="V33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1445</v>
       </c>
       <c r="W33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1014</v>
       </c>
       <c r="X33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>414</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1164</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>401</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1646</v>
       </c>
     </row>
@@ -4771,434 +4923,328 @@
         <v>1905</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:AA34" si="2">SUM(C31:C33)</f>
+        <f t="shared" ref="C34:AA34" si="3">SUM(C31:C33)</f>
         <v>3654</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4443</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1994</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4629</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3966</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2889</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4269</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2916</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5388</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5908</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2724</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4906</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6282</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3080</v>
       </c>
       <c r="R34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2192</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3852</v>
       </c>
       <c r="T34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6211</v>
       </c>
       <c r="U34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1966</v>
       </c>
       <c r="V34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2839</v>
       </c>
       <c r="W34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6442</v>
       </c>
       <c r="X34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4456</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4541</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4790</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6547</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="13">
-        <f>B31/$A$37</f>
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="C35" s="13">
-        <f>C31/$A$37</f>
-        <v>7.8833333333333339E-2</v>
-      </c>
-      <c r="D35" s="13">
-        <f>D31/$A$37</f>
-        <v>0.12146666666666667</v>
-      </c>
-      <c r="E35" s="13">
-        <f>E31/$A$37</f>
-        <v>2.6866666666666667E-2</v>
-      </c>
-      <c r="F35" s="13">
-        <f>F31/$A$37</f>
-        <v>0.12913333333333332</v>
-      </c>
-      <c r="G35" s="13">
-        <f>G31/$A$37</f>
-        <v>9.8866666666666672E-2</v>
-      </c>
-      <c r="H35" s="13">
-        <f>H31/$A$37</f>
-        <v>7.3766666666666661E-2</v>
-      </c>
-      <c r="I35" s="13">
-        <f>I31/$A$37</f>
-        <v>0.10576666666666666</v>
-      </c>
-      <c r="J35" s="13">
-        <f>J31/$A$37</f>
-        <v>4.6733333333333335E-2</v>
-      </c>
-      <c r="K35" s="13">
-        <f>K31/$A$37</f>
+      <c r="B35" s="13" t="e">
+        <f>B34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C35" s="13" t="e">
+        <f>C34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="13" t="e">
+        <f>D34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="13" t="e">
+        <f>E34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F35" s="13" t="e">
+        <f>F34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="13" t="e">
+        <f>G34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="13" t="e">
+        <f>H34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I35" s="13" t="e">
+        <f>I34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J35" s="13" t="e">
+        <f>J34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K35" s="13" t="e">
+        <f>K34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L35" s="13" t="e">
+        <f>L34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M35" s="13" t="e">
+        <f>M34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N35" s="13" t="e">
+        <f>N34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O35" s="13" t="e">
+        <f>O34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P35" s="13" t="e">
+        <f>P34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q35" s="13" t="e">
+        <f>Q34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R35" s="13" t="e">
+        <f>R34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S35" s="13" t="e">
+        <f>S34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T35" s="13" t="e">
+        <f>T34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U35" s="13" t="e">
+        <f>U34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V35" s="13" t="e">
+        <f>V34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W35" s="13" t="e">
+        <f>W34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X35" s="13" t="e">
+        <f>X34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y35" s="13" t="e">
+        <f>Y34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z35" s="13" t="e">
+        <f>Z34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA35" s="13" t="e">
+        <f>AA34/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B36" s="13">
+        <f t="shared" ref="B36:AA36" si="4">SUM(B31:B32)/$A$36</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="4"/>
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1215</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="4"/>
+        <v>2.69E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="4"/>
+        <v>9.923333333333334E-2</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="4"/>
+        <v>7.3833333333333334E-2</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.10583333333333333</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" si="4"/>
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="4"/>
         <v>0.14043333333333333</v>
       </c>
-      <c r="L35" s="13">
-        <f>L31/$A$37</f>
-        <v>0.16880000000000001</v>
-      </c>
-      <c r="M35" s="13">
-        <f>M31/$A$37</f>
-        <v>6.6566666666666663E-2</v>
-      </c>
-      <c r="N35" s="13">
-        <f>N31/$A$37</f>
-        <v>0.14603333333333332</v>
-      </c>
-      <c r="O35" s="13">
-        <f>O31/$A$37</f>
-        <v>1.9333333333333334E-2</v>
-      </c>
-      <c r="P35" s="13">
-        <f>P31/$A$37</f>
-        <v>0.18603333333333333</v>
-      </c>
-      <c r="Q35" s="13">
-        <f>Q31/$A$37</f>
+      <c r="L36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="M36" s="13">
+        <f t="shared" si="4"/>
+        <v>6.7033333333333334E-2</v>
+      </c>
+      <c r="N36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1464</v>
+      </c>
+      <c r="O36" s="13">
+        <f t="shared" si="4"/>
+        <v>1.9366666666666667E-2</v>
+      </c>
+      <c r="P36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="4"/>
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="R35" s="13">
-        <f>R31/$A$37</f>
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="S35" s="13">
-        <f>S31/$A$37</f>
-        <v>0.10183333333333333</v>
-      </c>
-      <c r="T35" s="13">
-        <f>T31/$A$37</f>
-        <v>0.17033333333333334</v>
-      </c>
-      <c r="U35" s="13">
-        <f>U31/$A$37</f>
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="V35" s="13">
-        <f>V31/$A$37</f>
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="W35" s="13">
-        <f>W31/$A$37</f>
-        <v>0.18083333333333335</v>
-      </c>
-      <c r="X35" s="13">
-        <f>X31/$A$37</f>
-        <v>0.13436666666666666</v>
-      </c>
-      <c r="Y35" s="13">
-        <f>Y31/$A$37</f>
-        <v>0.11243333333333333</v>
-      </c>
-      <c r="Z35" s="13">
-        <f>Z31/$A$37</f>
+      <c r="R36" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2633333333333328E-2</v>
+      </c>
+      <c r="S36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="T36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17043333333333333</v>
+      </c>
+      <c r="U36" s="13">
+        <f t="shared" si="4"/>
+        <v>2.3733333333333332E-2</v>
+      </c>
+      <c r="V36" s="13">
+        <f t="shared" si="4"/>
+        <v>4.646666666666667E-2</v>
+      </c>
+      <c r="W36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.18093333333333333</v>
+      </c>
+      <c r="X36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.13473333333333334</v>
+      </c>
+      <c r="Y36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.11256666666666666</v>
+      </c>
+      <c r="Z36" s="13">
+        <f t="shared" si="4"/>
         <v>0.14630000000000001</v>
       </c>
-      <c r="AA35" s="13">
-        <f>AA31/$A$37</f>
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="13">
-        <f>SUM(B31:B32)/$A$37</f>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C36" s="13">
-        <f>SUM(C31:C32)/$A$37</f>
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="D36" s="13">
-        <f>SUM(D31:D32)/$A$37</f>
-        <v>0.1215</v>
-      </c>
-      <c r="E36" s="13">
-        <f>SUM(E31:E32)/$A$37</f>
-        <v>2.69E-2</v>
-      </c>
-      <c r="F36" s="13">
-        <f>SUM(F31:F32)/$A$37</f>
-        <v>0.12939999999999999</v>
-      </c>
-      <c r="G36" s="13">
-        <f>SUM(G31:G32)/$A$37</f>
-        <v>9.923333333333334E-2</v>
-      </c>
-      <c r="H36" s="13">
-        <f>SUM(H31:H32)/$A$37</f>
-        <v>7.3833333333333334E-2</v>
-      </c>
-      <c r="I36" s="13">
-        <f>SUM(I31:I32)/$A$37</f>
-        <v>0.10583333333333333</v>
-      </c>
-      <c r="J36" s="13">
-        <f>SUM(J31:J32)/$A$37</f>
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K36" s="13">
-        <f>SUM(K31:K32)/$A$37</f>
-        <v>0.14043333333333333</v>
-      </c>
-      <c r="L36" s="13">
-        <f>SUM(L31:L32)/$A$37</f>
-        <v>0.16889999999999999</v>
-      </c>
-      <c r="M36" s="13">
-        <f>SUM(M31:M32)/$A$37</f>
-        <v>6.7033333333333334E-2</v>
-      </c>
-      <c r="N36" s="13">
-        <f>SUM(N31:N32)/$A$37</f>
-        <v>0.1464</v>
-      </c>
-      <c r="O36" s="13">
-        <f>SUM(O31:O32)/$A$37</f>
-        <v>1.9366666666666667E-2</v>
-      </c>
-      <c r="P36" s="13">
-        <f>SUM(P31:P32)/$A$37</f>
-        <v>0.18609999999999999</v>
-      </c>
-      <c r="Q36" s="13">
-        <f>SUM(Q31:Q32)/$A$37</f>
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="R36" s="13">
-        <f>SUM(R31:R32)/$A$37</f>
-        <v>7.2633333333333328E-2</v>
-      </c>
-      <c r="S36" s="13">
-        <f>SUM(S31:S32)/$A$37</f>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="T36" s="13">
-        <f>SUM(T31:T32)/$A$37</f>
-        <v>0.17043333333333333</v>
-      </c>
-      <c r="U36" s="13">
-        <f>SUM(U31:U32)/$A$37</f>
-        <v>2.3733333333333332E-2</v>
-      </c>
-      <c r="V36" s="13">
-        <f>SUM(V31:V32)/$A$37</f>
-        <v>4.646666666666667E-2</v>
-      </c>
-      <c r="W36" s="13">
-        <f>SUM(W31:W32)/$A$37</f>
-        <v>0.18093333333333333</v>
-      </c>
-      <c r="X36" s="13">
-        <f>SUM(X31:X32)/$A$37</f>
-        <v>0.13473333333333334</v>
-      </c>
-      <c r="Y36" s="13">
-        <f>SUM(Y31:Y32)/$A$37</f>
-        <v>0.11256666666666666</v>
-      </c>
-      <c r="Z36" s="13">
-        <f>SUM(Z31:Z32)/$A$37</f>
-        <v>0.14630000000000001</v>
-      </c>
       <c r="AA36" s="13">
-        <f>SUM(AA31:AA32)/$A$37</f>
+        <f t="shared" si="4"/>
         <v>0.16336666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>30000</v>
-      </c>
-      <c r="B37" s="13">
-        <f>B34/$A$37</f>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="C37" s="13">
-        <f t="shared" ref="C37:AA37" si="3">C34/$A$37</f>
-        <v>0.12180000000000001</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="E37" s="13">
-        <f t="shared" si="3"/>
-        <v>6.646666666666666E-2</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.15429999999999999</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.13220000000000001</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="3"/>
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="I37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.14230000000000001</v>
-      </c>
-      <c r="J37" s="13">
-        <f t="shared" si="3"/>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="K37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.17960000000000001</v>
-      </c>
-      <c r="L37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.19693333333333332</v>
-      </c>
-      <c r="M37" s="13">
-        <f t="shared" si="3"/>
-        <v>9.0800000000000006E-2</v>
-      </c>
-      <c r="N37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.16353333333333334</v>
-      </c>
-      <c r="O37" s="13">
-        <f t="shared" si="3"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="P37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.2094</v>
-      </c>
-      <c r="Q37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.10266666666666667</v>
-      </c>
-      <c r="R37" s="13">
-        <f t="shared" si="3"/>
-        <v>7.3066666666666669E-2</v>
-      </c>
-      <c r="S37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.12839999999999999</v>
-      </c>
-      <c r="T37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.20703333333333335</v>
-      </c>
-      <c r="U37" s="13">
-        <f t="shared" si="3"/>
-        <v>6.5533333333333332E-2</v>
-      </c>
-      <c r="V37" s="13">
-        <f t="shared" si="3"/>
-        <v>9.4633333333333333E-2</v>
-      </c>
-      <c r="W37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.21473333333333333</v>
-      </c>
-      <c r="X37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.14853333333333332</v>
-      </c>
-      <c r="Y37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.15136666666666668</v>
-      </c>
-      <c r="Z37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.15966666666666668</v>
-      </c>
-      <c r="AA37" s="13">
-        <f t="shared" si="3"/>
-        <v>0.21823333333333333</v>
-      </c>
-    </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>2</v>
@@ -5947,30 +5993,6 @@
   <mergeCells count="1">
     <mergeCell ref="A38:B38"/>
   </mergeCells>
-  <conditionalFormatting sqref="B36:AA36">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:AA37">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6511,8 +6533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31AA758-05F1-A249-8767-85116A9B04D3}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:X70"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6526,85 +6548,85 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -6618,85 +6640,85 @@
         <v>-7.0084726590426407E-3</v>
       </c>
       <c r="D2">
+        <v>-5.0702238117405389E-3</v>
+      </c>
+      <c r="E2">
+        <v>7.1997148129554151E-3</v>
+      </c>
+      <c r="F2">
+        <v>-7.0852357425709269E-4</v>
+      </c>
+      <c r="G2">
+        <v>1.9966500173558919E-3</v>
+      </c>
+      <c r="H2">
+        <v>-1.3445810769082359E-2</v>
+      </c>
+      <c r="I2">
+        <v>5.3278439423323698E-3</v>
+      </c>
+      <c r="J2">
+        <v>-6.7518211484551326E-3</v>
+      </c>
+      <c r="K2">
+        <v>-4.8415070455899208E-3</v>
+      </c>
+      <c r="L2">
+        <v>-3.8101154009343762E-3</v>
+      </c>
+      <c r="M2">
+        <v>-7.8066763201543616E-3</v>
+      </c>
+      <c r="N2">
+        <v>-1.9540095106477542E-3</v>
+      </c>
+      <c r="O2">
+        <v>5.8191225174005646E-3</v>
+      </c>
+      <c r="P2">
+        <v>-8.4408698399748364E-3</v>
+      </c>
+      <c r="Q2">
+        <v>-1.5824954872275039E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.415649425689221E-3</v>
+      </c>
+      <c r="S2">
+        <v>-9.8078239328105781E-4</v>
+      </c>
+      <c r="T2">
+        <v>3.9111572328758334E-3</v>
+      </c>
+      <c r="U2">
+        <v>5.9670405281967679E-4</v>
+      </c>
+      <c r="V2">
+        <v>9.4973266238804407E-3</v>
+      </c>
+      <c r="W2">
+        <v>2.9414325853872069E-3</v>
+      </c>
+      <c r="X2">
+        <v>5.0039109714455189E-3</v>
+      </c>
+      <c r="Y2">
+        <v>8.0104302984189434E-4</v>
+      </c>
+      <c r="Z2">
+        <v>-9.4080971500331238E-3</v>
+      </c>
+      <c r="AA2">
+        <v>5.4260995323194222E-3</v>
+      </c>
+      <c r="AB2">
+        <v>-4.392818585108896E-3</v>
+      </c>
+      <c r="AC2">
+        <v>-1.0827100658902491E-2</v>
+      </c>
+      <c r="AD2">
         <v>-7.9935366271215759E-3</v>
-      </c>
-      <c r="E2">
-        <v>-4.6119662562037747E-3</v>
-      </c>
-      <c r="F2">
-        <v>7.5362199343070443E-3</v>
-      </c>
-      <c r="G2">
-        <v>-2.415049173882731E-3</v>
-      </c>
-      <c r="H2">
-        <v>1.628499125510919E-3</v>
-      </c>
-      <c r="I2">
-        <v>-1.3780513293745231E-2</v>
-      </c>
-      <c r="J2">
-        <v>3.9545848175119363E-3</v>
-      </c>
-      <c r="K2">
-        <v>-7.36739062099462E-3</v>
-      </c>
-      <c r="L2">
-        <v>-4.4917081498867407E-3</v>
-      </c>
-      <c r="M2">
-        <v>-3.6272959647052328E-3</v>
-      </c>
-      <c r="N2">
-        <v>-7.6040818835596312E-3</v>
-      </c>
-      <c r="O2">
-        <v>-2.3953345386127532E-3</v>
-      </c>
-      <c r="P2">
-        <v>5.7252724018054804E-3</v>
-      </c>
-      <c r="Q2">
-        <v>-8.9365652853722003E-3</v>
-      </c>
-      <c r="R2">
-        <v>-1.5630009416878209E-2</v>
-      </c>
-      <c r="S2">
-        <v>2.8941020204352281E-3</v>
-      </c>
-      <c r="T2">
-        <v>-8.5538396710585377E-4</v>
-      </c>
-      <c r="U2">
-        <v>4.0525822781531636E-3</v>
-      </c>
-      <c r="V2">
-        <v>1.5681932251355589E-3</v>
-      </c>
-      <c r="W2">
-        <v>9.094235058689679E-3</v>
-      </c>
-      <c r="X2">
-        <v>3.144793836341803E-3</v>
-      </c>
-      <c r="Y2">
-        <v>5.1550387806782658E-3</v>
-      </c>
-      <c r="Z2">
-        <v>9.3443041365751155E-4</v>
-      </c>
-      <c r="AA2">
-        <v>-9.1793614979261313E-3</v>
-      </c>
-      <c r="AB2">
-        <v>4.4267648941320103E-3</v>
-      </c>
-      <c r="AC2">
-        <v>-5.0405288800206959E-3</v>
-      </c>
-      <c r="AD2">
-        <v>-1.1891984420722699E-2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -6710,2566 +6732,2566 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>5.0442084619167181E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.7799276678540507E-2</v>
+      </c>
+      <c r="F3">
+        <v>-4.6454676090199563E-2</v>
+      </c>
+      <c r="G3">
+        <v>-1.8771363991885479E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.13478525539566161</v>
+      </c>
+      <c r="I3">
+        <v>-5.5957036622363891E-2</v>
+      </c>
+      <c r="J3">
+        <v>-6.7007929960326104E-2</v>
+      </c>
+      <c r="K3">
+        <v>-2.4125740754413559E-2</v>
+      </c>
+      <c r="L3">
+        <v>5.6714639196880669E-2</v>
+      </c>
+      <c r="M3">
+        <v>-2.6219113216796909E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.516347794757309E-2</v>
+      </c>
+      <c r="O3">
+        <v>-2.006199593661594E-3</v>
+      </c>
+      <c r="P3">
+        <v>4.4076459867710173E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.118973569968957</v>
+      </c>
+      <c r="R3">
+        <v>-4.2218014638485617E-2</v>
+      </c>
+      <c r="S3">
+        <v>7.0343257365374459E-2</v>
+      </c>
+      <c r="T3">
+        <v>-3.7941086793873719E-3</v>
+      </c>
+      <c r="U3">
+        <v>-4.5786480215259058E-2</v>
+      </c>
+      <c r="V3">
+        <v>2.7811254979521222E-2</v>
+      </c>
+      <c r="W3">
+        <v>4.4819436912410068E-2</v>
+      </c>
+      <c r="X3">
+        <v>-3.5860522574293903E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1.2520016349723301E-2</v>
+      </c>
+      <c r="Z3">
+        <v>-3.4833637000393869E-3</v>
+      </c>
+      <c r="AA3">
+        <v>-6.6129443813897196E-2</v>
+      </c>
+      <c r="AB3">
+        <v>1.3554405874830091E-2</v>
+      </c>
+      <c r="AC3">
+        <v>8.4200907631323402E-2</v>
+      </c>
+      <c r="AD3">
         <v>1.06089585031679E-2</v>
-      </c>
-      <c r="E3">
-        <v>5.0297197571996952E-2</v>
-      </c>
-      <c r="F3">
-        <v>6.8003442724390226E-2</v>
-      </c>
-      <c r="G3">
-        <v>-4.6784357110360553E-2</v>
-      </c>
-      <c r="H3">
-        <v>-1.8170879535351549E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.1341988910190591</v>
-      </c>
-      <c r="J3">
-        <v>-5.5448076584786607E-2</v>
-      </c>
-      <c r="K3">
-        <v>-6.6671136009710488E-2</v>
-      </c>
-      <c r="L3">
-        <v>-2.453764502345035E-2</v>
-      </c>
-      <c r="M3">
-        <v>5.6399402181203921E-2</v>
-      </c>
-      <c r="N3">
-        <v>-2.7517353901567291E-2</v>
-      </c>
-      <c r="O3">
-        <v>2.320545832293187E-2</v>
-      </c>
-      <c r="P3">
-        <v>-1.2440841381334219E-3</v>
-      </c>
-      <c r="Q3">
-        <v>4.4327600942383472E-2</v>
-      </c>
-      <c r="R3">
-        <v>0.1182964987308035</v>
-      </c>
-      <c r="S3">
-        <v>-4.2500330212004632E-2</v>
-      </c>
-      <c r="T3">
-        <v>6.970073553262629E-2</v>
-      </c>
-      <c r="U3">
-        <v>-2.3655631797528821E-3</v>
-      </c>
-      <c r="V3">
-        <v>-4.4297212707705723E-2</v>
-      </c>
-      <c r="W3">
-        <v>2.6027544704194262E-2</v>
-      </c>
-      <c r="X3">
-        <v>4.4929856963209933E-2</v>
-      </c>
-      <c r="Y3">
-        <v>-3.5310592849809648E-2</v>
-      </c>
-      <c r="Z3">
-        <v>1.1598683899269669E-2</v>
-      </c>
-      <c r="AA3">
-        <v>-3.4737496742839749E-3</v>
-      </c>
-      <c r="AB3">
-        <v>-6.3272767396847715E-2</v>
-      </c>
-      <c r="AC3">
-        <v>1.324665908712336E-2</v>
-      </c>
-      <c r="AD3">
-        <v>7.9489624411600734E-2</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>-7.9935366271215759E-3</v>
+        <v>-5.0702238117405389E-3</v>
       </c>
       <c r="C4">
-        <v>1.06089585031679E-2</v>
+        <v>5.0442084619167181E-2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.376412415385163E-3</v>
+        <v>-0.28542284599192791</v>
       </c>
       <c r="F4">
-        <v>-1.3371284365148461E-2</v>
+        <v>3.8765881196248783E-2</v>
       </c>
       <c r="G4">
-        <v>-1.0551481859123789E-2</v>
+        <v>0.10310362057330991</v>
       </c>
       <c r="H4">
-        <v>-3.2045181989772769E-3</v>
+        <v>2.50676840370101E-2</v>
       </c>
       <c r="I4">
-        <v>-6.545753183858233E-3</v>
+        <v>-0.1240683217221162</v>
       </c>
       <c r="J4">
-        <v>-1.544292867805913E-2</v>
+        <v>0.20154002084972519</v>
       </c>
       <c r="K4">
-        <v>-9.3078781500059056E-3</v>
+        <v>0.22448924933899281</v>
       </c>
       <c r="L4">
-        <v>-1.0005009400135391E-2</v>
+        <v>0.127729567213234</v>
       </c>
       <c r="M4">
-        <v>-2.6950764100921801E-3</v>
+        <v>0.2335739591475389</v>
       </c>
       <c r="N4">
-        <v>-1.8128036465502529E-2</v>
+        <v>4.1045063066549627E-2</v>
       </c>
       <c r="O4">
-        <v>-1.553266439308279E-3</v>
+        <v>-0.1093791755856602</v>
       </c>
       <c r="P4">
-        <v>-1.093052563486587E-2</v>
+        <v>0.21348372743469229</v>
       </c>
       <c r="Q4">
-        <v>-1.354557805280498E-2</v>
+        <v>0.1232799394662013</v>
       </c>
       <c r="R4">
-        <v>2.998252498279062E-3</v>
+        <v>-0.22116267708491191</v>
       </c>
       <c r="S4">
-        <v>-8.3338424937734502E-3</v>
+        <v>-0.1342813671830736</v>
       </c>
       <c r="T4">
-        <v>1.2886157922722191E-3</v>
+        <v>3.189711144304417E-2</v>
       </c>
       <c r="U4">
-        <v>6.371811060045785E-3</v>
+        <v>5.370476839399517E-2</v>
       </c>
       <c r="V4">
-        <v>-1.3965185112855921E-2</v>
+        <v>3.6639484747601543E-2</v>
       </c>
       <c r="W4">
-        <v>-2.9366790259264149E-3</v>
+        <v>-0.108249922874552</v>
       </c>
       <c r="X4">
-        <v>-4.6668173012120806E-3</v>
+        <v>-6.4552202616111554E-2</v>
       </c>
       <c r="Y4">
-        <v>-7.9566396619113328E-3</v>
+        <v>8.380594414087883E-2</v>
       </c>
       <c r="Z4">
-        <v>4.8538311453334818E-4</v>
+        <v>0.25686603449352879</v>
       </c>
       <c r="AA4">
-        <v>-2.342842889533279E-3</v>
+        <v>-2.6775724359741789E-2</v>
       </c>
       <c r="AB4">
-        <v>1.4324617332722349E-2</v>
+        <v>4.1372577110039971E-2</v>
       </c>
       <c r="AC4">
-        <v>6.4433479626116374E-3</v>
+        <v>1.170716638941764E-2</v>
       </c>
       <c r="AD4">
-        <v>-1.9768955489666649E-2</v>
+        <v>4.5447237413244546E-3</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>-4.6119662562037747E-3</v>
+        <v>7.1997148129554151E-3</v>
       </c>
       <c r="C5">
-        <v>5.0297197571996952E-2</v>
+        <v>6.7799276678540507E-2</v>
       </c>
       <c r="D5">
-        <v>2.376412415385163E-3</v>
+        <v>-0.28542284599192791</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.26637513838083182</v>
+        <v>-0.16594422364388339</v>
       </c>
       <c r="G5">
-        <v>3.6649838719012257E-2</v>
+        <v>-0.19159845745060991</v>
       </c>
       <c r="H5">
-        <v>0.1001933470707458</v>
+        <v>3.1780085364211723E-2</v>
       </c>
       <c r="I5">
-        <v>1.758351481106844E-2</v>
+        <v>0.13324316411809101</v>
       </c>
       <c r="J5">
-        <v>-0.11487278703138221</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="K5">
-        <v>0.18879349314754651</v>
+        <v>-0.13590161799974229</v>
       </c>
       <c r="L5">
-        <v>0.20852773409855069</v>
+        <v>-9.4821639260371279E-2</v>
       </c>
       <c r="M5">
-        <v>0.1225507335186211</v>
+        <v>-0.18413775984454581</v>
       </c>
       <c r="N5">
-        <v>0.21258820281134719</v>
+        <v>-1.823123135068536E-2</v>
       </c>
       <c r="O5">
-        <v>3.462147288602907E-2</v>
+        <v>6.4880221956941264E-2</v>
       </c>
       <c r="P5">
-        <v>-0.1031031906149201</v>
+        <v>-0.16103122670275261</v>
       </c>
       <c r="Q5">
-        <v>0.19421421909071859</v>
+        <v>-6.4719082310363316E-2</v>
       </c>
       <c r="R5">
-        <v>0.1210242838366339</v>
+        <v>0.21372946679453941</v>
       </c>
       <c r="S5">
-        <v>-0.18536700676155929</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="T5">
-        <v>-0.12743251480901291</v>
+        <v>-8.6993275818948335E-2</v>
       </c>
       <c r="U5">
-        <v>3.004834167376997E-2</v>
+        <v>-0.16473995066539041</v>
       </c>
       <c r="V5">
-        <v>4.7995637917764768E-2</v>
+        <v>-9.9270454684014416E-3</v>
       </c>
       <c r="W5">
-        <v>3.4065088240700821E-2</v>
+        <v>0.18574022663908341</v>
       </c>
       <c r="X5">
-        <v>-0.1067272793663452</v>
+        <v>1.0482130814969581E-2</v>
       </c>
       <c r="Y5">
-        <v>-6.0986776102747282E-2</v>
+        <v>-6.123995584416253E-2</v>
       </c>
       <c r="Z5">
-        <v>6.5460630616731658E-2</v>
+        <v>-0.14219768540045749</v>
       </c>
       <c r="AA5">
-        <v>0.2306091754743996</v>
+        <v>-5.0870085872000002E-2</v>
       </c>
       <c r="AB5">
-        <v>-1.9885579531341881E-2</v>
+        <v>-7.1139795281959614E-2</v>
       </c>
       <c r="AC5">
-        <v>4.0308440583595652E-2</v>
+        <v>8.1535727375991712E-2</v>
       </c>
       <c r="AD5">
-        <v>1.376794396127571E-2</v>
+        <v>-9.0270574059976554E-3</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>7.5362199343070443E-3</v>
+        <v>-7.0852357425709269E-4</v>
       </c>
       <c r="C6">
-        <v>6.8003442724390226E-2</v>
+        <v>-4.6454676090199563E-2</v>
       </c>
       <c r="D6">
-        <v>-1.3371284365148461E-2</v>
+        <v>3.8765881196248783E-2</v>
       </c>
       <c r="E6">
-        <v>-0.26637513838083182</v>
+        <v>-0.16594422364388339</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.15739106527721211</v>
+        <v>0.3937092311458022</v>
       </c>
       <c r="H6">
-        <v>-0.18680864642406869</v>
+        <v>-0.16477104511716731</v>
       </c>
       <c r="I6">
-        <v>3.2781973116620892E-2</v>
+        <v>6.749129753345906E-2</v>
       </c>
       <c r="J6">
-        <v>0.1266320166195965</v>
+        <v>8.6773177061237161E-2</v>
       </c>
       <c r="K6">
-        <v>-0.14743561982886641</v>
+        <v>-8.3674886817192054E-2</v>
       </c>
       <c r="L6">
-        <v>-0.12951531585841319</v>
+        <v>-6.3998267954573945E-2</v>
       </c>
       <c r="M6">
-        <v>-9.0720048510837856E-2</v>
+        <v>6.6954120661917804E-2</v>
       </c>
       <c r="N6">
-        <v>-0.1727754541600873</v>
+        <v>-9.1033586266563202E-2</v>
       </c>
       <c r="O6">
-        <v>-1.92854326603774E-2</v>
+        <v>8.1705205005108104E-3</v>
       </c>
       <c r="P6">
-        <v>6.229084761763827E-2</v>
+        <v>-6.1328150585855903E-2</v>
       </c>
       <c r="Q6">
-        <v>-0.1493888446263236</v>
+        <v>-0.14248483953216501</v>
       </c>
       <c r="R6">
-        <v>-6.1922588352781499E-2</v>
+        <v>5.3635102072637601E-2</v>
       </c>
       <c r="S6">
-        <v>0.191364251520248</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="T6">
-        <v>0.2243660297260345</v>
+        <v>-5.6572143390247933E-3</v>
       </c>
       <c r="U6">
-        <v>-8.4063220184212764E-2</v>
+        <v>0.51633899160326902</v>
       </c>
       <c r="V6">
-        <v>-0.1571966344248957</v>
+        <v>-0.1089322791113146</v>
       </c>
       <c r="W6">
-        <v>-1.3409826908462791E-2</v>
+        <v>-9.9015209573411131E-2</v>
       </c>
       <c r="X6">
-        <v>0.1791387824432312</v>
+        <v>7.3586700421981399E-2</v>
       </c>
       <c r="Y6">
-        <v>8.8426104747472735E-3</v>
+        <v>-4.7882223865839048E-2</v>
       </c>
       <c r="Z6">
-        <v>-5.4095048336022633E-2</v>
+        <v>-0.1206321809120469</v>
       </c>
       <c r="AA6">
-        <v>-0.124586140238716</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="AB6">
-        <v>-5.0035609684366607E-2</v>
+        <v>-3.2748468078702832E-2</v>
       </c>
       <c r="AC6">
-        <v>-6.9497751185884499E-2</v>
+        <v>-0.14959794064896531</v>
       </c>
       <c r="AD6">
-        <v>7.5878909367969635E-2</v>
+        <v>1.9182469180192921E-3</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-2.415049173882731E-3</v>
+        <v>1.9966500173558919E-3</v>
       </c>
       <c r="C7">
-        <v>-4.6784357110360553E-2</v>
+        <v>-1.8771363991885479E-2</v>
       </c>
       <c r="D7">
-        <v>-1.0551481859123789E-2</v>
+        <v>0.10310362057330991</v>
       </c>
       <c r="E7">
-        <v>3.6649838719012257E-2</v>
+        <v>-0.19159845745060991</v>
       </c>
       <c r="F7">
-        <v>-0.15739106527721211</v>
+        <v>0.3937092311458022</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.38481916755413692</v>
+        <v>-1.7444452234075682E-2</v>
       </c>
       <c r="I7">
-        <v>-0.1496233840417947</v>
+        <v>-1.110522927200638E-2</v>
       </c>
       <c r="J7">
-        <v>5.8934730574137652E-2</v>
+        <v>9.3599330086227173E-2</v>
       </c>
       <c r="K7">
-        <v>8.3456328495866733E-2</v>
+        <v>4.8845810389402361E-2</v>
       </c>
       <c r="L7">
-        <v>-8.1630081136981572E-2</v>
+        <v>-6.4800892227440565E-2</v>
       </c>
       <c r="M7">
-        <v>-6.1568422280968087E-2</v>
+        <v>0.21836859933998951</v>
       </c>
       <c r="N7">
-        <v>5.8736989094573637E-2</v>
+        <v>-1.106716854842715E-2</v>
       </c>
       <c r="O7">
-        <v>-8.4308092418933944E-2</v>
+        <v>-6.1446475280486933E-2</v>
       </c>
       <c r="P7">
-        <v>9.2212408169567127E-3</v>
+        <v>5.7452047728093272E-2</v>
       </c>
       <c r="Q7">
-        <v>-5.8171037375904018E-2</v>
+        <v>-0.1017707294568496</v>
       </c>
       <c r="R7">
-        <v>-0.1345177433702005</v>
+        <v>8.5479592740025645E-2</v>
       </c>
       <c r="S7">
-        <v>5.2317622991559148E-2</v>
+        <v>-0.13967158661693149</v>
       </c>
       <c r="T7">
-        <v>-0.1020464820703378</v>
+        <v>0.14744249342691829</v>
       </c>
       <c r="U7">
-        <v>-3.8808260996119151E-3</v>
+        <v>0.37696933847880332</v>
       </c>
       <c r="V7">
-        <v>0.49503077347355318</v>
+        <v>-3.1785114209703411E-2</v>
       </c>
       <c r="W7">
-        <v>-0.102361367216654</v>
+        <v>-9.6647023639803251E-2</v>
       </c>
       <c r="X7">
-        <v>-9.7139869536196327E-2</v>
+        <v>4.8111966991307119E-2</v>
       </c>
       <c r="Y7">
-        <v>6.8822383951634161E-2</v>
+        <v>1.6881052262240581E-2</v>
       </c>
       <c r="Z7">
-        <v>-4.2230073999860507E-2</v>
+        <v>-5.1010353308685322E-2</v>
       </c>
       <c r="AA7">
-        <v>-0.1186401969546188</v>
+        <v>9.5739806751386949E-2</v>
       </c>
       <c r="AB7">
-        <v>0.1113163515264937</v>
+        <v>1.09430165515314E-2</v>
       </c>
       <c r="AC7">
-        <v>-2.3629816954394901E-2</v>
+        <v>-0.16137216877414179</v>
       </c>
       <c r="AD7">
-        <v>-0.13825955919553631</v>
+        <v>4.2136666333614172E-4</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1.628499125510919E-3</v>
+        <v>-1.3445810769082359E-2</v>
       </c>
       <c r="C8">
-        <v>-1.8170879535351549E-2</v>
+        <v>0.13478525539566161</v>
       </c>
       <c r="D8">
-        <v>-3.2045181989772769E-3</v>
+        <v>2.50676840370101E-2</v>
       </c>
       <c r="E8">
-        <v>0.1001933470707458</v>
+        <v>3.1780085364211723E-2</v>
       </c>
       <c r="F8">
-        <v>-0.18680864642406869</v>
+        <v>-0.16477104511716731</v>
       </c>
       <c r="G8">
-        <v>0.38481916755413692</v>
+        <v>-1.7444452234075682E-2</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-1.098113740820467E-2</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="J8">
-        <v>-1.383678566064914E-2</v>
+        <v>-8.8825470271735513E-2</v>
       </c>
       <c r="K8">
-        <v>9.0545874418870825E-2</v>
+        <v>3.9677487780253533E-2</v>
       </c>
       <c r="L8">
-        <v>4.8774024551547543E-2</v>
+        <v>0.14338090497801079</v>
       </c>
       <c r="M8">
-        <v>-6.6328690843644608E-2</v>
+        <v>1.0064040301030509E-2</v>
       </c>
       <c r="N8">
-        <v>0.21450215388916449</v>
+        <v>6.6502539866227811E-2</v>
       </c>
       <c r="O8">
-        <v>-7.6489354308668534E-3</v>
+        <v>-8.3298100504246061E-2</v>
       </c>
       <c r="P8">
-        <v>-6.0842196744374938E-2</v>
+        <v>8.2743654492289431E-2</v>
       </c>
       <c r="Q8">
-        <v>5.7974570248246891E-2</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="R8">
-        <v>-0.1001856983163137</v>
+        <v>-0.16028287423658041</v>
       </c>
       <c r="S8">
-        <v>8.7949701177869016E-2</v>
+        <v>4.6868977937993231E-2</v>
       </c>
       <c r="T8">
-        <v>-0.13536384958842079</v>
+        <v>-0.10275931341809549</v>
       </c>
       <c r="U8">
-        <v>0.14740256881073011</v>
+        <v>-0.15633663996267019</v>
       </c>
       <c r="V8">
-        <v>0.37045834150178297</v>
+        <v>8.1505823664476423E-2</v>
       </c>
       <c r="W8">
-        <v>-2.7524887658522689E-2</v>
+        <v>2.3060224914834931E-2</v>
       </c>
       <c r="X8">
-        <v>-9.5174535307193248E-2</v>
+        <v>-7.7742970949390144E-2</v>
       </c>
       <c r="Y8">
-        <v>4.6616835146251277E-2</v>
+        <v>6.8377579274922065E-2</v>
       </c>
       <c r="Z8">
-        <v>1.8249275753378692E-2</v>
+        <v>6.1110480466726728E-2</v>
       </c>
       <c r="AA8">
-        <v>-5.2360405215018523E-2</v>
+        <v>-0.27793570624498359</v>
       </c>
       <c r="AB8">
-        <v>8.990711908168926E-2</v>
+        <v>-4.252764104902889E-2</v>
       </c>
       <c r="AC8">
-        <v>1.1655838017988321E-2</v>
+        <v>0.18495324312834349</v>
       </c>
       <c r="AD8">
-        <v>-0.1541875922123</v>
+        <v>5.4261097593951138E-3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-1.3780513293745231E-2</v>
+        <v>5.3278439423323698E-3</v>
       </c>
       <c r="C9">
-        <v>0.1341988910190591</v>
+        <v>-5.5957036622363891E-2</v>
       </c>
       <c r="D9">
-        <v>-6.545753183858233E-3</v>
+        <v>-0.1240683217221162</v>
       </c>
       <c r="E9">
-        <v>1.758351481106844E-2</v>
+        <v>0.13324316411809101</v>
       </c>
       <c r="F9">
-        <v>3.2781973116620892E-2</v>
+        <v>6.749129753345906E-2</v>
       </c>
       <c r="G9">
-        <v>-0.1496233840417947</v>
+        <v>-1.110522927200638E-2</v>
       </c>
       <c r="H9">
-        <v>-1.098113740820467E-2</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-9.491498467554986E-2</v>
+        <v>-4.9555287681310171E-2</v>
       </c>
       <c r="K9">
-        <v>-8.8448075306022222E-2</v>
+        <v>-5.9481509686605288E-2</v>
       </c>
       <c r="L9">
-        <v>3.3661320177665773E-2</v>
+        <v>-8.4935552408593143E-2</v>
       </c>
       <c r="M9">
-        <v>0.13856788353900509</v>
+        <v>-4.8705249493857537E-2</v>
       </c>
       <c r="N9">
-        <v>8.7090598988367254E-3</v>
+        <v>1.6729707070558451E-2</v>
       </c>
       <c r="O9">
-        <v>6.0838416995063128E-2</v>
+        <v>3.7340493816157831E-2</v>
       </c>
       <c r="P9">
-        <v>-7.9449365167668443E-2</v>
+        <v>-0.15285840431540579</v>
       </c>
       <c r="Q9">
-        <v>7.8744113021635379E-2</v>
+        <v>-0.23868486256944771</v>
       </c>
       <c r="R9">
-        <v>0.20631975561559709</v>
+        <v>0.13625669163412671</v>
       </c>
       <c r="S9">
-        <v>-0.14545284735749639</v>
+        <v>4.0369978843909367E-2</v>
       </c>
       <c r="T9">
-        <v>4.6425306485098933E-2</v>
+        <v>-9.5184560505526469E-2</v>
       </c>
       <c r="U9">
-        <v>-9.9698919798411209E-2</v>
+        <v>4.955333063480253E-2</v>
       </c>
       <c r="V9">
-        <v>-0.14385806772025619</v>
+        <v>3.9142214147888738E-2</v>
       </c>
       <c r="W9">
-        <v>7.8857908775097768E-2</v>
+        <v>5.9484598238988683E-2</v>
       </c>
       <c r="X9">
-        <v>2.180660262917173E-2</v>
+        <v>0.2163664193155172</v>
       </c>
       <c r="Y9">
-        <v>-7.0070773019087193E-2</v>
+        <v>-1.9987906611046188E-3</v>
       </c>
       <c r="Z9">
-        <v>6.4693143391616997E-2</v>
+        <v>-8.9802496774346333E-2</v>
       </c>
       <c r="AA9">
-        <v>5.5591095059783213E-2</v>
+        <v>1.072743307583247E-2</v>
       </c>
       <c r="AB9">
-        <v>-0.26803793224502559</v>
+        <v>-0.15665920734951011</v>
       </c>
       <c r="AC9">
-        <v>-4.1387194992709812E-2</v>
+        <v>-2.0581445074986649E-2</v>
       </c>
       <c r="AD9">
-        <v>0.17206546815193721</v>
+        <v>-7.568510999958534E-3</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>3.9545848175119363E-3</v>
+        <v>-6.7518211484551326E-3</v>
       </c>
       <c r="C10">
-        <v>-5.5448076584786607E-2</v>
+        <v>-6.7007929960326104E-2</v>
       </c>
       <c r="D10">
-        <v>-1.544292867805913E-2</v>
+        <v>0.20154002084972519</v>
       </c>
       <c r="E10">
-        <v>-0.11487278703138221</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="F10">
-        <v>0.1266320166195965</v>
+        <v>8.6773177061237161E-2</v>
       </c>
       <c r="G10">
-        <v>5.8934730574137652E-2</v>
+        <v>9.3599330086227173E-2</v>
       </c>
       <c r="H10">
-        <v>-1.383678566064914E-2</v>
+        <v>-8.8825470271735513E-2</v>
       </c>
       <c r="I10">
-        <v>-9.491498467554986E-2</v>
+        <v>-4.9555287681310171E-2</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>-4.6142150200091769E-2</v>
+        <v>0.38451280535789573</v>
       </c>
       <c r="L10">
-        <v>-5.3880418636342763E-2</v>
+        <v>-1.851781681925864E-2</v>
       </c>
       <c r="M10">
-        <v>-8.0436034454467717E-2</v>
+        <v>0.36703881566092489</v>
       </c>
       <c r="N10">
-        <v>-4.2348123573487113E-2</v>
+        <v>5.3831671611794659E-3</v>
       </c>
       <c r="O10">
-        <v>1.974283415371185E-2</v>
+        <v>-0.27193234366474411</v>
       </c>
       <c r="P10">
-        <v>3.282163851284229E-2</v>
+        <v>9.0338578412944334E-2</v>
       </c>
       <c r="Q10">
-        <v>-0.14171355715510561</v>
+        <v>-2.7928813480680709E-4</v>
       </c>
       <c r="R10">
-        <v>-0.23393340139770161</v>
+        <v>-4.0494576582652778E-2</v>
       </c>
       <c r="S10">
-        <v>0.1239791591694737</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="T10">
-        <v>3.4441135458292457E-2</v>
+        <v>-5.1524591656617838E-2</v>
       </c>
       <c r="U10">
-        <v>-9.2373270138078695E-2</v>
+        <v>9.6244598350325325E-2</v>
       </c>
       <c r="V10">
-        <v>4.3939936530639462E-2</v>
+        <v>-1.492358163074485E-2</v>
       </c>
       <c r="W10">
-        <v>3.8196236290184239E-2</v>
+        <v>-0.17153915092112459</v>
       </c>
       <c r="X10">
-        <v>5.7376648115419961E-2</v>
+        <v>4.6691915148049188E-3</v>
       </c>
       <c r="Y10">
-        <v>0.20759635027990381</v>
+        <v>4.1327314412042029E-2</v>
       </c>
       <c r="Z10">
-        <v>3.415939983460048E-3</v>
+        <v>0.41862827313991402</v>
       </c>
       <c r="AA10">
-        <v>-8.0738706434907229E-2</v>
+        <v>3.8073586254585637E-2</v>
       </c>
       <c r="AB10">
-        <v>5.3536778827797853E-3</v>
+        <v>-2.671046812049865E-2</v>
       </c>
       <c r="AC10">
-        <v>-0.14748835209019481</v>
+        <v>-2.8380624446991801E-2</v>
       </c>
       <c r="AD10">
-        <v>-1.299764114289002E-2</v>
+        <v>-8.6966293403386071E-3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-7.36739062099462E-3</v>
+        <v>-4.8415070455899208E-3</v>
       </c>
       <c r="C11">
-        <v>-6.6671136009710488E-2</v>
+        <v>-2.4125740754413559E-2</v>
       </c>
       <c r="D11">
-        <v>-9.3078781500059056E-3</v>
+        <v>0.22448924933899281</v>
       </c>
       <c r="E11">
-        <v>0.18879349314754651</v>
+        <v>-0.13590161799974229</v>
       </c>
       <c r="F11">
-        <v>-0.14743561982886641</v>
+        <v>-8.3674886817192054E-2</v>
       </c>
       <c r="G11">
-        <v>8.3456328495866733E-2</v>
+        <v>4.8845810389402361E-2</v>
       </c>
       <c r="H11">
-        <v>9.0545874418870825E-2</v>
+        <v>3.9677487780253533E-2</v>
       </c>
       <c r="I11">
-        <v>-8.8448075306022222E-2</v>
+        <v>-5.9481509686605288E-2</v>
       </c>
       <c r="J11">
-        <v>-4.6142150200091769E-2</v>
+        <v>0.38451280535789573</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.38418088740490902</v>
+        <v>5.3426502599198011E-2</v>
       </c>
       <c r="M11">
-        <v>-2.1979858999103909E-2</v>
+        <v>0.4110876095477542</v>
       </c>
       <c r="N11">
-        <v>0.36431790548151688</v>
+        <v>8.1917711642652699E-2</v>
       </c>
       <c r="O11">
-        <v>3.9733362760644457E-3</v>
+        <v>-0.20237855274047431</v>
       </c>
       <c r="P11">
-        <v>-0.27158549692143402</v>
+        <v>0.174290094998102</v>
       </c>
       <c r="Q11">
-        <v>8.418221084052363E-2</v>
+        <v>1.807801528670424E-2</v>
       </c>
       <c r="R11">
-        <v>-1.0029614469298899E-3</v>
+        <v>-7.8898934627798067E-2</v>
       </c>
       <c r="S11">
-        <v>-2.679443447487985E-2</v>
+        <v>-0.16851123940326221</v>
       </c>
       <c r="T11">
-        <v>-0.1847597959482509</v>
+        <v>3.9730433690833851E-2</v>
       </c>
       <c r="U11">
-        <v>-5.3321797100514171E-2</v>
+        <v>-6.4329225748121541E-2</v>
       </c>
       <c r="V11">
-        <v>9.3525325550013041E-2</v>
+        <v>7.4193103377846931E-2</v>
       </c>
       <c r="W11">
-        <v>-1.341359268942203E-2</v>
+        <v>-0.12341979141886281</v>
       </c>
       <c r="X11">
-        <v>-0.16705523722122309</v>
+        <v>1.1601060550807341E-2</v>
       </c>
       <c r="Y11">
-        <v>4.1072554872390093E-3</v>
+        <v>8.432036723016692E-2</v>
       </c>
       <c r="Z11">
-        <v>3.6849212527514871E-2</v>
+        <v>0.41939975600189322</v>
       </c>
       <c r="AA11">
-        <v>0.41624075630565011</v>
+        <v>-1.8012236004081399E-2</v>
       </c>
       <c r="AB11">
-        <v>3.6671889809479878E-2</v>
+        <v>1.4402635806295361E-2</v>
       </c>
       <c r="AC11">
-        <v>-2.749130549960262E-2</v>
+        <v>-1.7249226055090629E-2</v>
       </c>
       <c r="AD11">
-        <v>-2.5543330014809299E-2</v>
+        <v>-4.5712824433452219E-3</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-4.4917081498867407E-3</v>
+        <v>-3.8101154009343762E-3</v>
       </c>
       <c r="C12">
-        <v>-2.453764502345035E-2</v>
+        <v>5.6714639196880669E-2</v>
       </c>
       <c r="D12">
-        <v>-1.0005009400135391E-2</v>
+        <v>0.127729567213234</v>
       </c>
       <c r="E12">
-        <v>0.20852773409855069</v>
+        <v>-9.4821639260371279E-2</v>
       </c>
       <c r="F12">
-        <v>-0.12951531585841319</v>
+        <v>-6.3998267954573945E-2</v>
       </c>
       <c r="G12">
-        <v>-8.1630081136981572E-2</v>
+        <v>-6.4800892227440565E-2</v>
       </c>
       <c r="H12">
-        <v>4.8774024551547543E-2</v>
+        <v>0.14338090497801079</v>
       </c>
       <c r="I12">
-        <v>3.3661320177665773E-2</v>
+        <v>-8.4935552408593143E-2</v>
       </c>
       <c r="J12">
-        <v>-5.3880418636342763E-2</v>
+        <v>-1.851781681925864E-2</v>
       </c>
       <c r="K12">
-        <v>0.38418088740490902</v>
+        <v>5.3426502599198011E-2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.9377781855938011E-2</v>
+        <v>2.047199712390748E-2</v>
       </c>
       <c r="N12">
-        <v>0.4091405569622642</v>
+        <v>4.8308548012342897E-2</v>
       </c>
       <c r="O12">
-        <v>7.8759871706050255E-2</v>
+        <v>-4.6251057744196807E-2</v>
       </c>
       <c r="P12">
-        <v>-0.20096302411326569</v>
+        <v>0.3389168996468343</v>
       </c>
       <c r="Q12">
-        <v>0.1679444364136656</v>
+        <v>0.15922808125051291</v>
       </c>
       <c r="R12">
-        <v>1.539597399132525E-2</v>
+        <v>-0.324243374336253</v>
       </c>
       <c r="S12">
-        <v>-6.5637541918667039E-2</v>
+        <v>2.3840171321836211E-2</v>
       </c>
       <c r="T12">
-        <v>-0.16110173092692409</v>
+        <v>-6.8031336074508078E-2</v>
       </c>
       <c r="U12">
-        <v>3.5902216643811637E-2</v>
+        <v>-5.2206271353872978E-2</v>
       </c>
       <c r="V12">
-        <v>-6.1706835312659761E-2</v>
+        <v>5.8625241835233842E-2</v>
       </c>
       <c r="W12">
-        <v>7.2179605547206691E-2</v>
+        <v>3.8973030225623068E-2</v>
       </c>
       <c r="X12">
-        <v>-0.1202819829960005</v>
+        <v>-7.3040352300774547E-2</v>
       </c>
       <c r="Y12">
-        <v>1.16743115657186E-2</v>
+        <v>5.2578136137342392E-2</v>
       </c>
       <c r="Z12">
-        <v>7.5224459177094041E-2</v>
+        <v>9.7628312603988646E-2</v>
       </c>
       <c r="AA12">
-        <v>0.41483371562242449</v>
+        <v>-0.15848012445119289</v>
       </c>
       <c r="AB12">
-        <v>-1.920617363733023E-2</v>
+        <v>4.8979133154731007E-2</v>
       </c>
       <c r="AC12">
-        <v>1.0626461115835239E-2</v>
+        <v>0.14668665684003249</v>
       </c>
       <c r="AD12">
-        <v>-1.52266184181226E-2</v>
+        <v>5.8739259073063111E-3</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-3.6272959647052328E-3</v>
+        <v>-7.8066763201543616E-3</v>
       </c>
       <c r="C13">
-        <v>5.6399402181203921E-2</v>
+        <v>-2.6219113216796909E-2</v>
       </c>
       <c r="D13">
-        <v>-2.6950764100921801E-3</v>
+        <v>0.2335739591475389</v>
       </c>
       <c r="E13">
-        <v>0.1225507335186211</v>
+        <v>-0.18413775984454581</v>
       </c>
       <c r="F13">
-        <v>-9.0720048510837856E-2</v>
+        <v>6.6954120661917804E-2</v>
       </c>
       <c r="G13">
-        <v>-6.1568422280968087E-2</v>
+        <v>0.21836859933998951</v>
       </c>
       <c r="H13">
-        <v>-6.6328690843644608E-2</v>
+        <v>1.0064040301030509E-2</v>
       </c>
       <c r="I13">
-        <v>0.13856788353900509</v>
+        <v>-4.8705249493857537E-2</v>
       </c>
       <c r="J13">
-        <v>-8.0436034454467717E-2</v>
+        <v>0.36703881566092489</v>
       </c>
       <c r="K13">
-        <v>-2.1979858999103909E-2</v>
+        <v>0.4110876095477542</v>
       </c>
       <c r="L13">
-        <v>4.9377781855938011E-2</v>
+        <v>2.047199712390748E-2</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1.6764173340198651E-2</v>
+        <v>4.6609495621495488E-2</v>
       </c>
       <c r="O13">
-        <v>4.5447433459414842E-2</v>
+        <v>-0.18292860588769741</v>
       </c>
       <c r="P13">
-        <v>-4.3900174111058711E-2</v>
+        <v>0.16682721798653549</v>
       </c>
       <c r="Q13">
-        <v>0.33505808742568111</v>
+        <v>-3.2341294215647368E-2</v>
       </c>
       <c r="R13">
-        <v>0.15694003107108309</v>
+        <v>-3.789591040141408E-2</v>
       </c>
       <c r="S13">
-        <v>-0.31775387000876731</v>
+        <v>-0.1734339124309828</v>
       </c>
       <c r="T13">
-        <v>2.5104215217058141E-2</v>
+        <v>9.9172566996369865E-2</v>
       </c>
       <c r="U13">
-        <v>-6.6908445769690197E-2</v>
+        <v>7.6065736782383903E-2</v>
       </c>
       <c r="V13">
-        <v>-4.9454134321630067E-2</v>
+        <v>3.6244126381982787E-2</v>
       </c>
       <c r="W13">
-        <v>5.7373435248875629E-2</v>
+        <v>-0.13755422320907651</v>
       </c>
       <c r="X13">
-        <v>4.0469743673095727E-2</v>
+        <v>1.9430648136027559E-2</v>
       </c>
       <c r="Y13">
-        <v>-6.8937430584425904E-2</v>
+        <v>6.4900967211776572E-2</v>
       </c>
       <c r="Z13">
-        <v>5.0756228511320972E-2</v>
+        <v>0.29466193576614857</v>
       </c>
       <c r="AA13">
-        <v>9.044991471841457E-2</v>
+        <v>4.0402438387882843E-2</v>
       </c>
       <c r="AB13">
-        <v>-0.15254060059603261</v>
+        <v>2.1139755376094228E-2</v>
       </c>
       <c r="AC13">
-        <v>5.1778569515341412E-2</v>
+        <v>-8.5539316586107514E-2</v>
       </c>
       <c r="AD13">
-        <v>0.14184548526964519</v>
+        <v>-1.5945845070322338E-2</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-7.6040818835596312E-3</v>
+        <v>-1.9540095106477542E-3</v>
       </c>
       <c r="C14">
-        <v>-2.7517353901567291E-2</v>
+        <v>2.516347794757309E-2</v>
       </c>
       <c r="D14">
-        <v>-1.8128036465502529E-2</v>
+        <v>4.1045063066549627E-2</v>
       </c>
       <c r="E14">
-        <v>0.21258820281134719</v>
+        <v>-1.823123135068536E-2</v>
       </c>
       <c r="F14">
-        <v>-0.1727754541600873</v>
+        <v>-9.1033586266563202E-2</v>
       </c>
       <c r="G14">
-        <v>5.8736989094573637E-2</v>
+        <v>-1.106716854842715E-2</v>
       </c>
       <c r="H14">
-        <v>0.21450215388916449</v>
+        <v>6.6502539866227811E-2</v>
       </c>
       <c r="I14">
-        <v>8.7090598988367254E-3</v>
+        <v>1.6729707070558451E-2</v>
       </c>
       <c r="J14">
-        <v>-4.2348123573487113E-2</v>
+        <v>5.3831671611794659E-3</v>
       </c>
       <c r="K14">
-        <v>0.36431790548151688</v>
+        <v>8.1917711642652699E-2</v>
       </c>
       <c r="L14">
-        <v>0.4091405569622642</v>
+        <v>4.8308548012342897E-2</v>
       </c>
       <c r="M14">
-        <v>1.6764173340198651E-2</v>
+        <v>4.6609495621495488E-2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>4.5588232046041163E-2</v>
+        <v>-2.9528566417541379E-2</v>
       </c>
       <c r="P14">
-        <v>-0.1815832521224216</v>
+        <v>7.5593230314625365E-2</v>
       </c>
       <c r="Q14">
-        <v>0.1631501968050621</v>
+        <v>-1.9599057216627431E-3</v>
       </c>
       <c r="R14">
-        <v>-3.3560181345214338E-2</v>
+        <v>-2.8916014546217051E-2</v>
       </c>
       <c r="S14">
-        <v>-3.058529084414836E-2</v>
+        <v>4.1383456206040793E-3</v>
       </c>
       <c r="T14">
-        <v>-0.15886705420590391</v>
+        <v>2.4718912106571822E-3</v>
       </c>
       <c r="U14">
-        <v>9.3671716148398892E-2</v>
+        <v>-8.3609571693629647E-2</v>
       </c>
       <c r="V14">
-        <v>6.8990207825082916E-2</v>
+        <v>0.27698908935499089</v>
       </c>
       <c r="W14">
-        <v>3.3082686296236723E-2</v>
+        <v>5.4936229717480606E-3</v>
       </c>
       <c r="X14">
-        <v>-0.12979812423361439</v>
+        <v>2.8243527165587201E-2</v>
       </c>
       <c r="Y14">
-        <v>2.1104570993879881E-2</v>
+        <v>0.31714853461676662</v>
       </c>
       <c r="Z14">
-        <v>5.7606481201268107E-2</v>
+        <v>3.9752305754596047E-2</v>
       </c>
       <c r="AA14">
-        <v>0.28732400736183511</v>
+        <v>-3.988356159728796E-2</v>
       </c>
       <c r="AB14">
-        <v>3.6736240067152252E-2</v>
+        <v>-1.023285931755934E-2</v>
       </c>
       <c r="AC14">
-        <v>1.4967752605748921E-2</v>
+        <v>1.462849170605041E-2</v>
       </c>
       <c r="AD14">
-        <v>-7.8883975245999646E-2</v>
+        <v>-4.0394049393096647E-3</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-2.3953345386127532E-3</v>
+        <v>5.8191225174005646E-3</v>
       </c>
       <c r="C15">
-        <v>2.320545832293187E-2</v>
+        <v>-2.006199593661594E-3</v>
       </c>
       <c r="D15">
-        <v>-1.553266439308279E-3</v>
+        <v>-0.1093791755856602</v>
       </c>
       <c r="E15">
-        <v>3.462147288602907E-2</v>
+        <v>6.4880221956941264E-2</v>
       </c>
       <c r="F15">
-        <v>-1.92854326603774E-2</v>
+        <v>8.1705205005108104E-3</v>
       </c>
       <c r="G15">
-        <v>-8.4308092418933944E-2</v>
+        <v>-6.1446475280486933E-2</v>
       </c>
       <c r="H15">
-        <v>-7.6489354308668534E-3</v>
+        <v>-8.3298100504246061E-2</v>
       </c>
       <c r="I15">
-        <v>6.0838416995063128E-2</v>
+        <v>3.7340493816157831E-2</v>
       </c>
       <c r="J15">
-        <v>1.974283415371185E-2</v>
+        <v>-0.27193234366474411</v>
       </c>
       <c r="K15">
-        <v>3.9733362760644457E-3</v>
+        <v>-0.20237855274047431</v>
       </c>
       <c r="L15">
-        <v>7.8759871706050255E-2</v>
+        <v>-4.6251057744196807E-2</v>
       </c>
       <c r="M15">
-        <v>4.5447433459414842E-2</v>
+        <v>-0.18292860588769741</v>
       </c>
       <c r="N15">
-        <v>4.5588232046041163E-2</v>
+        <v>-2.9528566417541379E-2</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>-2.6364108246028251E-2</v>
+        <v>-6.6785040734088919E-2</v>
       </c>
       <c r="Q15">
-        <v>7.2267773654757617E-2</v>
+        <v>-4.71293049239924E-2</v>
       </c>
       <c r="R15">
-        <v>-4.5579020682800491E-3</v>
+        <v>7.5241898484822781E-2</v>
       </c>
       <c r="S15">
-        <v>-2.3265843249896931E-2</v>
+        <v>6.6280403118391548E-2</v>
       </c>
       <c r="T15">
-        <v>-3.9416942842675296E-3</v>
+        <v>2.1979733655357821E-2</v>
       </c>
       <c r="U15">
-        <v>4.5580654805072422E-4</v>
+        <v>-1.20577283038844E-2</v>
       </c>
       <c r="V15">
-        <v>-7.8488122131509297E-2</v>
+        <v>-5.0073673497424552E-2</v>
       </c>
       <c r="W15">
-        <v>0.27438865553623681</v>
+        <v>-1.4866754049820529E-3</v>
       </c>
       <c r="X15">
-        <v>3.1192253584841289E-3</v>
+        <v>2.3873927252606009E-2</v>
       </c>
       <c r="Y15">
-        <v>3.0574740834050731E-2</v>
+        <v>-2.634277216924626E-2</v>
       </c>
       <c r="Z15">
-        <v>0.3211009999428216</v>
+        <v>-0.27333455420538671</v>
       </c>
       <c r="AA15">
-        <v>3.8862276130018102E-2</v>
+        <v>5.7458020779972523E-2</v>
       </c>
       <c r="AB15">
-        <v>-3.60520389877131E-2</v>
+        <v>6.3781764454302035E-4</v>
       </c>
       <c r="AC15">
-        <v>-9.7666698044742047E-3</v>
+        <v>-4.0607496427685477E-2</v>
       </c>
       <c r="AD15">
-        <v>1.2778207651370671E-2</v>
+        <v>-4.2340089579056446E-3</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>5.7252724018054804E-3</v>
+        <v>-8.4408698399748364E-3</v>
       </c>
       <c r="C16">
-        <v>-1.2440841381334219E-3</v>
+        <v>4.4076459867710173E-2</v>
       </c>
       <c r="D16">
-        <v>-1.093052563486587E-2</v>
+        <v>0.21348372743469229</v>
       </c>
       <c r="E16">
-        <v>-0.1031031906149201</v>
+        <v>-0.16103122670275261</v>
       </c>
       <c r="F16">
-        <v>6.229084761763827E-2</v>
+        <v>-6.1328150585855903E-2</v>
       </c>
       <c r="G16">
-        <v>9.2212408169567127E-3</v>
+        <v>5.7452047728093272E-2</v>
       </c>
       <c r="H16">
-        <v>-6.0842196744374938E-2</v>
+        <v>8.2743654492289431E-2</v>
       </c>
       <c r="I16">
-        <v>-7.9449365167668443E-2</v>
+        <v>-0.15285840431540579</v>
       </c>
       <c r="J16">
-        <v>3.282163851284229E-2</v>
+        <v>9.0338578412944334E-2</v>
       </c>
       <c r="K16">
-        <v>-0.27158549692143402</v>
+        <v>0.174290094998102</v>
       </c>
       <c r="L16">
-        <v>-0.20096302411326569</v>
+        <v>0.3389168996468343</v>
       </c>
       <c r="M16">
-        <v>-4.3900174111058711E-2</v>
+        <v>0.16682721798653549</v>
       </c>
       <c r="N16">
-        <v>-0.1815832521224216</v>
+        <v>7.5593230314625365E-2</v>
       </c>
       <c r="O16">
-        <v>-2.6364108246028251E-2</v>
+        <v>-6.6785040734088919E-2</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>-6.1479361504484048E-2</v>
+        <v>0.12066557576281139</v>
       </c>
       <c r="R16">
-        <v>-4.6059906790094647E-2</v>
+        <v>-0.26613411576519042</v>
       </c>
       <c r="S16">
-        <v>6.612774423023178E-2</v>
+        <v>-4.7652875736835118E-2</v>
       </c>
       <c r="T16">
-        <v>6.6749121454883861E-2</v>
+        <v>7.4233663677665956E-2</v>
       </c>
       <c r="U16">
-        <v>2.275811679441863E-2</v>
+        <v>-5.4657118345925543E-2</v>
       </c>
       <c r="V16">
-        <v>-1.0724598469343909E-2</v>
+        <v>4.578199743103132E-2</v>
       </c>
       <c r="W16">
-        <v>-4.852784447612337E-2</v>
+        <v>2.4832635575145058E-3</v>
       </c>
       <c r="X16">
-        <v>-2.7354488793700591E-3</v>
+        <v>-5.7203845523940387E-2</v>
       </c>
       <c r="Y16">
-        <v>2.3458167792466789E-2</v>
+        <v>7.5051070358091262E-2</v>
       </c>
       <c r="Z16">
-        <v>-2.416824218371507E-2</v>
+        <v>0.19676768084987711</v>
       </c>
       <c r="AA16">
-        <v>-0.2723536851446578</v>
+        <v>-2.5320829559138749E-2</v>
       </c>
       <c r="AB16">
-        <v>5.6744366890256533E-2</v>
+        <v>0.100842758956742</v>
       </c>
       <c r="AC16">
-        <v>1.914621890336661E-3</v>
+        <v>-5.9128179153738244E-3</v>
       </c>
       <c r="AD16">
-        <v>-4.0448619280832383E-2</v>
+        <v>1.2720513568850269E-3</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>-8.9365652853722003E-3</v>
+        <v>-1.5824954872275039E-2</v>
       </c>
       <c r="C17">
-        <v>4.4327600942383472E-2</v>
+        <v>0.118973569968957</v>
       </c>
       <c r="D17">
-        <v>-1.354557805280498E-2</v>
+        <v>0.1232799394662013</v>
       </c>
       <c r="E17">
-        <v>0.19421421909071859</v>
+        <v>-6.4719082310363316E-2</v>
       </c>
       <c r="F17">
-        <v>-0.1493888446263236</v>
+        <v>-0.14248483953216501</v>
       </c>
       <c r="G17">
-        <v>-5.8171037375904018E-2</v>
+        <v>-0.1017707294568496</v>
       </c>
       <c r="H17">
-        <v>5.7974570248246891E-2</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="I17">
-        <v>7.8744113021635379E-2</v>
+        <v>-0.23868486256944771</v>
       </c>
       <c r="J17">
-        <v>-0.14171355715510561</v>
+        <v>-2.7928813480680709E-4</v>
       </c>
       <c r="K17">
-        <v>8.418221084052363E-2</v>
+        <v>1.807801528670424E-2</v>
       </c>
       <c r="L17">
-        <v>0.1679444364136656</v>
+        <v>0.15922808125051291</v>
       </c>
       <c r="M17">
-        <v>0.33505808742568111</v>
+        <v>-3.2341294215647368E-2</v>
       </c>
       <c r="N17">
-        <v>0.1631501968050621</v>
+        <v>-1.9599057216627431E-3</v>
       </c>
       <c r="O17">
-        <v>7.2267773654757617E-2</v>
+        <v>-4.71293049239924E-2</v>
       </c>
       <c r="P17">
-        <v>-6.1479361504484048E-2</v>
+        <v>0.12066557576281139</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.116782468161299</v>
+        <v>-0.18855159001377991</v>
       </c>
       <c r="S17">
-        <v>-0.24545580852674739</v>
+        <v>4.9222118310631377E-2</v>
       </c>
       <c r="T17">
-        <v>-3.9484492919335867E-2</v>
+        <v>-0.14961102970527709</v>
       </c>
       <c r="U17">
-        <v>7.3172645061626684E-2</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="V17">
-        <v>-5.280300604295321E-2</v>
+        <v>1.1587331988584719E-3</v>
       </c>
       <c r="W17">
-        <v>4.4014246701369122E-2</v>
+        <v>3.7671084328243343E-2</v>
       </c>
       <c r="X17">
-        <v>8.4925613665584772E-3</v>
+        <v>-0.1315965272369784</v>
       </c>
       <c r="Y17">
-        <v>-4.8594926423102189E-2</v>
+        <v>1.1882649177833251E-3</v>
       </c>
       <c r="Z17">
-        <v>6.8399709549363016E-2</v>
+        <v>9.7360585524799509E-2</v>
       </c>
       <c r="AA17">
-        <v>0.18643373602776681</v>
+        <v>-0.17993484389482101</v>
       </c>
       <c r="AB17">
-        <v>-1.970444172840332E-2</v>
+        <v>1.928345916355061E-2</v>
       </c>
       <c r="AC17">
-        <v>9.6306904189423198E-2</v>
+        <v>0.27742377646599842</v>
       </c>
       <c r="AD17">
-        <v>-8.7688932739201243E-3</v>
+        <v>4.2193006383063917E-3</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-1.5630009416878209E-2</v>
+        <v>2.415649425689221E-3</v>
       </c>
       <c r="C18">
-        <v>0.1182964987308035</v>
+        <v>-4.2218014638485617E-2</v>
       </c>
       <c r="D18">
-        <v>2.998252498279062E-3</v>
+        <v>-0.22116267708491191</v>
       </c>
       <c r="E18">
-        <v>0.1210242838366339</v>
+        <v>0.21372946679453941</v>
       </c>
       <c r="F18">
-        <v>-6.1922588352781499E-2</v>
+        <v>5.3635102072637601E-2</v>
       </c>
       <c r="G18">
-        <v>-0.1345177433702005</v>
+        <v>8.5479592740025645E-2</v>
       </c>
       <c r="H18">
-        <v>-0.1001856983163137</v>
+        <v>-0.16028287423658041</v>
       </c>
       <c r="I18">
-        <v>0.20631975561559709</v>
+        <v>0.13625669163412671</v>
       </c>
       <c r="J18">
-        <v>-0.23393340139770161</v>
+        <v>-4.0494576582652778E-2</v>
       </c>
       <c r="K18">
-        <v>-1.0029614469298899E-3</v>
+        <v>-7.8898934627798067E-2</v>
       </c>
       <c r="L18">
-        <v>1.539597399132525E-2</v>
+        <v>-0.324243374336253</v>
       </c>
       <c r="M18">
-        <v>0.15694003107108309</v>
+        <v>-3.789591040141408E-2</v>
       </c>
       <c r="N18">
-        <v>-3.3560181345214338E-2</v>
+        <v>-2.8916014546217051E-2</v>
       </c>
       <c r="O18">
-        <v>-4.5579020682800491E-3</v>
+        <v>7.5241898484822781E-2</v>
       </c>
       <c r="P18">
-        <v>-4.6059906790094647E-2</v>
+        <v>-0.26613411576519042</v>
       </c>
       <c r="Q18">
-        <v>0.116782468161299</v>
+        <v>-0.18855159001377991</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>-0.17937456622993181</v>
+        <v>2.956655358049631E-2</v>
       </c>
       <c r="T18">
-        <v>4.9252499146167368E-2</v>
+        <v>0.1312233563446126</v>
       </c>
       <c r="U18">
-        <v>-0.14842992405398939</v>
+        <v>3.637625638365085E-2</v>
       </c>
       <c r="V18">
-        <v>-9.9601608024128499E-2</v>
+        <v>-4.5232040881409488E-2</v>
       </c>
       <c r="W18">
-        <v>6.3133027357314899E-4</v>
+        <v>2.9851383728212139E-2</v>
       </c>
       <c r="X18">
-        <v>3.8023967126500489E-2</v>
+        <v>7.4240549174401191E-2</v>
       </c>
       <c r="Y18">
-        <v>-0.1270807984343032</v>
+        <v>-2.4421886411421879E-2</v>
       </c>
       <c r="Z18">
-        <v>-3.380366071031348E-3</v>
+        <v>-0.13645833032187271</v>
       </c>
       <c r="AA18">
-        <v>9.262958946817712E-2</v>
+        <v>0.1970722535658273</v>
       </c>
       <c r="AB18">
-        <v>-0.17404387809145599</v>
+        <v>-1.7232098239151769E-2</v>
       </c>
       <c r="AC18">
-        <v>2.0054806968380169E-2</v>
+        <v>-0.1640239568781148</v>
       </c>
       <c r="AD18">
-        <v>0.26922774576175079</v>
+        <v>4.2149177366283966E-3</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>2.8941020204352281E-3</v>
+        <v>-9.8078239328105781E-4</v>
       </c>
       <c r="C19">
-        <v>-4.2500330212004632E-2</v>
+        <v>7.0343257365374459E-2</v>
       </c>
       <c r="D19">
-        <v>-8.3338424937734502E-3</v>
+        <v>-0.1342813671830736</v>
       </c>
       <c r="E19">
-        <v>-0.18536700676155929</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="F19">
-        <v>0.191364251520248</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="G19">
-        <v>5.2317622991559148E-2</v>
+        <v>-0.13967158661693149</v>
       </c>
       <c r="H19">
-        <v>8.7949701177869016E-2</v>
+        <v>4.6868977937993231E-2</v>
       </c>
       <c r="I19">
-        <v>-0.14545284735749639</v>
+        <v>4.0369978843909367E-2</v>
       </c>
       <c r="J19">
-        <v>0.1239791591694737</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="K19">
-        <v>-2.679443447487985E-2</v>
+        <v>-0.16851123940326221</v>
       </c>
       <c r="L19">
-        <v>-6.5637541918667039E-2</v>
+        <v>2.3840171321836211E-2</v>
       </c>
       <c r="M19">
-        <v>-0.31775387000876731</v>
+        <v>-0.1734339124309828</v>
       </c>
       <c r="N19">
-        <v>-3.058529084414836E-2</v>
+        <v>4.1383456206040793E-3</v>
       </c>
       <c r="O19">
-        <v>-2.3265843249896931E-2</v>
+        <v>6.6280403118391548E-2</v>
       </c>
       <c r="P19">
-        <v>6.612774423023178E-2</v>
+        <v>-4.7652875736835118E-2</v>
       </c>
       <c r="Q19">
-        <v>-0.24545580852674739</v>
+        <v>4.9222118310631377E-2</v>
       </c>
       <c r="R19">
-        <v>-0.17937456622993181</v>
+        <v>2.956655358049631E-2</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>2.1806306470695602E-2</v>
+        <v>-0.1162433577448628</v>
       </c>
       <c r="U19">
-        <v>0.12212278465814901</v>
+        <v>-0.11009625864656911</v>
       </c>
       <c r="V19">
-        <v>3.217063479202481E-2</v>
+        <v>7.2220147009288659E-3</v>
       </c>
       <c r="W19">
-        <v>-4.1892280772454493E-2</v>
+        <v>0.38062545186028762</v>
       </c>
       <c r="X19">
-        <v>2.501049789493566E-2</v>
+        <v>-4.3026141113010119E-2</v>
       </c>
       <c r="Y19">
-        <v>7.0657223422462487E-2</v>
+        <v>-3.8993818075712443E-2</v>
       </c>
       <c r="Z19">
-        <v>-1.9174540828426841E-2</v>
+        <v>-0.190701823841399</v>
       </c>
       <c r="AA19">
-        <v>-0.1137764591834499</v>
+        <v>-7.5095901364473111E-2</v>
       </c>
       <c r="AB19">
-        <v>0.17808466455629779</v>
+        <v>-4.1558752204095821E-2</v>
       </c>
       <c r="AC19">
-        <v>-2.1458656674085759E-2</v>
+        <v>0.1281674556597141</v>
       </c>
       <c r="AD19">
-        <v>-0.1540132606048295</v>
+        <v>5.8551447670808811E-3</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-8.5538396710585377E-4</v>
+        <v>3.9111572328758334E-3</v>
       </c>
       <c r="C20">
-        <v>6.970073553262629E-2</v>
+        <v>-3.7941086793873719E-3</v>
       </c>
       <c r="D20">
-        <v>1.2886157922722191E-3</v>
+        <v>3.189711144304417E-2</v>
       </c>
       <c r="E20">
-        <v>-0.12743251480901291</v>
+        <v>-8.6993275818948335E-2</v>
       </c>
       <c r="F20">
-        <v>0.2243660297260345</v>
+        <v>-5.6572143390247933E-3</v>
       </c>
       <c r="G20">
-        <v>-0.1020464820703378</v>
+        <v>0.14744249342691829</v>
       </c>
       <c r="H20">
-        <v>-0.13536384958842079</v>
+        <v>-0.10275931341809549</v>
       </c>
       <c r="I20">
-        <v>4.6425306485098933E-2</v>
+        <v>-9.5184560505526469E-2</v>
       </c>
       <c r="J20">
-        <v>3.4441135458292457E-2</v>
+        <v>-5.1524591656617838E-2</v>
       </c>
       <c r="K20">
-        <v>-0.1847597959482509</v>
+        <v>3.9730433690833851E-2</v>
       </c>
       <c r="L20">
-        <v>-0.16110173092692409</v>
+        <v>-6.8031336074508078E-2</v>
       </c>
       <c r="M20">
-        <v>2.5104215217058141E-2</v>
+        <v>9.9172566996369865E-2</v>
       </c>
       <c r="N20">
-        <v>-0.15886705420590391</v>
+        <v>2.4718912106571822E-3</v>
       </c>
       <c r="O20">
-        <v>-3.9416942842675296E-3</v>
+        <v>2.1979733655357821E-2</v>
       </c>
       <c r="P20">
-        <v>6.6749121454883861E-2</v>
+        <v>7.4233663677665956E-2</v>
       </c>
       <c r="Q20">
-        <v>-3.9484492919335867E-2</v>
+        <v>-0.14961102970527709</v>
       </c>
       <c r="R20">
-        <v>4.9252499146167368E-2</v>
+        <v>0.1312233563446126</v>
       </c>
       <c r="S20">
-        <v>2.1806306470695602E-2</v>
+        <v>-0.1162433577448628</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>-0.1090063264409003</v>
+        <v>-6.2224827903629388E-3</v>
       </c>
       <c r="V20">
-        <v>-9.9615925183492771E-2</v>
+        <v>-1.596469403155534E-2</v>
       </c>
       <c r="W20">
-        <v>4.0702261797213749E-4</v>
+        <v>-0.1145480770662133</v>
       </c>
       <c r="X20">
-        <v>0.3765676755771078</v>
+        <v>4.166142694064974E-2</v>
       </c>
       <c r="Y20">
-        <v>-4.0242047126953111E-2</v>
+        <v>-7.9102295732843188E-3</v>
       </c>
       <c r="Z20">
-        <v>-3.2791796287261588E-2</v>
+        <v>-4.0087357337898512E-2</v>
       </c>
       <c r="AA20">
-        <v>-0.17538741250091419</v>
+        <v>0.26497651406238149</v>
       </c>
       <c r="AB20">
-        <v>-6.5789864191195105E-2</v>
+        <v>0.39917558762044347</v>
       </c>
       <c r="AC20">
-        <v>-3.3126294628390507E-2</v>
+        <v>-0.27526135525206541</v>
       </c>
       <c r="AD20">
-        <v>0.1117638632444812</v>
+        <v>-3.1914641642186322E-4</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>4.0525822781531636E-3</v>
+        <v>5.9670405281967679E-4</v>
       </c>
       <c r="C21">
-        <v>-2.3655631797528821E-3</v>
+        <v>-4.5786480215259058E-2</v>
       </c>
       <c r="D21">
-        <v>6.371811060045785E-3</v>
+        <v>5.370476839399517E-2</v>
       </c>
       <c r="E21">
-        <v>3.004834167376997E-2</v>
+        <v>-0.16473995066539041</v>
       </c>
       <c r="F21">
-        <v>-8.4063220184212764E-2</v>
+        <v>0.51633899160326902</v>
       </c>
       <c r="G21">
-        <v>-3.8808260996119151E-3</v>
+        <v>0.37696933847880332</v>
       </c>
       <c r="H21">
-        <v>0.14740256881073011</v>
+        <v>-0.15633663996267019</v>
       </c>
       <c r="I21">
-        <v>-9.9698919798411209E-2</v>
+        <v>4.955333063480253E-2</v>
       </c>
       <c r="J21">
-        <v>-9.2373270138078695E-2</v>
+        <v>9.6244598350325325E-2</v>
       </c>
       <c r="K21">
-        <v>-5.3321797100514171E-2</v>
+        <v>-6.4329225748121541E-2</v>
       </c>
       <c r="L21">
-        <v>3.5902216643811637E-2</v>
+        <v>-5.2206271353872978E-2</v>
       </c>
       <c r="M21">
-        <v>-6.6908445769690197E-2</v>
+        <v>7.6065736782383903E-2</v>
       </c>
       <c r="N21">
-        <v>9.3671716148398892E-2</v>
+        <v>-8.3609571693629647E-2</v>
       </c>
       <c r="O21">
-        <v>4.5580654805072422E-4</v>
+        <v>-1.20577283038844E-2</v>
       </c>
       <c r="P21">
-        <v>2.275811679441863E-2</v>
+        <v>-5.4657118345925543E-2</v>
       </c>
       <c r="Q21">
-        <v>7.3172645061626684E-2</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="R21">
-        <v>-0.14842992405398939</v>
+        <v>3.637625638365085E-2</v>
       </c>
       <c r="S21">
-        <v>0.12212278465814901</v>
+        <v>-0.11009625864656911</v>
       </c>
       <c r="T21">
-        <v>-0.1090063264409003</v>
+        <v>-6.2224827903629388E-3</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>-8.4238932090553841E-3</v>
+        <v>-9.4906855293869302E-2</v>
       </c>
       <c r="W21">
-        <v>-1.5211404115074019E-2</v>
+        <v>-8.9933150449372945E-2</v>
       </c>
       <c r="X21">
-        <v>-0.11186976132220471</v>
+        <v>5.1373003566907292E-2</v>
       </c>
       <c r="Y21">
-        <v>3.9627828195639002E-2</v>
+        <v>-4.5722441151799492E-2</v>
       </c>
       <c r="Z21">
-        <v>-9.6234292576660128E-3</v>
+        <v>-9.7353675177309848E-2</v>
       </c>
       <c r="AA21">
-        <v>-4.4323771206698781E-2</v>
+        <v>0.10543957559292649</v>
       </c>
       <c r="AB21">
-        <v>0.25356730203312039</v>
+        <v>-1.4115378349411071E-2</v>
       </c>
       <c r="AC21">
-        <v>0.38272417330665071</v>
+        <v>-0.119148661185463</v>
       </c>
       <c r="AD21">
-        <v>-0.26262909571983822</v>
+        <v>-1.15073652370464E-2</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>1.5681932251355589E-3</v>
+        <v>9.4973266238804407E-3</v>
       </c>
       <c r="C22">
-        <v>-4.4297212707705723E-2</v>
+        <v>2.7811254979521222E-2</v>
       </c>
       <c r="D22">
-        <v>-1.3965185112855921E-2</v>
+        <v>3.6639484747601543E-2</v>
       </c>
       <c r="E22">
-        <v>4.7995637917764768E-2</v>
+        <v>-9.9270454684014416E-3</v>
       </c>
       <c r="F22">
-        <v>-0.1571966344248957</v>
+        <v>-0.1089322791113146</v>
       </c>
       <c r="G22">
-        <v>0.49503077347355318</v>
+        <v>-3.1785114209703411E-2</v>
       </c>
       <c r="H22">
-        <v>0.37045834150178297</v>
+        <v>8.1505823664476423E-2</v>
       </c>
       <c r="I22">
-        <v>-0.14385806772025619</v>
+        <v>3.9142214147888738E-2</v>
       </c>
       <c r="J22">
-        <v>4.3939936530639462E-2</v>
+        <v>-1.492358163074485E-2</v>
       </c>
       <c r="K22">
-        <v>9.3525325550013041E-2</v>
+        <v>7.4193103377846931E-2</v>
       </c>
       <c r="L22">
-        <v>-6.1706835312659761E-2</v>
+        <v>5.8625241835233842E-2</v>
       </c>
       <c r="M22">
-        <v>-4.9454134321630067E-2</v>
+        <v>3.6244126381982787E-2</v>
       </c>
       <c r="N22">
-        <v>6.8990207825082916E-2</v>
+        <v>0.27698908935499089</v>
       </c>
       <c r="O22">
-        <v>-7.8488122131509297E-2</v>
+        <v>-5.0073673497424552E-2</v>
       </c>
       <c r="P22">
-        <v>-1.0724598469343909E-2</v>
+        <v>4.578199743103132E-2</v>
       </c>
       <c r="Q22">
-        <v>-5.280300604295321E-2</v>
+        <v>1.1587331988584719E-3</v>
       </c>
       <c r="R22">
-        <v>-9.9601608024128499E-2</v>
+        <v>-4.5232040881409488E-2</v>
       </c>
       <c r="S22">
-        <v>3.217063479202481E-2</v>
+        <v>7.2220147009288659E-3</v>
       </c>
       <c r="T22">
-        <v>-9.9615925183492771E-2</v>
+        <v>-1.596469403155534E-2</v>
       </c>
       <c r="U22">
-        <v>-8.4238932090553841E-3</v>
+        <v>-9.4906855293869302E-2</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>-8.8659600668535107E-2</v>
+        <v>8.6725484609936152E-3</v>
       </c>
       <c r="X22">
-        <v>-8.7793318932232939E-2</v>
+        <v>2.5071391539475081E-2</v>
       </c>
       <c r="Y22">
-        <v>4.8733307540452797E-2</v>
+        <v>0.19484799590176391</v>
       </c>
       <c r="Z22">
-        <v>-4.1664935408230692E-2</v>
+        <v>6.5745725250988138E-2</v>
       </c>
       <c r="AA22">
-        <v>-9.546739326221089E-2</v>
+        <v>-6.5017553823514637E-2</v>
       </c>
       <c r="AB22">
-        <v>9.7152469549731807E-2</v>
+        <v>-3.0422914026749921E-2</v>
       </c>
       <c r="AC22">
-        <v>-1.180449912908571E-2</v>
+        <v>3.3579454722379679E-2</v>
       </c>
       <c r="AD22">
-        <v>-0.1050714855629996</v>
+        <v>-1.035051011862847E-2</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>9.094235058689679E-3</v>
+        <v>2.9414325853872069E-3</v>
       </c>
       <c r="C23">
-        <v>2.6027544704194262E-2</v>
+        <v>4.4819436912410068E-2</v>
       </c>
       <c r="D23">
-        <v>-2.9366790259264149E-3</v>
+        <v>-0.108249922874552</v>
       </c>
       <c r="E23">
-        <v>3.4065088240700821E-2</v>
+        <v>0.18574022663908341</v>
       </c>
       <c r="F23">
-        <v>-1.3409826908462791E-2</v>
+        <v>-9.9015209573411131E-2</v>
       </c>
       <c r="G23">
-        <v>-0.102361367216654</v>
+        <v>-9.6647023639803251E-2</v>
       </c>
       <c r="H23">
-        <v>-2.7524887658522689E-2</v>
+        <v>2.3060224914834931E-2</v>
       </c>
       <c r="I23">
-        <v>7.8857908775097768E-2</v>
+        <v>5.9484598238988683E-2</v>
       </c>
       <c r="J23">
-        <v>3.8196236290184239E-2</v>
+        <v>-0.17153915092112459</v>
       </c>
       <c r="K23">
-        <v>-1.341359268942203E-2</v>
+        <v>-0.12341979141886281</v>
       </c>
       <c r="L23">
-        <v>7.2179605547206691E-2</v>
+        <v>3.8973030225623068E-2</v>
       </c>
       <c r="M23">
-        <v>5.7373435248875629E-2</v>
+        <v>-0.13755422320907651</v>
       </c>
       <c r="N23">
-        <v>3.3082686296236723E-2</v>
+        <v>5.4936229717480606E-3</v>
       </c>
       <c r="O23">
-        <v>0.27438865553623681</v>
+        <v>-1.4866754049820529E-3</v>
       </c>
       <c r="P23">
-        <v>-4.852784447612337E-2</v>
+        <v>2.4832635575145058E-3</v>
       </c>
       <c r="Q23">
-        <v>4.4014246701369122E-2</v>
+        <v>3.7671084328243343E-2</v>
       </c>
       <c r="R23">
-        <v>6.3133027357314899E-4</v>
+        <v>2.9851383728212139E-2</v>
       </c>
       <c r="S23">
-        <v>-4.1892280772454493E-2</v>
+        <v>0.38062545186028762</v>
       </c>
       <c r="T23">
-        <v>4.0702261797213749E-4</v>
+        <v>-0.1145480770662133</v>
       </c>
       <c r="U23">
-        <v>-1.5211404115074019E-2</v>
+        <v>-8.9933150449372945E-2</v>
       </c>
       <c r="V23">
-        <v>-8.8659600668535107E-2</v>
+        <v>8.6725484609936152E-3</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>4.4185520431556709E-3</v>
+        <v>-3.4397434603970427E-2</v>
       </c>
       <c r="Y23">
-        <v>2.379600707250909E-2</v>
+        <v>-3.9925610529435523E-2</v>
       </c>
       <c r="Z23">
-        <v>0.19430513124523391</v>
+        <v>-0.12391943964503969</v>
       </c>
       <c r="AA23">
-        <v>6.5460146359294702E-2</v>
+        <v>-6.4251969388895117E-2</v>
       </c>
       <c r="AB23">
-        <v>-5.8386301068321142E-2</v>
+        <v>-4.1774862286212987E-2</v>
       </c>
       <c r="AC23">
-        <v>-2.871240890359875E-2</v>
+        <v>0.1138778076145074</v>
       </c>
       <c r="AD23">
-        <v>3.0758445300150879E-2</v>
+        <v>-3.5359879990106858E-3</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>3.144793836341803E-3</v>
+        <v>5.0039109714455189E-3</v>
       </c>
       <c r="C24">
-        <v>4.4929856963209933E-2</v>
+        <v>-3.5860522574293903E-2</v>
       </c>
       <c r="D24">
-        <v>-4.6668173012120806E-3</v>
+        <v>-6.4552202616111554E-2</v>
       </c>
       <c r="E24">
-        <v>-0.1067272793663452</v>
+        <v>1.0482130814969581E-2</v>
       </c>
       <c r="F24">
-        <v>0.1791387824432312</v>
+        <v>7.3586700421981399E-2</v>
       </c>
       <c r="G24">
-        <v>-9.7139869536196327E-2</v>
+        <v>4.8111966991307119E-2</v>
       </c>
       <c r="H24">
-        <v>-9.5174535307193248E-2</v>
+        <v>-7.7742970949390144E-2</v>
       </c>
       <c r="I24">
-        <v>2.180660262917173E-2</v>
+        <v>0.2163664193155172</v>
       </c>
       <c r="J24">
-        <v>5.7376648115419961E-2</v>
+        <v>4.6691915148049188E-3</v>
       </c>
       <c r="K24">
-        <v>-0.16705523722122309</v>
+        <v>1.1601060550807341E-2</v>
       </c>
       <c r="L24">
-        <v>-0.1202819829960005</v>
+        <v>-7.3040352300774547E-2</v>
       </c>
       <c r="M24">
-        <v>4.0469743673095727E-2</v>
+        <v>1.9430648136027559E-2</v>
       </c>
       <c r="N24">
-        <v>-0.12979812423361439</v>
+        <v>2.8243527165587201E-2</v>
       </c>
       <c r="O24">
-        <v>3.1192253584841289E-3</v>
+        <v>2.3873927252606009E-2</v>
       </c>
       <c r="P24">
-        <v>-2.7354488793700591E-3</v>
+        <v>-5.7203845523940387E-2</v>
       </c>
       <c r="Q24">
-        <v>8.4925613665584772E-3</v>
+        <v>-0.1315965272369784</v>
       </c>
       <c r="R24">
-        <v>3.8023967126500489E-2</v>
+        <v>7.4240549174401191E-2</v>
       </c>
       <c r="S24">
-        <v>2.501049789493566E-2</v>
+        <v>-4.3026141113010119E-2</v>
       </c>
       <c r="T24">
-        <v>0.3765676755771078</v>
+        <v>4.166142694064974E-2</v>
       </c>
       <c r="U24">
-        <v>-0.11186976132220471</v>
+        <v>5.1373003566907292E-2</v>
       </c>
       <c r="V24">
-        <v>-8.7793318932232939E-2</v>
+        <v>2.5071391539475081E-2</v>
       </c>
       <c r="W24">
-        <v>4.4185520431556709E-3</v>
+        <v>-3.4397434603970427E-2</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>-3.4139636279764927E-2</v>
+        <v>1.772476306817743E-2</v>
       </c>
       <c r="Z24">
-        <v>-3.8027296297844362E-2</v>
+        <v>-3.6732569704928393E-2</v>
       </c>
       <c r="AA24">
-        <v>-0.1175929698162798</v>
+        <v>9.5926452064851064E-2</v>
       </c>
       <c r="AB24">
-        <v>-5.8813501325139107E-2</v>
+        <v>-1.631311760248445E-2</v>
       </c>
       <c r="AC24">
-        <v>-4.0164913505734472E-2</v>
+        <v>-0.12789183152373229</v>
       </c>
       <c r="AD24">
-        <v>0.10697807640660729</v>
+        <v>-4.8648059401357798E-3</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>5.1550387806782658E-3</v>
+        <v>8.0104302984189434E-4</v>
       </c>
       <c r="C25">
-        <v>-3.5310592849809648E-2</v>
+        <v>1.2520016349723301E-2</v>
       </c>
       <c r="D25">
-        <v>-7.9566396619113328E-3</v>
+        <v>8.380594414087883E-2</v>
       </c>
       <c r="E25">
-        <v>-6.0986776102747282E-2</v>
+        <v>-6.123995584416253E-2</v>
       </c>
       <c r="F25">
-        <v>8.8426104747472735E-3</v>
+        <v>-4.7882223865839048E-2</v>
       </c>
       <c r="G25">
-        <v>6.8822383951634161E-2</v>
+        <v>1.6881052262240581E-2</v>
       </c>
       <c r="H25">
-        <v>4.6616835146251277E-2</v>
+        <v>6.8377579274922065E-2</v>
       </c>
       <c r="I25">
-        <v>-7.0070773019087193E-2</v>
+        <v>-1.9987906611046188E-3</v>
       </c>
       <c r="J25">
-        <v>0.20759635027990381</v>
+        <v>4.1327314412042029E-2</v>
       </c>
       <c r="K25">
-        <v>4.1072554872390093E-3</v>
+        <v>8.432036723016692E-2</v>
       </c>
       <c r="L25">
-        <v>1.16743115657186E-2</v>
+        <v>5.2578136137342392E-2</v>
       </c>
       <c r="M25">
-        <v>-6.8937430584425904E-2</v>
+        <v>6.4900967211776572E-2</v>
       </c>
       <c r="N25">
-        <v>2.1104570993879881E-2</v>
+        <v>0.31714853461676662</v>
       </c>
       <c r="O25">
-        <v>3.0574740834050731E-2</v>
+        <v>-2.634277216924626E-2</v>
       </c>
       <c r="P25">
-        <v>2.3458167792466789E-2</v>
+        <v>7.5051070358091262E-2</v>
       </c>
       <c r="Q25">
-        <v>-4.8594926423102189E-2</v>
+        <v>1.1882649177833251E-3</v>
       </c>
       <c r="R25">
-        <v>-0.1270807984343032</v>
+        <v>-2.4421886411421879E-2</v>
       </c>
       <c r="S25">
-        <v>7.0657223422462487E-2</v>
+        <v>-3.8993818075712443E-2</v>
       </c>
       <c r="T25">
-        <v>-4.0242047126953111E-2</v>
+        <v>-7.9102295732843188E-3</v>
       </c>
       <c r="U25">
-        <v>3.9627828195639002E-2</v>
+        <v>-4.5722441151799492E-2</v>
       </c>
       <c r="V25">
-        <v>4.8733307540452797E-2</v>
+        <v>0.19484799590176391</v>
       </c>
       <c r="W25">
-        <v>2.379600707250909E-2</v>
+        <v>-3.9925610529435523E-2</v>
       </c>
       <c r="X25">
-        <v>-3.4139636279764927E-2</v>
+        <v>1.772476306817743E-2</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>2.137657186416958E-2</v>
+        <v>5.8142505556850549E-2</v>
       </c>
       <c r="AA25">
-        <v>-3.4408459723673873E-2</v>
+        <v>-3.06882798565359E-2</v>
       </c>
       <c r="AB25">
-        <v>9.0357570265272968E-2</v>
+        <v>-2.5806227941391369E-2</v>
       </c>
       <c r="AC25">
-        <v>-1.4441625732118921E-2</v>
+        <v>6.063364069331491E-3</v>
       </c>
       <c r="AD25">
-        <v>-0.11984394527620799</v>
+        <v>1.023912269725002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>9.3443041365751155E-4</v>
+        <v>-9.4080971500331238E-3</v>
       </c>
       <c r="C26">
-        <v>1.1598683899269669E-2</v>
+        <v>-3.4833637000393869E-3</v>
       </c>
       <c r="D26">
-        <v>4.8538311453334818E-4</v>
+        <v>0.25686603449352879</v>
       </c>
       <c r="E26">
-        <v>6.5460630616731658E-2</v>
+        <v>-0.14219768540045749</v>
       </c>
       <c r="F26">
-        <v>-5.4095048336022633E-2</v>
+        <v>-0.1206321809120469</v>
       </c>
       <c r="G26">
-        <v>-4.2230073999860507E-2</v>
+        <v>-5.1010353308685322E-2</v>
       </c>
       <c r="H26">
-        <v>1.8249275753378692E-2</v>
+        <v>6.1110480466726728E-2</v>
       </c>
       <c r="I26">
-        <v>6.4693143391616997E-2</v>
+        <v>-8.9802496774346333E-2</v>
       </c>
       <c r="J26">
-        <v>3.415939983460048E-3</v>
+        <v>0.41862827313991402</v>
       </c>
       <c r="K26">
-        <v>3.6849212527514871E-2</v>
+        <v>0.41939975600189322</v>
       </c>
       <c r="L26">
-        <v>7.5224459177094041E-2</v>
+        <v>9.7628312603988646E-2</v>
       </c>
       <c r="M26">
-        <v>5.0756228511320972E-2</v>
+        <v>0.29466193576614857</v>
       </c>
       <c r="N26">
-        <v>5.7606481201268107E-2</v>
+        <v>3.9752305754596047E-2</v>
       </c>
       <c r="O26">
-        <v>0.3211009999428216</v>
+        <v>-0.27333455420538671</v>
       </c>
       <c r="P26">
-        <v>-2.416824218371507E-2</v>
+        <v>0.19676768084987711</v>
       </c>
       <c r="Q26">
-        <v>6.8399709549363016E-2</v>
+        <v>9.7360585524799509E-2</v>
       </c>
       <c r="R26">
-        <v>-3.380366071031348E-3</v>
+        <v>-0.13645833032187271</v>
       </c>
       <c r="S26">
-        <v>-1.9174540828426841E-2</v>
+        <v>-0.190701823841399</v>
       </c>
       <c r="T26">
-        <v>-3.2791796287261588E-2</v>
+        <v>-4.0087357337898512E-2</v>
       </c>
       <c r="U26">
-        <v>-9.6234292576660128E-3</v>
+        <v>-9.7353675177309848E-2</v>
       </c>
       <c r="V26">
-        <v>-4.1664935408230692E-2</v>
+        <v>6.5745725250988138E-2</v>
       </c>
       <c r="W26">
-        <v>0.19430513124523391</v>
+        <v>-0.12391943964503969</v>
       </c>
       <c r="X26">
-        <v>-3.8027296297844362E-2</v>
+        <v>-3.6732569704928393E-2</v>
       </c>
       <c r="Y26">
-        <v>2.137657186416958E-2</v>
+        <v>5.8142505556850549E-2</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>4.8419978261709858E-2</v>
+        <v>-6.6697052074248434E-2</v>
       </c>
       <c r="AB26">
-        <v>-2.7235314733698258E-2</v>
+        <v>6.8696614192122673E-3</v>
       </c>
       <c r="AC26">
-        <v>-2.6572409632093081E-2</v>
+        <v>6.7410035091636678E-2</v>
       </c>
       <c r="AD26">
-        <v>5.4574263539779386E-3</v>
+        <v>-1.8249296264092581E-3</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>-9.1793614979261313E-3</v>
+        <v>5.4260995323194222E-3</v>
       </c>
       <c r="C27">
-        <v>-3.4737496742839749E-3</v>
+        <v>-6.6129443813897196E-2</v>
       </c>
       <c r="D27">
-        <v>-2.342842889533279E-3</v>
+        <v>-2.6775724359741789E-2</v>
       </c>
       <c r="E27">
-        <v>0.2306091754743996</v>
+        <v>-5.0870085872000002E-2</v>
       </c>
       <c r="F27">
-        <v>-0.124586140238716</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="G27">
-        <v>-0.1186401969546188</v>
+        <v>9.5739806751386949E-2</v>
       </c>
       <c r="H27">
-        <v>-5.2360405215018523E-2</v>
+        <v>-0.27793570624498359</v>
       </c>
       <c r="I27">
-        <v>5.5591095059783213E-2</v>
+        <v>1.072743307583247E-2</v>
       </c>
       <c r="J27">
-        <v>-8.0738706434907229E-2</v>
+        <v>3.8073586254585637E-2</v>
       </c>
       <c r="K27">
-        <v>0.41624075630565011</v>
+        <v>-1.8012236004081399E-2</v>
       </c>
       <c r="L27">
-        <v>0.41483371562242449</v>
+        <v>-0.15848012445119289</v>
       </c>
       <c r="M27">
-        <v>9.044991471841457E-2</v>
+        <v>4.0402438387882843E-2</v>
       </c>
       <c r="N27">
-        <v>0.28732400736183511</v>
+        <v>-3.988356159728796E-2</v>
       </c>
       <c r="O27">
-        <v>3.8862276130018102E-2</v>
+        <v>5.7458020779972523E-2</v>
       </c>
       <c r="P27">
-        <v>-0.2723536851446578</v>
+        <v>-2.5320829559138749E-2</v>
       </c>
       <c r="Q27">
-        <v>0.18643373602776681</v>
+        <v>-0.17993484389482101</v>
       </c>
       <c r="R27">
-        <v>9.262958946817712E-2</v>
+        <v>0.1970722535658273</v>
       </c>
       <c r="S27">
-        <v>-0.1137764591834499</v>
+        <v>-7.5095901364473111E-2</v>
       </c>
       <c r="T27">
-        <v>-0.17538741250091419</v>
+        <v>0.26497651406238149</v>
       </c>
       <c r="U27">
-        <v>-4.4323771206698781E-2</v>
+        <v>0.10543957559292649</v>
       </c>
       <c r="V27">
-        <v>-9.546739326221089E-2</v>
+        <v>-6.5017553823514637E-2</v>
       </c>
       <c r="W27">
-        <v>6.5460146359294702E-2</v>
+        <v>-6.4251969388895117E-2</v>
       </c>
       <c r="X27">
-        <v>-0.1175929698162798</v>
+        <v>9.5926452064851064E-2</v>
       </c>
       <c r="Y27">
-        <v>-3.4408459723673873E-2</v>
+        <v>-3.06882798565359E-2</v>
       </c>
       <c r="Z27">
-        <v>4.8419978261709858E-2</v>
+        <v>-6.6697052074248434E-2</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>-6.4066298839745697E-2</v>
+        <v>0.1236080503189724</v>
       </c>
       <c r="AC27">
-        <v>5.7084956111025393E-3</v>
+        <v>-0.3039817849297376</v>
       </c>
       <c r="AD27">
-        <v>6.5949384982303697E-2</v>
+        <v>7.4928643676583093E-3</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>4.4267648941320103E-3</v>
+        <v>-4.392818585108896E-3</v>
       </c>
       <c r="C28">
-        <v>-6.3272767396847715E-2</v>
+        <v>1.3554405874830091E-2</v>
       </c>
       <c r="D28">
-        <v>1.4324617332722349E-2</v>
+        <v>4.1372577110039971E-2</v>
       </c>
       <c r="E28">
-        <v>-1.9885579531341881E-2</v>
+        <v>-7.1139795281959614E-2</v>
       </c>
       <c r="F28">
-        <v>-5.0035609684366607E-2</v>
+        <v>-3.2748468078702832E-2</v>
       </c>
       <c r="G28">
-        <v>0.1113163515264937</v>
+        <v>1.09430165515314E-2</v>
       </c>
       <c r="H28">
-        <v>8.990711908168926E-2</v>
+        <v>-4.252764104902889E-2</v>
       </c>
       <c r="I28">
-        <v>-0.26803793224502559</v>
+        <v>-0.15665920734951011</v>
       </c>
       <c r="J28">
-        <v>5.3536778827797853E-3</v>
+        <v>-2.671046812049865E-2</v>
       </c>
       <c r="K28">
-        <v>3.6671889809479878E-2</v>
+        <v>1.4402635806295361E-2</v>
       </c>
       <c r="L28">
-        <v>-1.920617363733023E-2</v>
+        <v>4.8979133154731007E-2</v>
       </c>
       <c r="M28">
-        <v>-0.15254060059603261</v>
+        <v>2.1139755376094228E-2</v>
       </c>
       <c r="N28">
-        <v>3.6736240067152252E-2</v>
+        <v>-1.023285931755934E-2</v>
       </c>
       <c r="O28">
-        <v>-3.60520389877131E-2</v>
+        <v>6.3781764454302035E-4</v>
       </c>
       <c r="P28">
-        <v>5.6744366890256533E-2</v>
+        <v>0.100842758956742</v>
       </c>
       <c r="Q28">
-        <v>-1.970444172840332E-2</v>
+        <v>1.928345916355061E-2</v>
       </c>
       <c r="R28">
-        <v>-0.17404387809145599</v>
+        <v>-1.7232098239151769E-2</v>
       </c>
       <c r="S28">
-        <v>0.17808466455629779</v>
+        <v>-4.1558752204095821E-2</v>
       </c>
       <c r="T28">
-        <v>-6.5789864191195105E-2</v>
+        <v>0.39917558762044347</v>
       </c>
       <c r="U28">
-        <v>0.25356730203312039</v>
+        <v>-1.4115378349411071E-2</v>
       </c>
       <c r="V28">
-        <v>9.7152469549731807E-2</v>
+        <v>-3.0422914026749921E-2</v>
       </c>
       <c r="W28">
-        <v>-5.8386301068321142E-2</v>
+        <v>-4.1774862286212987E-2</v>
       </c>
       <c r="X28">
-        <v>-5.8813501325139107E-2</v>
+        <v>-1.631311760248445E-2</v>
       </c>
       <c r="Y28">
-        <v>9.0357570265272968E-2</v>
+        <v>-2.5806227941391369E-2</v>
       </c>
       <c r="Z28">
-        <v>-2.7235314733698258E-2</v>
+        <v>6.8696614192122673E-3</v>
       </c>
       <c r="AA28">
-        <v>-6.4066298839745697E-2</v>
+        <v>0.1236080503189724</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.11250252758439561</v>
+        <v>-9.8808664919643227E-2</v>
       </c>
       <c r="AD28">
-        <v>-0.2922674476739015</v>
+        <v>-8.7624220815886722E-3</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-5.0405288800206959E-3</v>
+        <v>-1.0827100658902491E-2</v>
       </c>
       <c r="C29">
-        <v>1.324665908712336E-2</v>
+        <v>8.4200907631323402E-2</v>
       </c>
       <c r="D29">
-        <v>6.4433479626116374E-3</v>
+        <v>1.170716638941764E-2</v>
       </c>
       <c r="E29">
-        <v>4.0308440583595652E-2</v>
+        <v>8.1535727375991712E-2</v>
       </c>
       <c r="F29">
-        <v>-6.9497751185884499E-2</v>
+        <v>-0.14959794064896531</v>
       </c>
       <c r="G29">
-        <v>-2.3629816954394901E-2</v>
+        <v>-0.16137216877414179</v>
       </c>
       <c r="H29">
-        <v>1.1655838017988321E-2</v>
+        <v>0.18495324312834349</v>
       </c>
       <c r="I29">
-        <v>-4.1387194992709812E-2</v>
+        <v>-2.0581445074986649E-2</v>
       </c>
       <c r="J29">
-        <v>-0.14748835209019481</v>
+        <v>-2.8380624446991801E-2</v>
       </c>
       <c r="K29">
-        <v>-2.749130549960262E-2</v>
+        <v>-1.7249226055090629E-2</v>
       </c>
       <c r="L29">
-        <v>1.0626461115835239E-2</v>
+        <v>0.14668665684003249</v>
       </c>
       <c r="M29">
-        <v>5.1778569515341412E-2</v>
+        <v>-8.5539316586107514E-2</v>
       </c>
       <c r="N29">
-        <v>1.4967752605748921E-2</v>
+        <v>1.462849170605041E-2</v>
       </c>
       <c r="O29">
-        <v>-9.7666698044742047E-3</v>
+        <v>-4.0607496427685477E-2</v>
       </c>
       <c r="P29">
-        <v>1.914621890336661E-3</v>
+        <v>-5.9128179153738244E-3</v>
       </c>
       <c r="Q29">
-        <v>9.6306904189423198E-2</v>
+        <v>0.27742377646599842</v>
       </c>
       <c r="R29">
-        <v>2.0054806968380169E-2</v>
+        <v>-0.1640239568781148</v>
       </c>
       <c r="S29">
-        <v>-2.1458656674085759E-2</v>
+        <v>0.1281674556597141</v>
       </c>
       <c r="T29">
-        <v>-3.3126294628390507E-2</v>
+        <v>-0.27526135525206541</v>
       </c>
       <c r="U29">
-        <v>0.38272417330665071</v>
+        <v>-0.119148661185463</v>
       </c>
       <c r="V29">
-        <v>-1.180449912908571E-2</v>
+        <v>3.3579454722379679E-2</v>
       </c>
       <c r="W29">
-        <v>-2.871240890359875E-2</v>
+        <v>0.1138778076145074</v>
       </c>
       <c r="X29">
-        <v>-4.0164913505734472E-2</v>
+        <v>-0.12789183152373229</v>
       </c>
       <c r="Y29">
-        <v>-1.4441625732118921E-2</v>
+        <v>6.063364069331491E-3</v>
       </c>
       <c r="Z29">
-        <v>-2.6572409632093081E-2</v>
+        <v>6.7410035091636678E-2</v>
       </c>
       <c r="AA29">
-        <v>5.7084956111025393E-3</v>
+        <v>-0.3039817849297376</v>
       </c>
       <c r="AB29">
-        <v>0.11250252758439561</v>
+        <v>-9.8808664919643227E-2</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
       <c r="AD29">
-        <v>-8.7917745648252027E-2</v>
+        <v>-1.3295285527945131E-2</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B30">
-        <v>-1.1891984420722699E-2</v>
+        <v>-7.9935366271215759E-3</v>
       </c>
       <c r="C30">
-        <v>7.9489624411600734E-2</v>
+        <v>1.06089585031679E-2</v>
       </c>
       <c r="D30">
-        <v>-1.9768955489666649E-2</v>
+        <v>4.5447237413244546E-3</v>
       </c>
       <c r="E30">
-        <v>1.376794396127571E-2</v>
+        <v>-9.0270574059976554E-3</v>
       </c>
       <c r="F30">
-        <v>7.5878909367969635E-2</v>
+        <v>1.9182469180192921E-3</v>
       </c>
       <c r="G30">
-        <v>-0.13825955919553631</v>
+        <v>4.2136666333614172E-4</v>
       </c>
       <c r="H30">
-        <v>-0.1541875922123</v>
+        <v>5.4261097593951138E-3</v>
       </c>
       <c r="I30">
-        <v>0.17206546815193721</v>
+        <v>-7.568510999958534E-3</v>
       </c>
       <c r="J30">
-        <v>-1.299764114289002E-2</v>
+        <v>-8.6966293403386071E-3</v>
       </c>
       <c r="K30">
-        <v>-2.5543330014809299E-2</v>
+        <v>-4.5712824433452219E-3</v>
       </c>
       <c r="L30">
-        <v>-1.52266184181226E-2</v>
+        <v>5.8739259073063111E-3</v>
       </c>
       <c r="M30">
-        <v>0.14184548526964519</v>
+        <v>-1.5945845070322338E-2</v>
       </c>
       <c r="N30">
-        <v>-7.8883975245999646E-2</v>
+        <v>-4.0394049393096647E-3</v>
       </c>
       <c r="O30">
-        <v>1.2778207651370671E-2</v>
+        <v>-4.2340089579056446E-3</v>
       </c>
       <c r="P30">
-        <v>-4.0448619280832383E-2</v>
+        <v>1.2720513568850269E-3</v>
       </c>
       <c r="Q30">
-        <v>-8.7688932739201243E-3</v>
+        <v>4.2193006383063917E-3</v>
       </c>
       <c r="R30">
-        <v>0.26922774576175079</v>
+        <v>4.2149177366283966E-3</v>
       </c>
       <c r="S30">
-        <v>-0.1540132606048295</v>
+        <v>5.8551447670808811E-3</v>
       </c>
       <c r="T30">
-        <v>0.1117638632444812</v>
+        <v>-3.1914641642186322E-4</v>
       </c>
       <c r="U30">
-        <v>-0.26262909571983822</v>
+        <v>-1.15073652370464E-2</v>
       </c>
       <c r="V30">
-        <v>-0.1050714855629996</v>
+        <v>-1.035051011862847E-2</v>
       </c>
       <c r="W30">
-        <v>3.0758445300150879E-2</v>
+        <v>-3.5359879990106858E-3</v>
       </c>
       <c r="X30">
-        <v>0.10697807640660729</v>
+        <v>-4.8648059401357798E-3</v>
       </c>
       <c r="Y30">
-        <v>-0.11984394527620799</v>
+        <v>1.023912269725002E-2</v>
       </c>
       <c r="Z30">
-        <v>5.4574263539779386E-3</v>
+        <v>-1.8249296264092581E-3</v>
       </c>
       <c r="AA30">
-        <v>6.5949384982303697E-2</v>
+        <v>7.4928643676583093E-3</v>
       </c>
       <c r="AB30">
-        <v>-0.2922674476739015</v>
+        <v>-8.7624220815886722E-3</v>
       </c>
       <c r="AC30">
-        <v>-8.7917745648252027E-2</v>
+        <v>-1.3295285527945131E-2</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -9732,7 +9754,9 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
@@ -9811,70 +9835,70 @@
         <v>1</v>
       </c>
       <c r="C48" s="14">
-        <v>-0.26137418725113792</v>
+        <v>-0.28542284599192791</v>
       </c>
       <c r="D48" s="14">
-        <v>3.8265911314701688E-2</v>
+        <v>3.8765881196248783E-2</v>
       </c>
       <c r="E48" s="14">
-        <v>9.7772995079595942E-2</v>
+        <v>0.10310362057330991</v>
       </c>
       <c r="F48" s="14">
-        <v>2.2204801027248269E-2</v>
+        <v>2.50676840370101E-2</v>
       </c>
       <c r="G48" s="14">
-        <v>-0.1088676201038782</v>
+        <v>-0.1240683217221162</v>
       </c>
       <c r="H48" s="14">
-        <v>0.18958109368905859</v>
+        <v>0.20154002084972519</v>
       </c>
       <c r="I48" s="14">
-        <v>0.20726066315316169</v>
+        <v>0.22448924933899281</v>
       </c>
       <c r="J48" s="14">
-        <v>0.1213679763111309</v>
+        <v>0.127729567213234</v>
       </c>
       <c r="K48" s="14">
-        <v>0.21166640861400399</v>
+        <v>0.2335739591475389</v>
       </c>
       <c r="L48" s="14">
-        <v>4.049706527717261E-2</v>
+        <v>4.1045063066549627E-2</v>
       </c>
       <c r="M48" s="14">
-        <v>0.19195844100041251</v>
+        <v>0.21348372743469229</v>
       </c>
       <c r="N48" s="14">
-        <v>0.12060323683919839</v>
+        <v>0.1232799394662013</v>
       </c>
       <c r="O48" s="14">
-        <v>-0.18424161890824151</v>
+        <v>-0.22116267708491191</v>
       </c>
       <c r="P48" s="14">
-        <v>-0.13009451347724879</v>
+        <v>-0.1342813671830736</v>
       </c>
       <c r="Q48" s="14">
-        <v>4.6769652955710998E-2</v>
+        <v>5.370476839399517E-2</v>
       </c>
       <c r="R48" s="14">
-        <v>3.4645714841517662E-2</v>
+        <v>3.6639484747601543E-2</v>
       </c>
       <c r="S48" s="14">
-        <v>-0.1146805211806993</v>
+        <v>-0.108249922874552</v>
       </c>
       <c r="T48" s="14">
-        <v>-5.9190794045742949E-2</v>
+        <v>-6.4552202616111554E-2</v>
       </c>
       <c r="U48" s="14">
-        <v>6.7301011193528756E-2</v>
+        <v>8.380594414087883E-2</v>
       </c>
       <c r="V48" s="14">
-        <v>-1.5515696624193829E-2</v>
+        <v>-2.6775724359741789E-2</v>
       </c>
       <c r="W48" s="14">
-        <v>4.1944309825564921E-2</v>
+        <v>4.1372577110039971E-2</v>
       </c>
       <c r="X48" s="14">
-        <v>9.0777747346638543E-3</v>
+        <v>1.170716638941764E-2</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -9882,73 +9906,73 @@
         <v>3</v>
       </c>
       <c r="B49" s="14">
-        <v>-0.26137418725113792</v>
+        <v>-0.28542284599192791</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.15596603515602969</v>
+        <v>-0.16594422364388339</v>
       </c>
       <c r="E49" s="14">
-        <v>-0.17960712921836591</v>
+        <v>-0.19159845745060991</v>
       </c>
       <c r="F49">
-        <v>3.098417289222782E-2</v>
+        <v>3.1780085364211723E-2</v>
       </c>
       <c r="G49">
-        <v>0.1187262536551963</v>
+        <v>0.13324316411809101</v>
       </c>
       <c r="H49">
-        <v>-0.14928074409428899</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="I49" s="14">
-        <v>-0.13079737507435149</v>
+        <v>-0.13590161799974229</v>
       </c>
       <c r="J49">
-        <v>-9.5509220003969442E-2</v>
+        <v>-9.4821639260371279E-2</v>
       </c>
       <c r="K49" s="14">
-        <v>-0.1766808226391656</v>
+        <v>-0.18413775984454581</v>
       </c>
       <c r="L49" s="14">
-        <v>-2.3864283414730909E-2</v>
+        <v>-1.823123135068536E-2</v>
       </c>
       <c r="M49" s="14">
-        <v>-0.15431868997752271</v>
+        <v>-0.16103122670275261</v>
       </c>
       <c r="N49">
-        <v>-5.8297815829115647E-2</v>
+        <v>-6.4719082310363316E-2</v>
       </c>
       <c r="O49" s="14">
-        <v>0.19640588191226929</v>
+        <v>0.21372946679453941</v>
       </c>
       <c r="P49">
-        <v>0.22666189234615389</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="Q49">
-        <v>-0.1518445271379984</v>
+        <v>-0.16473995066539041</v>
       </c>
       <c r="R49">
-        <v>-1.9573696009567682E-2</v>
+        <v>-9.9270454684014416E-3</v>
       </c>
       <c r="S49" s="14">
-        <v>0.17985564250006131</v>
+        <v>0.18574022663908341</v>
       </c>
       <c r="T49">
-        <v>9.8942657701809999E-3</v>
+        <v>1.0482130814969581E-2</v>
       </c>
       <c r="U49">
-        <v>-5.4626038732460268E-2</v>
+        <v>-6.123995584416253E-2</v>
       </c>
       <c r="V49" s="14">
-        <v>-5.4023227804442207E-2</v>
+        <v>-5.0870085872000002E-2</v>
       </c>
       <c r="W49">
-        <v>-7.0514488065189423E-2</v>
+        <v>-7.1139795281959614E-2</v>
       </c>
       <c r="X49" s="14">
-        <v>8.1319098144337049E-2</v>
+        <v>8.1535727375991712E-2</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -9956,73 +9980,73 @@
         <v>4</v>
       </c>
       <c r="B50" s="14">
-        <v>3.8265911314701688E-2</v>
+        <v>3.8765881196248783E-2</v>
       </c>
       <c r="C50" s="14">
-        <v>-0.15596603515602969</v>
+        <v>-0.16594422364388339</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="14">
-        <v>0.38012453214157682</v>
+        <v>0.3937092311458022</v>
       </c>
       <c r="F50" s="14">
-        <v>-0.1494342928057471</v>
+        <v>-0.16477104511716731</v>
       </c>
       <c r="G50" s="14">
-        <v>6.1682001543720708E-2</v>
+        <v>6.749129753345906E-2</v>
       </c>
       <c r="H50" s="14">
-        <v>7.9937727432642505E-2</v>
+        <v>8.6773177061237161E-2</v>
       </c>
       <c r="I50" s="14">
-        <v>-8.0329877752637474E-2</v>
+        <v>-8.3674886817192054E-2</v>
       </c>
       <c r="J50" s="14">
-        <v>-5.3289392678985047E-2</v>
+        <v>-6.3998267954573945E-2</v>
       </c>
       <c r="K50" s="14">
-        <v>6.2872217575618297E-2</v>
+        <v>6.6954120661917804E-2</v>
       </c>
       <c r="L50" s="14">
-        <v>-8.9565987459938531E-2</v>
+        <v>-9.1033586266563202E-2</v>
       </c>
       <c r="M50" s="14">
-        <v>-5.2996272231054117E-2</v>
+        <v>-6.1328150585855903E-2</v>
       </c>
       <c r="N50" s="14">
-        <v>-0.13916558636084569</v>
+        <v>-0.14248483953216501</v>
       </c>
       <c r="O50" s="14">
-        <v>5.0950366385388669E-2</v>
+        <v>5.3635102072637601E-2</v>
       </c>
       <c r="P50" s="14">
-        <v>-9.8182515495621264E-2</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="Q50" s="14">
-        <v>0.49892288849901972</v>
+        <v>0.51633899160326902</v>
       </c>
       <c r="R50" s="14">
-        <v>-0.1015295855942827</v>
+        <v>-0.1089322791113146</v>
       </c>
       <c r="S50" s="14">
-        <v>-9.8706487278832231E-2</v>
+        <v>-9.9015209573411131E-2</v>
       </c>
       <c r="T50" s="14">
-        <v>6.4683188308091596E-2</v>
+        <v>7.3586700421981399E-2</v>
       </c>
       <c r="U50" s="14">
-        <v>-4.3859971974811202E-2</v>
+        <v>-4.7882223865839048E-2</v>
       </c>
       <c r="V50" s="14">
-        <v>0.1116778017247707</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="W50" s="14">
-        <v>-3.0404217575343409E-2</v>
+        <v>-3.2748468078702832E-2</v>
       </c>
       <c r="X50" s="14">
-        <v>-0.14108177244651551</v>
+        <v>-0.14959794064896531</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -10030,73 +10054,73 @@
         <v>10</v>
       </c>
       <c r="B51" s="14">
-        <v>9.7772995079595942E-2</v>
+        <v>0.10310362057330991</v>
       </c>
       <c r="C51" s="14">
-        <v>-0.17960712921836591</v>
+        <v>-0.19159845745060991</v>
       </c>
       <c r="D51" s="14">
-        <v>0.38012453214157682</v>
+        <v>0.3937092311458022</v>
       </c>
       <c r="E51" s="14">
         <v>1</v>
       </c>
       <c r="F51" s="14">
-        <v>-8.7105942480548062E-3</v>
+        <v>-1.7444452234075682E-2</v>
       </c>
       <c r="G51" s="14">
-        <v>-8.9303285433316379E-3</v>
+        <v>-1.110522927200638E-2</v>
       </c>
       <c r="H51" s="14">
-        <v>8.317179402248924E-2</v>
+        <v>9.3599330086227173E-2</v>
       </c>
       <c r="I51" s="14">
-        <v>4.8910583532353967E-2</v>
+        <v>4.8845810389402361E-2</v>
       </c>
       <c r="J51" s="14">
-        <v>-6.4704336926022038E-2</v>
+        <v>-6.4800892227440565E-2</v>
       </c>
       <c r="K51" s="14">
-        <v>0.2136146241128529</v>
+        <v>0.21836859933998951</v>
       </c>
       <c r="L51" s="14">
-        <v>-1.0305985758535261E-2</v>
+        <v>-1.106716854842715E-2</v>
       </c>
       <c r="M51" s="14">
-        <v>5.4383047587265289E-2</v>
+        <v>5.7452047728093272E-2</v>
       </c>
       <c r="N51" s="14">
-        <v>-0.1088025933540708</v>
+        <v>-0.1017707294568496</v>
       </c>
       <c r="O51" s="14">
-        <v>9.0441499834923847E-2</v>
+        <v>8.5479592740025645E-2</v>
       </c>
       <c r="P51" s="14">
-        <v>-0.1355216775912837</v>
+        <v>-0.13967158661693149</v>
       </c>
       <c r="Q51" s="14">
-        <v>0.36633212833382361</v>
+        <v>0.37696933847880332</v>
       </c>
       <c r="R51" s="14">
-        <v>-3.1377702116266941E-2</v>
+        <v>-3.1785114209703411E-2</v>
       </c>
       <c r="S51" s="14">
-        <v>-9.1514971337069859E-2</v>
+        <v>-9.6647023639803251E-2</v>
       </c>
       <c r="T51" s="14">
-        <v>4.4917725031447732E-2</v>
+        <v>4.8111966991307119E-2</v>
       </c>
       <c r="U51" s="14">
-        <v>1.7909734216816769E-2</v>
+        <v>1.6881052262240581E-2</v>
       </c>
       <c r="V51" s="14">
-        <v>9.2225600214285774E-2</v>
+        <v>9.5739806751386949E-2</v>
       </c>
       <c r="W51" s="14">
-        <v>1.2954173694352219E-2</v>
+        <v>1.09430165515314E-2</v>
       </c>
       <c r="X51" s="14">
-        <v>-0.15800910802431051</v>
+        <v>-0.16137216877414179</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -10104,73 +10128,73 @@
         <v>11</v>
       </c>
       <c r="B52" s="14">
-        <v>2.2204801027248269E-2</v>
+        <v>2.50676840370101E-2</v>
       </c>
       <c r="C52">
-        <v>3.098417289222782E-2</v>
+        <v>3.1780085364211723E-2</v>
       </c>
       <c r="D52" s="14">
-        <v>-0.1494342928057471</v>
+        <v>-0.16477104511716731</v>
       </c>
       <c r="E52" s="14">
-        <v>-8.7105942480548062E-3</v>
+        <v>-1.7444452234075682E-2</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>-9.9531207772887403E-2</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="H52">
-        <v>-8.5339767338676986E-2</v>
+        <v>-8.8825470271735513E-2</v>
       </c>
       <c r="I52" s="14">
-        <v>3.5291977075941589E-2</v>
+        <v>3.9677487780253533E-2</v>
       </c>
       <c r="J52">
-        <v>0.13349854003587111</v>
+        <v>0.14338090497801079</v>
       </c>
       <c r="K52" s="14">
-        <v>5.772488239091462E-3</v>
+        <v>1.0064040301030509E-2</v>
       </c>
       <c r="L52" s="14">
-        <v>6.0560299198514321E-2</v>
+        <v>6.6502539866227811E-2</v>
       </c>
       <c r="M52" s="14">
-        <v>8.0534920273628047E-2</v>
+        <v>8.2743654492289431E-2</v>
       </c>
       <c r="N52">
-        <v>0.2070699479970442</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="O52" s="14">
-        <v>-0.14329898566525501</v>
+        <v>-0.16028287423658041</v>
       </c>
       <c r="P52">
-        <v>4.2230149739737648E-2</v>
+        <v>4.6868977937993231E-2</v>
       </c>
       <c r="Q52">
-        <v>-0.13918817966065991</v>
+        <v>-0.15633663996267019</v>
       </c>
       <c r="R52">
-        <v>8.0024742228012868E-2</v>
+        <v>8.1505823664476423E-2</v>
       </c>
       <c r="S52" s="14">
-        <v>2.1215212495365812E-2</v>
+        <v>2.3060224914834931E-2</v>
       </c>
       <c r="T52">
-        <v>-7.4675948116477112E-2</v>
+        <v>-7.7742970949390144E-2</v>
       </c>
       <c r="U52">
-        <v>6.2456738531358837E-2</v>
+        <v>6.8377579274922065E-2</v>
       </c>
       <c r="V52" s="14">
-        <v>-0.26233081285000931</v>
+        <v>-0.27793570624498359</v>
       </c>
       <c r="W52">
-        <v>-4.3260006229646653E-2</v>
+        <v>-4.252764104902889E-2</v>
       </c>
       <c r="X52" s="14">
-        <v>0.16856851257778321</v>
+        <v>0.18495324312834349</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -10178,73 +10202,73 @@
         <v>12</v>
       </c>
       <c r="B53" s="14">
-        <v>-0.1088676201038782</v>
+        <v>-0.1240683217221162</v>
       </c>
       <c r="C53">
-        <v>0.1187262536551963</v>
+        <v>0.13324316411809101</v>
       </c>
       <c r="D53" s="14">
-        <v>6.1682001543720708E-2</v>
+        <v>6.749129753345906E-2</v>
       </c>
       <c r="E53" s="14">
-        <v>-8.9303285433316379E-3</v>
+        <v>-1.110522927200638E-2</v>
       </c>
       <c r="F53">
-        <v>-9.9531207772887403E-2</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>-5.4972436044750932E-2</v>
+        <v>-4.9555287681310171E-2</v>
       </c>
       <c r="I53" s="14">
-        <v>-5.3458326071329623E-2</v>
+        <v>-5.9481509686605288E-2</v>
       </c>
       <c r="J53">
-        <v>-8.3829165497522548E-2</v>
+        <v>-8.4935552408593143E-2</v>
       </c>
       <c r="K53" s="14">
-        <v>-4.1679090576994267E-2</v>
+        <v>-4.8705249493857537E-2</v>
       </c>
       <c r="L53" s="14">
-        <v>2.790482365521111E-2</v>
+        <v>1.6729707070558451E-2</v>
       </c>
       <c r="M53" s="14">
-        <v>-0.14227975561473361</v>
+        <v>-0.15285840431540579</v>
       </c>
       <c r="N53">
-        <v>-0.2373779419912441</v>
+        <v>-0.23868486256944771</v>
       </c>
       <c r="O53" s="14">
-        <v>0.123707888288475</v>
+        <v>0.13625669163412671</v>
       </c>
       <c r="P53">
-        <v>3.5243799579317628E-2</v>
+        <v>4.0369978843909367E-2</v>
       </c>
       <c r="Q53">
-        <v>4.3341497937303068E-2</v>
+        <v>4.955333063480253E-2</v>
       </c>
       <c r="R53">
-        <v>3.6573470878985333E-2</v>
+        <v>3.9142214147888738E-2</v>
       </c>
       <c r="S53" s="14">
-        <v>5.5686934034782608E-2</v>
+        <v>5.9484598238988683E-2</v>
       </c>
       <c r="T53">
-        <v>0.2017484985419869</v>
+        <v>0.2163664193155172</v>
       </c>
       <c r="U53">
-        <v>5.9336856385667014E-3</v>
+        <v>-1.9987906611046188E-3</v>
       </c>
       <c r="V53" s="14">
-        <v>2.2159993300839582E-3</v>
+        <v>1.072743307583247E-2</v>
       </c>
       <c r="W53">
-        <v>-0.15205954440890099</v>
+        <v>-0.15665920734951011</v>
       </c>
       <c r="X53" s="14">
-        <v>-1.5535118749922231E-2</v>
+        <v>-2.0581445074986649E-2</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -10252,73 +10276,73 @@
         <v>13</v>
       </c>
       <c r="B54" s="14">
-        <v>0.18958109368905859</v>
+        <v>0.20154002084972519</v>
       </c>
       <c r="C54">
-        <v>-0.14928074409428899</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="D54" s="14">
-        <v>7.9937727432642505E-2</v>
+        <v>8.6773177061237161E-2</v>
       </c>
       <c r="E54" s="14">
-        <v>8.317179402248924E-2</v>
+        <v>9.3599330086227173E-2</v>
       </c>
       <c r="F54">
-        <v>-8.5339767338676986E-2</v>
+        <v>-8.8825470271735513E-2</v>
       </c>
       <c r="G54">
-        <v>-5.4972436044750932E-2</v>
+        <v>-4.9555287681310171E-2</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="14">
-        <v>0.38425128458431912</v>
+        <v>0.38451280535789573</v>
       </c>
       <c r="J54">
-        <v>-2.5545637208624811E-2</v>
+        <v>-1.851781681925864E-2</v>
       </c>
       <c r="K54" s="14">
-        <v>0.36213588041552608</v>
+        <v>0.36703881566092489</v>
       </c>
       <c r="L54" s="14">
-        <v>3.4256559090411641E-3</v>
+        <v>5.3831671611794659E-3</v>
       </c>
       <c r="M54" s="14">
-        <v>8.1895188252721074E-2</v>
+        <v>9.0338578412944334E-2</v>
       </c>
       <c r="N54">
-        <v>7.4515442097197618E-4</v>
+        <v>-2.7928813480680709E-4</v>
       </c>
       <c r="O54" s="14">
-        <v>-2.6812121563571281E-2</v>
+        <v>-4.0494576582652778E-2</v>
       </c>
       <c r="P54">
-        <v>-0.18725487414859329</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="Q54">
-        <v>9.1775126600014412E-2</v>
+        <v>9.6244598350325325E-2</v>
       </c>
       <c r="R54">
-        <v>-1.6987388219678819E-2</v>
+        <v>-1.492358163074485E-2</v>
       </c>
       <c r="S54" s="14">
-        <v>-0.1740809594711891</v>
+        <v>-0.17153915092112459</v>
       </c>
       <c r="T54">
-        <v>4.1389762824149191E-4</v>
+        <v>4.6691915148049188E-3</v>
       </c>
       <c r="U54">
-        <v>3.4584175190629431E-2</v>
+        <v>4.1327314412042029E-2</v>
       </c>
       <c r="V54" s="14">
-        <v>4.3590865735566767E-2</v>
+        <v>3.8073586254585637E-2</v>
       </c>
       <c r="W54">
-        <v>-2.6091030799728548E-2</v>
+        <v>-2.671046812049865E-2</v>
       </c>
       <c r="X54" s="14">
-        <v>-2.6931237450697251E-2</v>
+        <v>-2.8380624446991801E-2</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -10326,73 +10350,73 @@
         <v>14</v>
       </c>
       <c r="B55" s="14">
-        <v>0.20726066315316169</v>
+        <v>0.22448924933899281</v>
       </c>
       <c r="C55" s="14">
-        <v>-0.13079737507435149</v>
+        <v>-0.13590161799974229</v>
       </c>
       <c r="D55" s="14">
-        <v>-8.0329877752637474E-2</v>
+        <v>-8.3674886817192054E-2</v>
       </c>
       <c r="E55" s="14">
-        <v>4.8910583532353967E-2</v>
+        <v>4.8845810389402361E-2</v>
       </c>
       <c r="F55" s="14">
-        <v>3.5291977075941589E-2</v>
+        <v>3.9677487780253533E-2</v>
       </c>
       <c r="G55" s="14">
-        <v>-5.3458326071329623E-2</v>
+        <v>-5.9481509686605288E-2</v>
       </c>
       <c r="H55" s="14">
-        <v>0.38425128458431912</v>
+        <v>0.38451280535789573</v>
       </c>
       <c r="I55" s="14">
         <v>1</v>
       </c>
       <c r="J55" s="14">
-        <v>4.4714081003106372E-2</v>
+        <v>5.3426502599198011E-2</v>
       </c>
       <c r="K55" s="14">
-        <v>0.40771787958764472</v>
+        <v>0.4110876095477542</v>
       </c>
       <c r="L55" s="14">
-        <v>7.5658177112613856E-2</v>
+        <v>8.1917711642652699E-2</v>
       </c>
       <c r="M55" s="14">
-        <v>0.16343447305621009</v>
+        <v>0.174290094998102</v>
       </c>
       <c r="N55" s="14">
-        <v>1.6543198288672931E-2</v>
+        <v>1.807801528670424E-2</v>
       </c>
       <c r="O55" s="14">
-        <v>-6.7813517981677993E-2</v>
+        <v>-7.8898934627798067E-2</v>
       </c>
       <c r="P55" s="14">
-        <v>-0.16295163089974071</v>
+        <v>-0.16851123940326221</v>
       </c>
       <c r="Q55" s="14">
-        <v>-5.9485157213233698E-2</v>
+        <v>-6.4329225748121541E-2</v>
       </c>
       <c r="R55" s="14">
-        <v>6.9997523736011313E-2</v>
+        <v>7.4193103377846931E-2</v>
       </c>
       <c r="S55" s="14">
-        <v>-0.1217794916620374</v>
+        <v>-0.12341979141886281</v>
       </c>
       <c r="T55" s="14">
-        <v>1.0971854334785969E-2</v>
+        <v>1.1601060550807341E-2</v>
       </c>
       <c r="U55" s="14">
-        <v>7.613035617463608E-2</v>
+        <v>8.432036723016692E-2</v>
       </c>
       <c r="V55" s="14">
-        <v>-1.1818622302189229E-2</v>
+        <v>-1.8012236004081399E-2</v>
       </c>
       <c r="W55" s="14">
-        <v>1.0287784829173439E-2</v>
+        <v>1.4402635806295361E-2</v>
       </c>
       <c r="X55" s="14">
-        <v>-2.0791931883061641E-2</v>
+        <v>-1.7249226055090629E-2</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -10400,73 +10424,73 @@
         <v>15</v>
       </c>
       <c r="B56" s="14">
-        <v>0.1213679763111309</v>
+        <v>0.127729567213234</v>
       </c>
       <c r="C56">
-        <v>-9.5509220003969442E-2</v>
+        <v>-9.4821639260371279E-2</v>
       </c>
       <c r="D56" s="14">
-        <v>-5.3289392678985047E-2</v>
+        <v>-6.3998267954573945E-2</v>
       </c>
       <c r="E56" s="14">
-        <v>-6.4704336926022038E-2</v>
+        <v>-6.4800892227440565E-2</v>
       </c>
       <c r="F56">
-        <v>0.13349854003587111</v>
+        <v>0.14338090497801079</v>
       </c>
       <c r="G56">
-        <v>-8.3829165497522548E-2</v>
+        <v>-8.4935552408593143E-2</v>
       </c>
       <c r="H56">
-        <v>-2.5545637208624811E-2</v>
+        <v>-1.851781681925864E-2</v>
       </c>
       <c r="I56" s="14">
-        <v>4.4714081003106372E-2</v>
+        <v>5.3426502599198011E-2</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" s="14">
-        <v>8.621044323413091E-3</v>
+        <v>2.047199712390748E-2</v>
       </c>
       <c r="L56" s="14">
-        <v>4.306908943608493E-2</v>
+        <v>4.8308548012342897E-2</v>
       </c>
       <c r="M56" s="14">
-        <v>0.32789428445347341</v>
+        <v>0.3389168996468343</v>
       </c>
       <c r="N56">
-        <v>0.15602275394436391</v>
+        <v>0.15922808125051291</v>
       </c>
       <c r="O56" s="14">
-        <v>-0.31876200684768208</v>
+        <v>-0.324243374336253</v>
       </c>
       <c r="P56">
-        <v>2.4613547872748848E-2</v>
+        <v>2.3840171321836211E-2</v>
       </c>
       <c r="Q56">
-        <v>-3.7957360234781468E-2</v>
+        <v>-5.2206271353872978E-2</v>
       </c>
       <c r="R56">
-        <v>5.9535036068467419E-2</v>
+        <v>5.8625241835233842E-2</v>
       </c>
       <c r="S56" s="14">
-        <v>4.2693883081273802E-2</v>
+        <v>3.8973030225623068E-2</v>
       </c>
       <c r="T56">
-        <v>-7.0639154663803716E-2</v>
+        <v>-7.3040352300774547E-2</v>
       </c>
       <c r="U56">
-        <v>4.9199122367421078E-2</v>
+        <v>5.2578136137342392E-2</v>
       </c>
       <c r="V56" s="14">
-        <v>-0.15014394937546199</v>
+        <v>-0.15848012445119289</v>
       </c>
       <c r="W56">
-        <v>5.5453291180839692E-2</v>
+        <v>4.8979133154731007E-2</v>
       </c>
       <c r="X56" s="14">
-        <v>0.1338084643563329</v>
+        <v>0.14668665684003249</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -10474,73 +10498,73 @@
         <v>16</v>
       </c>
       <c r="B57" s="14">
-        <v>0.21166640861400399</v>
+        <v>0.2335739591475389</v>
       </c>
       <c r="C57" s="14">
-        <v>-0.1766808226391656</v>
+        <v>-0.18413775984454581</v>
       </c>
       <c r="D57" s="14">
-        <v>6.2872217575618297E-2</v>
+        <v>6.6954120661917804E-2</v>
       </c>
       <c r="E57" s="14">
-        <v>0.2136146241128529</v>
+        <v>0.21836859933998951</v>
       </c>
       <c r="F57" s="14">
-        <v>5.772488239091462E-3</v>
+        <v>1.0064040301030509E-2</v>
       </c>
       <c r="G57" s="14">
-        <v>-4.1679090576994267E-2</v>
+        <v>-4.8705249493857537E-2</v>
       </c>
       <c r="H57" s="14">
-        <v>0.36213588041552608</v>
+        <v>0.36703881566092489</v>
       </c>
       <c r="I57" s="14">
-        <v>0.40771787958764472</v>
+        <v>0.4110876095477542</v>
       </c>
       <c r="J57" s="14">
-        <v>8.621044323413091E-3</v>
+        <v>2.047199712390748E-2</v>
       </c>
       <c r="K57" s="14">
         <v>1</v>
       </c>
       <c r="L57" s="14">
-        <v>4.436691583772915E-2</v>
+        <v>4.6609495621495488E-2</v>
       </c>
       <c r="M57" s="14">
-        <v>0.15518117043189161</v>
+        <v>0.16682721798653549</v>
       </c>
       <c r="N57" s="14">
-        <v>-3.7757564675848891E-2</v>
+        <v>-3.2341294215647368E-2</v>
       </c>
       <c r="O57" s="14">
-        <v>-2.9250178076818598E-2</v>
+        <v>-3.789591040141408E-2</v>
       </c>
       <c r="P57" s="14">
-        <v>-0.16191325501570469</v>
+        <v>-0.1734339124309828</v>
       </c>
       <c r="Q57" s="14">
-        <v>7.1885826990044394E-2</v>
+        <v>7.6065736782383903E-2</v>
       </c>
       <c r="R57" s="14">
-        <v>3.1957909881921202E-2</v>
+        <v>3.6244126381982787E-2</v>
       </c>
       <c r="S57" s="14">
-        <v>-0.12962756511679621</v>
+        <v>-0.13755422320907651</v>
       </c>
       <c r="T57" s="14">
-        <v>2.1013525640318439E-2</v>
+        <v>1.9430648136027559E-2</v>
       </c>
       <c r="U57" s="14">
-        <v>5.5614991140182229E-2</v>
+        <v>6.4900967211776572E-2</v>
       </c>
       <c r="V57" s="14">
-        <v>4.4123642186183511E-2</v>
+        <v>4.0402438387882843E-2</v>
       </c>
       <c r="W57" s="14">
-        <v>1.166111382892712E-2</v>
+        <v>2.1139755376094228E-2</v>
       </c>
       <c r="X57" s="14">
-        <v>-8.1544269401110786E-2</v>
+        <v>-8.5539316586107514E-2</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -10548,73 +10572,73 @@
         <v>17</v>
       </c>
       <c r="B58" s="14">
-        <v>4.049706527717261E-2</v>
+        <v>4.1045063066549627E-2</v>
       </c>
       <c r="C58" s="14">
-        <v>-2.3864283414730909E-2</v>
+        <v>-1.823123135068536E-2</v>
       </c>
       <c r="D58" s="14">
-        <v>-8.9565987459938531E-2</v>
+        <v>-9.1033586266563202E-2</v>
       </c>
       <c r="E58" s="14">
-        <v>-1.0305985758535261E-2</v>
+        <v>-1.106716854842715E-2</v>
       </c>
       <c r="F58" s="14">
-        <v>6.0560299198514321E-2</v>
+        <v>6.6502539866227811E-2</v>
       </c>
       <c r="G58" s="14">
-        <v>2.790482365521111E-2</v>
+        <v>1.6729707070558451E-2</v>
       </c>
       <c r="H58" s="14">
-        <v>3.4256559090411641E-3</v>
+        <v>5.3831671611794659E-3</v>
       </c>
       <c r="I58" s="14">
-        <v>7.5658177112613856E-2</v>
+        <v>8.1917711642652699E-2</v>
       </c>
       <c r="J58" s="14">
-        <v>4.306908943608493E-2</v>
+        <v>4.8308548012342897E-2</v>
       </c>
       <c r="K58" s="14">
-        <v>4.436691583772915E-2</v>
+        <v>4.6609495621495488E-2</v>
       </c>
       <c r="L58" s="14">
         <v>1</v>
       </c>
       <c r="M58" s="14">
-        <v>6.5509278986559533E-2</v>
+        <v>7.5593230314625365E-2</v>
       </c>
       <c r="N58" s="14">
-        <v>-5.0792989052443182E-3</v>
+        <v>-1.9599057216627431E-3</v>
       </c>
       <c r="O58" s="14">
-        <v>-2.2749816468973349E-2</v>
+        <v>-2.8916014546217051E-2</v>
       </c>
       <c r="P58" s="14">
-        <v>-9.6483060556540774E-3</v>
+        <v>4.1383456206040793E-3</v>
       </c>
       <c r="Q58" s="14">
-        <v>-8.20638309441791E-2</v>
+        <v>-8.3609571693629647E-2</v>
       </c>
       <c r="R58" s="14">
-        <v>0.27945347329690912</v>
+        <v>0.27698908935499089</v>
       </c>
       <c r="S58" s="14">
-        <v>2.225764276003633E-3</v>
+        <v>5.4936229717480606E-3</v>
       </c>
       <c r="T58" s="14">
-        <v>3.1646242984017199E-2</v>
+        <v>2.8243527165587201E-2</v>
       </c>
       <c r="U58" s="14">
-        <v>0.32505988811101932</v>
+        <v>0.31714853461676662</v>
       </c>
       <c r="V58" s="14">
-        <v>-3.4616628819356683E-2</v>
+        <v>-3.988356159728796E-2</v>
       </c>
       <c r="W58" s="14">
-        <v>-1.0367494045587551E-2</v>
+        <v>-1.023285931755934E-2</v>
       </c>
       <c r="X58" s="14">
-        <v>9.7435543977717962E-3</v>
+        <v>1.462849170605041E-2</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -10622,73 +10646,73 @@
         <v>19</v>
       </c>
       <c r="B59" s="14">
-        <v>0.19195844100041251</v>
+        <v>0.21348372743469229</v>
       </c>
       <c r="C59" s="14">
-        <v>-0.15431868997752271</v>
+        <v>-0.16103122670275261</v>
       </c>
       <c r="D59" s="14">
-        <v>-5.2996272231054117E-2</v>
+        <v>-6.1328150585855903E-2</v>
       </c>
       <c r="E59" s="14">
-        <v>5.4383047587265289E-2</v>
+        <v>5.7452047728093272E-2</v>
       </c>
       <c r="F59" s="14">
-        <v>8.0534920273628047E-2</v>
+        <v>8.2743654492289431E-2</v>
       </c>
       <c r="G59" s="14">
-        <v>-0.14227975561473361</v>
+        <v>-0.15285840431540579</v>
       </c>
       <c r="H59" s="14">
-        <v>8.1895188252721074E-2</v>
+        <v>9.0338578412944334E-2</v>
       </c>
       <c r="I59" s="14">
-        <v>0.16343447305621009</v>
+        <v>0.174290094998102</v>
       </c>
       <c r="J59" s="14">
-        <v>0.32789428445347341</v>
+        <v>0.3389168996468343</v>
       </c>
       <c r="K59" s="14">
-        <v>0.15518117043189161</v>
+        <v>0.16682721798653549</v>
       </c>
       <c r="L59" s="14">
-        <v>6.5509278986559533E-2</v>
+        <v>7.5593230314625365E-2</v>
       </c>
       <c r="M59" s="14">
         <v>1</v>
       </c>
       <c r="N59" s="14">
-        <v>0.117220669409272</v>
+        <v>0.12066557576281139</v>
       </c>
       <c r="O59" s="14">
-        <v>-0.24503212286686771</v>
+        <v>-0.26613411576519042</v>
       </c>
       <c r="P59" s="14">
-        <v>-4.0038410433586018E-2</v>
+        <v>-4.7652875736835118E-2</v>
       </c>
       <c r="Q59" s="14">
-        <v>-5.3706951104861088E-2</v>
+        <v>-5.4657118345925543E-2</v>
       </c>
       <c r="R59" s="14">
-        <v>4.7079157368713771E-2</v>
+        <v>4.578199743103132E-2</v>
       </c>
       <c r="S59" s="14">
-        <v>4.3688181298192396E-3</v>
+        <v>2.4832635575145058E-3</v>
       </c>
       <c r="T59" s="14">
-        <v>-4.9962178910365682E-2</v>
+        <v>-5.7203845523940387E-2</v>
       </c>
       <c r="U59" s="14">
-        <v>7.023366380481455E-2</v>
+        <v>7.5051070358091262E-2</v>
       </c>
       <c r="V59" s="14">
-        <v>-1.5102555018010611E-2</v>
+        <v>-2.5320829559138749E-2</v>
       </c>
       <c r="W59" s="14">
-        <v>9.616543852347606E-2</v>
+        <v>0.100842758956742</v>
       </c>
       <c r="X59" s="14">
-        <v>-1.139026167706811E-2</v>
+        <v>-5.9128179153738244E-3</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -10696,73 +10720,73 @@
         <v>20</v>
       </c>
       <c r="B60" s="14">
-        <v>0.12060323683919839</v>
+        <v>0.1232799394662013</v>
       </c>
       <c r="C60">
-        <v>-5.8297815829115647E-2</v>
+        <v>-6.4719082310363316E-2</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.13916558636084569</v>
+        <v>-0.14248483953216501</v>
       </c>
       <c r="E60" s="14">
-        <v>-0.1088025933540708</v>
+        <v>-0.1017707294568496</v>
       </c>
       <c r="F60">
-        <v>0.2070699479970442</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="G60">
-        <v>-0.2373779419912441</v>
+        <v>-0.23868486256944771</v>
       </c>
       <c r="H60">
-        <v>7.4515442097197618E-4</v>
+        <v>-2.7928813480680709E-4</v>
       </c>
       <c r="I60" s="14">
-        <v>1.6543198288672931E-2</v>
+        <v>1.807801528670424E-2</v>
       </c>
       <c r="J60">
-        <v>0.15602275394436391</v>
+        <v>0.15922808125051291</v>
       </c>
       <c r="K60" s="14">
-        <v>-3.7757564675848891E-2</v>
+        <v>-3.2341294215647368E-2</v>
       </c>
       <c r="L60" s="14">
-        <v>-5.0792989052443182E-3</v>
+        <v>-1.9599057216627431E-3</v>
       </c>
       <c r="M60" s="14">
-        <v>0.117220669409272</v>
+        <v>0.12066557576281139</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60" s="14">
-        <v>-0.17724274902069659</v>
+        <v>-0.18855159001377991</v>
       </c>
       <c r="P60">
-        <v>4.7195334525938673E-2</v>
+        <v>4.9222118310631377E-2</v>
       </c>
       <c r="Q60">
-        <v>-9.9165519927754769E-2</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="R60">
-        <v>2.0256620405094219E-3</v>
+        <v>1.1587331988584719E-3</v>
       </c>
       <c r="S60" s="14">
-        <v>3.6720879890772641E-2</v>
+        <v>3.7671084328243343E-2</v>
       </c>
       <c r="T60">
-        <v>-0.1288635154256913</v>
+        <v>-0.1315965272369784</v>
       </c>
       <c r="U60">
-        <v>-2.2911467483139858E-3</v>
+        <v>1.1882649177833251E-3</v>
       </c>
       <c r="V60" s="14">
-        <v>-0.17497741438294279</v>
+        <v>-0.17993484389482101</v>
       </c>
       <c r="W60">
-        <v>2.441097112982862E-2</v>
+        <v>1.928345916355061E-2</v>
       </c>
       <c r="X60" s="14">
-        <v>0.2701107199482542</v>
+        <v>0.27742377646599842</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -10770,73 +10794,73 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <v>-0.18424161890824151</v>
+        <v>-0.22116267708491191</v>
       </c>
       <c r="C61" s="14">
-        <v>0.19640588191226929</v>
+        <v>0.21372946679453941</v>
       </c>
       <c r="D61" s="14">
-        <v>5.0950366385388669E-2</v>
+        <v>5.3635102072637601E-2</v>
       </c>
       <c r="E61" s="14">
-        <v>9.0441499834923847E-2</v>
+        <v>8.5479592740025645E-2</v>
       </c>
       <c r="F61" s="14">
-        <v>-0.14329898566525501</v>
+        <v>-0.16028287423658041</v>
       </c>
       <c r="G61" s="14">
-        <v>0.123707888288475</v>
+        <v>0.13625669163412671</v>
       </c>
       <c r="H61" s="14">
-        <v>-2.6812121563571281E-2</v>
+        <v>-4.0494576582652778E-2</v>
       </c>
       <c r="I61" s="14">
-        <v>-6.7813517981677993E-2</v>
+        <v>-7.8898934627798067E-2</v>
       </c>
       <c r="J61" s="14">
-        <v>-0.31876200684768208</v>
+        <v>-0.324243374336253</v>
       </c>
       <c r="K61" s="14">
-        <v>-2.9250178076818598E-2</v>
+        <v>-3.789591040141408E-2</v>
       </c>
       <c r="L61" s="14">
-        <v>-2.2749816468973349E-2</v>
+        <v>-2.8916014546217051E-2</v>
       </c>
       <c r="M61" s="14">
-        <v>-0.24503212286686771</v>
+        <v>-0.26613411576519042</v>
       </c>
       <c r="N61" s="14">
-        <v>-0.17724274902069659</v>
+        <v>-0.18855159001377991</v>
       </c>
       <c r="O61" s="14">
         <v>1</v>
       </c>
       <c r="P61" s="14">
-        <v>2.0774875299367231E-2</v>
+        <v>2.956655358049631E-2</v>
       </c>
       <c r="Q61" s="14">
-        <v>2.714539005462132E-2</v>
+        <v>3.637625638365085E-2</v>
       </c>
       <c r="R61" s="14">
-        <v>-4.2053142094340683E-2</v>
+        <v>-4.5232040881409488E-2</v>
       </c>
       <c r="S61" s="14">
-        <v>2.9075792588753539E-2</v>
+        <v>2.9851383728212139E-2</v>
       </c>
       <c r="T61" s="14">
-        <v>7.221661490087973E-2</v>
+        <v>7.4240549174401191E-2</v>
       </c>
       <c r="U61" s="14">
-        <v>-1.861711597304545E-2</v>
+        <v>-2.4421886411421879E-2</v>
       </c>
       <c r="V61" s="14">
-        <v>0.1747952333749756</v>
+        <v>0.1970722535658273</v>
       </c>
       <c r="W61" s="14">
-        <v>-3.0427731273598969E-2</v>
+        <v>-1.7232098239151769E-2</v>
       </c>
       <c r="X61" s="14">
-        <v>-0.15053657471592399</v>
+        <v>-0.1640239568781148</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -10844,73 +10868,73 @@
         <v>22</v>
       </c>
       <c r="B62" s="14">
-        <v>-0.13009451347724879</v>
+        <v>-0.1342813671830736</v>
       </c>
       <c r="C62">
-        <v>0.22666189234615389</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="D62" s="14">
-        <v>-9.8182515495621264E-2</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="E62" s="14">
-        <v>-0.1355216775912837</v>
+        <v>-0.13967158661693149</v>
       </c>
       <c r="F62">
-        <v>4.2230149739737648E-2</v>
+        <v>4.6868977937993231E-2</v>
       </c>
       <c r="G62">
-        <v>3.5243799579317628E-2</v>
+        <v>4.0369978843909367E-2</v>
       </c>
       <c r="H62">
-        <v>-0.18725487414859329</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="I62" s="14">
-        <v>-0.16295163089974071</v>
+        <v>-0.16851123940326221</v>
       </c>
       <c r="J62">
-        <v>2.4613547872748848E-2</v>
+        <v>2.3840171321836211E-2</v>
       </c>
       <c r="K62" s="14">
-        <v>-0.16191325501570469</v>
+        <v>-0.1734339124309828</v>
       </c>
       <c r="L62" s="14">
-        <v>-9.6483060556540774E-3</v>
+        <v>4.1383456206040793E-3</v>
       </c>
       <c r="M62" s="14">
-        <v>-4.0038410433586018E-2</v>
+        <v>-4.7652875736835118E-2</v>
       </c>
       <c r="N62">
-        <v>4.7195334525938673E-2</v>
+        <v>4.9222118310631377E-2</v>
       </c>
       <c r="O62" s="14">
-        <v>2.0774875299367231E-2</v>
+        <v>2.956655358049631E-2</v>
       </c>
       <c r="P62">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>-9.8114346034470154E-2</v>
+        <v>-0.11009625864656911</v>
       </c>
       <c r="R62">
-        <v>-1.8140993130186221E-3</v>
+        <v>7.2220147009288659E-3</v>
       </c>
       <c r="S62" s="14">
-        <v>0.37548273401531351</v>
+        <v>0.38062545186028762</v>
       </c>
       <c r="T62">
-        <v>-3.5123919986245353E-2</v>
+        <v>-4.3026141113010119E-2</v>
       </c>
       <c r="U62">
-        <v>-3.0958964396047069E-2</v>
+        <v>-3.8993818075712443E-2</v>
       </c>
       <c r="V62" s="14">
-        <v>-6.1536870602572062E-2</v>
+        <v>-7.5095901364473111E-2</v>
       </c>
       <c r="W62">
-        <v>-2.9935141099367669E-2</v>
+        <v>-4.1558752204095821E-2</v>
       </c>
       <c r="X62" s="14">
-        <v>0.1105345384251093</v>
+        <v>0.1281674556597141</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -10918,73 +10942,73 @@
         <v>24</v>
       </c>
       <c r="B63" s="14">
-        <v>4.6769652955710998E-2</v>
+        <v>5.370476839399517E-2</v>
       </c>
       <c r="C63">
-        <v>-0.1518445271379984</v>
+        <v>-0.16473995066539041</v>
       </c>
       <c r="D63" s="14">
-        <v>0.49892288849901972</v>
+        <v>0.51633899160326902</v>
       </c>
       <c r="E63" s="14">
-        <v>0.36633212833382361</v>
+        <v>0.37696933847880332</v>
       </c>
       <c r="F63">
-        <v>-0.13918817966065991</v>
+        <v>-0.15633663996267019</v>
       </c>
       <c r="G63">
-        <v>4.3341497937303068E-2</v>
+        <v>4.955333063480253E-2</v>
       </c>
       <c r="H63">
-        <v>9.1775126600014412E-2</v>
+        <v>9.6244598350325325E-2</v>
       </c>
       <c r="I63" s="14">
-        <v>-5.9485157213233698E-2</v>
+        <v>-6.4329225748121541E-2</v>
       </c>
       <c r="J63">
-        <v>-3.7957360234781468E-2</v>
+        <v>-5.2206271353872978E-2</v>
       </c>
       <c r="K63" s="14">
-        <v>7.1885826990044394E-2</v>
+        <v>7.6065736782383903E-2</v>
       </c>
       <c r="L63" s="14">
-        <v>-8.20638309441791E-2</v>
+        <v>-8.3609571693629647E-2</v>
       </c>
       <c r="M63" s="14">
-        <v>-5.3706951104861088E-2</v>
+        <v>-5.4657118345925543E-2</v>
       </c>
       <c r="N63">
-        <v>-9.9165519927754769E-2</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="O63" s="14">
-        <v>2.714539005462132E-2</v>
+        <v>3.637625638365085E-2</v>
       </c>
       <c r="P63">
-        <v>-9.8114346034470154E-2</v>
+        <v>-0.11009625864656911</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>-9.0135059818112942E-2</v>
+        <v>-9.4906855293869302E-2</v>
       </c>
       <c r="S63" s="14">
-        <v>-8.6169480901099632E-2</v>
+        <v>-8.9933150449372945E-2</v>
       </c>
       <c r="T63">
-        <v>3.9312010060234159E-2</v>
+        <v>5.1373003566907292E-2</v>
       </c>
       <c r="U63">
-        <v>-4.2724517716576579E-2</v>
+        <v>-4.5722441151799492E-2</v>
       </c>
       <c r="V63" s="14">
-        <v>9.6715769719325703E-2</v>
+        <v>0.10543957559292649</v>
       </c>
       <c r="W63">
-        <v>-1.417765453112888E-2</v>
+        <v>-1.4115378349411071E-2</v>
       </c>
       <c r="X63" s="14">
-        <v>-0.1084910534421335</v>
+        <v>-0.119148661185463</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -10992,73 +11016,73 @@
         <v>25</v>
       </c>
       <c r="B64" s="14">
-        <v>3.4645714841517662E-2</v>
+        <v>3.6639484747601543E-2</v>
       </c>
       <c r="C64">
-        <v>-1.9573696009567682E-2</v>
+        <v>-9.9270454684014416E-3</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.1015295855942827</v>
+        <v>-0.1089322791113146</v>
       </c>
       <c r="E64" s="14">
-        <v>-3.1377702116266941E-2</v>
+        <v>-3.1785114209703411E-2</v>
       </c>
       <c r="F64">
-        <v>8.0024742228012868E-2</v>
+        <v>8.1505823664476423E-2</v>
       </c>
       <c r="G64">
-        <v>3.6573470878985333E-2</v>
+        <v>3.9142214147888738E-2</v>
       </c>
       <c r="H64">
-        <v>-1.6987388219678819E-2</v>
+        <v>-1.492358163074485E-2</v>
       </c>
       <c r="I64" s="14">
-        <v>6.9997523736011313E-2</v>
+        <v>7.4193103377846931E-2</v>
       </c>
       <c r="J64">
-        <v>5.9535036068467419E-2</v>
+        <v>5.8625241835233842E-2</v>
       </c>
       <c r="K64" s="14">
-        <v>3.1957909881921202E-2</v>
+        <v>3.6244126381982787E-2</v>
       </c>
       <c r="L64" s="14">
-        <v>0.27945347329690912</v>
+        <v>0.27698908935499089</v>
       </c>
       <c r="M64" s="14">
-        <v>4.7079157368713771E-2</v>
+        <v>4.578199743103132E-2</v>
       </c>
       <c r="N64">
-        <v>2.0256620405094219E-3</v>
+        <v>1.1587331988584719E-3</v>
       </c>
       <c r="O64" s="14">
-        <v>-4.2053142094340683E-2</v>
+        <v>-4.5232040881409488E-2</v>
       </c>
       <c r="P64">
-        <v>-1.8140993130186221E-3</v>
+        <v>7.2220147009288659E-3</v>
       </c>
       <c r="Q64">
-        <v>-9.0135059818112942E-2</v>
+        <v>-9.4906855293869302E-2</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64" s="14">
-        <v>6.5542695654180064E-3</v>
+        <v>8.6725484609936152E-3</v>
       </c>
       <c r="T64">
-        <v>2.205814403098811E-2</v>
+        <v>2.5071391539475081E-2</v>
       </c>
       <c r="U64">
-        <v>0.19448052067899399</v>
+        <v>0.19484799590176391</v>
       </c>
       <c r="V64" s="14">
-        <v>-5.6730340877790317E-2</v>
+        <v>-6.5017553823514637E-2</v>
       </c>
       <c r="W64">
-        <v>-3.0785030440416299E-2</v>
+        <v>-3.0422914026749921E-2</v>
       </c>
       <c r="X64" s="14">
-        <v>2.6238308750082609E-2</v>
+        <v>3.3579454722379679E-2</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -11066,73 +11090,73 @@
         <v>26</v>
       </c>
       <c r="B65" s="14">
-        <v>-0.1146805211806993</v>
+        <v>-0.108249922874552</v>
       </c>
       <c r="C65" s="14">
-        <v>0.17985564250006131</v>
+        <v>0.18574022663908341</v>
       </c>
       <c r="D65" s="14">
-        <v>-9.8706487278832231E-2</v>
+        <v>-9.9015209573411131E-2</v>
       </c>
       <c r="E65" s="14">
-        <v>-9.1514971337069859E-2</v>
+        <v>-9.6647023639803251E-2</v>
       </c>
       <c r="F65" s="14">
-        <v>2.1215212495365812E-2</v>
+        <v>2.3060224914834931E-2</v>
       </c>
       <c r="G65" s="14">
-        <v>5.5686934034782608E-2</v>
+        <v>5.9484598238988683E-2</v>
       </c>
       <c r="H65" s="14">
-        <v>-0.1740809594711891</v>
+        <v>-0.17153915092112459</v>
       </c>
       <c r="I65" s="14">
-        <v>-0.1217794916620374</v>
+        <v>-0.12341979141886281</v>
       </c>
       <c r="J65" s="14">
-        <v>4.2693883081273802E-2</v>
+        <v>3.8973030225623068E-2</v>
       </c>
       <c r="K65" s="14">
-        <v>-0.12962756511679621</v>
+        <v>-0.13755422320907651</v>
       </c>
       <c r="L65" s="14">
-        <v>2.225764276003633E-3</v>
+        <v>5.4936229717480606E-3</v>
       </c>
       <c r="M65" s="14">
-        <v>4.3688181298192396E-3</v>
+        <v>2.4832635575145058E-3</v>
       </c>
       <c r="N65" s="14">
-        <v>3.6720879890772641E-2</v>
+        <v>3.7671084328243343E-2</v>
       </c>
       <c r="O65" s="14">
-        <v>2.9075792588753539E-2</v>
+        <v>2.9851383728212139E-2</v>
       </c>
       <c r="P65" s="14">
-        <v>0.37548273401531351</v>
+        <v>0.38062545186028762</v>
       </c>
       <c r="Q65" s="14">
-        <v>-8.6169480901099632E-2</v>
+        <v>-8.9933150449372945E-2</v>
       </c>
       <c r="R65" s="14">
-        <v>6.5542695654180064E-3</v>
+        <v>8.6725484609936152E-3</v>
       </c>
       <c r="S65" s="14">
         <v>1</v>
       </c>
       <c r="T65" s="14">
-        <v>-3.387761798524707E-2</v>
+        <v>-3.4397434603970427E-2</v>
       </c>
       <c r="U65" s="14">
-        <v>-4.0188345928828709E-2</v>
+        <v>-3.9925610529435523E-2</v>
       </c>
       <c r="V65" s="14">
-        <v>-5.6787465955228232E-2</v>
+        <v>-6.4251969388895117E-2</v>
       </c>
       <c r="W65" s="14">
-        <v>-3.5612795691198823E-2</v>
+        <v>-4.1774862286212987E-2</v>
       </c>
       <c r="X65" s="14">
-        <v>9.9070759049781187E-2</v>
+        <v>0.1138778076145074</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -11140,73 +11164,73 @@
         <v>27</v>
       </c>
       <c r="B66" s="14">
-        <v>-5.9190794045742949E-2</v>
+        <v>-6.4552202616111554E-2</v>
       </c>
       <c r="C66">
-        <v>9.8942657701809999E-3</v>
+        <v>1.0482130814969581E-2</v>
       </c>
       <c r="D66" s="14">
-        <v>6.4683188308091596E-2</v>
+        <v>7.3586700421981399E-2</v>
       </c>
       <c r="E66" s="14">
-        <v>4.4917725031447732E-2</v>
+        <v>4.8111966991307119E-2</v>
       </c>
       <c r="F66">
-        <v>-7.4675948116477112E-2</v>
+        <v>-7.7742970949390144E-2</v>
       </c>
       <c r="G66">
-        <v>0.2017484985419869</v>
+        <v>0.2163664193155172</v>
       </c>
       <c r="H66">
-        <v>4.1389762824149191E-4</v>
+        <v>4.6691915148049188E-3</v>
       </c>
       <c r="I66" s="14">
-        <v>1.0971854334785969E-2</v>
+        <v>1.1601060550807341E-2</v>
       </c>
       <c r="J66">
-        <v>-7.0639154663803716E-2</v>
+        <v>-7.3040352300774547E-2</v>
       </c>
       <c r="K66" s="14">
-        <v>2.1013525640318439E-2</v>
+        <v>1.9430648136027559E-2</v>
       </c>
       <c r="L66" s="14">
-        <v>3.1646242984017199E-2</v>
+        <v>2.8243527165587201E-2</v>
       </c>
       <c r="M66" s="14">
-        <v>-4.9962178910365682E-2</v>
+        <v>-5.7203845523940387E-2</v>
       </c>
       <c r="N66">
-        <v>-0.1288635154256913</v>
+        <v>-0.1315965272369784</v>
       </c>
       <c r="O66" s="14">
-        <v>7.221661490087973E-2</v>
+        <v>7.4240549174401191E-2</v>
       </c>
       <c r="P66">
-        <v>-3.5123919986245353E-2</v>
+        <v>-4.3026141113010119E-2</v>
       </c>
       <c r="Q66">
-        <v>3.9312010060234159E-2</v>
+        <v>5.1373003566907292E-2</v>
       </c>
       <c r="R66">
-        <v>2.205814403098811E-2</v>
+        <v>2.5071391539475081E-2</v>
       </c>
       <c r="S66" s="14">
-        <v>-3.387761798524707E-2</v>
+        <v>-3.4397434603970427E-2</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66">
-        <v>2.440955952009851E-2</v>
+        <v>1.772476306817743E-2</v>
       </c>
       <c r="V66" s="14">
-        <v>9.653476242392138E-2</v>
+        <v>9.5926452064851064E-2</v>
       </c>
       <c r="W66">
-        <v>-1.558394189176731E-2</v>
+        <v>-1.631311760248445E-2</v>
       </c>
       <c r="X66" s="14">
-        <v>-0.11906181150714271</v>
+        <v>-0.12789183152373229</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -11214,73 +11238,73 @@
         <v>28</v>
       </c>
       <c r="B67" s="14">
-        <v>6.7301011193528756E-2</v>
+        <v>8.380594414087883E-2</v>
       </c>
       <c r="C67">
-        <v>-5.4626038732460268E-2</v>
+        <v>-6.123995584416253E-2</v>
       </c>
       <c r="D67" s="14">
-        <v>-4.3859971974811202E-2</v>
+        <v>-4.7882223865839048E-2</v>
       </c>
       <c r="E67" s="14">
-        <v>1.7909734216816769E-2</v>
+        <v>1.6881052262240581E-2</v>
       </c>
       <c r="F67">
-        <v>6.2456738531358837E-2</v>
+        <v>6.8377579274922065E-2</v>
       </c>
       <c r="G67">
-        <v>5.9336856385667014E-3</v>
+        <v>-1.9987906611046188E-3</v>
       </c>
       <c r="H67">
-        <v>3.4584175190629431E-2</v>
+        <v>4.1327314412042029E-2</v>
       </c>
       <c r="I67" s="14">
-        <v>7.613035617463608E-2</v>
+        <v>8.432036723016692E-2</v>
       </c>
       <c r="J67">
-        <v>4.9199122367421078E-2</v>
+        <v>5.2578136137342392E-2</v>
       </c>
       <c r="K67" s="14">
-        <v>5.5614991140182229E-2</v>
+        <v>6.4900967211776572E-2</v>
       </c>
       <c r="L67" s="14">
-        <v>0.32505988811101932</v>
+        <v>0.31714853461676662</v>
       </c>
       <c r="M67" s="14">
-        <v>7.023366380481455E-2</v>
+        <v>7.5051070358091262E-2</v>
       </c>
       <c r="N67">
-        <v>-2.2911467483139858E-3</v>
+        <v>1.1882649177833251E-3</v>
       </c>
       <c r="O67" s="14">
-        <v>-1.861711597304545E-2</v>
+        <v>-2.4421886411421879E-2</v>
       </c>
       <c r="P67">
-        <v>-3.0958964396047069E-2</v>
+        <v>-3.8993818075712443E-2</v>
       </c>
       <c r="Q67">
-        <v>-4.2724517716576579E-2</v>
+        <v>-4.5722441151799492E-2</v>
       </c>
       <c r="R67">
-        <v>0.19448052067899399</v>
+        <v>0.19484799590176391</v>
       </c>
       <c r="S67" s="14">
-        <v>-4.0188345928828709E-2</v>
+        <v>-3.9925610529435523E-2</v>
       </c>
       <c r="T67">
-        <v>2.440955952009851E-2</v>
+        <v>1.772476306817743E-2</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="V67" s="14">
-        <v>-2.5373797227345011E-2</v>
+        <v>-3.06882798565359E-2</v>
       </c>
       <c r="W67">
-        <v>-2.3510095167042791E-2</v>
+        <v>-2.5806227941391369E-2</v>
       </c>
       <c r="X67" s="14">
-        <v>3.3292773060286359E-3</v>
+        <v>6.063364069331491E-3</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -11288,73 +11312,73 @@
         <v>30</v>
       </c>
       <c r="B68" s="14">
-        <v>-1.5515696624193829E-2</v>
+        <v>-2.6775724359741789E-2</v>
       </c>
       <c r="C68" s="14">
-        <v>-5.4023227804442207E-2</v>
+        <v>-5.0870085872000002E-2</v>
       </c>
       <c r="D68" s="14">
-        <v>0.1116778017247707</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="E68" s="14">
-        <v>9.2225600214285774E-2</v>
+        <v>9.5739806751386949E-2</v>
       </c>
       <c r="F68" s="14">
-        <v>-0.26233081285000931</v>
+        <v>-0.27793570624498359</v>
       </c>
       <c r="G68" s="14">
-        <v>2.2159993300839582E-3</v>
+        <v>1.072743307583247E-2</v>
       </c>
       <c r="H68" s="14">
-        <v>4.3590865735566767E-2</v>
+        <v>3.8073586254585637E-2</v>
       </c>
       <c r="I68" s="14">
-        <v>-1.1818622302189229E-2</v>
+        <v>-1.8012236004081399E-2</v>
       </c>
       <c r="J68" s="14">
-        <v>-0.15014394937546199</v>
+        <v>-0.15848012445119289</v>
       </c>
       <c r="K68" s="14">
-        <v>4.4123642186183511E-2</v>
+        <v>4.0402438387882843E-2</v>
       </c>
       <c r="L68" s="14">
-        <v>-3.4616628819356683E-2</v>
+        <v>-3.988356159728796E-2</v>
       </c>
       <c r="M68" s="14">
-        <v>-1.5102555018010611E-2</v>
+        <v>-2.5320829559138749E-2</v>
       </c>
       <c r="N68" s="14">
-        <v>-0.17497741438294279</v>
+        <v>-0.17993484389482101</v>
       </c>
       <c r="O68" s="14">
-        <v>0.1747952333749756</v>
+        <v>0.1970722535658273</v>
       </c>
       <c r="P68" s="14">
-        <v>-6.1536870602572062E-2</v>
+        <v>-7.5095901364473111E-2</v>
       </c>
       <c r="Q68" s="14">
-        <v>9.6715769719325703E-2</v>
+        <v>0.10543957559292649</v>
       </c>
       <c r="R68" s="14">
-        <v>-5.6730340877790317E-2</v>
+        <v>-6.5017553823514637E-2</v>
       </c>
       <c r="S68" s="14">
-        <v>-5.6787465955228232E-2</v>
+        <v>-6.4251969388895117E-2</v>
       </c>
       <c r="T68" s="14">
-        <v>9.653476242392138E-2</v>
+        <v>9.5926452064851064E-2</v>
       </c>
       <c r="U68" s="14">
-        <v>-2.5373797227345011E-2</v>
+        <v>-3.06882798565359E-2</v>
       </c>
       <c r="V68" s="14">
         <v>1</v>
       </c>
       <c r="W68" s="14">
-        <v>0.1098003419015926</v>
+        <v>0.1236080503189724</v>
       </c>
       <c r="X68" s="14">
-        <v>-0.29567326632008761</v>
+        <v>-0.3039817849297376</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -11362,73 +11386,73 @@
         <v>31</v>
       </c>
       <c r="B69" s="14">
-        <v>4.1944309825564921E-2</v>
+        <v>4.1372577110039971E-2</v>
       </c>
       <c r="C69">
-        <v>-7.0514488065189423E-2</v>
+        <v>-7.1139795281959614E-2</v>
       </c>
       <c r="D69" s="14">
-        <v>-3.0404217575343409E-2</v>
+        <v>-3.2748468078702832E-2</v>
       </c>
       <c r="E69" s="14">
-        <v>1.2954173694352219E-2</v>
+        <v>1.09430165515314E-2</v>
       </c>
       <c r="F69">
-        <v>-4.3260006229646653E-2</v>
+        <v>-4.252764104902889E-2</v>
       </c>
       <c r="G69">
-        <v>-0.15205954440890099</v>
+        <v>-0.15665920734951011</v>
       </c>
       <c r="H69">
-        <v>-2.6091030799728548E-2</v>
+        <v>-2.671046812049865E-2</v>
       </c>
       <c r="I69" s="14">
-        <v>1.0287784829173439E-2</v>
+        <v>1.4402635806295361E-2</v>
       </c>
       <c r="J69">
-        <v>5.5453291180839692E-2</v>
+        <v>4.8979133154731007E-2</v>
       </c>
       <c r="K69" s="14">
-        <v>1.166111382892712E-2</v>
+        <v>2.1139755376094228E-2</v>
       </c>
       <c r="L69" s="14">
-        <v>-1.0367494045587551E-2</v>
+        <v>-1.023285931755934E-2</v>
       </c>
       <c r="M69" s="14">
-        <v>9.616543852347606E-2</v>
+        <v>0.100842758956742</v>
       </c>
       <c r="N69">
-        <v>2.441097112982862E-2</v>
+        <v>1.928345916355061E-2</v>
       </c>
       <c r="O69" s="14">
-        <v>-3.0427731273598969E-2</v>
+        <v>-1.7232098239151769E-2</v>
       </c>
       <c r="P69">
-        <v>-2.9935141099367669E-2</v>
+        <v>-4.1558752204095821E-2</v>
       </c>
       <c r="Q69">
-        <v>-1.417765453112888E-2</v>
+        <v>-1.4115378349411071E-2</v>
       </c>
       <c r="R69">
-        <v>-3.0785030440416299E-2</v>
+        <v>-3.0422914026749921E-2</v>
       </c>
       <c r="S69" s="14">
-        <v>-3.5612795691198823E-2</v>
+        <v>-4.1774862286212987E-2</v>
       </c>
       <c r="T69">
-        <v>-1.558394189176731E-2</v>
+        <v>-1.631311760248445E-2</v>
       </c>
       <c r="U69">
-        <v>-2.3510095167042791E-2</v>
+        <v>-2.5806227941391369E-2</v>
       </c>
       <c r="V69" s="14">
-        <v>0.1098003419015926</v>
+        <v>0.1236080503189724</v>
       </c>
       <c r="W69">
         <v>1</v>
       </c>
       <c r="X69" s="14">
-        <v>-8.431403138846276E-2</v>
+        <v>-9.8808664919643227E-2</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
@@ -11436,70 +11460,70 @@
         <v>32</v>
       </c>
       <c r="B70" s="14">
-        <v>9.0777747346638543E-3</v>
+        <v>1.170716638941764E-2</v>
       </c>
       <c r="C70" s="14">
-        <v>8.1319098144337049E-2</v>
+        <v>8.1535727375991712E-2</v>
       </c>
       <c r="D70" s="14">
-        <v>-0.14108177244651551</v>
+        <v>-0.14959794064896531</v>
       </c>
       <c r="E70" s="14">
-        <v>-0.15800910802431051</v>
+        <v>-0.16137216877414179</v>
       </c>
       <c r="F70" s="14">
-        <v>0.16856851257778321</v>
+        <v>0.18495324312834349</v>
       </c>
       <c r="G70" s="14">
-        <v>-1.5535118749922231E-2</v>
+        <v>-2.0581445074986649E-2</v>
       </c>
       <c r="H70" s="14">
-        <v>-2.6931237450697251E-2</v>
+        <v>-2.8380624446991801E-2</v>
       </c>
       <c r="I70" s="14">
-        <v>-2.0791931883061641E-2</v>
+        <v>-1.7249226055090629E-2</v>
       </c>
       <c r="J70" s="14">
-        <v>0.1338084643563329</v>
+        <v>0.14668665684003249</v>
       </c>
       <c r="K70" s="14">
-        <v>-8.1544269401110786E-2</v>
+        <v>-8.5539316586107514E-2</v>
       </c>
       <c r="L70" s="14">
-        <v>9.7435543977717962E-3</v>
+        <v>1.462849170605041E-2</v>
       </c>
       <c r="M70" s="14">
-        <v>-1.139026167706811E-2</v>
+        <v>-5.9128179153738244E-3</v>
       </c>
       <c r="N70" s="14">
-        <v>0.2701107199482542</v>
+        <v>0.27742377646599842</v>
       </c>
       <c r="O70" s="14">
-        <v>-0.15053657471592399</v>
+        <v>-0.1640239568781148</v>
       </c>
       <c r="P70" s="14">
-        <v>0.1105345384251093</v>
+        <v>0.1281674556597141</v>
       </c>
       <c r="Q70" s="14">
-        <v>-0.1084910534421335</v>
+        <v>-0.119148661185463</v>
       </c>
       <c r="R70" s="14">
-        <v>2.6238308750082609E-2</v>
+        <v>3.3579454722379679E-2</v>
       </c>
       <c r="S70" s="14">
-        <v>9.9070759049781187E-2</v>
+        <v>0.1138778076145074</v>
       </c>
       <c r="T70" s="14">
-        <v>-0.11906181150714271</v>
+        <v>-0.12789183152373229</v>
       </c>
       <c r="U70" s="14">
-        <v>3.3292773060286359E-3</v>
+        <v>6.063364069331491E-3</v>
       </c>
       <c r="V70" s="14">
-        <v>-0.29567326632008761</v>
+        <v>-0.3039817849297376</v>
       </c>
       <c r="W70" s="14">
-        <v>-8.431403138846276E-2</v>
+        <v>-9.8808664919643227E-2</v>
       </c>
       <c r="X70" s="14">
         <v>1</v>
@@ -11587,8 +11611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77296828-A876-8F45-874B-CC8E549DDDDE}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11628,17 +11652,17 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.76591809290453072</v>
+        <v>0.76649427103561907</v>
       </c>
       <c r="D2">
-        <v>0.53183618580906145</v>
+        <v>0.53298854207123814</v>
       </c>
       <c r="E2">
-        <v>0.39229146821888328</v>
+        <v>0.39862282465683202</v>
       </c>
       <c r="F2">
-        <f>ABS(D2)</f>
-        <v>0.53183618580906145</v>
+        <f t="shared" ref="F2:F28" si="0">ABS(D2)</f>
+        <v>0.53298854207123814</v>
       </c>
       <c r="H2" t="s">
         <v>110</v>
@@ -11652,17 +11676,17 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0.7418212881113837</v>
+        <v>0.74331488762149356</v>
       </c>
       <c r="D3">
-        <v>0.48364257622276741</v>
+        <v>0.48662977524298712</v>
       </c>
       <c r="E3">
-        <v>0.36659072771839413</v>
+        <v>0.37205101586556588</v>
       </c>
       <c r="F3">
-        <f>ABS(D3)</f>
-        <v>0.48364257622276741</v>
+        <f t="shared" si="0"/>
+        <v>0.48662977524298712</v>
       </c>
       <c r="H3">
         <v>0.05</v>
@@ -11676,17 +11700,17 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>0.3412725652710249</v>
+        <v>0.3293130723236275</v>
       </c>
       <c r="D4">
-        <v>-0.31745486945795021</v>
+        <v>-0.341373855352745</v>
       </c>
       <c r="E4">
-        <v>0.2489492309547244</v>
+        <v>0.28879070075172558</v>
       </c>
       <c r="F4">
-        <f>ABS(D4)</f>
-        <v>0.31745486945795021</v>
+        <f t="shared" si="0"/>
+        <v>0.341373855352745</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11697,59 +11721,59 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0.34241263994571802</v>
+        <v>0.340672880445613</v>
       </c>
       <c r="D5">
-        <v>-0.31517472010856401</v>
+        <v>-0.318654239108774</v>
       </c>
       <c r="E5">
-        <v>0.2541300799716229</v>
+        <v>0.26400579690929221</v>
       </c>
       <c r="F5">
-        <f>ABS(D5)</f>
-        <v>0.31517472010856401</v>
+        <f t="shared" si="0"/>
+        <v>0.318654239108774</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0.35792818070995758</v>
+        <v>0.65565373635604773</v>
       </c>
       <c r="D6">
-        <v>-0.28414363858008479</v>
+        <v>0.31130747271209552</v>
       </c>
       <c r="E6">
-        <v>0.29518412542749489</v>
+        <v>0.24857721770804181</v>
       </c>
       <c r="F6">
-        <f>ABS(D6)</f>
-        <v>0.28414363858008479</v>
+        <f t="shared" si="0"/>
+        <v>0.31130747271209552</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0.639271815433888</v>
+        <v>0.35507522076153503</v>
       </c>
       <c r="D7">
-        <v>0.278543630867776</v>
+        <v>-0.28984955847693011</v>
       </c>
       <c r="E7">
-        <v>0.21344263329913429</v>
+        <v>0.30328297398244741</v>
       </c>
       <c r="F7">
-        <f>ABS(D7)</f>
-        <v>0.278543630867776</v>
+        <f t="shared" si="0"/>
+        <v>0.28984955847693011</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -11760,67 +11784,67 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.36243268402473172</v>
+        <v>0.3621907499573116</v>
       </c>
       <c r="D8">
-        <v>-0.27513463195053661</v>
+        <v>-0.27561850008537681</v>
       </c>
       <c r="E8">
-        <v>0.2605202031453806</v>
+        <v>0.26659919276955207</v>
       </c>
       <c r="F8">
-        <f>ABS(D8)</f>
-        <v>0.27513463195053661</v>
+        <f t="shared" si="0"/>
+        <v>0.27561850008537681</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.36495978572459592</v>
+        <v>0.63695561368253362</v>
       </c>
       <c r="D9">
-        <v>-0.27008042855080833</v>
+        <v>0.27391122736506718</v>
       </c>
       <c r="E9">
-        <v>0.23586313346084181</v>
+        <v>0.23089344851261401</v>
       </c>
       <c r="F9">
-        <f>ABS(D9)</f>
-        <v>0.27008042855080833</v>
-      </c>
-      <c r="H9" s="20" t="s">
+        <f t="shared" si="0"/>
+        <v>0.27391122736506718</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.6320636460916621</v>
+        <v>0.36414167352608728</v>
       </c>
       <c r="D10">
-        <v>0.2641272921833242</v>
+        <v>-0.27171665294782532</v>
       </c>
       <c r="E10">
-        <v>0.22323647298691249</v>
+        <v>0.23588082951162459</v>
       </c>
       <c r="F10">
-        <f>ABS(D10)</f>
-        <v>0.2641272921833242</v>
+        <f t="shared" si="0"/>
+        <v>0.27171665294782532</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -11843,17 +11867,17 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.61275448142581579</v>
+        <v>0.61222835406522524</v>
       </c>
       <c r="D11">
-        <v>0.22550896285163161</v>
+        <v>0.22445670813045049</v>
       </c>
       <c r="E11">
-        <v>0.17775194389136961</v>
+        <v>0.1777619804574852</v>
       </c>
       <c r="F11">
-        <f>ABS(D11)</f>
-        <v>0.22550896285163161</v>
+        <f t="shared" si="0"/>
+        <v>0.22445670813045049</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>4</v>
@@ -11876,17 +11900,17 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.599457682073544</v>
+        <v>0.60193849671520361</v>
       </c>
       <c r="D12">
-        <v>0.19891536414708799</v>
+        <v>0.20387699343040719</v>
       </c>
       <c r="E12">
-        <v>0.27023678768608422</v>
+        <v>0.27247692283108821</v>
       </c>
       <c r="F12">
-        <f>ABS(D12)</f>
-        <v>0.19891536414708799</v>
+        <f t="shared" si="0"/>
+        <v>0.20387699343040719</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -11909,17 +11933,17 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.59274784144496973</v>
+        <v>0.59856231472796084</v>
       </c>
       <c r="D13">
-        <v>0.18549568288993951</v>
+        <v>0.19712462945592171</v>
       </c>
       <c r="E13">
-        <v>0.1492742440187679</v>
+        <v>0.16214283856011719</v>
       </c>
       <c r="F13">
-        <f>ABS(D13)</f>
-        <v>0.18549568288993951</v>
+        <f t="shared" si="0"/>
+        <v>0.19712462945592171</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -11942,17 +11966,17 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>0.41778652514404119</v>
+        <v>0.41447313772506178</v>
       </c>
       <c r="D14">
-        <v>-0.16442694971191751</v>
+        <v>-0.17105372454987641</v>
       </c>
       <c r="E14">
-        <v>0.14208396881744559</v>
+        <v>0.1463476605754834</v>
       </c>
       <c r="F14">
-        <f>ABS(D14)</f>
-        <v>0.16442694971191751</v>
+        <f t="shared" si="0"/>
+        <v>0.17105372454987641</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -11975,17 +11999,17 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.4195134087863005</v>
+        <v>0.41943588951906502</v>
       </c>
       <c r="D15">
-        <v>-0.160973182427399</v>
+        <v>-0.1611282209618701</v>
       </c>
       <c r="E15">
-        <v>0.13551199891288129</v>
+        <v>0.12401181092535681</v>
       </c>
       <c r="F15">
-        <f>ABS(D15)</f>
-        <v>0.160973182427399</v>
+        <f t="shared" si="0"/>
+        <v>0.1611282209618701</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -12008,17 +12032,17 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>0.57303457293288673</v>
+        <v>0.57450453368859256</v>
       </c>
       <c r="D16">
-        <v>0.14606914586577349</v>
+        <v>0.14900906737718511</v>
       </c>
       <c r="E16">
-        <v>0.15738946802369849</v>
+        <v>0.1610565123381752</v>
       </c>
       <c r="F16">
-        <f>ABS(D16)</f>
-        <v>0.14606914586577349</v>
+        <f t="shared" si="0"/>
+        <v>0.14900906737718511</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -12041,17 +12065,17 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0.57236681113599275</v>
+        <v>0.57270118725974151</v>
       </c>
       <c r="D17">
-        <v>0.1447336222719855</v>
+        <v>0.14540237451948301</v>
       </c>
       <c r="E17">
-        <v>0.216131640657654</v>
+        <v>0.21812944555499639</v>
       </c>
       <c r="F17">
-        <f>ABS(D17)</f>
-        <v>0.1447336222719855</v>
+        <f t="shared" si="0"/>
+        <v>0.14540237451948301</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -12074,17 +12098,17 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>0.56728507320948651</v>
+        <v>0.56665620310629083</v>
       </c>
       <c r="D18">
-        <v>0.134570146418973</v>
+        <v>0.1333124062125817</v>
       </c>
       <c r="E18">
-        <v>0.1105583222876081</v>
+        <v>0.1208986265883691</v>
       </c>
       <c r="F18">
-        <f>ABS(D18)</f>
-        <v>0.134570146418973</v>
+        <f t="shared" si="0"/>
+        <v>0.1333124062125817</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
@@ -12104,17 +12128,17 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.43870292701924152</v>
+        <v>0.43759599942474631</v>
       </c>
       <c r="D19">
-        <v>-0.12259414596151701</v>
+        <v>-0.1248080011505075</v>
       </c>
       <c r="E19">
-        <v>0.1837021749370833</v>
+        <v>0.18550611563629649</v>
       </c>
       <c r="F19">
-        <f>ABS(D19)</f>
-        <v>0.12259414596151701</v>
+        <f t="shared" si="0"/>
+        <v>0.1248080011505075</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
@@ -12134,17 +12158,17 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>0.44061819436629063</v>
+        <v>0.44200020310840382</v>
       </c>
       <c r="D20">
-        <v>-0.1187636112674189</v>
+        <v>-0.1159995937831925</v>
       </c>
       <c r="E20">
-        <v>0.1159016052034841</v>
+        <v>0.1135230710941481</v>
       </c>
       <c r="F20">
-        <f>ABS(D20)</f>
-        <v>0.1187636112674189</v>
+        <f t="shared" si="0"/>
+        <v>0.1159995937831925</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>32</v>
@@ -12164,17 +12188,17 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>0.44268513271575882</v>
+        <v>0.44717458118135928</v>
       </c>
       <c r="D21">
-        <v>-0.1146297345684824</v>
+        <v>-0.10565083763728129</v>
       </c>
       <c r="E21">
-        <v>0.1036451091351108</v>
+        <v>9.5174907633878147E-2</v>
       </c>
       <c r="F21">
-        <f>ABS(D21)</f>
-        <v>0.1146297345684824</v>
+        <f t="shared" si="0"/>
+        <v>0.10565083763728129</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>19</v>
@@ -12191,17 +12215,17 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>0.54196796724276119</v>
+        <v>0.55043486724198198</v>
       </c>
       <c r="D22">
-        <v>8.393593448552239E-2</v>
+        <v>0.100869734483964</v>
       </c>
       <c r="E22">
-        <v>7.4425231610270592E-2</v>
+        <v>8.4850450542773515E-2</v>
       </c>
       <c r="F22">
-        <f>ABS(D22)</f>
-        <v>8.393593448552239E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.100869734483964</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -12215,17 +12239,17 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>0.5321171436302603</v>
+        <v>0.53673858614629</v>
       </c>
       <c r="D23">
-        <v>6.4234287260520606E-2</v>
+        <v>7.3477172292579995E-2</v>
       </c>
       <c r="E23">
-        <v>6.3362294549180631E-2</v>
+        <v>6.848833863268422E-2</v>
       </c>
       <c r="F23">
-        <f>ABS(D23)</f>
-        <v>6.4234287260520606E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.3477172292579995E-2</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>21</v>
@@ -12239,17 +12263,17 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>0.52832444414921675</v>
+        <v>0.53099562339687323</v>
       </c>
       <c r="D24">
-        <v>5.6648888298433508E-2</v>
+        <v>6.1991246793746457E-2</v>
       </c>
       <c r="E24">
-        <v>5.7043351758795928E-2</v>
+        <v>6.8177205083098102E-2</v>
       </c>
       <c r="F24">
-        <f>ABS(D24)</f>
-        <v>5.6648888298433508E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1991246793746457E-2</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -12272,7 +12296,7 @@
         <v>5.0664585751958653E-2</v>
       </c>
       <c r="F25">
-        <f>ABS(D25)</f>
+        <f t="shared" si="0"/>
         <v>4.2078039319832561E-2</v>
       </c>
       <c r="J25" t="s">
@@ -12287,17 +12311,17 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.48923406605988579</v>
+        <v>0.49037011290212462</v>
       </c>
       <c r="D26">
-        <v>-2.153186788022832E-2</v>
+        <v>-1.9259774195750871E-2</v>
       </c>
       <c r="E26">
-        <v>3.4433213321534151E-2</v>
+        <v>4.085806829645533E-2</v>
       </c>
       <c r="F26">
-        <f>ABS(D26)</f>
-        <v>2.153186788022832E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9259774195750871E-2</v>
       </c>
       <c r="J26" t="s">
         <v>25</v>
@@ -12311,17 +12335,17 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>0.50918550492709558</v>
+        <v>0.50837993843623175</v>
       </c>
       <c r="D27">
-        <v>1.8371009854191159E-2</v>
+        <v>1.6759876872463501E-2</v>
       </c>
       <c r="E27">
-        <v>3.5873988799456358E-2</v>
+        <v>3.3315985040762393E-2</v>
       </c>
       <c r="F27">
-        <f>ABS(D27)</f>
-        <v>1.8371009854191159E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6759876872463501E-2</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>26</v>
@@ -12335,17 +12359,17 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>0.5003854173448502</v>
+        <v>0.49742397004032191</v>
       </c>
       <c r="D28">
-        <v>7.7083468970040592E-4</v>
+        <v>-5.1520599193561889E-3</v>
       </c>
       <c r="E28">
-        <v>3.4145586466271687E-2</v>
+        <v>3.6735680824519751E-2</v>
       </c>
       <c r="F28">
-        <f>ABS(D28)</f>
-        <v>7.7083468970040592E-4</v>
+        <f t="shared" si="0"/>
+        <v>5.1520599193561889E-3</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>

--- a/DataPD_Analysis.xlsx
+++ b/DataPD_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meikeepauline/Desktop/IP/CaseStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65956105-C9AF-584D-BEDD-4E629C2A1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD39872-F9F5-EB4E-9809-AB72539197BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15500" activeTab="1" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="VAR" sheetId="5" r:id="rId1"/>
@@ -558,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -604,6 +604,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -689,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,6 +746,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -951,170 +963,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5626100" cy="3020186"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A505B45-E8F5-5CC4-0358-AB44D3187BF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5600700" y="736600"/>
-          <a:ext cx="5626100" cy="3020186"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>                          Probit Regression Results                           </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>==============================================================================</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Dep. Variable:                 deflag   No. Observations:                21000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Model:                         Probit   Df Residuals:                    20996</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Method:                           MLE   Df Model:                            3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Date:                Sun, 26 Mar 2023   Pseudo R-squ.:                  -6.860</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Time:                        19:01:43   Log-Likelihood:                -14533.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>converged:                       True   LL-Null:                       -1849.0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Covariance Type:            nonrobust   LLR p-value:                     1.000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>==============================================================================</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>                 coef    std err          z      P&gt;|z|      [0.025      0.975]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>------------------------------------------------------------------------------</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>var2_AQ        0.0232      0.009      2.674      0.008       0.006       0.040</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>var5_LF        0.0257      0.009      2.897      0.004       0.008       0.043</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>var9_LF        0.0207      0.009      2.338      0.019       0.003       0.038</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>var14_LF       0.0355      0.009      3.973      0.000       0.018       0.053</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>==============================================================================</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -1179,7 +1027,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1554,8 +1402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A0F642-E2C6-6A40-83CE-61FFF53B7EF6}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2331,7 +2180,6 @@
   </sheetData>
   <autoFilter ref="A1:J27" xr:uid="{72A0F642-E2C6-6A40-83CE-61FFF53B7EF6}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2339,7 +2187,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8717C0BB-3494-D144-A5D7-2F936DCDBFF7}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2353,7 +2204,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2362,19 +2213,19 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="20" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2389,13 +2240,13 @@
       <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="20" t="s">
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -2404,13 +2255,13 @@
       <c r="S1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="20" t="s">
         <v>27</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -2422,7 +2273,7 @@
       <c r="Y1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AA1" s="3" t="s">
@@ -5024,109 +4875,109 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="e">
-        <f>B34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C35" s="13" t="e">
-        <f>C34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" s="13" t="e">
-        <f>D34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" s="13" t="e">
-        <f>E34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F35" s="13" t="e">
-        <f>F34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" s="13" t="e">
-        <f>G34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="13" t="e">
-        <f>H34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" s="13" t="e">
-        <f>I34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J35" s="13" t="e">
-        <f>J34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" s="13" t="e">
-        <f>K34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L35" s="13" t="e">
-        <f>L34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M35" s="13" t="e">
-        <f>M34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N35" s="13" t="e">
-        <f>N34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O35" s="13" t="e">
-        <f>O34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P35" s="13" t="e">
-        <f>P34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q35" s="13" t="e">
-        <f>Q34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R35" s="13" t="e">
-        <f>R34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S35" s="13" t="e">
-        <f>S34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T35" s="13" t="e">
-        <f>T34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U35" s="13" t="e">
-        <f>U34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V35" s="13" t="e">
-        <f>V34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W35" s="13" t="e">
-        <f>W34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X35" s="13" t="e">
-        <f>X34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y35" s="13" t="e">
-        <f>Y34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z35" s="13" t="e">
-        <f>Z34/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA35" s="13" t="e">
-        <f>AA34/#REF!</f>
-        <v>#REF!</v>
+      <c r="B35" s="13">
+        <f>B31/$A$36</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" ref="C35:AA35" si="4">C31/$A$36</f>
+        <v>7.8833333333333339E-2</v>
+      </c>
+      <c r="D35" s="13">
+        <f>D31/$A$36</f>
+        <v>0.12146666666666667</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6866666666666667E-2</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.12913333333333332</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="4"/>
+        <v>9.8866666666666672E-2</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="4"/>
+        <v>7.3766666666666661E-2</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.10576666666666666</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="4"/>
+        <v>4.6733333333333335E-2</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14043333333333333</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="4"/>
+        <v>6.6566666666666663E-2</v>
+      </c>
+      <c r="N35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14603333333333332</v>
+      </c>
+      <c r="O35" s="13">
+        <f t="shared" si="4"/>
+        <v>1.9333333333333334E-2</v>
+      </c>
+      <c r="P35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.18603333333333333</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="4"/>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="R35" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="S35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.10183333333333333</v>
+      </c>
+      <c r="T35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17033333333333334</v>
+      </c>
+      <c r="U35" s="13">
+        <f t="shared" si="4"/>
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="V35" s="13">
+        <f t="shared" si="4"/>
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="W35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.18083333333333335</v>
+      </c>
+      <c r="X35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.13436666666666666</v>
+      </c>
+      <c r="Y35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.11243333333333333</v>
+      </c>
+      <c r="Z35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="AA35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
@@ -5134,107 +4985,107 @@
         <v>30000</v>
       </c>
       <c r="B36" s="13">
-        <f t="shared" ref="B36:AA36" si="4">SUM(B31:B32)/$A$36</f>
+        <f>SUM(B31:B32)/$A$36</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B36:AA36" si="5">SUM(C31:C32)/$A$36</f>
         <v>7.9100000000000004E-2</v>
       </c>
       <c r="D36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1215</v>
       </c>
       <c r="E36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.69E-2</v>
       </c>
       <c r="F36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12939999999999999</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.923333333333334E-2</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3833333333333334E-2</v>
       </c>
       <c r="I36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10583333333333333</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="K36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14043333333333333</v>
       </c>
       <c r="L36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16889999999999999</v>
       </c>
       <c r="M36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7033333333333334E-2</v>
       </c>
       <c r="N36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1464</v>
       </c>
       <c r="O36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9366666666666667E-2</v>
       </c>
       <c r="P36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18609999999999999</v>
       </c>
       <c r="Q36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="R36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2633333333333328E-2</v>
       </c>
       <c r="S36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="T36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17043333333333333</v>
       </c>
       <c r="U36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3733333333333332E-2</v>
       </c>
       <c r="V36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.646666666666667E-2</v>
       </c>
       <c r="W36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18093333333333333</v>
       </c>
       <c r="X36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13473333333333334</v>
       </c>
       <c r="Y36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11256666666666666</v>
       </c>
       <c r="Z36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14630000000000001</v>
       </c>
       <c r="AA36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16336666666666666</v>
       </c>
     </row>
@@ -5993,6 +5844,18 @@
   <mergeCells count="1">
     <mergeCell ref="A38:B38"/>
   </mergeCells>
+  <conditionalFormatting sqref="B36:Z36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6533,8 +6396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31AA758-05F1-A249-8767-85116A9B04D3}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9835,70 +9698,70 @@
         <v>1</v>
       </c>
       <c r="C48" s="14">
-        <v>-0.28542284599192791</v>
+        <v>-0.27977273143161308</v>
       </c>
       <c r="D48" s="14">
-        <v>3.8765881196248783E-2</v>
+        <v>3.9208221126227502E-2</v>
       </c>
       <c r="E48" s="14">
-        <v>0.10310362057330991</v>
+        <v>0.10054885346062251</v>
       </c>
       <c r="F48" s="14">
-        <v>2.50676840370101E-2</v>
+        <v>2.9746642741857801E-2</v>
       </c>
       <c r="G48" s="14">
-        <v>-0.1240683217221162</v>
+        <v>-0.1190286884053835</v>
       </c>
       <c r="H48" s="14">
-        <v>0.20154002084972519</v>
+        <v>0.20265588439287971</v>
       </c>
       <c r="I48" s="14">
-        <v>0.22448924933899281</v>
+        <v>0.2245508156386252</v>
       </c>
       <c r="J48" s="14">
-        <v>0.127729567213234</v>
+        <v>0.1262112354393794</v>
       </c>
       <c r="K48" s="14">
-        <v>0.2335739591475389</v>
+        <v>0.23131570847335151</v>
       </c>
       <c r="L48" s="14">
-        <v>4.1045063066549627E-2</v>
+        <v>4.7560031976575753E-2</v>
       </c>
       <c r="M48" s="14">
-        <v>0.21348372743469229</v>
+        <v>0.21029198112492181</v>
       </c>
       <c r="N48" s="14">
-        <v>0.1232799394662013</v>
+        <v>0.122611130067018</v>
       </c>
       <c r="O48" s="14">
-        <v>-0.22116267708491191</v>
+        <v>-0.22074224948199531</v>
       </c>
       <c r="P48" s="14">
-        <v>-0.1342813671830736</v>
+        <v>-0.1375464709496865</v>
       </c>
       <c r="Q48" s="14">
-        <v>5.370476839399517E-2</v>
+        <v>5.176435782627458E-2</v>
       </c>
       <c r="R48" s="14">
-        <v>3.6639484747601543E-2</v>
+        <v>3.7109561731192273E-2</v>
       </c>
       <c r="S48" s="14">
-        <v>-0.108249922874552</v>
+        <v>-0.1159204596047715</v>
       </c>
       <c r="T48" s="14">
-        <v>-6.4552202616111554E-2</v>
+        <v>-6.2750243511928067E-2</v>
       </c>
       <c r="U48" s="14">
-        <v>8.380594414087883E-2</v>
+        <v>8.5454198806126438E-2</v>
       </c>
       <c r="V48" s="14">
-        <v>-2.6775724359741789E-2</v>
+        <v>-2.3100087471526871E-2</v>
       </c>
       <c r="W48" s="14">
-        <v>4.1372577110039971E-2</v>
+        <v>4.3831153531282488E-2</v>
       </c>
       <c r="X48" s="14">
-        <v>1.170716638941764E-2</v>
+        <v>7.9397401628896885E-3</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -9906,73 +9769,73 @@
         <v>3</v>
       </c>
       <c r="B49" s="14">
-        <v>-0.28542284599192791</v>
+        <v>-0.27977273143161308</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.16594422364388339</v>
+        <v>-0.16252399936327289</v>
       </c>
       <c r="E49" s="14">
-        <v>-0.19159845745060991</v>
+        <v>-0.18446855804912499</v>
       </c>
       <c r="F49">
-        <v>3.1780085364211723E-2</v>
+        <v>3.034932294482378E-2</v>
       </c>
       <c r="G49">
-        <v>0.13324316411809101</v>
+        <v>0.12526287892849591</v>
       </c>
       <c r="H49">
-        <v>-0.1588929993566435</v>
+        <v>-0.1605040288970766</v>
       </c>
       <c r="I49" s="14">
-        <v>-0.13590161799974229</v>
+        <v>-0.13762837390166541</v>
       </c>
       <c r="J49">
-        <v>-9.4821639260371279E-2</v>
+        <v>-9.9951194632917878E-2</v>
       </c>
       <c r="K49" s="14">
-        <v>-0.18413775984454581</v>
+        <v>-0.18719046667354819</v>
       </c>
       <c r="L49" s="14">
-        <v>-1.823123135068536E-2</v>
+        <v>-2.3966171073378419E-2</v>
       </c>
       <c r="M49" s="14">
-        <v>-0.16103122670275261</v>
+        <v>-0.16485791112159071</v>
       </c>
       <c r="N49">
-        <v>-6.4719082310363316E-2</v>
+        <v>-6.0841518478458582E-2</v>
       </c>
       <c r="O49" s="14">
-        <v>0.21372946679453941</v>
+        <v>0.2183327761228078</v>
       </c>
       <c r="P49">
-        <v>0.2404141307388282</v>
+        <v>0.24274831386244869</v>
       </c>
       <c r="Q49">
-        <v>-0.16473995066539041</v>
+        <v>-0.15963616180782411</v>
       </c>
       <c r="R49">
-        <v>-9.9270454684014416E-3</v>
+        <v>-1.50318740522163E-2</v>
       </c>
       <c r="S49" s="14">
-        <v>0.18574022663908341</v>
+        <v>0.18612361129666369</v>
       </c>
       <c r="T49">
-        <v>1.0482130814969581E-2</v>
+        <v>1.1245837016278929E-2</v>
       </c>
       <c r="U49">
-        <v>-6.123995584416253E-2</v>
+        <v>-6.2981334047702758E-2</v>
       </c>
       <c r="V49" s="14">
-        <v>-5.0870085872000002E-2</v>
+        <v>-5.4555059838367552E-2</v>
       </c>
       <c r="W49">
-        <v>-7.1139795281959614E-2</v>
+        <v>-7.1050611381487758E-2</v>
       </c>
       <c r="X49" s="14">
-        <v>8.1535727375991712E-2</v>
+        <v>8.587227291144571E-2</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -9980,73 +9843,73 @@
         <v>4</v>
       </c>
       <c r="B50" s="14">
-        <v>3.8765881196248783E-2</v>
+        <v>3.9208221126227502E-2</v>
       </c>
       <c r="C50" s="14">
-        <v>-0.16594422364388339</v>
+        <v>-0.16252399936327289</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="14">
-        <v>0.3937092311458022</v>
+        <v>0.38806036317842302</v>
       </c>
       <c r="F50" s="14">
-        <v>-0.16477104511716731</v>
+        <v>-0.16527644148836129</v>
       </c>
       <c r="G50" s="14">
-        <v>6.749129753345906E-2</v>
+        <v>7.1550017521407633E-2</v>
       </c>
       <c r="H50" s="14">
-        <v>8.6773177061237161E-2</v>
+        <v>8.3181699540400486E-2</v>
       </c>
       <c r="I50" s="14">
-        <v>-8.3674886817192054E-2</v>
+        <v>-8.2149618530162782E-2</v>
       </c>
       <c r="J50" s="14">
-        <v>-6.3998267954573945E-2</v>
+        <v>-5.4508709075881817E-2</v>
       </c>
       <c r="K50" s="14">
-        <v>6.6954120661917804E-2</v>
+        <v>6.9216025466091305E-2</v>
       </c>
       <c r="L50" s="14">
-        <v>-9.1033586266563202E-2</v>
+        <v>-9.5119143126260644E-2</v>
       </c>
       <c r="M50" s="14">
-        <v>-6.1328150585855903E-2</v>
+        <v>-5.6929386249423709E-2</v>
       </c>
       <c r="N50" s="14">
-        <v>-0.14248483953216501</v>
+        <v>-0.14806424797470069</v>
       </c>
       <c r="O50" s="14">
-        <v>5.3635102072637601E-2</v>
+        <v>5.2182281909433782E-2</v>
       </c>
       <c r="P50" s="14">
-        <v>-0.1108649630770487</v>
+        <v>-0.1067363692665227</v>
       </c>
       <c r="Q50" s="14">
-        <v>0.51633899160326902</v>
+        <v>0.51953420585289545</v>
       </c>
       <c r="R50" s="14">
-        <v>-0.1089322791113146</v>
+        <v>-0.1084739934421452</v>
       </c>
       <c r="S50" s="14">
-        <v>-9.9015209573411131E-2</v>
+        <v>-9.9844260502036486E-2</v>
       </c>
       <c r="T50" s="14">
-        <v>7.3586700421981399E-2</v>
+        <v>6.9576857880913709E-2</v>
       </c>
       <c r="U50" s="14">
-        <v>-4.7882223865839048E-2</v>
+        <v>-4.9096817971125667E-2</v>
       </c>
       <c r="V50" s="14">
-        <v>0.1230084554100962</v>
+        <v>0.12293516643322611</v>
       </c>
       <c r="W50" s="14">
-        <v>-3.2748468078702832E-2</v>
+        <v>-4.0452236186095732E-2</v>
       </c>
       <c r="X50" s="14">
-        <v>-0.14959794064896531</v>
+        <v>-0.1535429869349732</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -10054,73 +9917,73 @@
         <v>10</v>
       </c>
       <c r="B51" s="14">
-        <v>0.10310362057330991</v>
+        <v>0.10054885346062251</v>
       </c>
       <c r="C51" s="14">
-        <v>-0.19159845745060991</v>
+        <v>-0.18446855804912499</v>
       </c>
       <c r="D51" s="14">
-        <v>0.3937092311458022</v>
+        <v>0.38806036317842302</v>
       </c>
       <c r="E51" s="14">
         <v>1</v>
       </c>
       <c r="F51" s="14">
-        <v>-1.7444452234075682E-2</v>
+        <v>-1.561196977740413E-2</v>
       </c>
       <c r="G51" s="14">
-        <v>-1.110522927200638E-2</v>
+        <v>-6.4125288214637059E-3</v>
       </c>
       <c r="H51" s="14">
-        <v>9.3599330086227173E-2</v>
+        <v>8.6592935493237461E-2</v>
       </c>
       <c r="I51" s="14">
-        <v>4.8845810389402361E-2</v>
+        <v>5.0511337481029733E-2</v>
       </c>
       <c r="J51" s="14">
-        <v>-6.4800892227440565E-2</v>
+        <v>-6.2500403936624885E-2</v>
       </c>
       <c r="K51" s="14">
-        <v>0.21836859933998951</v>
+        <v>0.21824335618072721</v>
       </c>
       <c r="L51" s="14">
-        <v>-1.106716854842715E-2</v>
+        <v>-1.3098629785602689E-2</v>
       </c>
       <c r="M51" s="14">
-        <v>5.7452047728093272E-2</v>
+        <v>5.3236991833142087E-2</v>
       </c>
       <c r="N51" s="14">
-        <v>-0.1017707294568496</v>
+        <v>-0.1106596109239732</v>
       </c>
       <c r="O51" s="14">
-        <v>8.5479592740025645E-2</v>
+        <v>8.8323170135251372E-2</v>
       </c>
       <c r="P51" s="14">
-        <v>-0.13967158661693149</v>
+        <v>-0.13906266133008299</v>
       </c>
       <c r="Q51" s="14">
-        <v>0.37696933847880332</v>
+        <v>0.3735904057892383</v>
       </c>
       <c r="R51" s="14">
-        <v>-3.1785114209703411E-2</v>
+        <v>-3.5307820727592559E-2</v>
       </c>
       <c r="S51" s="14">
-        <v>-9.6647023639803251E-2</v>
+        <v>-9.3025826201604281E-2</v>
       </c>
       <c r="T51" s="14">
-        <v>4.8111966991307119E-2</v>
+        <v>4.5820770830932209E-2</v>
       </c>
       <c r="U51" s="14">
-        <v>1.6881052262240581E-2</v>
+        <v>1.8064591507196099E-2</v>
       </c>
       <c r="V51" s="14">
-        <v>9.5739806751386949E-2</v>
+        <v>9.8018983918652727E-2</v>
       </c>
       <c r="W51" s="14">
-        <v>1.09430165515314E-2</v>
+        <v>1.139988938051311E-2</v>
       </c>
       <c r="X51" s="14">
-        <v>-0.16137216877414179</v>
+        <v>-0.16573505542430461</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -10128,73 +9991,73 @@
         <v>11</v>
       </c>
       <c r="B52" s="14">
-        <v>2.50676840370101E-2</v>
+        <v>2.9746642741857801E-2</v>
       </c>
       <c r="C52">
-        <v>3.1780085364211723E-2</v>
+        <v>3.034932294482378E-2</v>
       </c>
       <c r="D52" s="14">
-        <v>-0.16477104511716731</v>
+        <v>-0.16527644148836129</v>
       </c>
       <c r="E52" s="14">
-        <v>-1.7444452234075682E-2</v>
+        <v>-1.561196977740413E-2</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>-0.1025703582654419</v>
+        <v>-0.107106122654923</v>
       </c>
       <c r="H52">
-        <v>-8.8825470271735513E-2</v>
+        <v>-8.5321970240029313E-2</v>
       </c>
       <c r="I52" s="14">
-        <v>3.9677487780253533E-2</v>
+        <v>4.0688599024606878E-2</v>
       </c>
       <c r="J52">
-        <v>0.14338090497801079</v>
+        <v>0.13793306809312561</v>
       </c>
       <c r="K52" s="14">
-        <v>1.0064040301030509E-2</v>
+        <v>7.5787850078515226E-3</v>
       </c>
       <c r="L52" s="14">
-        <v>6.6502539866227811E-2</v>
+        <v>6.5426192385453372E-2</v>
       </c>
       <c r="M52" s="14">
-        <v>8.2743654492289431E-2</v>
+        <v>8.3223742403792267E-2</v>
       </c>
       <c r="N52">
-        <v>0.2116712719142603</v>
+        <v>0.2123100299950188</v>
       </c>
       <c r="O52" s="14">
-        <v>-0.16028287423658041</v>
+        <v>-0.1571983413998661</v>
       </c>
       <c r="P52">
-        <v>4.6868977937993231E-2</v>
+        <v>4.3138130387965962E-2</v>
       </c>
       <c r="Q52">
-        <v>-0.15633663996267019</v>
+        <v>-0.1524330778905541</v>
       </c>
       <c r="R52">
-        <v>8.1505823664476423E-2</v>
+        <v>8.1960762826047764E-2</v>
       </c>
       <c r="S52" s="14">
-        <v>2.3060224914834931E-2</v>
+        <v>2.2363826647809708E-2</v>
       </c>
       <c r="T52">
-        <v>-7.7742970949390144E-2</v>
+        <v>-8.2311046789704037E-2</v>
       </c>
       <c r="U52">
-        <v>6.8377579274922065E-2</v>
+        <v>6.584459088322181E-2</v>
       </c>
       <c r="V52" s="14">
-        <v>-0.27793570624498359</v>
+        <v>-0.27512392343363989</v>
       </c>
       <c r="W52">
-        <v>-4.252764104902889E-2</v>
+        <v>-4.3158218220699401E-2</v>
       </c>
       <c r="X52" s="14">
-        <v>0.18495324312834349</v>
+        <v>0.1797298776755977</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -10202,73 +10065,73 @@
         <v>12</v>
       </c>
       <c r="B53" s="14">
-        <v>-0.1240683217221162</v>
+        <v>-0.1190286884053835</v>
       </c>
       <c r="C53">
-        <v>0.13324316411809101</v>
+        <v>0.12526287892849591</v>
       </c>
       <c r="D53" s="14">
-        <v>6.749129753345906E-2</v>
+        <v>7.1550017521407633E-2</v>
       </c>
       <c r="E53" s="14">
-        <v>-1.110522927200638E-2</v>
+        <v>-6.4125288214637059E-3</v>
       </c>
       <c r="F53">
-        <v>-0.1025703582654419</v>
+        <v>-0.107106122654923</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>-4.9555287681310171E-2</v>
+        <v>-5.9340642319897698E-2</v>
       </c>
       <c r="I53" s="14">
-        <v>-5.9481509686605288E-2</v>
+        <v>-5.9610432886445353E-2</v>
       </c>
       <c r="J53">
-        <v>-8.4935552408593143E-2</v>
+        <v>-8.7772972988717349E-2</v>
       </c>
       <c r="K53" s="14">
-        <v>-4.8705249493857537E-2</v>
+        <v>-4.9038355507988157E-2</v>
       </c>
       <c r="L53" s="14">
-        <v>1.6729707070558451E-2</v>
+        <v>2.4592787674080661E-2</v>
       </c>
       <c r="M53" s="14">
-        <v>-0.15285840431540579</v>
+        <v>-0.15310354614205929</v>
       </c>
       <c r="N53">
-        <v>-0.23868486256944771</v>
+        <v>-0.24140849250650609</v>
       </c>
       <c r="O53" s="14">
-        <v>0.13625669163412671</v>
+        <v>0.13803430865712851</v>
       </c>
       <c r="P53">
-        <v>4.0369978843909367E-2</v>
+        <v>4.0828887718334983E-2</v>
       </c>
       <c r="Q53">
-        <v>4.955333063480253E-2</v>
+        <v>5.0504450678870771E-2</v>
       </c>
       <c r="R53">
-        <v>3.9142214147888738E-2</v>
+        <v>3.6720686899801132E-2</v>
       </c>
       <c r="S53" s="14">
-        <v>5.9484598238988683E-2</v>
+        <v>5.6527678202311582E-2</v>
       </c>
       <c r="T53">
-        <v>0.2163664193155172</v>
+        <v>0.21080070779115931</v>
       </c>
       <c r="U53">
-        <v>-1.9987906611046188E-3</v>
+        <v>-3.7798515879034817E-4</v>
       </c>
       <c r="V53" s="14">
-        <v>1.072743307583247E-2</v>
+        <v>7.8270529478005058E-3</v>
       </c>
       <c r="W53">
-        <v>-0.15665920734951011</v>
+        <v>-0.1627897385092042</v>
       </c>
       <c r="X53" s="14">
-        <v>-2.0581445074986649E-2</v>
+        <v>-2.273158211910532E-2</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -10276,73 +10139,73 @@
         <v>13</v>
       </c>
       <c r="B54" s="14">
-        <v>0.20154002084972519</v>
+        <v>0.20265588439287971</v>
       </c>
       <c r="C54">
-        <v>-0.1588929993566435</v>
+        <v>-0.1605040288970766</v>
       </c>
       <c r="D54" s="14">
-        <v>8.6773177061237161E-2</v>
+        <v>8.3181699540400486E-2</v>
       </c>
       <c r="E54" s="14">
-        <v>9.3599330086227173E-2</v>
+        <v>8.6592935493237461E-2</v>
       </c>
       <c r="F54">
-        <v>-8.8825470271735513E-2</v>
+        <v>-8.5321970240029313E-2</v>
       </c>
       <c r="G54">
-        <v>-4.9555287681310171E-2</v>
+        <v>-5.9340642319897698E-2</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="14">
-        <v>0.38451280535789573</v>
+        <v>0.38583909441768233</v>
       </c>
       <c r="J54">
-        <v>-1.851781681925864E-2</v>
+        <v>-2.128189587790422E-2</v>
       </c>
       <c r="K54" s="14">
-        <v>0.36703881566092489</v>
+        <v>0.36485186348717902</v>
       </c>
       <c r="L54" s="14">
-        <v>5.3831671611794659E-3</v>
+        <v>5.7966260427082562E-3</v>
       </c>
       <c r="M54" s="14">
-        <v>9.0338578412944334E-2</v>
+        <v>8.9838125701358129E-2</v>
       </c>
       <c r="N54">
-        <v>-2.7928813480680709E-4</v>
+        <v>2.3133693597465108E-3</v>
       </c>
       <c r="O54" s="14">
-        <v>-4.0494576582652778E-2</v>
+        <v>-4.1885664820895438E-2</v>
       </c>
       <c r="P54">
-        <v>-0.1919958065818631</v>
+        <v>-0.1939715910740801</v>
       </c>
       <c r="Q54">
-        <v>9.6244598350325325E-2</v>
+        <v>9.3960317638610291E-2</v>
       </c>
       <c r="R54">
-        <v>-1.492358163074485E-2</v>
+        <v>-1.7708105199397878E-2</v>
       </c>
       <c r="S54" s="14">
-        <v>-0.17153915092112459</v>
+        <v>-0.1783286594669804</v>
       </c>
       <c r="T54">
-        <v>4.6691915148049188E-3</v>
+        <v>8.141811015932068E-4</v>
       </c>
       <c r="U54">
-        <v>4.1327314412042029E-2</v>
+        <v>4.1335833489297077E-2</v>
       </c>
       <c r="V54" s="14">
-        <v>3.8073586254585637E-2</v>
+        <v>4.488902142332702E-2</v>
       </c>
       <c r="W54">
-        <v>-2.671046812049865E-2</v>
+        <v>-2.4985074307953489E-2</v>
       </c>
       <c r="X54" s="14">
-        <v>-2.8380624446991801E-2</v>
+        <v>-3.0465162211791311E-2</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -10350,73 +10213,73 @@
         <v>14</v>
       </c>
       <c r="B55" s="14">
-        <v>0.22448924933899281</v>
+        <v>0.2245508156386252</v>
       </c>
       <c r="C55" s="14">
-        <v>-0.13590161799974229</v>
+        <v>-0.13762837390166541</v>
       </c>
       <c r="D55" s="14">
-        <v>-8.3674886817192054E-2</v>
+        <v>-8.2149618530162782E-2</v>
       </c>
       <c r="E55" s="14">
-        <v>4.8845810389402361E-2</v>
+        <v>5.0511337481029733E-2</v>
       </c>
       <c r="F55" s="14">
-        <v>3.9677487780253533E-2</v>
+        <v>4.0688599024606878E-2</v>
       </c>
       <c r="G55" s="14">
-        <v>-5.9481509686605288E-2</v>
+        <v>-5.9610432886445353E-2</v>
       </c>
       <c r="H55" s="14">
-        <v>0.38451280535789573</v>
+        <v>0.38583909441768233</v>
       </c>
       <c r="I55" s="14">
         <v>1</v>
       </c>
       <c r="J55" s="14">
-        <v>5.3426502599198011E-2</v>
+        <v>4.7911236101567813E-2</v>
       </c>
       <c r="K55" s="14">
-        <v>0.4110876095477542</v>
+        <v>0.4108511136444567</v>
       </c>
       <c r="L55" s="14">
-        <v>8.1917711642652699E-2</v>
+        <v>7.8596064687775594E-2</v>
       </c>
       <c r="M55" s="14">
-        <v>0.174290094998102</v>
+        <v>0.16853845070000731</v>
       </c>
       <c r="N55" s="14">
-        <v>1.807801528670424E-2</v>
+        <v>1.8128909552688401E-2</v>
       </c>
       <c r="O55" s="14">
-        <v>-7.8898934627798067E-2</v>
+        <v>-8.1189125212919724E-2</v>
       </c>
       <c r="P55" s="14">
-        <v>-0.16851123940326221</v>
+        <v>-0.1711130421645394</v>
       </c>
       <c r="Q55" s="14">
-        <v>-6.4329225748121541E-2</v>
+        <v>-6.1693147173659563E-2</v>
       </c>
       <c r="R55" s="14">
-        <v>7.4193103377846931E-2</v>
+        <v>7.2357930169486759E-2</v>
       </c>
       <c r="S55" s="14">
-        <v>-0.12341979141886281</v>
+        <v>-0.12552007136172541</v>
       </c>
       <c r="T55" s="14">
-        <v>1.1601060550807341E-2</v>
+        <v>1.061002045127811E-2</v>
       </c>
       <c r="U55" s="14">
-        <v>8.432036723016692E-2</v>
+        <v>8.5300905656760156E-2</v>
       </c>
       <c r="V55" s="14">
-        <v>-1.8012236004081399E-2</v>
+        <v>-1.2717827154062181E-2</v>
       </c>
       <c r="W55" s="14">
-        <v>1.4402635806295361E-2</v>
+        <v>1.5162953506500491E-2</v>
       </c>
       <c r="X55" s="14">
-        <v>-1.7249226055090629E-2</v>
+        <v>-2.3402346091531311E-2</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -10424,73 +10287,73 @@
         <v>15</v>
       </c>
       <c r="B56" s="14">
-        <v>0.127729567213234</v>
+        <v>0.1262112354393794</v>
       </c>
       <c r="C56">
-        <v>-9.4821639260371279E-2</v>
+        <v>-9.9951194632917878E-2</v>
       </c>
       <c r="D56" s="14">
-        <v>-6.3998267954573945E-2</v>
+        <v>-5.4508709075881817E-2</v>
       </c>
       <c r="E56" s="14">
-        <v>-6.4800892227440565E-2</v>
+        <v>-6.2500403936624885E-2</v>
       </c>
       <c r="F56">
-        <v>0.14338090497801079</v>
+        <v>0.13793306809312561</v>
       </c>
       <c r="G56">
-        <v>-8.4935552408593143E-2</v>
+        <v>-8.7772972988717349E-2</v>
       </c>
       <c r="H56">
-        <v>-1.851781681925864E-2</v>
+        <v>-2.128189587790422E-2</v>
       </c>
       <c r="I56" s="14">
-        <v>5.3426502599198011E-2</v>
+        <v>4.7911236101567813E-2</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" s="14">
-        <v>2.047199712390748E-2</v>
+        <v>1.300292436572547E-2</v>
       </c>
       <c r="L56" s="14">
-        <v>4.8308548012342897E-2</v>
+        <v>4.68984687024172E-2</v>
       </c>
       <c r="M56" s="14">
-        <v>0.3389168996468343</v>
+        <v>0.33219858506455963</v>
       </c>
       <c r="N56">
-        <v>0.15922808125051291</v>
+        <v>0.15810616209430131</v>
       </c>
       <c r="O56" s="14">
-        <v>-0.324243374336253</v>
+        <v>-0.32548393126149938</v>
       </c>
       <c r="P56">
-        <v>2.3840171321836211E-2</v>
+        <v>2.379014056509399E-2</v>
       </c>
       <c r="Q56">
-        <v>-5.2206271353872978E-2</v>
+        <v>-4.0305481553159467E-2</v>
       </c>
       <c r="R56">
-        <v>5.8625241835233842E-2</v>
+        <v>6.2618113861771255E-2</v>
       </c>
       <c r="S56" s="14">
-        <v>3.8973030225623068E-2</v>
+        <v>4.1438481786824348E-2</v>
       </c>
       <c r="T56">
-        <v>-7.3040352300774547E-2</v>
+        <v>-7.548968808212364E-2</v>
       </c>
       <c r="U56">
-        <v>5.2578136137342392E-2</v>
+        <v>4.9693614707333557E-2</v>
       </c>
       <c r="V56" s="14">
-        <v>-0.15848012445119289</v>
+        <v>-0.15770745452282739</v>
       </c>
       <c r="W56">
-        <v>4.8979133154731007E-2</v>
+        <v>5.1980856999410643E-2</v>
       </c>
       <c r="X56" s="14">
-        <v>0.14668665684003249</v>
+        <v>0.13939151031698929</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -10498,73 +10361,73 @@
         <v>16</v>
       </c>
       <c r="B57" s="14">
-        <v>0.2335739591475389</v>
+        <v>0.23131570847335151</v>
       </c>
       <c r="C57" s="14">
-        <v>-0.18413775984454581</v>
+        <v>-0.18719046667354819</v>
       </c>
       <c r="D57" s="14">
-        <v>6.6954120661917804E-2</v>
+        <v>6.9216025466091305E-2</v>
       </c>
       <c r="E57" s="14">
-        <v>0.21836859933998951</v>
+        <v>0.21824335618072721</v>
       </c>
       <c r="F57" s="14">
-        <v>1.0064040301030509E-2</v>
+        <v>7.5787850078515226E-3</v>
       </c>
       <c r="G57" s="14">
-        <v>-4.8705249493857537E-2</v>
+        <v>-4.9038355507988157E-2</v>
       </c>
       <c r="H57" s="14">
-        <v>0.36703881566092489</v>
+        <v>0.36485186348717902</v>
       </c>
       <c r="I57" s="14">
-        <v>0.4110876095477542</v>
+        <v>0.4108511136444567</v>
       </c>
       <c r="J57" s="14">
-        <v>2.047199712390748E-2</v>
+        <v>1.300292436572547E-2</v>
       </c>
       <c r="K57" s="14">
         <v>1</v>
       </c>
       <c r="L57" s="14">
-        <v>4.6609495621495488E-2</v>
+        <v>4.4872676889957622E-2</v>
       </c>
       <c r="M57" s="14">
-        <v>0.16682721798653549</v>
+        <v>0.1590349781298675</v>
       </c>
       <c r="N57" s="14">
-        <v>-3.2341294215647368E-2</v>
+        <v>-3.668130912945175E-2</v>
       </c>
       <c r="O57" s="14">
-        <v>-3.789591040141408E-2</v>
+        <v>-3.7195347810591042E-2</v>
       </c>
       <c r="P57" s="14">
-        <v>-0.1734339124309828</v>
+        <v>-0.17595873255177441</v>
       </c>
       <c r="Q57" s="14">
-        <v>7.6065736782383903E-2</v>
+        <v>7.9097523543150833E-2</v>
       </c>
       <c r="R57" s="14">
-        <v>3.6244126381982787E-2</v>
+        <v>3.5143134436290593E-2</v>
       </c>
       <c r="S57" s="14">
-        <v>-0.13755422320907651</v>
+        <v>-0.13760658898848291</v>
       </c>
       <c r="T57" s="14">
-        <v>1.9430648136027559E-2</v>
+        <v>1.9108540710776951E-2</v>
       </c>
       <c r="U57" s="14">
-        <v>6.4900967211776572E-2</v>
+        <v>6.4489341160117813E-2</v>
       </c>
       <c r="V57" s="14">
-        <v>4.0402438387882843E-2</v>
+        <v>4.5739550423640939E-2</v>
       </c>
       <c r="W57" s="14">
-        <v>2.1139755376094228E-2</v>
+        <v>1.7955741814785289E-2</v>
       </c>
       <c r="X57" s="14">
-        <v>-8.5539316586107514E-2</v>
+        <v>-8.8282702933609875E-2</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -10572,73 +10435,73 @@
         <v>17</v>
       </c>
       <c r="B58" s="14">
-        <v>4.1045063066549627E-2</v>
+        <v>4.7560031976575753E-2</v>
       </c>
       <c r="C58" s="14">
-        <v>-1.823123135068536E-2</v>
+        <v>-2.3966171073378419E-2</v>
       </c>
       <c r="D58" s="14">
-        <v>-9.1033586266563202E-2</v>
+        <v>-9.5119143126260644E-2</v>
       </c>
       <c r="E58" s="14">
-        <v>-1.106716854842715E-2</v>
+        <v>-1.3098629785602689E-2</v>
       </c>
       <c r="F58" s="14">
-        <v>6.6502539866227811E-2</v>
+        <v>6.5426192385453372E-2</v>
       </c>
       <c r="G58" s="14">
-        <v>1.6729707070558451E-2</v>
+        <v>2.4592787674080661E-2</v>
       </c>
       <c r="H58" s="14">
-        <v>5.3831671611794659E-3</v>
+        <v>5.7966260427082562E-3</v>
       </c>
       <c r="I58" s="14">
-        <v>8.1917711642652699E-2</v>
+        <v>7.8596064687775594E-2</v>
       </c>
       <c r="J58" s="14">
-        <v>4.8308548012342897E-2</v>
+        <v>4.68984687024172E-2</v>
       </c>
       <c r="K58" s="14">
-        <v>4.6609495621495488E-2</v>
+        <v>4.4872676889957622E-2</v>
       </c>
       <c r="L58" s="14">
         <v>1</v>
       </c>
       <c r="M58" s="14">
-        <v>7.5593230314625365E-2</v>
+        <v>6.9490373286757834E-2</v>
       </c>
       <c r="N58" s="14">
-        <v>-1.9599057216627431E-3</v>
+        <v>-2.6969403185149129E-3</v>
       </c>
       <c r="O58" s="14">
-        <v>-2.8916014546217051E-2</v>
+        <v>-2.846602186209999E-2</v>
       </c>
       <c r="P58" s="14">
-        <v>4.1383456206040793E-3</v>
+        <v>-1.568939690182536E-3</v>
       </c>
       <c r="Q58" s="14">
-        <v>-8.3609571693629647E-2</v>
+        <v>-8.5425096213795237E-2</v>
       </c>
       <c r="R58" s="14">
-        <v>0.27698908935499089</v>
+        <v>0.28262121581424898</v>
       </c>
       <c r="S58" s="14">
-        <v>5.4936229717480606E-3</v>
+        <v>5.1602069835684989E-3</v>
       </c>
       <c r="T58" s="14">
-        <v>2.8243527165587201E-2</v>
+        <v>2.9158877164817479E-2</v>
       </c>
       <c r="U58" s="14">
-        <v>0.31714853461676662</v>
+        <v>0.32149067722688712</v>
       </c>
       <c r="V58" s="14">
-        <v>-3.988356159728796E-2</v>
+        <v>-3.8388918467874601E-2</v>
       </c>
       <c r="W58" s="14">
-        <v>-1.023285931755934E-2</v>
+        <v>-1.168549542734058E-2</v>
       </c>
       <c r="X58" s="14">
-        <v>1.462849170605041E-2</v>
+        <v>9.7764512507863138E-3</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -10646,73 +10509,73 @@
         <v>19</v>
       </c>
       <c r="B59" s="14">
-        <v>0.21348372743469229</v>
+        <v>0.21029198112492181</v>
       </c>
       <c r="C59" s="14">
-        <v>-0.16103122670275261</v>
+        <v>-0.16485791112159071</v>
       </c>
       <c r="D59" s="14">
-        <v>-6.1328150585855903E-2</v>
+        <v>-5.6929386249423709E-2</v>
       </c>
       <c r="E59" s="14">
-        <v>5.7452047728093272E-2</v>
+        <v>5.3236991833142087E-2</v>
       </c>
       <c r="F59" s="14">
-        <v>8.2743654492289431E-2</v>
+        <v>8.3223742403792267E-2</v>
       </c>
       <c r="G59" s="14">
-        <v>-0.15285840431540579</v>
+        <v>-0.15310354614205929</v>
       </c>
       <c r="H59" s="14">
-        <v>9.0338578412944334E-2</v>
+        <v>8.9838125701358129E-2</v>
       </c>
       <c r="I59" s="14">
-        <v>0.174290094998102</v>
+        <v>0.16853845070000731</v>
       </c>
       <c r="J59" s="14">
-        <v>0.3389168996468343</v>
+        <v>0.33219858506455963</v>
       </c>
       <c r="K59" s="14">
-        <v>0.16682721798653549</v>
+        <v>0.1590349781298675</v>
       </c>
       <c r="L59" s="14">
-        <v>7.5593230314625365E-2</v>
+        <v>6.9490373286757834E-2</v>
       </c>
       <c r="M59" s="14">
         <v>1</v>
       </c>
       <c r="N59" s="14">
-        <v>0.12066557576281139</v>
+        <v>0.1203791872264821</v>
       </c>
       <c r="O59" s="14">
-        <v>-0.26613411576519042</v>
+        <v>-0.26781557090487751</v>
       </c>
       <c r="P59" s="14">
-        <v>-4.7652875736835118E-2</v>
+        <v>-4.6224121817428188E-2</v>
       </c>
       <c r="Q59" s="14">
-        <v>-5.4657118345925543E-2</v>
+        <v>-5.5316544751005697E-2</v>
       </c>
       <c r="R59" s="14">
-        <v>4.578199743103132E-2</v>
+        <v>5.0230135380452408E-2</v>
       </c>
       <c r="S59" s="14">
-        <v>2.4832635575145058E-3</v>
+        <v>-9.7267419356309468E-4</v>
       </c>
       <c r="T59" s="14">
-        <v>-5.7203845523940387E-2</v>
+        <v>-5.8765907242077489E-2</v>
       </c>
       <c r="U59" s="14">
-        <v>7.5051070358091262E-2</v>
+        <v>7.6238008933324081E-2</v>
       </c>
       <c r="V59" s="14">
-        <v>-2.5320829559138749E-2</v>
+        <v>-2.162910901546531E-2</v>
       </c>
       <c r="W59" s="14">
-        <v>0.100842758956742</v>
+        <v>0.1007360365083079</v>
       </c>
       <c r="X59" s="14">
-        <v>-5.9128179153738244E-3</v>
+        <v>-7.9302732650694038E-3</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -10720,73 +10583,73 @@
         <v>20</v>
       </c>
       <c r="B60" s="14">
-        <v>0.1232799394662013</v>
+        <v>0.122611130067018</v>
       </c>
       <c r="C60">
-        <v>-6.4719082310363316E-2</v>
+        <v>-6.0841518478458582E-2</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.14248483953216501</v>
+        <v>-0.14806424797470069</v>
       </c>
       <c r="E60" s="14">
-        <v>-0.1017707294568496</v>
+        <v>-0.1106596109239732</v>
       </c>
       <c r="F60">
-        <v>0.2116712719142603</v>
+        <v>0.2123100299950188</v>
       </c>
       <c r="G60">
-        <v>-0.23868486256944771</v>
+        <v>-0.24140849250650609</v>
       </c>
       <c r="H60">
-        <v>-2.7928813480680709E-4</v>
+        <v>2.3133693597465108E-3</v>
       </c>
       <c r="I60" s="14">
-        <v>1.807801528670424E-2</v>
+        <v>1.8128909552688401E-2</v>
       </c>
       <c r="J60">
-        <v>0.15922808125051291</v>
+        <v>0.15810616209430131</v>
       </c>
       <c r="K60" s="14">
-        <v>-3.2341294215647368E-2</v>
+        <v>-3.668130912945175E-2</v>
       </c>
       <c r="L60" s="14">
-        <v>-1.9599057216627431E-3</v>
+        <v>-2.6969403185149129E-3</v>
       </c>
       <c r="M60" s="14">
-        <v>0.12066557576281139</v>
+        <v>0.1203791872264821</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60" s="14">
-        <v>-0.18855159001377991</v>
+        <v>-0.1868294938898063</v>
       </c>
       <c r="P60">
-        <v>4.9222118310631377E-2</v>
+        <v>4.7754045093456217E-2</v>
       </c>
       <c r="Q60">
-        <v>-0.103698342794782</v>
+        <v>-0.1035072310202461</v>
       </c>
       <c r="R60">
-        <v>1.1587331988584719E-3</v>
+        <v>2.3673538615968221E-3</v>
       </c>
       <c r="S60" s="14">
-        <v>3.7671084328243343E-2</v>
+        <v>3.7015483136730663E-2</v>
       </c>
       <c r="T60">
-        <v>-0.1315965272369784</v>
+        <v>-0.1330917800585823</v>
       </c>
       <c r="U60">
-        <v>1.1882649177833251E-3</v>
+        <v>3.2356867392890629E-3</v>
       </c>
       <c r="V60" s="14">
-        <v>-0.17993484389482101</v>
+        <v>-0.18203428487924589</v>
       </c>
       <c r="W60">
-        <v>1.928345916355061E-2</v>
+        <v>2.3817343731975631E-2</v>
       </c>
       <c r="X60" s="14">
-        <v>0.27742377646599842</v>
+        <v>0.2786310469845365</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -10794,73 +10657,73 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <v>-0.22116267708491191</v>
+        <v>-0.22074224948199531</v>
       </c>
       <c r="C61" s="14">
-        <v>0.21372946679453941</v>
+        <v>0.2183327761228078</v>
       </c>
       <c r="D61" s="14">
-        <v>5.3635102072637601E-2</v>
+        <v>5.2182281909433782E-2</v>
       </c>
       <c r="E61" s="14">
-        <v>8.5479592740025645E-2</v>
+        <v>8.8323170135251372E-2</v>
       </c>
       <c r="F61" s="14">
-        <v>-0.16028287423658041</v>
+        <v>-0.1571983413998661</v>
       </c>
       <c r="G61" s="14">
-        <v>0.13625669163412671</v>
+        <v>0.13803430865712851</v>
       </c>
       <c r="H61" s="14">
-        <v>-4.0494576582652778E-2</v>
+        <v>-4.1885664820895438E-2</v>
       </c>
       <c r="I61" s="14">
-        <v>-7.8898934627798067E-2</v>
+        <v>-8.1189125212919724E-2</v>
       </c>
       <c r="J61" s="14">
-        <v>-0.324243374336253</v>
+        <v>-0.32548393126149938</v>
       </c>
       <c r="K61" s="14">
-        <v>-3.789591040141408E-2</v>
+        <v>-3.7195347810591042E-2</v>
       </c>
       <c r="L61" s="14">
-        <v>-2.8916014546217051E-2</v>
+        <v>-2.846602186209999E-2</v>
       </c>
       <c r="M61" s="14">
-        <v>-0.26613411576519042</v>
+        <v>-0.26781557090487751</v>
       </c>
       <c r="N61" s="14">
-        <v>-0.18855159001377991</v>
+        <v>-0.1868294938898063</v>
       </c>
       <c r="O61" s="14">
         <v>1</v>
       </c>
       <c r="P61" s="14">
-        <v>2.956655358049631E-2</v>
+        <v>2.8887638997858432E-2</v>
       </c>
       <c r="Q61" s="14">
-        <v>3.637625638365085E-2</v>
+        <v>3.2605805939030813E-2</v>
       </c>
       <c r="R61" s="14">
-        <v>-4.5232040881409488E-2</v>
+        <v>-4.6258874350224473E-2</v>
       </c>
       <c r="S61" s="14">
-        <v>2.9851383728212139E-2</v>
+        <v>3.5025542731714827E-2</v>
       </c>
       <c r="T61" s="14">
-        <v>7.4240549174401191E-2</v>
+        <v>7.7936395635971059E-2</v>
       </c>
       <c r="U61" s="14">
-        <v>-2.4421886411421879E-2</v>
+        <v>-2.5498696467048689E-2</v>
       </c>
       <c r="V61" s="14">
-        <v>0.1970722535658273</v>
+        <v>0.19389157154535769</v>
       </c>
       <c r="W61" s="14">
-        <v>-1.7232098239151769E-2</v>
+        <v>-2.7583026078743831E-2</v>
       </c>
       <c r="X61" s="14">
-        <v>-0.1640239568781148</v>
+        <v>-0.15884907576418339</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -10868,73 +10731,73 @@
         <v>22</v>
       </c>
       <c r="B62" s="14">
-        <v>-0.1342813671830736</v>
+        <v>-0.1375464709496865</v>
       </c>
       <c r="C62">
-        <v>0.2404141307388282</v>
+        <v>0.24274831386244869</v>
       </c>
       <c r="D62" s="14">
-        <v>-0.1108649630770487</v>
+        <v>-0.1067363692665227</v>
       </c>
       <c r="E62" s="14">
-        <v>-0.13967158661693149</v>
+        <v>-0.13906266133008299</v>
       </c>
       <c r="F62">
-        <v>4.6868977937993231E-2</v>
+        <v>4.3138130387965962E-2</v>
       </c>
       <c r="G62">
-        <v>4.0369978843909367E-2</v>
+        <v>4.0828887718334983E-2</v>
       </c>
       <c r="H62">
-        <v>-0.1919958065818631</v>
+        <v>-0.1939715910740801</v>
       </c>
       <c r="I62" s="14">
-        <v>-0.16851123940326221</v>
+        <v>-0.1711130421645394</v>
       </c>
       <c r="J62">
-        <v>2.3840171321836211E-2</v>
+        <v>2.379014056509399E-2</v>
       </c>
       <c r="K62" s="14">
-        <v>-0.1734339124309828</v>
+        <v>-0.17595873255177441</v>
       </c>
       <c r="L62" s="14">
-        <v>4.1383456206040793E-3</v>
+        <v>-1.568939690182536E-3</v>
       </c>
       <c r="M62" s="14">
-        <v>-4.7652875736835118E-2</v>
+        <v>-4.6224121817428188E-2</v>
       </c>
       <c r="N62">
-        <v>4.9222118310631377E-2</v>
+        <v>4.7754045093456217E-2</v>
       </c>
       <c r="O62" s="14">
-        <v>2.956655358049631E-2</v>
+        <v>2.8887638997858432E-2</v>
       </c>
       <c r="P62">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>-0.11009625864656911</v>
+        <v>-0.1088731746243381</v>
       </c>
       <c r="R62">
-        <v>7.2220147009288659E-3</v>
+        <v>5.2037387048194427E-3</v>
       </c>
       <c r="S62" s="14">
-        <v>0.38062545186028762</v>
+        <v>0.37929437874659949</v>
       </c>
       <c r="T62">
-        <v>-4.3026141113010119E-2</v>
+        <v>-3.7369417668192753E-2</v>
       </c>
       <c r="U62">
-        <v>-3.8993818075712443E-2</v>
+        <v>-3.7494277165731962E-2</v>
       </c>
       <c r="V62" s="14">
-        <v>-7.5095901364473111E-2</v>
+        <v>-7.0726634866037322E-2</v>
       </c>
       <c r="W62">
-        <v>-4.1558752204095821E-2</v>
+        <v>-3.7420075363185278E-2</v>
       </c>
       <c r="X62" s="14">
-        <v>0.1281674556597141</v>
+        <v>0.12719164542283229</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -10942,73 +10805,73 @@
         <v>24</v>
       </c>
       <c r="B63" s="14">
-        <v>5.370476839399517E-2</v>
+        <v>5.176435782627458E-2</v>
       </c>
       <c r="C63">
-        <v>-0.16473995066539041</v>
+        <v>-0.15963616180782411</v>
       </c>
       <c r="D63" s="14">
-        <v>0.51633899160326902</v>
+        <v>0.51953420585289545</v>
       </c>
       <c r="E63" s="14">
-        <v>0.37696933847880332</v>
+        <v>0.3735904057892383</v>
       </c>
       <c r="F63">
-        <v>-0.15633663996267019</v>
+        <v>-0.1524330778905541</v>
       </c>
       <c r="G63">
-        <v>4.955333063480253E-2</v>
+        <v>5.0504450678870771E-2</v>
       </c>
       <c r="H63">
-        <v>9.6244598350325325E-2</v>
+        <v>9.3960317638610291E-2</v>
       </c>
       <c r="I63" s="14">
-        <v>-6.4329225748121541E-2</v>
+        <v>-6.1693147173659563E-2</v>
       </c>
       <c r="J63">
-        <v>-5.2206271353872978E-2</v>
+        <v>-4.0305481553159467E-2</v>
       </c>
       <c r="K63" s="14">
-        <v>7.6065736782383903E-2</v>
+        <v>7.9097523543150833E-2</v>
       </c>
       <c r="L63" s="14">
-        <v>-8.3609571693629647E-2</v>
+        <v>-8.5425096213795237E-2</v>
       </c>
       <c r="M63" s="14">
-        <v>-5.4657118345925543E-2</v>
+        <v>-5.5316544751005697E-2</v>
       </c>
       <c r="N63">
-        <v>-0.103698342794782</v>
+        <v>-0.1035072310202461</v>
       </c>
       <c r="O63" s="14">
-        <v>3.637625638365085E-2</v>
+        <v>3.2605805939030813E-2</v>
       </c>
       <c r="P63">
-        <v>-0.11009625864656911</v>
+        <v>-0.1088731746243381</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>-9.4906855293869302E-2</v>
+        <v>-9.6696042713469404E-2</v>
       </c>
       <c r="S63" s="14">
-        <v>-8.9933150449372945E-2</v>
+        <v>-8.93448261098609E-2</v>
       </c>
       <c r="T63">
-        <v>5.1373003566907292E-2</v>
+        <v>4.150453290124697E-2</v>
       </c>
       <c r="U63">
-        <v>-4.5722441151799492E-2</v>
+        <v>-4.5687290132462047E-2</v>
       </c>
       <c r="V63" s="14">
-        <v>0.10543957559292649</v>
+        <v>0.10513931120834639</v>
       </c>
       <c r="W63">
-        <v>-1.4115378349411071E-2</v>
+        <v>-1.8163178139466281E-2</v>
       </c>
       <c r="X63" s="14">
-        <v>-0.119148661185463</v>
+        <v>-0.1245972999285731</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -11016,73 +10879,73 @@
         <v>25</v>
       </c>
       <c r="B64" s="14">
-        <v>3.6639484747601543E-2</v>
+        <v>3.7109561731192273E-2</v>
       </c>
       <c r="C64">
-        <v>-9.9270454684014416E-3</v>
+        <v>-1.50318740522163E-2</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.1089322791113146</v>
+        <v>-0.1084739934421452</v>
       </c>
       <c r="E64" s="14">
-        <v>-3.1785114209703411E-2</v>
+        <v>-3.5307820727592559E-2</v>
       </c>
       <c r="F64">
-        <v>8.1505823664476423E-2</v>
+        <v>8.1960762826047764E-2</v>
       </c>
       <c r="G64">
-        <v>3.9142214147888738E-2</v>
+        <v>3.6720686899801132E-2</v>
       </c>
       <c r="H64">
-        <v>-1.492358163074485E-2</v>
+        <v>-1.7708105199397878E-2</v>
       </c>
       <c r="I64" s="14">
-        <v>7.4193103377846931E-2</v>
+        <v>7.2357930169486759E-2</v>
       </c>
       <c r="J64">
-        <v>5.8625241835233842E-2</v>
+        <v>6.2618113861771255E-2</v>
       </c>
       <c r="K64" s="14">
-        <v>3.6244126381982787E-2</v>
+        <v>3.5143134436290593E-2</v>
       </c>
       <c r="L64" s="14">
-        <v>0.27698908935499089</v>
+        <v>0.28262121581424898</v>
       </c>
       <c r="M64" s="14">
-        <v>4.578199743103132E-2</v>
+        <v>5.0230135380452408E-2</v>
       </c>
       <c r="N64">
-        <v>1.1587331988584719E-3</v>
+        <v>2.3673538615968221E-3</v>
       </c>
       <c r="O64" s="14">
-        <v>-4.5232040881409488E-2</v>
+        <v>-4.6258874350224473E-2</v>
       </c>
       <c r="P64">
-        <v>7.2220147009288659E-3</v>
+        <v>5.2037387048194427E-3</v>
       </c>
       <c r="Q64">
-        <v>-9.4906855293869302E-2</v>
+        <v>-9.6696042713469404E-2</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64" s="14">
-        <v>8.6725484609936152E-3</v>
+        <v>1.1175071891003989E-2</v>
       </c>
       <c r="T64">
-        <v>2.5071391539475081E-2</v>
+        <v>2.368123063622353E-2</v>
       </c>
       <c r="U64">
-        <v>0.19484799590176391</v>
+        <v>0.1950832816402315</v>
       </c>
       <c r="V64" s="14">
-        <v>-6.5017553823514637E-2</v>
+        <v>-6.4444754019361075E-2</v>
       </c>
       <c r="W64">
-        <v>-3.0422914026749921E-2</v>
+        <v>-3.3246521216015318E-2</v>
       </c>
       <c r="X64" s="14">
-        <v>3.3579454722379679E-2</v>
+        <v>2.9329863100859891E-2</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -11090,73 +10953,73 @@
         <v>26</v>
       </c>
       <c r="B65" s="14">
-        <v>-0.108249922874552</v>
+        <v>-0.1159204596047715</v>
       </c>
       <c r="C65" s="14">
-        <v>0.18574022663908341</v>
+        <v>0.18612361129666369</v>
       </c>
       <c r="D65" s="14">
-        <v>-9.9015209573411131E-2</v>
+        <v>-9.9844260502036486E-2</v>
       </c>
       <c r="E65" s="14">
-        <v>-9.6647023639803251E-2</v>
+        <v>-9.3025826201604281E-2</v>
       </c>
       <c r="F65" s="14">
-        <v>2.3060224914834931E-2</v>
+        <v>2.2363826647809708E-2</v>
       </c>
       <c r="G65" s="14">
-        <v>5.9484598238988683E-2</v>
+        <v>5.6527678202311582E-2</v>
       </c>
       <c r="H65" s="14">
-        <v>-0.17153915092112459</v>
+        <v>-0.1783286594669804</v>
       </c>
       <c r="I65" s="14">
-        <v>-0.12341979141886281</v>
+        <v>-0.12552007136172541</v>
       </c>
       <c r="J65" s="14">
-        <v>3.8973030225623068E-2</v>
+        <v>4.1438481786824348E-2</v>
       </c>
       <c r="K65" s="14">
-        <v>-0.13755422320907651</v>
+        <v>-0.13760658898848291</v>
       </c>
       <c r="L65" s="14">
-        <v>5.4936229717480606E-3</v>
+        <v>5.1602069835684989E-3</v>
       </c>
       <c r="M65" s="14">
-        <v>2.4832635575145058E-3</v>
+        <v>-9.7267419356309468E-4</v>
       </c>
       <c r="N65" s="14">
-        <v>3.7671084328243343E-2</v>
+        <v>3.7015483136730663E-2</v>
       </c>
       <c r="O65" s="14">
-        <v>2.9851383728212139E-2</v>
+        <v>3.5025542731714827E-2</v>
       </c>
       <c r="P65" s="14">
-        <v>0.38062545186028762</v>
+        <v>0.37929437874659949</v>
       </c>
       <c r="Q65" s="14">
-        <v>-8.9933150449372945E-2</v>
+        <v>-8.93448261098609E-2</v>
       </c>
       <c r="R65" s="14">
-        <v>8.6725484609936152E-3</v>
+        <v>1.1175071891003989E-2</v>
       </c>
       <c r="S65" s="14">
         <v>1</v>
       </c>
       <c r="T65" s="14">
-        <v>-3.4397434603970427E-2</v>
+        <v>-3.4463944603068182E-2</v>
       </c>
       <c r="U65" s="14">
-        <v>-3.9925610529435523E-2</v>
+        <v>-4.3144707734109201E-2</v>
       </c>
       <c r="V65" s="14">
-        <v>-6.4251969388895117E-2</v>
+        <v>-6.242609611702888E-2</v>
       </c>
       <c r="W65" s="14">
-        <v>-4.1774862286212987E-2</v>
+        <v>-3.6636054258863238E-2</v>
       </c>
       <c r="X65" s="14">
-        <v>0.1138778076145074</v>
+        <v>0.10666824534968961</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -11164,73 +11027,73 @@
         <v>27</v>
       </c>
       <c r="B66" s="14">
-        <v>-6.4552202616111554E-2</v>
+        <v>-6.2750243511928067E-2</v>
       </c>
       <c r="C66">
-        <v>1.0482130814969581E-2</v>
+        <v>1.1245837016278929E-2</v>
       </c>
       <c r="D66" s="14">
-        <v>7.3586700421981399E-2</v>
+        <v>6.9576857880913709E-2</v>
       </c>
       <c r="E66" s="14">
-        <v>4.8111966991307119E-2</v>
+        <v>4.5820770830932209E-2</v>
       </c>
       <c r="F66">
-        <v>-7.7742970949390144E-2</v>
+        <v>-8.2311046789704037E-2</v>
       </c>
       <c r="G66">
-        <v>0.2163664193155172</v>
+        <v>0.21080070779115931</v>
       </c>
       <c r="H66">
-        <v>4.6691915148049188E-3</v>
+        <v>8.141811015932068E-4</v>
       </c>
       <c r="I66" s="14">
-        <v>1.1601060550807341E-2</v>
+        <v>1.061002045127811E-2</v>
       </c>
       <c r="J66">
-        <v>-7.3040352300774547E-2</v>
+        <v>-7.548968808212364E-2</v>
       </c>
       <c r="K66" s="14">
-        <v>1.9430648136027559E-2</v>
+        <v>1.9108540710776951E-2</v>
       </c>
       <c r="L66" s="14">
-        <v>2.8243527165587201E-2</v>
+        <v>2.9158877164817479E-2</v>
       </c>
       <c r="M66" s="14">
-        <v>-5.7203845523940387E-2</v>
+        <v>-5.8765907242077489E-2</v>
       </c>
       <c r="N66">
-        <v>-0.1315965272369784</v>
+        <v>-0.1330917800585823</v>
       </c>
       <c r="O66" s="14">
-        <v>7.4240549174401191E-2</v>
+        <v>7.7936395635971059E-2</v>
       </c>
       <c r="P66">
-        <v>-4.3026141113010119E-2</v>
+        <v>-3.7369417668192753E-2</v>
       </c>
       <c r="Q66">
-        <v>5.1373003566907292E-2</v>
+        <v>4.150453290124697E-2</v>
       </c>
       <c r="R66">
-        <v>2.5071391539475081E-2</v>
+        <v>2.368123063622353E-2</v>
       </c>
       <c r="S66" s="14">
-        <v>-3.4397434603970427E-2</v>
+        <v>-3.4463944603068182E-2</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66">
-        <v>1.772476306817743E-2</v>
+        <v>2.0390996637175338E-2</v>
       </c>
       <c r="V66" s="14">
-        <v>9.5926452064851064E-2</v>
+        <v>0.10303336445150769</v>
       </c>
       <c r="W66">
-        <v>-1.631311760248445E-2</v>
+        <v>-1.7954856893839209E-2</v>
       </c>
       <c r="X66" s="14">
-        <v>-0.12789183152373229</v>
+        <v>-0.12708142900860281</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -11238,73 +11101,73 @@
         <v>28</v>
       </c>
       <c r="B67" s="14">
-        <v>8.380594414087883E-2</v>
+        <v>8.5454198806126438E-2</v>
       </c>
       <c r="C67">
-        <v>-6.123995584416253E-2</v>
+        <v>-6.2981334047702758E-2</v>
       </c>
       <c r="D67" s="14">
-        <v>-4.7882223865839048E-2</v>
+        <v>-4.9096817971125667E-2</v>
       </c>
       <c r="E67" s="14">
-        <v>1.6881052262240581E-2</v>
+        <v>1.8064591507196099E-2</v>
       </c>
       <c r="F67">
-        <v>6.8377579274922065E-2</v>
+        <v>6.584459088322181E-2</v>
       </c>
       <c r="G67">
-        <v>-1.9987906611046188E-3</v>
+        <v>-3.7798515879034817E-4</v>
       </c>
       <c r="H67">
-        <v>4.1327314412042029E-2</v>
+        <v>4.1335833489297077E-2</v>
       </c>
       <c r="I67" s="14">
-        <v>8.432036723016692E-2</v>
+        <v>8.5300905656760156E-2</v>
       </c>
       <c r="J67">
-        <v>5.2578136137342392E-2</v>
+        <v>4.9693614707333557E-2</v>
       </c>
       <c r="K67" s="14">
-        <v>6.4900967211776572E-2</v>
+        <v>6.4489341160117813E-2</v>
       </c>
       <c r="L67" s="14">
-        <v>0.31714853461676662</v>
+        <v>0.32149067722688712</v>
       </c>
       <c r="M67" s="14">
-        <v>7.5051070358091262E-2</v>
+        <v>7.6238008933324081E-2</v>
       </c>
       <c r="N67">
-        <v>1.1882649177833251E-3</v>
+        <v>3.2356867392890629E-3</v>
       </c>
       <c r="O67" s="14">
-        <v>-2.4421886411421879E-2</v>
+        <v>-2.5498696467048689E-2</v>
       </c>
       <c r="P67">
-        <v>-3.8993818075712443E-2</v>
+        <v>-3.7494277165731962E-2</v>
       </c>
       <c r="Q67">
-        <v>-4.5722441151799492E-2</v>
+        <v>-4.5687290132462047E-2</v>
       </c>
       <c r="R67">
-        <v>0.19484799590176391</v>
+        <v>0.1950832816402315</v>
       </c>
       <c r="S67" s="14">
-        <v>-3.9925610529435523E-2</v>
+        <v>-4.3144707734109201E-2</v>
       </c>
       <c r="T67">
-        <v>1.772476306817743E-2</v>
+        <v>2.0390996637175338E-2</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="V67" s="14">
-        <v>-3.06882798565359E-2</v>
+        <v>-2.8777291425177449E-2</v>
       </c>
       <c r="W67">
-        <v>-2.5806227941391369E-2</v>
+        <v>-2.4010816436539021E-2</v>
       </c>
       <c r="X67" s="14">
-        <v>6.063364069331491E-3</v>
+        <v>3.5206912764483762E-3</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -11312,73 +11175,73 @@
         <v>30</v>
       </c>
       <c r="B68" s="14">
-        <v>-2.6775724359741789E-2</v>
+        <v>-2.3100087471526871E-2</v>
       </c>
       <c r="C68" s="14">
-        <v>-5.0870085872000002E-2</v>
+        <v>-5.4555059838367552E-2</v>
       </c>
       <c r="D68" s="14">
-        <v>0.1230084554100962</v>
+        <v>0.12293516643322611</v>
       </c>
       <c r="E68" s="14">
-        <v>9.5739806751386949E-2</v>
+        <v>9.8018983918652727E-2</v>
       </c>
       <c r="F68" s="14">
-        <v>-0.27793570624498359</v>
+        <v>-0.27512392343363989</v>
       </c>
       <c r="G68" s="14">
-        <v>1.072743307583247E-2</v>
+        <v>7.8270529478005058E-3</v>
       </c>
       <c r="H68" s="14">
-        <v>3.8073586254585637E-2</v>
+        <v>4.488902142332702E-2</v>
       </c>
       <c r="I68" s="14">
-        <v>-1.8012236004081399E-2</v>
+        <v>-1.2717827154062181E-2</v>
       </c>
       <c r="J68" s="14">
-        <v>-0.15848012445119289</v>
+        <v>-0.15770745452282739</v>
       </c>
       <c r="K68" s="14">
-        <v>4.0402438387882843E-2</v>
+        <v>4.5739550423640939E-2</v>
       </c>
       <c r="L68" s="14">
-        <v>-3.988356159728796E-2</v>
+        <v>-3.8388918467874601E-2</v>
       </c>
       <c r="M68" s="14">
-        <v>-2.5320829559138749E-2</v>
+        <v>-2.162910901546531E-2</v>
       </c>
       <c r="N68" s="14">
-        <v>-0.17993484389482101</v>
+        <v>-0.18203428487924589</v>
       </c>
       <c r="O68" s="14">
-        <v>0.1970722535658273</v>
+        <v>0.19389157154535769</v>
       </c>
       <c r="P68" s="14">
-        <v>-7.5095901364473111E-2</v>
+        <v>-7.0726634866037322E-2</v>
       </c>
       <c r="Q68" s="14">
-        <v>0.10543957559292649</v>
+        <v>0.10513931120834639</v>
       </c>
       <c r="R68" s="14">
-        <v>-6.5017553823514637E-2</v>
+        <v>-6.4444754019361075E-2</v>
       </c>
       <c r="S68" s="14">
-        <v>-6.4251969388895117E-2</v>
+        <v>-6.242609611702888E-2</v>
       </c>
       <c r="T68" s="14">
-        <v>9.5926452064851064E-2</v>
+        <v>0.10303336445150769</v>
       </c>
       <c r="U68" s="14">
-        <v>-3.06882798565359E-2</v>
+        <v>-2.8777291425177449E-2</v>
       </c>
       <c r="V68" s="14">
         <v>1</v>
       </c>
       <c r="W68" s="14">
-        <v>0.1236080503189724</v>
+        <v>0.1209861082827491</v>
       </c>
       <c r="X68" s="14">
-        <v>-0.3039817849297376</v>
+        <v>-0.30625345939093329</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -11386,73 +11249,73 @@
         <v>31</v>
       </c>
       <c r="B69" s="14">
-        <v>4.1372577110039971E-2</v>
+        <v>4.3831153531282488E-2</v>
       </c>
       <c r="C69">
-        <v>-7.1139795281959614E-2</v>
+        <v>-7.1050611381487758E-2</v>
       </c>
       <c r="D69" s="14">
-        <v>-3.2748468078702832E-2</v>
+        <v>-4.0452236186095732E-2</v>
       </c>
       <c r="E69" s="14">
-        <v>1.09430165515314E-2</v>
+        <v>1.139988938051311E-2</v>
       </c>
       <c r="F69">
-        <v>-4.252764104902889E-2</v>
+        <v>-4.3158218220699401E-2</v>
       </c>
       <c r="G69">
-        <v>-0.15665920734951011</v>
+        <v>-0.1627897385092042</v>
       </c>
       <c r="H69">
-        <v>-2.671046812049865E-2</v>
+        <v>-2.4985074307953489E-2</v>
       </c>
       <c r="I69" s="14">
-        <v>1.4402635806295361E-2</v>
+        <v>1.5162953506500491E-2</v>
       </c>
       <c r="J69">
-        <v>4.8979133154731007E-2</v>
+        <v>5.1980856999410643E-2</v>
       </c>
       <c r="K69" s="14">
-        <v>2.1139755376094228E-2</v>
+        <v>1.7955741814785289E-2</v>
       </c>
       <c r="L69" s="14">
-        <v>-1.023285931755934E-2</v>
+        <v>-1.168549542734058E-2</v>
       </c>
       <c r="M69" s="14">
-        <v>0.100842758956742</v>
+        <v>0.1007360365083079</v>
       </c>
       <c r="N69">
-        <v>1.928345916355061E-2</v>
+        <v>2.3817343731975631E-2</v>
       </c>
       <c r="O69" s="14">
-        <v>-1.7232098239151769E-2</v>
+        <v>-2.7583026078743831E-2</v>
       </c>
       <c r="P69">
-        <v>-4.1558752204095821E-2</v>
+        <v>-3.7420075363185278E-2</v>
       </c>
       <c r="Q69">
-        <v>-1.4115378349411071E-2</v>
+        <v>-1.8163178139466281E-2</v>
       </c>
       <c r="R69">
-        <v>-3.0422914026749921E-2</v>
+        <v>-3.3246521216015318E-2</v>
       </c>
       <c r="S69" s="14">
-        <v>-4.1774862286212987E-2</v>
+        <v>-3.6636054258863238E-2</v>
       </c>
       <c r="T69">
-        <v>-1.631311760248445E-2</v>
+        <v>-1.7954856893839209E-2</v>
       </c>
       <c r="U69">
-        <v>-2.5806227941391369E-2</v>
+        <v>-2.4010816436539021E-2</v>
       </c>
       <c r="V69" s="14">
-        <v>0.1236080503189724</v>
+        <v>0.1209861082827491</v>
       </c>
       <c r="W69">
         <v>1</v>
       </c>
       <c r="X69" s="14">
-        <v>-9.8808664919643227E-2</v>
+        <v>-9.3712388019550355E-2</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
@@ -11460,70 +11323,70 @@
         <v>32</v>
       </c>
       <c r="B70" s="14">
-        <v>1.170716638941764E-2</v>
+        <v>7.9397401628896885E-3</v>
       </c>
       <c r="C70" s="14">
-        <v>8.1535727375991712E-2</v>
+        <v>8.587227291144571E-2</v>
       </c>
       <c r="D70" s="14">
-        <v>-0.14959794064896531</v>
+        <v>-0.1535429869349732</v>
       </c>
       <c r="E70" s="14">
-        <v>-0.16137216877414179</v>
+        <v>-0.16573505542430461</v>
       </c>
       <c r="F70" s="14">
-        <v>0.18495324312834349</v>
+        <v>0.1797298776755977</v>
       </c>
       <c r="G70" s="14">
-        <v>-2.0581445074986649E-2</v>
+        <v>-2.273158211910532E-2</v>
       </c>
       <c r="H70" s="14">
-        <v>-2.8380624446991801E-2</v>
+        <v>-3.0465162211791311E-2</v>
       </c>
       <c r="I70" s="14">
-        <v>-1.7249226055090629E-2</v>
+        <v>-2.3402346091531311E-2</v>
       </c>
       <c r="J70" s="14">
-        <v>0.14668665684003249</v>
+        <v>0.13939151031698929</v>
       </c>
       <c r="K70" s="14">
-        <v>-8.5539316586107514E-2</v>
+        <v>-8.8282702933609875E-2</v>
       </c>
       <c r="L70" s="14">
-        <v>1.462849170605041E-2</v>
+        <v>9.7764512507863138E-3</v>
       </c>
       <c r="M70" s="14">
-        <v>-5.9128179153738244E-3</v>
+        <v>-7.9302732650694038E-3</v>
       </c>
       <c r="N70" s="14">
-        <v>0.27742377646599842</v>
+        <v>0.2786310469845365</v>
       </c>
       <c r="O70" s="14">
-        <v>-0.1640239568781148</v>
+        <v>-0.15884907576418339</v>
       </c>
       <c r="P70" s="14">
-        <v>0.1281674556597141</v>
+        <v>0.12719164542283229</v>
       </c>
       <c r="Q70" s="14">
-        <v>-0.119148661185463</v>
+        <v>-0.1245972999285731</v>
       </c>
       <c r="R70" s="14">
-        <v>3.3579454722379679E-2</v>
+        <v>2.9329863100859891E-2</v>
       </c>
       <c r="S70" s="14">
-        <v>0.1138778076145074</v>
+        <v>0.10666824534968961</v>
       </c>
       <c r="T70" s="14">
-        <v>-0.12789183152373229</v>
+        <v>-0.12708142900860281</v>
       </c>
       <c r="U70" s="14">
-        <v>6.063364069331491E-3</v>
+        <v>3.5206912764483762E-3</v>
       </c>
       <c r="V70" s="14">
-        <v>-0.3039817849297376</v>
+        <v>-0.30625345939093329</v>
       </c>
       <c r="W70" s="14">
-        <v>-9.8808664919643227E-2</v>
+        <v>-9.3712388019550355E-2</v>
       </c>
       <c r="X70" s="14">
         <v>1</v>
@@ -11612,7 +11475,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K10" sqref="K10:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataPD_Analysis.xlsx
+++ b/DataPD_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meikeepauline/Desktop/IP/CaseStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD39872-F9F5-EB4E-9809-AB72539197BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571B69EE-D59F-9F41-9347-45FEAC0CB525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15500" activeTab="1" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{28ADDD52-E8CA-DC4F-9AA7-F699BC6D0E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="VAR" sheetId="5" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="173">
   <si>
     <t>ID</t>
   </si>
@@ -553,12 +553,174 @@
   <si>
     <t>Model</t>
   </si>
+  <si>
+    <t>Missing rate</t>
+  </si>
+  <si>
+    <t>Outlier rate</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t># Total</t>
+  </si>
+  <si>
+    <t># Default</t>
+  </si>
+  <si>
+    <t>Default Rate</t>
+  </si>
+  <si>
+    <t>Shortlist1</t>
+  </si>
+  <si>
+    <t>Shortlist2</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Correlated with var5_LF</t>
+  </si>
+  <si>
+    <t>Correlated with var14_LF</t>
+  </si>
+  <si>
+    <t>Correlated with var18_CL</t>
+  </si>
+  <si>
+    <t>Low abs(GINI) &lt; 0.2</t>
+  </si>
+  <si>
+    <t>Low abs(GINI) &lt; 0.05</t>
+  </si>
+  <si>
+    <t>Correlated with var16_AQ</t>
+  </si>
+  <si>
+    <t>Correlated with var7_PE</t>
+  </si>
+  <si>
+    <t>Correlated with var9_LF</t>
+  </si>
+  <si>
+    <t>Correlated with var1_AQ</t>
+  </si>
+  <si>
+    <t>Correlated with var19_AQ</t>
+  </si>
+  <si>
+    <t>Reason to remove</t>
+  </si>
+  <si>
+    <t>lower boarder</t>
+  </si>
+  <si>
+    <t>upper boarder</t>
+  </si>
+  <si>
+    <t>Rating grade</t>
+  </si>
+  <si>
+    <t>0.05%</t>
+  </si>
+  <si>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>1.16%</t>
+  </si>
+  <si>
+    <t>5.44%</t>
+  </si>
+  <si>
+    <t>14.21%</t>
+  </si>
+  <si>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>&lt; 0.09%</t>
+  </si>
+  <si>
+    <t>&lt; 0.05%</t>
+  </si>
+  <si>
+    <t>&lt; 0.23%</t>
+  </si>
+  <si>
+    <t>&lt; 1.16%</t>
+  </si>
+  <si>
+    <t>&lt; 5.44%</t>
+  </si>
+  <si>
+    <t>&lt; 14.21%</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>+∞</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Non-Defaul</t>
+  </si>
+  <si>
+    <t>Non-Default</t>
+  </si>
+  <si>
+    <t>Data set</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -614,8 +776,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,12 +920,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1402,9 +1596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A0F642-E2C6-6A40-83CE-61FFF53B7EF6}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2185,16 +2379,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8717C0BB-3494-D144-A5D7-2F936DCDBFF7}">
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -2204,7 +2399,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2213,19 +2408,19 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2240,13 +2435,13 @@
       <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -2255,13 +2450,13 @@
       <c r="S1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>27</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -2273,7 +2468,7 @@
       <c r="Y1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>31</v>
       </c>
       <c r="AA1" s="3" t="s">
@@ -4989,7 +5184,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C36" s="13">
-        <f t="shared" ref="B36:AA36" si="5">SUM(C31:C32)/$A$36</f>
+        <f t="shared" ref="C36:AA36" si="5">SUM(C31:C32)/$A$36</f>
         <v>7.9100000000000004E-2</v>
       </c>
       <c r="D36" s="13">
@@ -5077,7 +5272,7 @@
         <v>0.13473333333333334</v>
       </c>
       <c r="Y36" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM(Y31:Y32)/$A$36</f>
         <v>0.11256666666666666</v>
       </c>
       <c r="Z36" s="13">
@@ -5089,9 +5284,115 @@
         <v>0.16336666666666666</v>
       </c>
     </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B37" s="13">
+        <f>B33/$A$36</f>
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" ref="C37:AA37" si="6">C33/$A$36</f>
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="D37" s="13">
+        <f>D33/$A$36</f>
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="6"/>
+        <v>3.9566666666666667E-2</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="6"/>
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="6"/>
+        <v>3.2966666666666665E-2</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="6"/>
+        <v>2.2466666666666666E-2</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="6"/>
+        <v>3.6466666666666668E-2</v>
+      </c>
+      <c r="J37" s="13">
+        <f t="shared" si="6"/>
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="6"/>
+        <v>3.9166666666666669E-2</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="6"/>
+        <v>2.8033333333333334E-2</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="6"/>
+        <v>2.3766666666666665E-2</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="6"/>
+        <v>1.7133333333333334E-2</v>
+      </c>
+      <c r="O37" s="13">
+        <f t="shared" si="6"/>
+        <v>4.8133333333333334E-2</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="6"/>
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="6"/>
+        <v>5.3866666666666667E-2</v>
+      </c>
+      <c r="R37" s="13">
+        <f t="shared" si="6"/>
+        <v>4.3333333333333331E-4</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" si="6"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="T37" s="13">
+        <f t="shared" si="6"/>
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="U37" s="13">
+        <f t="shared" si="6"/>
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="V37" s="13">
+        <f t="shared" si="6"/>
+        <v>4.816666666666667E-2</v>
+      </c>
+      <c r="W37" s="13">
+        <f t="shared" si="6"/>
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="X37" s="13">
+        <f t="shared" si="6"/>
+        <v>1.38E-2</v>
+      </c>
+      <c r="Y37" s="13">
+        <f t="shared" si="6"/>
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Z37" s="13">
+        <f t="shared" si="6"/>
+        <v>1.3366666666666667E-2</v>
+      </c>
+      <c r="AA37" s="13">
+        <f t="shared" si="6"/>
+        <v>5.4866666666666668E-2</v>
+      </c>
+    </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
@@ -5838,13 +6139,499 @@
       </c>
       <c r="AA48">
         <v>0.46623043715677559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="str" cm="1">
+        <f t="array" ref="A54:A79">TRANSPOSE(B1:AA1)</f>
+        <v>var1_AQ</v>
+      </c>
+      <c r="B54" s="23" cm="1">
+        <f t="array" ref="B54:B79">TRANSPOSE(B36:AA36)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="22">
+        <v>21000</v>
+      </c>
+      <c r="F54" s="22">
+        <v>367</v>
+      </c>
+      <c r="G54" s="24">
+        <f>F54/E54</f>
+        <v>1.7476190476190475E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="str">
+        <v>var2_AQ</v>
+      </c>
+      <c r="B55" s="23">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="22">
+        <v>9000</v>
+      </c>
+      <c r="F55" s="22">
+        <v>157</v>
+      </c>
+      <c r="G55" s="24">
+        <f>F55/E55</f>
+        <v>1.7444444444444443E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="str">
+        <v>var3_CL</v>
+      </c>
+      <c r="B56" s="23">
+        <v>0.1215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="str">
+        <v>var4_CL</v>
+      </c>
+      <c r="B57" s="23">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="str">
+        <v>var5_LF</v>
+      </c>
+      <c r="B58" s="23">
+        <v>0.12939999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="str">
+        <v>var6_LF</v>
+      </c>
+      <c r="B59" s="23">
+        <v>9.923333333333334E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="str">
+        <v>var7_PE</v>
+      </c>
+      <c r="B60" s="23">
+        <v>7.3833333333333334E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="str">
+        <v>var8_PE</v>
+      </c>
+      <c r="B61" s="23">
+        <v>0.10583333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="str">
+        <v>var9_LF</v>
+      </c>
+      <c r="B62" s="23">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="str">
+        <v>var10_PE</v>
+      </c>
+      <c r="B63" s="23">
+        <v>0.14043333333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="str">
+        <v>var11_AQ</v>
+      </c>
+      <c r="B64" s="23">
+        <v>0.16889999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="22" t="str">
+        <v>var12_PE</v>
+      </c>
+      <c r="B65" s="23">
+        <v>6.7033333333333334E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="22" t="str">
+        <v>var13_PE</v>
+      </c>
+      <c r="B66" s="23">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="str">
+        <v>var14_LF</v>
+      </c>
+      <c r="B67" s="23">
+        <v>1.9366666666666667E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="str">
+        <v>var15_PE</v>
+      </c>
+      <c r="B68" s="23">
+        <v>0.18609999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="str">
+        <v>var16_AQ</v>
+      </c>
+      <c r="B69" s="23">
+        <v>4.8800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="str">
+        <v>var17_LF</v>
+      </c>
+      <c r="B70" s="23">
+        <v>7.2633333333333328E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="str">
+        <v>var18_CL</v>
+      </c>
+      <c r="B71" s="23">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="str">
+        <v>var19_AQ</v>
+      </c>
+      <c r="B72" s="23">
+        <v>0.17043333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="str">
+        <v>var20_AQ</v>
+      </c>
+      <c r="B73" s="23">
+        <v>2.3733333333333332E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="str">
+        <v>var21_LF</v>
+      </c>
+      <c r="B74" s="23">
+        <v>4.646666666666667E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="str">
+        <v>var22_AQ</v>
+      </c>
+      <c r="B75" s="23">
+        <v>0.18093333333333333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="str">
+        <v>var23_PE</v>
+      </c>
+      <c r="B76" s="23">
+        <v>0.13473333333333334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="str">
+        <v>var24_LF</v>
+      </c>
+      <c r="B77" s="23">
+        <v>0.11256666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="22" t="str">
+        <v>var25_LF</v>
+      </c>
+      <c r="B78" s="23">
+        <v>0.14630000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="22" t="str">
+        <v>var26_LF</v>
+      </c>
+      <c r="B79" s="23">
+        <v>0.16336666666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="22" t="str" cm="1">
+        <f t="array" ref="A82:A107">TRANSPOSE(B1:AA1)</f>
+        <v>var1_AQ</v>
+      </c>
+      <c r="B82" s="23" cm="1">
+        <f t="array" ref="B82:B107">TRANSPOSE(B37:AA37)</f>
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="22" t="str">
+        <v>var2_AQ</v>
+      </c>
+      <c r="B83" s="23">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="22" t="str">
+        <v>var3_CL</v>
+      </c>
+      <c r="B84" s="23">
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="22" t="str">
+        <v>var4_CL</v>
+      </c>
+      <c r="B85" s="23">
+        <v>3.9566666666666667E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="22" t="str">
+        <v>var5_LF</v>
+      </c>
+      <c r="B86" s="23">
+        <v>2.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="22" t="str">
+        <v>var6_LF</v>
+      </c>
+      <c r="B87" s="23">
+        <v>3.2966666666666665E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="22" t="str">
+        <v>var7_PE</v>
+      </c>
+      <c r="B88" s="23">
+        <v>2.2466666666666666E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="22" t="str">
+        <v>var8_PE</v>
+      </c>
+      <c r="B89" s="23">
+        <v>3.6466666666666668E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="22" t="str">
+        <v>var9_LF</v>
+      </c>
+      <c r="B90" s="23">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="22" t="str">
+        <v>var10_PE</v>
+      </c>
+      <c r="B91" s="23">
+        <v>3.9166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="22" t="str">
+        <v>var11_AQ</v>
+      </c>
+      <c r="B92" s="23">
+        <v>2.8033333333333334E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="22" t="str">
+        <v>var12_PE</v>
+      </c>
+      <c r="B93" s="23">
+        <v>2.3766666666666665E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="22" t="str">
+        <v>var13_PE</v>
+      </c>
+      <c r="B94" s="23">
+        <v>1.7133333333333334E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="22" t="str">
+        <v>var14_LF</v>
+      </c>
+      <c r="B95" s="23">
+        <v>4.8133333333333334E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="22" t="str">
+        <v>var15_PE</v>
+      </c>
+      <c r="B96" s="23">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="22" t="str">
+        <v>var16_AQ</v>
+      </c>
+      <c r="B97" s="23">
+        <v>5.3866666666666667E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="22" t="str">
+        <v>var17_LF</v>
+      </c>
+      <c r="B98" s="23">
+        <v>4.3333333333333331E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="22" t="str">
+        <v>var18_CL</v>
+      </c>
+      <c r="B99" s="23">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="22" t="str">
+        <v>var19_AQ</v>
+      </c>
+      <c r="B100" s="23">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="22" t="str">
+        <v>var20_AQ</v>
+      </c>
+      <c r="B101" s="23">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="22" t="str">
+        <v>var21_LF</v>
+      </c>
+      <c r="B102" s="23">
+        <v>4.816666666666667E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="22" t="str">
+        <v>var22_AQ</v>
+      </c>
+      <c r="B103" s="23">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="22" t="str">
+        <v>var23_PE</v>
+      </c>
+      <c r="B104" s="23">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="22" t="str">
+        <v>var24_LF</v>
+      </c>
+      <c r="B105" s="23">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="22" t="str">
+        <v>var25_LF</v>
+      </c>
+      <c r="B106" s="23">
+        <v>1.3366666666666667E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="22" t="str">
+        <v>var26_LF</v>
+      </c>
+      <c r="B107" s="23">
+        <v>5.4866666666666668E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A38:B38"/>
   </mergeCells>
-  <conditionalFormatting sqref="B36:Z36">
+  <conditionalFormatting sqref="B36:AA36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:AA37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6396,8 +7183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31AA758-05F1-A249-8767-85116A9B04D3}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView topLeftCell="F44" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9698,70 +10485,70 @@
         <v>1</v>
       </c>
       <c r="C48" s="14">
-        <v>-0.27977273143161308</v>
+        <v>-0.27977273143161169</v>
       </c>
       <c r="D48" s="14">
-        <v>3.9208221126227502E-2</v>
+        <v>3.9208221126227662E-2</v>
       </c>
       <c r="E48" s="14">
         <v>0.10054885346062251</v>
       </c>
       <c r="F48" s="14">
-        <v>2.9746642741857801E-2</v>
+        <v>2.9746642741857909E-2</v>
       </c>
       <c r="G48" s="14">
         <v>-0.1190286884053835</v>
       </c>
       <c r="H48" s="14">
-        <v>0.20265588439287971</v>
+        <v>0.20265588439288101</v>
       </c>
       <c r="I48" s="14">
-        <v>0.2245508156386252</v>
+        <v>0.224550815638626</v>
       </c>
       <c r="J48" s="14">
-        <v>0.1262112354393794</v>
+        <v>0.12621123543937879</v>
       </c>
       <c r="K48" s="14">
-        <v>0.23131570847335151</v>
+        <v>0.23131570847334931</v>
       </c>
       <c r="L48" s="14">
-        <v>4.7560031976575753E-2</v>
+        <v>4.7560031976576073E-2</v>
       </c>
       <c r="M48" s="14">
-        <v>0.21029198112492181</v>
+        <v>0.21029198112492159</v>
       </c>
       <c r="N48" s="14">
-        <v>0.122611130067018</v>
+        <v>0.1226111300670176</v>
       </c>
       <c r="O48" s="14">
-        <v>-0.22074224948199531</v>
+        <v>-0.22074224948199431</v>
       </c>
       <c r="P48" s="14">
-        <v>-0.1375464709496865</v>
+        <v>-0.13754647094968619</v>
       </c>
       <c r="Q48" s="14">
-        <v>5.176435782627458E-2</v>
+        <v>5.1764357826274678E-2</v>
       </c>
       <c r="R48" s="14">
-        <v>3.7109561731192273E-2</v>
+        <v>3.7109561731192238E-2</v>
       </c>
       <c r="S48" s="14">
-        <v>-0.1159204596047715</v>
+        <v>-0.1159204596047714</v>
       </c>
       <c r="T48" s="14">
-        <v>-6.2750243511928067E-2</v>
+        <v>-6.2750243511928233E-2</v>
       </c>
       <c r="U48" s="14">
-        <v>8.5454198806126438E-2</v>
+        <v>8.5454198806125273E-2</v>
       </c>
       <c r="V48" s="14">
-        <v>-2.3100087471526871E-2</v>
+        <v>-2.310008747152674E-2</v>
       </c>
       <c r="W48" s="14">
-        <v>4.3831153531282488E-2</v>
+        <v>4.3831153531282273E-2</v>
       </c>
       <c r="X48" s="14">
-        <v>7.9397401628896885E-3</v>
+        <v>7.9397401628896417E-3</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -9769,73 +10556,73 @@
         <v>3</v>
       </c>
       <c r="B49" s="14">
-        <v>-0.27977273143161308</v>
+        <v>-0.27977273143161169</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.16252399936327289</v>
+        <v>-0.1625239993632733</v>
       </c>
       <c r="E49" s="14">
-        <v>-0.18446855804912499</v>
+        <v>-0.18446855804912621</v>
       </c>
       <c r="F49">
-        <v>3.034932294482378E-2</v>
+        <v>3.0349322944823641E-2</v>
       </c>
       <c r="G49">
-        <v>0.12526287892849591</v>
+        <v>0.12526287892849691</v>
       </c>
       <c r="H49">
-        <v>-0.1605040288970766</v>
+        <v>-0.1605040288970776</v>
       </c>
       <c r="I49" s="14">
-        <v>-0.13762837390166541</v>
+        <v>-0.1376283739016656</v>
       </c>
       <c r="J49">
-        <v>-9.9951194632917878E-2</v>
+        <v>-9.9951194632918933E-2</v>
       </c>
       <c r="K49" s="14">
-        <v>-0.18719046667354819</v>
+        <v>-0.18719046667354761</v>
       </c>
       <c r="L49" s="14">
-        <v>-2.3966171073378419E-2</v>
+        <v>-2.396617107337827E-2</v>
       </c>
       <c r="M49" s="14">
-        <v>-0.16485791112159071</v>
+        <v>-0.16485791112159101</v>
       </c>
       <c r="N49">
-        <v>-6.0841518478458582E-2</v>
+        <v>-6.084151847845793E-2</v>
       </c>
       <c r="O49" s="14">
-        <v>0.2183327761228078</v>
+        <v>0.21833277612280871</v>
       </c>
       <c r="P49">
         <v>0.24274831386244869</v>
       </c>
       <c r="Q49">
-        <v>-0.15963616180782411</v>
+        <v>-0.1596361618078227</v>
       </c>
       <c r="R49">
-        <v>-1.50318740522163E-2</v>
+        <v>-1.5031874052216331E-2</v>
       </c>
       <c r="S49" s="14">
-        <v>0.18612361129666369</v>
+        <v>0.18612361129666449</v>
       </c>
       <c r="T49">
         <v>1.1245837016278929E-2</v>
       </c>
       <c r="U49">
-        <v>-6.2981334047702758E-2</v>
+        <v>-6.2981334047702453E-2</v>
       </c>
       <c r="V49" s="14">
-        <v>-5.4555059838367552E-2</v>
+        <v>-5.4555059838367718E-2</v>
       </c>
       <c r="W49">
-        <v>-7.1050611381487758E-2</v>
+        <v>-7.1050611381487785E-2</v>
       </c>
       <c r="X49" s="14">
-        <v>8.587227291144571E-2</v>
+        <v>8.5872272911446987E-2</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -9843,73 +10630,73 @@
         <v>4</v>
       </c>
       <c r="B50" s="14">
-        <v>3.9208221126227502E-2</v>
+        <v>3.9208221126227662E-2</v>
       </c>
       <c r="C50" s="14">
-        <v>-0.16252399936327289</v>
+        <v>-0.1625239993632733</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="14">
-        <v>0.38806036317842302</v>
+        <v>0.38806036317842291</v>
       </c>
       <c r="F50" s="14">
-        <v>-0.16527644148836129</v>
+        <v>-0.16527644148836099</v>
       </c>
       <c r="G50" s="14">
-        <v>7.1550017521407633E-2</v>
+        <v>7.1550017521407661E-2</v>
       </c>
       <c r="H50" s="14">
-        <v>8.3181699540400486E-2</v>
+        <v>8.3181699540400361E-2</v>
       </c>
       <c r="I50" s="14">
-        <v>-8.2149618530162782E-2</v>
+        <v>-8.2149618530162755E-2</v>
       </c>
       <c r="J50" s="14">
-        <v>-5.4508709075881817E-2</v>
+        <v>-5.450870907588181E-2</v>
       </c>
       <c r="K50" s="14">
-        <v>6.9216025466091305E-2</v>
+        <v>6.9216025466090306E-2</v>
       </c>
       <c r="L50" s="14">
-        <v>-9.5119143126260644E-2</v>
+        <v>-9.511914312626174E-2</v>
       </c>
       <c r="M50" s="14">
-        <v>-5.6929386249423709E-2</v>
+        <v>-5.6929386249423439E-2</v>
       </c>
       <c r="N50" s="14">
-        <v>-0.14806424797470069</v>
+        <v>-0.14806424797469989</v>
       </c>
       <c r="O50" s="14">
-        <v>5.2182281909433782E-2</v>
+        <v>5.218228190943365E-2</v>
       </c>
       <c r="P50" s="14">
         <v>-0.1067363692665227</v>
       </c>
       <c r="Q50" s="14">
-        <v>0.51953420585289545</v>
+        <v>0.51953420585288967</v>
       </c>
       <c r="R50" s="14">
-        <v>-0.1084739934421452</v>
+        <v>-0.10847399344214489</v>
       </c>
       <c r="S50" s="14">
-        <v>-9.9844260502036486E-2</v>
+        <v>-9.9844260502034626E-2</v>
       </c>
       <c r="T50" s="14">
-        <v>6.9576857880913709E-2</v>
+        <v>6.9576857880913626E-2</v>
       </c>
       <c r="U50" s="14">
-        <v>-4.9096817971125667E-2</v>
+        <v>-4.9096817971125209E-2</v>
       </c>
       <c r="V50" s="14">
-        <v>0.12293516643322611</v>
+        <v>0.1229351664332254</v>
       </c>
       <c r="W50" s="14">
-        <v>-4.0452236186095732E-2</v>
+        <v>-4.0452236186095697E-2</v>
       </c>
       <c r="X50" s="14">
-        <v>-0.1535429869349732</v>
+        <v>-0.15354298693497229</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -9920,70 +10707,70 @@
         <v>0.10054885346062251</v>
       </c>
       <c r="C51" s="14">
-        <v>-0.18446855804912499</v>
+        <v>-0.18446855804912621</v>
       </c>
       <c r="D51" s="14">
-        <v>0.38806036317842302</v>
+        <v>0.38806036317842291</v>
       </c>
       <c r="E51" s="14">
         <v>1</v>
       </c>
       <c r="F51" s="14">
-        <v>-1.561196977740413E-2</v>
+        <v>-1.561196977740415E-2</v>
       </c>
       <c r="G51" s="14">
-        <v>-6.4125288214637059E-3</v>
+        <v>-6.4125288214636408E-3</v>
       </c>
       <c r="H51" s="14">
-        <v>8.6592935493237461E-2</v>
+        <v>8.6592935493235892E-2</v>
       </c>
       <c r="I51" s="14">
-        <v>5.0511337481029733E-2</v>
+        <v>5.0511337481029997E-2</v>
       </c>
       <c r="J51" s="14">
-        <v>-6.2500403936624885E-2</v>
+        <v>-6.250040393662494E-2</v>
       </c>
       <c r="K51" s="14">
-        <v>0.21824335618072721</v>
+        <v>0.21824335618072829</v>
       </c>
       <c r="L51" s="14">
-        <v>-1.3098629785602689E-2</v>
+        <v>-1.309862978560276E-2</v>
       </c>
       <c r="M51" s="14">
-        <v>5.3236991833142087E-2</v>
+        <v>5.3236991833142303E-2</v>
       </c>
       <c r="N51" s="14">
-        <v>-0.1106596109239732</v>
+        <v>-0.11065961092397281</v>
       </c>
       <c r="O51" s="14">
-        <v>8.8323170135251372E-2</v>
+        <v>8.8323170135251053E-2</v>
       </c>
       <c r="P51" s="14">
-        <v>-0.13906266133008299</v>
+        <v>-0.13906266133008291</v>
       </c>
       <c r="Q51" s="14">
-        <v>0.3735904057892383</v>
+        <v>0.37359040578923791</v>
       </c>
       <c r="R51" s="14">
-        <v>-3.5307820727592559E-2</v>
+        <v>-3.5307820727593031E-2</v>
       </c>
       <c r="S51" s="14">
-        <v>-9.3025826201604281E-2</v>
+        <v>-9.3025826201603906E-2</v>
       </c>
       <c r="T51" s="14">
-        <v>4.5820770830932209E-2</v>
+        <v>4.5820770830932563E-2</v>
       </c>
       <c r="U51" s="14">
-        <v>1.8064591507196099E-2</v>
+        <v>1.806459150719603E-2</v>
       </c>
       <c r="V51" s="14">
-        <v>9.8018983918652727E-2</v>
+        <v>9.8018983918653282E-2</v>
       </c>
       <c r="W51" s="14">
-        <v>1.139988938051311E-2</v>
+        <v>1.13998893805131E-2</v>
       </c>
       <c r="X51" s="14">
-        <v>-0.16573505542430461</v>
+        <v>-0.1657350554243042</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -9991,73 +10778,73 @@
         <v>11</v>
       </c>
       <c r="B52" s="14">
-        <v>2.9746642741857801E-2</v>
+        <v>2.9746642741857909E-2</v>
       </c>
       <c r="C52">
-        <v>3.034932294482378E-2</v>
+        <v>3.0349322944823641E-2</v>
       </c>
       <c r="D52" s="14">
-        <v>-0.16527644148836129</v>
+        <v>-0.16527644148836099</v>
       </c>
       <c r="E52" s="14">
-        <v>-1.561196977740413E-2</v>
+        <v>-1.561196977740415E-2</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>-0.107106122654923</v>
+        <v>-0.1071061226549231</v>
       </c>
       <c r="H52">
-        <v>-8.5321970240029313E-2</v>
+        <v>-8.532197024002959E-2</v>
       </c>
       <c r="I52" s="14">
-        <v>4.0688599024606878E-2</v>
+        <v>4.0688599024606822E-2</v>
       </c>
       <c r="J52">
-        <v>0.13793306809312561</v>
+        <v>0.13793306809312689</v>
       </c>
       <c r="K52" s="14">
-        <v>7.5787850078515226E-3</v>
+        <v>7.5787850078514237E-3</v>
       </c>
       <c r="L52" s="14">
-        <v>6.5426192385453372E-2</v>
+        <v>6.5426192385454371E-2</v>
       </c>
       <c r="M52" s="14">
-        <v>8.3223742403792267E-2</v>
+        <v>8.3223742403792586E-2</v>
       </c>
       <c r="N52">
-        <v>0.2123100299950188</v>
+        <v>0.21231002999501869</v>
       </c>
       <c r="O52" s="14">
-        <v>-0.1571983413998661</v>
+        <v>-0.15719834139986699</v>
       </c>
       <c r="P52">
-        <v>4.3138130387965962E-2</v>
+        <v>4.3138130387966177E-2</v>
       </c>
       <c r="Q52">
-        <v>-0.1524330778905541</v>
+        <v>-0.1524330778905546</v>
       </c>
       <c r="R52">
-        <v>8.1960762826047764E-2</v>
+        <v>8.1960762826048014E-2</v>
       </c>
       <c r="S52" s="14">
-        <v>2.2363826647809708E-2</v>
+        <v>2.2363826647809879E-2</v>
       </c>
       <c r="T52">
-        <v>-8.2311046789704037E-2</v>
+        <v>-8.231104678970419E-2</v>
       </c>
       <c r="U52">
-        <v>6.584459088322181E-2</v>
+        <v>6.5844590883221754E-2</v>
       </c>
       <c r="V52" s="14">
-        <v>-0.27512392343363989</v>
+        <v>-0.27512392343363962</v>
       </c>
       <c r="W52">
-        <v>-4.3158218220699401E-2</v>
+        <v>-4.315821822069929E-2</v>
       </c>
       <c r="X52" s="14">
-        <v>0.1797298776755977</v>
+        <v>0.17972987767559709</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -10068,70 +10855,70 @@
         <v>-0.1190286884053835</v>
       </c>
       <c r="C53">
-        <v>0.12526287892849591</v>
+        <v>0.12526287892849691</v>
       </c>
       <c r="D53" s="14">
-        <v>7.1550017521407633E-2</v>
+        <v>7.1550017521407661E-2</v>
       </c>
       <c r="E53" s="14">
-        <v>-6.4125288214637059E-3</v>
+        <v>-6.4125288214636408E-3</v>
       </c>
       <c r="F53">
-        <v>-0.107106122654923</v>
+        <v>-0.1071061226549231</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>-5.9340642319897698E-2</v>
+        <v>-5.9340642319897323E-2</v>
       </c>
       <c r="I53" s="14">
-        <v>-5.9610432886445353E-2</v>
+        <v>-5.9610432886445693E-2</v>
       </c>
       <c r="J53">
-        <v>-8.7772972988717349E-2</v>
+        <v>-8.7772972988717751E-2</v>
       </c>
       <c r="K53" s="14">
-        <v>-4.9038355507988157E-2</v>
+        <v>-4.9038355507988192E-2</v>
       </c>
       <c r="L53" s="14">
-        <v>2.4592787674080661E-2</v>
+        <v>2.459278767408081E-2</v>
       </c>
       <c r="M53" s="14">
-        <v>-0.15310354614205929</v>
+        <v>-0.15310354614205809</v>
       </c>
       <c r="N53">
-        <v>-0.24140849250650609</v>
+        <v>-0.2414084925065049</v>
       </c>
       <c r="O53" s="14">
-        <v>0.13803430865712851</v>
+        <v>0.13803430865712801</v>
       </c>
       <c r="P53">
-        <v>4.0828887718334983E-2</v>
+        <v>4.0828887718335059E-2</v>
       </c>
       <c r="Q53">
-        <v>5.0504450678870771E-2</v>
+        <v>5.0504450678870723E-2</v>
       </c>
       <c r="R53">
-        <v>3.6720686899801132E-2</v>
+        <v>3.6720686899801652E-2</v>
       </c>
       <c r="S53" s="14">
-        <v>5.6527678202311582E-2</v>
+        <v>5.6527678202311547E-2</v>
       </c>
       <c r="T53">
-        <v>0.21080070779115931</v>
+        <v>0.21080070779115859</v>
       </c>
       <c r="U53">
-        <v>-3.7798515879034817E-4</v>
+        <v>-3.7798515879055818E-4</v>
       </c>
       <c r="V53" s="14">
-        <v>7.8270529478005058E-3</v>
+        <v>7.8270529478005214E-3</v>
       </c>
       <c r="W53">
-        <v>-0.1627897385092042</v>
+        <v>-0.16278973850920539</v>
       </c>
       <c r="X53" s="14">
-        <v>-2.273158211910532E-2</v>
+        <v>-2.2731582119105129E-2</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -10139,73 +10926,73 @@
         <v>13</v>
       </c>
       <c r="B54" s="14">
-        <v>0.20265588439287971</v>
+        <v>0.20265588439288101</v>
       </c>
       <c r="C54">
-        <v>-0.1605040288970766</v>
+        <v>-0.1605040288970776</v>
       </c>
       <c r="D54" s="14">
-        <v>8.3181699540400486E-2</v>
+        <v>8.3181699540400361E-2</v>
       </c>
       <c r="E54" s="14">
-        <v>8.6592935493237461E-2</v>
+        <v>8.6592935493235892E-2</v>
       </c>
       <c r="F54">
-        <v>-8.5321970240029313E-2</v>
+        <v>-8.532197024002959E-2</v>
       </c>
       <c r="G54">
-        <v>-5.9340642319897698E-2</v>
+        <v>-5.9340642319897323E-2</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="14">
-        <v>0.38583909441768233</v>
+        <v>0.38583909441768538</v>
       </c>
       <c r="J54">
-        <v>-2.128189587790422E-2</v>
+        <v>-2.1281895877903599E-2</v>
       </c>
       <c r="K54" s="14">
-        <v>0.36485186348717902</v>
+        <v>0.36485186348717968</v>
       </c>
       <c r="L54" s="14">
-        <v>5.7966260427082562E-3</v>
+        <v>5.7966260427085147E-3</v>
       </c>
       <c r="M54" s="14">
-        <v>8.9838125701358129E-2</v>
+        <v>8.983812570135824E-2</v>
       </c>
       <c r="N54">
-        <v>2.3133693597465108E-3</v>
+        <v>2.3133693597457219E-3</v>
       </c>
       <c r="O54" s="14">
-        <v>-4.1885664820895438E-2</v>
+        <v>-4.1885664820896618E-2</v>
       </c>
       <c r="P54">
-        <v>-0.1939715910740801</v>
+        <v>-0.19397159107408141</v>
       </c>
       <c r="Q54">
-        <v>9.3960317638610291E-2</v>
+        <v>9.3960317638610888E-2</v>
       </c>
       <c r="R54">
-        <v>-1.7708105199397878E-2</v>
+        <v>-1.7708105199397719E-2</v>
       </c>
       <c r="S54" s="14">
-        <v>-0.1783286594669804</v>
+        <v>-0.1783286594669834</v>
       </c>
       <c r="T54">
-        <v>8.141811015932068E-4</v>
+        <v>8.1418110159118791E-4</v>
       </c>
       <c r="U54">
-        <v>4.1335833489297077E-2</v>
+        <v>4.1335833489296578E-2</v>
       </c>
       <c r="V54" s="14">
-        <v>4.488902142332702E-2</v>
+        <v>4.4889021423326743E-2</v>
       </c>
       <c r="W54">
-        <v>-2.4985074307953489E-2</v>
+        <v>-2.49850743079543E-2</v>
       </c>
       <c r="X54" s="14">
-        <v>-3.0465162211791311E-2</v>
+        <v>-3.0465162211791661E-2</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -10213,73 +11000,73 @@
         <v>14</v>
       </c>
       <c r="B55" s="14">
-        <v>0.2245508156386252</v>
+        <v>0.224550815638626</v>
       </c>
       <c r="C55" s="14">
-        <v>-0.13762837390166541</v>
+        <v>-0.1376283739016656</v>
       </c>
       <c r="D55" s="14">
-        <v>-8.2149618530162782E-2</v>
+        <v>-8.2149618530162755E-2</v>
       </c>
       <c r="E55" s="14">
-        <v>5.0511337481029733E-2</v>
+        <v>5.0511337481029997E-2</v>
       </c>
       <c r="F55" s="14">
-        <v>4.0688599024606878E-2</v>
+        <v>4.0688599024606822E-2</v>
       </c>
       <c r="G55" s="14">
-        <v>-5.9610432886445353E-2</v>
+        <v>-5.9610432886445693E-2</v>
       </c>
       <c r="H55" s="14">
-        <v>0.38583909441768233</v>
+        <v>0.38583909441768538</v>
       </c>
       <c r="I55" s="14">
         <v>1</v>
       </c>
       <c r="J55" s="14">
-        <v>4.7911236101567813E-2</v>
+        <v>4.7911236101567563E-2</v>
       </c>
       <c r="K55" s="14">
-        <v>0.4108511136444567</v>
+        <v>0.41085111364445981</v>
       </c>
       <c r="L55" s="14">
-        <v>7.8596064687775594E-2</v>
+        <v>7.8596064687776343E-2</v>
       </c>
       <c r="M55" s="14">
-        <v>0.16853845070000731</v>
+        <v>0.1685384507000087</v>
       </c>
       <c r="N55" s="14">
-        <v>1.8128909552688401E-2</v>
+        <v>1.8128909552688512E-2</v>
       </c>
       <c r="O55" s="14">
-        <v>-8.1189125212919724E-2</v>
+        <v>-8.1189125212920474E-2</v>
       </c>
       <c r="P55" s="14">
-        <v>-0.1711130421645394</v>
+        <v>-0.17111304216454001</v>
       </c>
       <c r="Q55" s="14">
-        <v>-6.1693147173659563E-2</v>
+        <v>-6.1693147173659438E-2</v>
       </c>
       <c r="R55" s="14">
-        <v>7.2357930169486759E-2</v>
+        <v>7.2357930169486898E-2</v>
       </c>
       <c r="S55" s="14">
-        <v>-0.12552007136172541</v>
+        <v>-0.12552007136172461</v>
       </c>
       <c r="T55" s="14">
-        <v>1.061002045127811E-2</v>
+        <v>1.061002045127816E-2</v>
       </c>
       <c r="U55" s="14">
-        <v>8.5300905656760156E-2</v>
+        <v>8.5300905656760559E-2</v>
       </c>
       <c r="V55" s="14">
-        <v>-1.2717827154062181E-2</v>
+        <v>-1.271782715406228E-2</v>
       </c>
       <c r="W55" s="14">
-        <v>1.5162953506500491E-2</v>
+        <v>1.51629535065006E-2</v>
       </c>
       <c r="X55" s="14">
-        <v>-2.3402346091531311E-2</v>
+        <v>-2.3402346091531259E-2</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -10287,73 +11074,73 @@
         <v>15</v>
       </c>
       <c r="B56" s="14">
-        <v>0.1262112354393794</v>
+        <v>0.12621123543937879</v>
       </c>
       <c r="C56">
-        <v>-9.9951194632917878E-2</v>
+        <v>-9.9951194632918933E-2</v>
       </c>
       <c r="D56" s="14">
-        <v>-5.4508709075881817E-2</v>
+        <v>-5.450870907588181E-2</v>
       </c>
       <c r="E56" s="14">
-        <v>-6.2500403936624885E-2</v>
+        <v>-6.250040393662494E-2</v>
       </c>
       <c r="F56">
-        <v>0.13793306809312561</v>
+        <v>0.13793306809312689</v>
       </c>
       <c r="G56">
-        <v>-8.7772972988717349E-2</v>
+        <v>-8.7772972988717751E-2</v>
       </c>
       <c r="H56">
-        <v>-2.128189587790422E-2</v>
+        <v>-2.1281895877903599E-2</v>
       </c>
       <c r="I56" s="14">
-        <v>4.7911236101567813E-2</v>
+        <v>4.7911236101567563E-2</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" s="14">
-        <v>1.300292436572547E-2</v>
+        <v>1.30029243657254E-2</v>
       </c>
       <c r="L56" s="14">
-        <v>4.68984687024172E-2</v>
+        <v>4.6898468702417997E-2</v>
       </c>
       <c r="M56" s="14">
-        <v>0.33219858506455963</v>
+        <v>0.33219858506456379</v>
       </c>
       <c r="N56">
-        <v>0.15810616209430131</v>
+        <v>0.15810616209430309</v>
       </c>
       <c r="O56" s="14">
-        <v>-0.32548393126149938</v>
+        <v>-0.32548393126149983</v>
       </c>
       <c r="P56">
-        <v>2.379014056509399E-2</v>
+        <v>2.3790140565094521E-2</v>
       </c>
       <c r="Q56">
-        <v>-4.0305481553159467E-2</v>
+        <v>-4.0305481553159273E-2</v>
       </c>
       <c r="R56">
-        <v>6.2618113861771255E-2</v>
+        <v>6.2618113861771699E-2</v>
       </c>
       <c r="S56" s="14">
-        <v>4.1438481786824348E-2</v>
+        <v>4.1438481786824757E-2</v>
       </c>
       <c r="T56">
-        <v>-7.548968808212364E-2</v>
+        <v>-7.5489688082124473E-2</v>
       </c>
       <c r="U56">
-        <v>4.9693614707333557E-2</v>
+        <v>4.9693614707333633E-2</v>
       </c>
       <c r="V56" s="14">
-        <v>-0.15770745452282739</v>
+        <v>-0.15770745452282761</v>
       </c>
       <c r="W56">
-        <v>5.1980856999410643E-2</v>
+        <v>5.1980856999410179E-2</v>
       </c>
       <c r="X56" s="14">
-        <v>0.13939151031698929</v>
+        <v>0.13939151031698849</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -10361,73 +11148,73 @@
         <v>16</v>
       </c>
       <c r="B57" s="14">
-        <v>0.23131570847335151</v>
+        <v>0.23131570847334931</v>
       </c>
       <c r="C57" s="14">
-        <v>-0.18719046667354819</v>
+        <v>-0.18719046667354761</v>
       </c>
       <c r="D57" s="14">
-        <v>6.9216025466091305E-2</v>
+        <v>6.9216025466090306E-2</v>
       </c>
       <c r="E57" s="14">
-        <v>0.21824335618072721</v>
+        <v>0.21824335618072829</v>
       </c>
       <c r="F57" s="14">
-        <v>7.5787850078515226E-3</v>
+        <v>7.5787850078514237E-3</v>
       </c>
       <c r="G57" s="14">
-        <v>-4.9038355507988157E-2</v>
+        <v>-4.9038355507988192E-2</v>
       </c>
       <c r="H57" s="14">
-        <v>0.36485186348717902</v>
+        <v>0.36485186348717968</v>
       </c>
       <c r="I57" s="14">
-        <v>0.4108511136444567</v>
+        <v>0.41085111364445981</v>
       </c>
       <c r="J57" s="14">
-        <v>1.300292436572547E-2</v>
+        <v>1.30029243657254E-2</v>
       </c>
       <c r="K57" s="14">
         <v>1</v>
       </c>
       <c r="L57" s="14">
-        <v>4.4872676889957622E-2</v>
+        <v>4.4872676889957858E-2</v>
       </c>
       <c r="M57" s="14">
-        <v>0.1590349781298675</v>
+        <v>0.15903497812986719</v>
       </c>
       <c r="N57" s="14">
-        <v>-3.668130912945175E-2</v>
+        <v>-3.6681309129451722E-2</v>
       </c>
       <c r="O57" s="14">
-        <v>-3.7195347810591042E-2</v>
+        <v>-3.7195347810590813E-2</v>
       </c>
       <c r="P57" s="14">
-        <v>-0.17595873255177441</v>
+        <v>-0.17595873255177419</v>
       </c>
       <c r="Q57" s="14">
-        <v>7.9097523543150833E-2</v>
+        <v>7.9097523543149917E-2</v>
       </c>
       <c r="R57" s="14">
-        <v>3.5143134436290593E-2</v>
+        <v>3.5143134436289872E-2</v>
       </c>
       <c r="S57" s="14">
-        <v>-0.13760658898848291</v>
+        <v>-0.1376065889884823</v>
       </c>
       <c r="T57" s="14">
-        <v>1.9108540710776951E-2</v>
+        <v>1.9108540710776781E-2</v>
       </c>
       <c r="U57" s="14">
-        <v>6.4489341160117813E-2</v>
+        <v>6.4489341160118049E-2</v>
       </c>
       <c r="V57" s="14">
-        <v>4.5739550423640939E-2</v>
+        <v>4.5739550423640807E-2</v>
       </c>
       <c r="W57" s="14">
-        <v>1.7955741814785289E-2</v>
+        <v>1.795574181478524E-2</v>
       </c>
       <c r="X57" s="14">
-        <v>-8.8282702933609875E-2</v>
+        <v>-8.8282702933610444E-2</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -10435,73 +11222,73 @@
         <v>17</v>
       </c>
       <c r="B58" s="14">
-        <v>4.7560031976575753E-2</v>
+        <v>4.7560031976576073E-2</v>
       </c>
       <c r="C58" s="14">
-        <v>-2.3966171073378419E-2</v>
+        <v>-2.396617107337827E-2</v>
       </c>
       <c r="D58" s="14">
-        <v>-9.5119143126260644E-2</v>
+        <v>-9.511914312626174E-2</v>
       </c>
       <c r="E58" s="14">
-        <v>-1.3098629785602689E-2</v>
+        <v>-1.309862978560276E-2</v>
       </c>
       <c r="F58" s="14">
-        <v>6.5426192385453372E-2</v>
+        <v>6.5426192385454371E-2</v>
       </c>
       <c r="G58" s="14">
-        <v>2.4592787674080661E-2</v>
+        <v>2.459278767408081E-2</v>
       </c>
       <c r="H58" s="14">
-        <v>5.7966260427082562E-3</v>
+        <v>5.7966260427085147E-3</v>
       </c>
       <c r="I58" s="14">
-        <v>7.8596064687775594E-2</v>
+        <v>7.8596064687776343E-2</v>
       </c>
       <c r="J58" s="14">
-        <v>4.68984687024172E-2</v>
+        <v>4.6898468702417997E-2</v>
       </c>
       <c r="K58" s="14">
-        <v>4.4872676889957622E-2</v>
+        <v>4.4872676889957858E-2</v>
       </c>
       <c r="L58" s="14">
         <v>1</v>
       </c>
       <c r="M58" s="14">
-        <v>6.9490373286757834E-2</v>
+        <v>6.9490373286759111E-2</v>
       </c>
       <c r="N58" s="14">
-        <v>-2.6969403185149129E-3</v>
+        <v>-2.6969403185146861E-3</v>
       </c>
       <c r="O58" s="14">
-        <v>-2.846602186209999E-2</v>
+        <v>-2.8466021862099591E-2</v>
       </c>
       <c r="P58" s="14">
-        <v>-1.568939690182536E-3</v>
+        <v>-1.5689396901825889E-3</v>
       </c>
       <c r="Q58" s="14">
-        <v>-8.5425096213795237E-2</v>
+        <v>-8.542509621379607E-2</v>
       </c>
       <c r="R58" s="14">
-        <v>0.28262121581424898</v>
+        <v>0.28262121581425009</v>
       </c>
       <c r="S58" s="14">
-        <v>5.1602069835684989E-3</v>
+        <v>5.1602069835686376E-3</v>
       </c>
       <c r="T58" s="14">
-        <v>2.9158877164817479E-2</v>
+        <v>2.9158877164817638E-2</v>
       </c>
       <c r="U58" s="14">
-        <v>0.32149067722688712</v>
+        <v>0.32149067722688918</v>
       </c>
       <c r="V58" s="14">
-        <v>-3.8388918467874601E-2</v>
+        <v>-3.8388918467875538E-2</v>
       </c>
       <c r="W58" s="14">
-        <v>-1.168549542734058E-2</v>
+        <v>-1.1685495427340971E-2</v>
       </c>
       <c r="X58" s="14">
-        <v>9.7764512507863138E-3</v>
+        <v>9.7764512507866018E-3</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -10509,73 +11296,73 @@
         <v>19</v>
       </c>
       <c r="B59" s="14">
-        <v>0.21029198112492181</v>
+        <v>0.21029198112492159</v>
       </c>
       <c r="C59" s="14">
-        <v>-0.16485791112159071</v>
+        <v>-0.16485791112159101</v>
       </c>
       <c r="D59" s="14">
-        <v>-5.6929386249423709E-2</v>
+        <v>-5.6929386249423439E-2</v>
       </c>
       <c r="E59" s="14">
-        <v>5.3236991833142087E-2</v>
+        <v>5.3236991833142303E-2</v>
       </c>
       <c r="F59" s="14">
-        <v>8.3223742403792267E-2</v>
+        <v>8.3223742403792586E-2</v>
       </c>
       <c r="G59" s="14">
-        <v>-0.15310354614205929</v>
+        <v>-0.15310354614205809</v>
       </c>
       <c r="H59" s="14">
-        <v>8.9838125701358129E-2</v>
+        <v>8.983812570135824E-2</v>
       </c>
       <c r="I59" s="14">
-        <v>0.16853845070000731</v>
+        <v>0.1685384507000087</v>
       </c>
       <c r="J59" s="14">
-        <v>0.33219858506455963</v>
+        <v>0.33219858506456379</v>
       </c>
       <c r="K59" s="14">
-        <v>0.1590349781298675</v>
+        <v>0.15903497812986719</v>
       </c>
       <c r="L59" s="14">
-        <v>6.9490373286757834E-2</v>
+        <v>6.9490373286759111E-2</v>
       </c>
       <c r="M59" s="14">
         <v>1</v>
       </c>
       <c r="N59" s="14">
-        <v>0.1203791872264821</v>
+        <v>0.1203791872264824</v>
       </c>
       <c r="O59" s="14">
-        <v>-0.26781557090487751</v>
+        <v>-0.26781557090487668</v>
       </c>
       <c r="P59" s="14">
-        <v>-4.6224121817428188E-2</v>
+        <v>-4.6224121817428472E-2</v>
       </c>
       <c r="Q59" s="14">
-        <v>-5.5316544751005697E-2</v>
+        <v>-5.5316544751005933E-2</v>
       </c>
       <c r="R59" s="14">
-        <v>5.0230135380452408E-2</v>
+        <v>5.0230135380452283E-2</v>
       </c>
       <c r="S59" s="14">
-        <v>-9.7267419356309468E-4</v>
+        <v>-9.7267419356308633E-4</v>
       </c>
       <c r="T59" s="14">
-        <v>-5.8765907242077489E-2</v>
+        <v>-5.8765907242077413E-2</v>
       </c>
       <c r="U59" s="14">
-        <v>7.6238008933324081E-2</v>
+        <v>7.6238008933324539E-2</v>
       </c>
       <c r="V59" s="14">
-        <v>-2.162910901546531E-2</v>
+        <v>-2.1629109015465369E-2</v>
       </c>
       <c r="W59" s="14">
         <v>0.1007360365083079</v>
       </c>
       <c r="X59" s="14">
-        <v>-7.9302732650694038E-3</v>
+        <v>-7.9302732650693552E-3</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -10583,73 +11370,73 @@
         <v>20</v>
       </c>
       <c r="B60" s="14">
-        <v>0.122611130067018</v>
+        <v>0.1226111300670176</v>
       </c>
       <c r="C60">
-        <v>-6.0841518478458582E-2</v>
+        <v>-6.084151847845793E-2</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.14806424797470069</v>
+        <v>-0.14806424797469989</v>
       </c>
       <c r="E60" s="14">
-        <v>-0.1106596109239732</v>
+        <v>-0.11065961092397281</v>
       </c>
       <c r="F60">
-        <v>0.2123100299950188</v>
+        <v>0.21231002999501869</v>
       </c>
       <c r="G60">
-        <v>-0.24140849250650609</v>
+        <v>-0.2414084925065049</v>
       </c>
       <c r="H60">
-        <v>2.3133693597465108E-3</v>
+        <v>2.3133693597457219E-3</v>
       </c>
       <c r="I60" s="14">
-        <v>1.8128909552688401E-2</v>
+        <v>1.8128909552688512E-2</v>
       </c>
       <c r="J60">
-        <v>0.15810616209430131</v>
+        <v>0.15810616209430309</v>
       </c>
       <c r="K60" s="14">
-        <v>-3.668130912945175E-2</v>
+        <v>-3.6681309129451722E-2</v>
       </c>
       <c r="L60" s="14">
-        <v>-2.6969403185149129E-3</v>
+        <v>-2.6969403185146861E-3</v>
       </c>
       <c r="M60" s="14">
-        <v>0.1203791872264821</v>
+        <v>0.1203791872264824</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60" s="14">
-        <v>-0.1868294938898063</v>
+        <v>-0.18682949388980519</v>
       </c>
       <c r="P60">
-        <v>4.7754045093456217E-2</v>
+        <v>4.7754045093455579E-2</v>
       </c>
       <c r="Q60">
-        <v>-0.1035072310202461</v>
+        <v>-0.1035072310202472</v>
       </c>
       <c r="R60">
-        <v>2.3673538615968221E-3</v>
+        <v>2.367353861596705E-3</v>
       </c>
       <c r="S60" s="14">
-        <v>3.7015483136730663E-2</v>
+        <v>3.7015483136730483E-2</v>
       </c>
       <c r="T60">
-        <v>-0.1330917800585823</v>
+        <v>-0.13309178005858249</v>
       </c>
       <c r="U60">
-        <v>3.2356867392890629E-3</v>
+        <v>3.2356867392892901E-3</v>
       </c>
       <c r="V60" s="14">
-        <v>-0.18203428487924589</v>
+        <v>-0.18203428487924531</v>
       </c>
       <c r="W60">
-        <v>2.3817343731975631E-2</v>
+        <v>2.3817343731975589E-2</v>
       </c>
       <c r="X60" s="14">
-        <v>0.2786310469845365</v>
+        <v>0.27863104698453778</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -10657,73 +11444,73 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <v>-0.22074224948199531</v>
+        <v>-0.22074224948199431</v>
       </c>
       <c r="C61" s="14">
-        <v>0.2183327761228078</v>
+        <v>0.21833277612280871</v>
       </c>
       <c r="D61" s="14">
-        <v>5.2182281909433782E-2</v>
+        <v>5.218228190943365E-2</v>
       </c>
       <c r="E61" s="14">
-        <v>8.8323170135251372E-2</v>
+        <v>8.8323170135251053E-2</v>
       </c>
       <c r="F61" s="14">
-        <v>-0.1571983413998661</v>
+        <v>-0.15719834139986699</v>
       </c>
       <c r="G61" s="14">
-        <v>0.13803430865712851</v>
+        <v>0.13803430865712801</v>
       </c>
       <c r="H61" s="14">
-        <v>-4.1885664820895438E-2</v>
+        <v>-4.1885664820896618E-2</v>
       </c>
       <c r="I61" s="14">
-        <v>-8.1189125212919724E-2</v>
+        <v>-8.1189125212920474E-2</v>
       </c>
       <c r="J61" s="14">
-        <v>-0.32548393126149938</v>
+        <v>-0.32548393126149983</v>
       </c>
       <c r="K61" s="14">
-        <v>-3.7195347810591042E-2</v>
+        <v>-3.7195347810590813E-2</v>
       </c>
       <c r="L61" s="14">
-        <v>-2.846602186209999E-2</v>
+        <v>-2.8466021862099591E-2</v>
       </c>
       <c r="M61" s="14">
-        <v>-0.26781557090487751</v>
+        <v>-0.26781557090487668</v>
       </c>
       <c r="N61" s="14">
-        <v>-0.1868294938898063</v>
+        <v>-0.18682949388980519</v>
       </c>
       <c r="O61" s="14">
         <v>1</v>
       </c>
       <c r="P61" s="14">
-        <v>2.8887638997858432E-2</v>
+        <v>2.8887638997858341E-2</v>
       </c>
       <c r="Q61" s="14">
-        <v>3.2605805939030813E-2</v>
+        <v>3.2605805939030702E-2</v>
       </c>
       <c r="R61" s="14">
-        <v>-4.6258874350224473E-2</v>
+        <v>-4.6258874350223918E-2</v>
       </c>
       <c r="S61" s="14">
-        <v>3.5025542731714827E-2</v>
+        <v>3.5025542731714439E-2</v>
       </c>
       <c r="T61" s="14">
-        <v>7.7936395635971059E-2</v>
+        <v>7.7936395635970906E-2</v>
       </c>
       <c r="U61" s="14">
-        <v>-2.5498696467048689E-2</v>
+        <v>-2.5498696467048651E-2</v>
       </c>
       <c r="V61" s="14">
-        <v>0.19389157154535769</v>
+        <v>0.1938915715453576</v>
       </c>
       <c r="W61" s="14">
-        <v>-2.7583026078743831E-2</v>
+        <v>-2.75830260787438E-2</v>
       </c>
       <c r="X61" s="14">
-        <v>-0.15884907576418339</v>
+        <v>-0.15884907576418261</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -10731,7 +11518,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="14">
-        <v>-0.1375464709496865</v>
+        <v>-0.13754647094968619</v>
       </c>
       <c r="C62">
         <v>0.24274831386244869</v>
@@ -10740,64 +11527,64 @@
         <v>-0.1067363692665227</v>
       </c>
       <c r="E62" s="14">
-        <v>-0.13906266133008299</v>
+        <v>-0.13906266133008291</v>
       </c>
       <c r="F62">
-        <v>4.3138130387965962E-2</v>
+        <v>4.3138130387966177E-2</v>
       </c>
       <c r="G62">
-        <v>4.0828887718334983E-2</v>
+        <v>4.0828887718335059E-2</v>
       </c>
       <c r="H62">
-        <v>-0.1939715910740801</v>
+        <v>-0.19397159107408141</v>
       </c>
       <c r="I62" s="14">
-        <v>-0.1711130421645394</v>
+        <v>-0.17111304216454001</v>
       </c>
       <c r="J62">
-        <v>2.379014056509399E-2</v>
+        <v>2.3790140565094521E-2</v>
       </c>
       <c r="K62" s="14">
-        <v>-0.17595873255177441</v>
+        <v>-0.17595873255177419</v>
       </c>
       <c r="L62" s="14">
-        <v>-1.568939690182536E-3</v>
+        <v>-1.5689396901825889E-3</v>
       </c>
       <c r="M62" s="14">
-        <v>-4.6224121817428188E-2</v>
+        <v>-4.6224121817428472E-2</v>
       </c>
       <c r="N62">
-        <v>4.7754045093456217E-2</v>
+        <v>4.7754045093455579E-2</v>
       </c>
       <c r="O62" s="14">
-        <v>2.8887638997858432E-2</v>
+        <v>2.8887638997858341E-2</v>
       </c>
       <c r="P62">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>-0.1088731746243381</v>
+        <v>-0.1088731746243394</v>
       </c>
       <c r="R62">
-        <v>5.2037387048194427E-3</v>
+        <v>5.2037387048196309E-3</v>
       </c>
       <c r="S62" s="14">
-        <v>0.37929437874659949</v>
+        <v>0.37929437874659749</v>
       </c>
       <c r="T62">
-        <v>-3.7369417668192753E-2</v>
+        <v>-3.7369417668192829E-2</v>
       </c>
       <c r="U62">
-        <v>-3.7494277165731962E-2</v>
+        <v>-3.7494277165732073E-2</v>
       </c>
       <c r="V62" s="14">
-        <v>-7.0726634866037322E-2</v>
+        <v>-7.0726634866037599E-2</v>
       </c>
       <c r="W62">
-        <v>-3.7420075363185278E-2</v>
+        <v>-3.7420075363184972E-2</v>
       </c>
       <c r="X62" s="14">
-        <v>0.12719164542283229</v>
+        <v>0.12719164542283309</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -10805,73 +11592,73 @@
         <v>24</v>
       </c>
       <c r="B63" s="14">
-        <v>5.176435782627458E-2</v>
+        <v>5.1764357826274678E-2</v>
       </c>
       <c r="C63">
-        <v>-0.15963616180782411</v>
+        <v>-0.1596361618078227</v>
       </c>
       <c r="D63" s="14">
-        <v>0.51953420585289545</v>
+        <v>0.51953420585288967</v>
       </c>
       <c r="E63" s="14">
-        <v>0.3735904057892383</v>
+        <v>0.37359040578923791</v>
       </c>
       <c r="F63">
-        <v>-0.1524330778905541</v>
+        <v>-0.1524330778905546</v>
       </c>
       <c r="G63">
-        <v>5.0504450678870771E-2</v>
+        <v>5.0504450678870723E-2</v>
       </c>
       <c r="H63">
-        <v>9.3960317638610291E-2</v>
+        <v>9.3960317638610888E-2</v>
       </c>
       <c r="I63" s="14">
-        <v>-6.1693147173659563E-2</v>
+        <v>-6.1693147173659438E-2</v>
       </c>
       <c r="J63">
-        <v>-4.0305481553159467E-2</v>
+        <v>-4.0305481553159273E-2</v>
       </c>
       <c r="K63" s="14">
-        <v>7.9097523543150833E-2</v>
+        <v>7.9097523543149917E-2</v>
       </c>
       <c r="L63" s="14">
-        <v>-8.5425096213795237E-2</v>
+        <v>-8.542509621379607E-2</v>
       </c>
       <c r="M63" s="14">
-        <v>-5.5316544751005697E-2</v>
+        <v>-5.5316544751005933E-2</v>
       </c>
       <c r="N63">
-        <v>-0.1035072310202461</v>
+        <v>-0.1035072310202472</v>
       </c>
       <c r="O63" s="14">
-        <v>3.2605805939030813E-2</v>
+        <v>3.2605805939030702E-2</v>
       </c>
       <c r="P63">
-        <v>-0.1088731746243381</v>
+        <v>-0.1088731746243394</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>-9.6696042713469404E-2</v>
+        <v>-9.6696042713468988E-2</v>
       </c>
       <c r="S63" s="14">
-        <v>-8.93448261098609E-2</v>
+        <v>-8.9344826109860664E-2</v>
       </c>
       <c r="T63">
-        <v>4.150453290124697E-2</v>
+        <v>4.1504532901247317E-2</v>
       </c>
       <c r="U63">
-        <v>-4.5687290132462047E-2</v>
+        <v>-4.5687290132462227E-2</v>
       </c>
       <c r="V63" s="14">
-        <v>0.10513931120834639</v>
+        <v>0.1051393112083459</v>
       </c>
       <c r="W63">
-        <v>-1.8163178139466281E-2</v>
+        <v>-1.8163178139466139E-2</v>
       </c>
       <c r="X63" s="14">
-        <v>-0.1245972999285731</v>
+        <v>-0.1245972999285728</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -10879,73 +11666,73 @@
         <v>25</v>
       </c>
       <c r="B64" s="14">
-        <v>3.7109561731192273E-2</v>
+        <v>3.7109561731192238E-2</v>
       </c>
       <c r="C64">
-        <v>-1.50318740522163E-2</v>
+        <v>-1.5031874052216331E-2</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.1084739934421452</v>
+        <v>-0.10847399344214489</v>
       </c>
       <c r="E64" s="14">
-        <v>-3.5307820727592559E-2</v>
+        <v>-3.5307820727593031E-2</v>
       </c>
       <c r="F64">
-        <v>8.1960762826047764E-2</v>
+        <v>8.1960762826048014E-2</v>
       </c>
       <c r="G64">
-        <v>3.6720686899801132E-2</v>
+        <v>3.6720686899801652E-2</v>
       </c>
       <c r="H64">
-        <v>-1.7708105199397878E-2</v>
+        <v>-1.7708105199397719E-2</v>
       </c>
       <c r="I64" s="14">
-        <v>7.2357930169486759E-2</v>
+        <v>7.2357930169486898E-2</v>
       </c>
       <c r="J64">
-        <v>6.2618113861771255E-2</v>
+        <v>6.2618113861771699E-2</v>
       </c>
       <c r="K64" s="14">
-        <v>3.5143134436290593E-2</v>
+        <v>3.5143134436289872E-2</v>
       </c>
       <c r="L64" s="14">
-        <v>0.28262121581424898</v>
+        <v>0.28262121581425009</v>
       </c>
       <c r="M64" s="14">
-        <v>5.0230135380452408E-2</v>
+        <v>5.0230135380452283E-2</v>
       </c>
       <c r="N64">
-        <v>2.3673538615968221E-3</v>
+        <v>2.367353861596705E-3</v>
       </c>
       <c r="O64" s="14">
-        <v>-4.6258874350224473E-2</v>
+        <v>-4.6258874350223918E-2</v>
       </c>
       <c r="P64">
-        <v>5.2037387048194427E-3</v>
+        <v>5.2037387048196309E-3</v>
       </c>
       <c r="Q64">
-        <v>-9.6696042713469404E-2</v>
+        <v>-9.6696042713468988E-2</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64" s="14">
-        <v>1.1175071891003989E-2</v>
+        <v>1.11750718910043E-2</v>
       </c>
       <c r="T64">
-        <v>2.368123063622353E-2</v>
+        <v>2.3681230636223589E-2</v>
       </c>
       <c r="U64">
-        <v>0.1950832816402315</v>
+        <v>0.19508328164023159</v>
       </c>
       <c r="V64" s="14">
-        <v>-6.4444754019361075E-2</v>
+        <v>-6.4444754019360853E-2</v>
       </c>
       <c r="W64">
-        <v>-3.3246521216015318E-2</v>
+        <v>-3.3246521216015401E-2</v>
       </c>
       <c r="X64" s="14">
-        <v>2.9329863100859891E-2</v>
+        <v>2.9329863100859749E-2</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -10953,73 +11740,73 @@
         <v>26</v>
       </c>
       <c r="B65" s="14">
-        <v>-0.1159204596047715</v>
+        <v>-0.1159204596047714</v>
       </c>
       <c r="C65" s="14">
-        <v>0.18612361129666369</v>
+        <v>0.18612361129666449</v>
       </c>
       <c r="D65" s="14">
-        <v>-9.9844260502036486E-2</v>
+        <v>-9.9844260502034626E-2</v>
       </c>
       <c r="E65" s="14">
-        <v>-9.3025826201604281E-2</v>
+        <v>-9.3025826201603906E-2</v>
       </c>
       <c r="F65" s="14">
-        <v>2.2363826647809708E-2</v>
+        <v>2.2363826647809879E-2</v>
       </c>
       <c r="G65" s="14">
-        <v>5.6527678202311582E-2</v>
+        <v>5.6527678202311547E-2</v>
       </c>
       <c r="H65" s="14">
-        <v>-0.1783286594669804</v>
+        <v>-0.1783286594669834</v>
       </c>
       <c r="I65" s="14">
-        <v>-0.12552007136172541</v>
+        <v>-0.12552007136172461</v>
       </c>
       <c r="J65" s="14">
-        <v>4.1438481786824348E-2</v>
+        <v>4.1438481786824757E-2</v>
       </c>
       <c r="K65" s="14">
-        <v>-0.13760658898848291</v>
+        <v>-0.1376065889884823</v>
       </c>
       <c r="L65" s="14">
-        <v>5.1602069835684989E-3</v>
+        <v>5.1602069835686376E-3</v>
       </c>
       <c r="M65" s="14">
-        <v>-9.7267419356309468E-4</v>
+        <v>-9.7267419356308633E-4</v>
       </c>
       <c r="N65" s="14">
-        <v>3.7015483136730663E-2</v>
+        <v>3.7015483136730483E-2</v>
       </c>
       <c r="O65" s="14">
-        <v>3.5025542731714827E-2</v>
+        <v>3.5025542731714439E-2</v>
       </c>
       <c r="P65" s="14">
-        <v>0.37929437874659949</v>
+        <v>0.37929437874659749</v>
       </c>
       <c r="Q65" s="14">
-        <v>-8.93448261098609E-2</v>
+        <v>-8.9344826109860664E-2</v>
       </c>
       <c r="R65" s="14">
-        <v>1.1175071891003989E-2</v>
+        <v>1.11750718910043E-2</v>
       </c>
       <c r="S65" s="14">
         <v>1</v>
       </c>
       <c r="T65" s="14">
-        <v>-3.4463944603068182E-2</v>
+        <v>-3.4463944603068293E-2</v>
       </c>
       <c r="U65" s="14">
-        <v>-4.3144707734109201E-2</v>
+        <v>-4.3144707734109063E-2</v>
       </c>
       <c r="V65" s="14">
-        <v>-6.242609611702888E-2</v>
+        <v>-6.2426096117028318E-2</v>
       </c>
       <c r="W65" s="14">
-        <v>-3.6636054258863238E-2</v>
+        <v>-3.66360542588628E-2</v>
       </c>
       <c r="X65" s="14">
-        <v>0.10666824534968961</v>
+        <v>0.1066682453496897</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -11027,73 +11814,73 @@
         <v>27</v>
       </c>
       <c r="B66" s="14">
-        <v>-6.2750243511928067E-2</v>
+        <v>-6.2750243511928233E-2</v>
       </c>
       <c r="C66">
         <v>1.1245837016278929E-2</v>
       </c>
       <c r="D66" s="14">
-        <v>6.9576857880913709E-2</v>
+        <v>6.9576857880913626E-2</v>
       </c>
       <c r="E66" s="14">
-        <v>4.5820770830932209E-2</v>
+        <v>4.5820770830932563E-2</v>
       </c>
       <c r="F66">
-        <v>-8.2311046789704037E-2</v>
+        <v>-8.231104678970419E-2</v>
       </c>
       <c r="G66">
-        <v>0.21080070779115931</v>
+        <v>0.21080070779115859</v>
       </c>
       <c r="H66">
-        <v>8.141811015932068E-4</v>
+        <v>8.1418110159118791E-4</v>
       </c>
       <c r="I66" s="14">
-        <v>1.061002045127811E-2</v>
+        <v>1.061002045127816E-2</v>
       </c>
       <c r="J66">
-        <v>-7.548968808212364E-2</v>
+        <v>-7.5489688082124473E-2</v>
       </c>
       <c r="K66" s="14">
-        <v>1.9108540710776951E-2</v>
+        <v>1.9108540710776781E-2</v>
       </c>
       <c r="L66" s="14">
-        <v>2.9158877164817479E-2</v>
+        <v>2.9158877164817638E-2</v>
       </c>
       <c r="M66" s="14">
-        <v>-5.8765907242077489E-2</v>
+        <v>-5.8765907242077413E-2</v>
       </c>
       <c r="N66">
-        <v>-0.1330917800585823</v>
+        <v>-0.13309178005858249</v>
       </c>
       <c r="O66" s="14">
-        <v>7.7936395635971059E-2</v>
+        <v>7.7936395635970906E-2</v>
       </c>
       <c r="P66">
-        <v>-3.7369417668192753E-2</v>
+        <v>-3.7369417668192829E-2</v>
       </c>
       <c r="Q66">
-        <v>4.150453290124697E-2</v>
+        <v>4.1504532901247317E-2</v>
       </c>
       <c r="R66">
-        <v>2.368123063622353E-2</v>
+        <v>2.3681230636223589E-2</v>
       </c>
       <c r="S66" s="14">
-        <v>-3.4463944603068182E-2</v>
+        <v>-3.4463944603068293E-2</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66">
-        <v>2.0390996637175338E-2</v>
+        <v>2.0390996637175571E-2</v>
       </c>
       <c r="V66" s="14">
-        <v>0.10303336445150769</v>
+        <v>0.1030333644515072</v>
       </c>
       <c r="W66">
-        <v>-1.7954856893839209E-2</v>
+        <v>-1.7954856893839119E-2</v>
       </c>
       <c r="X66" s="14">
-        <v>-0.12708142900860281</v>
+        <v>-0.12708142900860331</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -11101,73 +11888,73 @@
         <v>28</v>
       </c>
       <c r="B67" s="14">
-        <v>8.5454198806126438E-2</v>
+        <v>8.5454198806125273E-2</v>
       </c>
       <c r="C67">
-        <v>-6.2981334047702758E-2</v>
+        <v>-6.2981334047702453E-2</v>
       </c>
       <c r="D67" s="14">
-        <v>-4.9096817971125667E-2</v>
+        <v>-4.9096817971125209E-2</v>
       </c>
       <c r="E67" s="14">
-        <v>1.8064591507196099E-2</v>
+        <v>1.806459150719603E-2</v>
       </c>
       <c r="F67">
-        <v>6.584459088322181E-2</v>
+        <v>6.5844590883221754E-2</v>
       </c>
       <c r="G67">
-        <v>-3.7798515879034817E-4</v>
+        <v>-3.7798515879055818E-4</v>
       </c>
       <c r="H67">
-        <v>4.1335833489297077E-2</v>
+        <v>4.1335833489296578E-2</v>
       </c>
       <c r="I67" s="14">
-        <v>8.5300905656760156E-2</v>
+        <v>8.5300905656760559E-2</v>
       </c>
       <c r="J67">
-        <v>4.9693614707333557E-2</v>
+        <v>4.9693614707333633E-2</v>
       </c>
       <c r="K67" s="14">
-        <v>6.4489341160117813E-2</v>
+        <v>6.4489341160118049E-2</v>
       </c>
       <c r="L67" s="14">
-        <v>0.32149067722688712</v>
+        <v>0.32149067722688918</v>
       </c>
       <c r="M67" s="14">
-        <v>7.6238008933324081E-2</v>
+        <v>7.6238008933324539E-2</v>
       </c>
       <c r="N67">
-        <v>3.2356867392890629E-3</v>
+        <v>3.2356867392892901E-3</v>
       </c>
       <c r="O67" s="14">
-        <v>-2.5498696467048689E-2</v>
+        <v>-2.5498696467048651E-2</v>
       </c>
       <c r="P67">
-        <v>-3.7494277165731962E-2</v>
+        <v>-3.7494277165732073E-2</v>
       </c>
       <c r="Q67">
-        <v>-4.5687290132462047E-2</v>
+        <v>-4.5687290132462227E-2</v>
       </c>
       <c r="R67">
-        <v>0.1950832816402315</v>
+        <v>0.19508328164023159</v>
       </c>
       <c r="S67" s="14">
-        <v>-4.3144707734109201E-2</v>
+        <v>-4.3144707734109063E-2</v>
       </c>
       <c r="T67">
-        <v>2.0390996637175338E-2</v>
+        <v>2.0390996637175571E-2</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="V67" s="14">
-        <v>-2.8777291425177449E-2</v>
+        <v>-2.877729142517765E-2</v>
       </c>
       <c r="W67">
-        <v>-2.4010816436539021E-2</v>
+        <v>-2.4010816436539149E-2</v>
       </c>
       <c r="X67" s="14">
-        <v>3.5206912764483762E-3</v>
+        <v>3.5206912764484768E-3</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -11175,73 +11962,73 @@
         <v>30</v>
       </c>
       <c r="B68" s="14">
-        <v>-2.3100087471526871E-2</v>
+        <v>-2.310008747152674E-2</v>
       </c>
       <c r="C68" s="14">
-        <v>-5.4555059838367552E-2</v>
+        <v>-5.4555059838367718E-2</v>
       </c>
       <c r="D68" s="14">
-        <v>0.12293516643322611</v>
+        <v>0.1229351664332254</v>
       </c>
       <c r="E68" s="14">
-        <v>9.8018983918652727E-2</v>
+        <v>9.8018983918653282E-2</v>
       </c>
       <c r="F68" s="14">
-        <v>-0.27512392343363989</v>
+        <v>-0.27512392343363962</v>
       </c>
       <c r="G68" s="14">
-        <v>7.8270529478005058E-3</v>
+        <v>7.8270529478005214E-3</v>
       </c>
       <c r="H68" s="14">
-        <v>4.488902142332702E-2</v>
+        <v>4.4889021423326743E-2</v>
       </c>
       <c r="I68" s="14">
-        <v>-1.2717827154062181E-2</v>
+        <v>-1.271782715406228E-2</v>
       </c>
       <c r="J68" s="14">
-        <v>-0.15770745452282739</v>
+        <v>-0.15770745452282761</v>
       </c>
       <c r="K68" s="14">
-        <v>4.5739550423640939E-2</v>
+        <v>4.5739550423640807E-2</v>
       </c>
       <c r="L68" s="14">
-        <v>-3.8388918467874601E-2</v>
+        <v>-3.8388918467875538E-2</v>
       </c>
       <c r="M68" s="14">
-        <v>-2.162910901546531E-2</v>
+        <v>-2.1629109015465369E-2</v>
       </c>
       <c r="N68" s="14">
-        <v>-0.18203428487924589</v>
+        <v>-0.18203428487924531</v>
       </c>
       <c r="O68" s="14">
-        <v>0.19389157154535769</v>
+        <v>0.1938915715453576</v>
       </c>
       <c r="P68" s="14">
-        <v>-7.0726634866037322E-2</v>
+        <v>-7.0726634866037599E-2</v>
       </c>
       <c r="Q68" s="14">
-        <v>0.10513931120834639</v>
+        <v>0.1051393112083459</v>
       </c>
       <c r="R68" s="14">
-        <v>-6.4444754019361075E-2</v>
+        <v>-6.4444754019360853E-2</v>
       </c>
       <c r="S68" s="14">
-        <v>-6.242609611702888E-2</v>
+        <v>-6.2426096117028318E-2</v>
       </c>
       <c r="T68" s="14">
-        <v>0.10303336445150769</v>
+        <v>0.1030333644515072</v>
       </c>
       <c r="U68" s="14">
-        <v>-2.8777291425177449E-2</v>
+        <v>-2.877729142517765E-2</v>
       </c>
       <c r="V68" s="14">
         <v>1</v>
       </c>
       <c r="W68" s="14">
-        <v>0.1209861082827491</v>
+        <v>0.1209861082827494</v>
       </c>
       <c r="X68" s="14">
-        <v>-0.30625345939093329</v>
+        <v>-0.30625345939093179</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -11249,73 +12036,73 @@
         <v>31</v>
       </c>
       <c r="B69" s="14">
-        <v>4.3831153531282488E-2</v>
+        <v>4.3831153531282273E-2</v>
       </c>
       <c r="C69">
-        <v>-7.1050611381487758E-2</v>
+        <v>-7.1050611381487785E-2</v>
       </c>
       <c r="D69" s="14">
-        <v>-4.0452236186095732E-2</v>
+        <v>-4.0452236186095697E-2</v>
       </c>
       <c r="E69" s="14">
-        <v>1.139988938051311E-2</v>
+        <v>1.13998893805131E-2</v>
       </c>
       <c r="F69">
-        <v>-4.3158218220699401E-2</v>
+        <v>-4.315821822069929E-2</v>
       </c>
       <c r="G69">
-        <v>-0.1627897385092042</v>
+        <v>-0.16278973850920539</v>
       </c>
       <c r="H69">
-        <v>-2.4985074307953489E-2</v>
+        <v>-2.49850743079543E-2</v>
       </c>
       <c r="I69" s="14">
-        <v>1.5162953506500491E-2</v>
+        <v>1.51629535065006E-2</v>
       </c>
       <c r="J69">
-        <v>5.1980856999410643E-2</v>
+        <v>5.1980856999410179E-2</v>
       </c>
       <c r="K69" s="14">
-        <v>1.7955741814785289E-2</v>
+        <v>1.795574181478524E-2</v>
       </c>
       <c r="L69" s="14">
-        <v>-1.168549542734058E-2</v>
+        <v>-1.1685495427340971E-2</v>
       </c>
       <c r="M69" s="14">
         <v>0.1007360365083079</v>
       </c>
       <c r="N69">
-        <v>2.3817343731975631E-2</v>
+        <v>2.3817343731975589E-2</v>
       </c>
       <c r="O69" s="14">
-        <v>-2.7583026078743831E-2</v>
+        <v>-2.75830260787438E-2</v>
       </c>
       <c r="P69">
-        <v>-3.7420075363185278E-2</v>
+        <v>-3.7420075363184972E-2</v>
       </c>
       <c r="Q69">
-        <v>-1.8163178139466281E-2</v>
+        <v>-1.8163178139466139E-2</v>
       </c>
       <c r="R69">
-        <v>-3.3246521216015318E-2</v>
+        <v>-3.3246521216015401E-2</v>
       </c>
       <c r="S69" s="14">
-        <v>-3.6636054258863238E-2</v>
+        <v>-3.66360542588628E-2</v>
       </c>
       <c r="T69">
-        <v>-1.7954856893839209E-2</v>
+        <v>-1.7954856893839119E-2</v>
       </c>
       <c r="U69">
-        <v>-2.4010816436539021E-2</v>
+        <v>-2.4010816436539149E-2</v>
       </c>
       <c r="V69" s="14">
-        <v>0.1209861082827491</v>
+        <v>0.1209861082827494</v>
       </c>
       <c r="W69">
         <v>1</v>
       </c>
       <c r="X69" s="14">
-        <v>-9.3712388019550355E-2</v>
+        <v>-9.3712388019549925E-2</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
@@ -11323,70 +12110,70 @@
         <v>32</v>
       </c>
       <c r="B70" s="14">
-        <v>7.9397401628896885E-3</v>
+        <v>7.9397401628896417E-3</v>
       </c>
       <c r="C70" s="14">
-        <v>8.587227291144571E-2</v>
+        <v>8.5872272911446987E-2</v>
       </c>
       <c r="D70" s="14">
-        <v>-0.1535429869349732</v>
+        <v>-0.15354298693497229</v>
       </c>
       <c r="E70" s="14">
-        <v>-0.16573505542430461</v>
+        <v>-0.1657350554243042</v>
       </c>
       <c r="F70" s="14">
-        <v>0.1797298776755977</v>
+        <v>0.17972987767559709</v>
       </c>
       <c r="G70" s="14">
-        <v>-2.273158211910532E-2</v>
+        <v>-2.2731582119105129E-2</v>
       </c>
       <c r="H70" s="14">
-        <v>-3.0465162211791311E-2</v>
+        <v>-3.0465162211791661E-2</v>
       </c>
       <c r="I70" s="14">
-        <v>-2.3402346091531311E-2</v>
+        <v>-2.3402346091531259E-2</v>
       </c>
       <c r="J70" s="14">
-        <v>0.13939151031698929</v>
+        <v>0.13939151031698849</v>
       </c>
       <c r="K70" s="14">
-        <v>-8.8282702933609875E-2</v>
+        <v>-8.8282702933610444E-2</v>
       </c>
       <c r="L70" s="14">
-        <v>9.7764512507863138E-3</v>
+        <v>9.7764512507866018E-3</v>
       </c>
       <c r="M70" s="14">
-        <v>-7.9302732650694038E-3</v>
+        <v>-7.9302732650693552E-3</v>
       </c>
       <c r="N70" s="14">
-        <v>0.2786310469845365</v>
+        <v>0.27863104698453778</v>
       </c>
       <c r="O70" s="14">
-        <v>-0.15884907576418339</v>
+        <v>-0.15884907576418261</v>
       </c>
       <c r="P70" s="14">
-        <v>0.12719164542283229</v>
+        <v>0.12719164542283309</v>
       </c>
       <c r="Q70" s="14">
-        <v>-0.1245972999285731</v>
+        <v>-0.1245972999285728</v>
       </c>
       <c r="R70" s="14">
-        <v>2.9329863100859891E-2</v>
+        <v>2.9329863100859749E-2</v>
       </c>
       <c r="S70" s="14">
-        <v>0.10666824534968961</v>
+        <v>0.1066682453496897</v>
       </c>
       <c r="T70" s="14">
-        <v>-0.12708142900860281</v>
+        <v>-0.12708142900860331</v>
       </c>
       <c r="U70" s="14">
-        <v>3.5206912764483762E-3</v>
+        <v>3.5206912764484768E-3</v>
       </c>
       <c r="V70" s="14">
-        <v>-0.30625345939093329</v>
+        <v>-0.30625345939093179</v>
       </c>
       <c r="W70" s="14">
-        <v>-9.3712388019550355E-2</v>
+        <v>-9.3712388019549925E-2</v>
       </c>
       <c r="X70" s="14">
         <v>1</v>
@@ -11472,10 +12259,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77296828-A876-8F45-874B-CC8E549DDDDE}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K21"/>
+    <sheetView topLeftCell="O1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11485,9 +12272,14 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -11506,8 +12298,41 @@
       <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>5</v>
       </c>
@@ -11524,14 +12349,50 @@
         <v>0.39862282465683202</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F28" si="0">ABS(D2)</f>
+        <f>ABS(D2)</f>
         <v>0.53298854207123814</v>
       </c>
       <c r="H2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="26">
+        <f>VLOOKUP(N2,$B$2:$D$28,2,FALSE)</f>
+        <v>0.57270118725974151</v>
+      </c>
+      <c r="P2" s="26">
+        <f>VLOOKUP(N2,$B$2:$D$28,3,FALSE)</f>
+        <v>0.14540237451948301</v>
+      </c>
+      <c r="R2" s="22" t="str">
+        <f>N2</f>
+        <v>var1_AQ</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>14</v>
       </c>
@@ -11548,14 +12409,46 @@
         <v>0.37205101586556588</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f>ABS(D3)</f>
         <v>0.48662977524298712</v>
       </c>
       <c r="H3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="26">
+        <f t="shared" ref="O3:O27" si="0">VLOOKUP(N3,$B$2:$D$28,2,FALSE)</f>
+        <v>0.60193849671520361</v>
+      </c>
+      <c r="P3" s="26">
+        <f t="shared" ref="P3:P27" si="1">VLOOKUP(N3,$B$2:$D$28,3,FALSE)</f>
+        <v>0.20387699343040719</v>
+      </c>
+      <c r="R3" s="22" t="str">
+        <f t="shared" ref="R3:R27" si="2">N3</f>
+        <v>var2_AQ</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="Y3" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>24</v>
       </c>
@@ -11572,11 +12465,47 @@
         <v>0.28879070075172558</v>
       </c>
       <c r="F4">
+        <f>ABS(D4)</f>
+        <v>0.341373855352745</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="26">
         <f t="shared" si="0"/>
-        <v>0.341373855352745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.3621907499573116</v>
+      </c>
+      <c r="P4" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.27561850008537681</v>
+      </c>
+      <c r="R4" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var3_CL</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z4" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>7</v>
       </c>
@@ -11593,11 +12522,47 @@
         <v>0.26400579690929221</v>
       </c>
       <c r="F5">
+        <f>ABS(D5)</f>
+        <v>0.318654239108774</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="26">
         <f t="shared" si="0"/>
-        <v>0.318654239108774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.43759599942474631</v>
+      </c>
+      <c r="P5" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.1248080011505075</v>
+      </c>
+      <c r="R5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var4_CL</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>26</v>
       </c>
@@ -11614,11 +12579,43 @@
         <v>0.24857721770804181</v>
       </c>
       <c r="F6">
+        <f>ABS(D6)</f>
+        <v>0.31130747271209552</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="26">
         <f t="shared" si="0"/>
-        <v>0.31130747271209552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.76649427103561907</v>
+      </c>
+      <c r="P6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.53298854207123814</v>
+      </c>
+      <c r="R6" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var5_LF</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="Y6" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>18</v>
       </c>
@@ -11635,11 +12632,43 @@
         <v>0.30328297398244741</v>
       </c>
       <c r="F7">
+        <f>ABS(D7)</f>
+        <v>0.28984955847693011</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="26">
         <f t="shared" si="0"/>
-        <v>0.28984955847693011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.36414167352608728</v>
+      </c>
+      <c r="P7" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.27171665294782532</v>
+      </c>
+      <c r="R7" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var6_LF</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" s="22"/>
+      <c r="Y7" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -11656,11 +12685,43 @@
         <v>0.26659919276955207</v>
       </c>
       <c r="F8">
+        <f>ABS(D8)</f>
+        <v>0.27561850008537681</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="26">
         <f t="shared" si="0"/>
-        <v>0.27561850008537681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.340672880445613</v>
+      </c>
+      <c r="P8" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.318654239108774</v>
+      </c>
+      <c r="R8" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var7_PE</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="Y8" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA8" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>16</v>
       </c>
@@ -11677,19 +12738,46 @@
         <v>0.23089344851261401</v>
       </c>
       <c r="F9">
+        <f>ABS(D9)</f>
+        <v>0.27391122736506718</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="N9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="26">
         <f t="shared" si="0"/>
-        <v>0.27391122736506718</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.44200020310840382</v>
+      </c>
+      <c r="P9" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.1159995937831925</v>
+      </c>
+      <c r="R9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var8_PE</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U9" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -11706,7 +12794,7 @@
         <v>0.23588082951162459</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>ABS(D10)</f>
         <v>0.27171665294782532</v>
       </c>
       <c r="H10" t="s">
@@ -11721,8 +12809,31 @@
       <c r="K10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.61222835406522524</v>
+      </c>
+      <c r="P10" s="26">
+        <f t="shared" si="1"/>
+        <v>0.22445670813045049</v>
+      </c>
+      <c r="R10" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var9_LF</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -11739,7 +12850,7 @@
         <v>0.1777619804574852</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>ABS(D11)</f>
         <v>0.22445670813045049</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -11754,8 +12865,42 @@
       <c r="K11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="26">
+        <f t="shared" si="0"/>
+        <v>0.44717458118135928</v>
+      </c>
+      <c r="P11" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.10565083763728129</v>
+      </c>
+      <c r="R11" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var10_PE</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA11" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -11772,7 +12917,7 @@
         <v>0.27247692283108821</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f>ABS(D12)</f>
         <v>0.20387699343040719</v>
       </c>
       <c r="H12" t="s">
@@ -11787,8 +12932,44 @@
       <c r="K12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="26">
+        <f t="shared" si="0"/>
+        <v>0.55043486724198198</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" si="1"/>
+        <v>0.100869734483964</v>
+      </c>
+      <c r="R12" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var11_AQ</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>8662</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>13</v>
       </c>
@@ -11805,7 +12986,7 @@
         <v>0.16214283856011719</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>ABS(D13)</f>
         <v>0.19712462945592171</v>
       </c>
       <c r="H13" t="s">
@@ -11820,8 +13001,44 @@
       <c r="K13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="26">
+        <f t="shared" si="0"/>
+        <v>0.50837993843623175</v>
+      </c>
+      <c r="P13" s="26">
+        <f t="shared" si="1"/>
+        <v>1.6759876872463501E-2</v>
+      </c>
+      <c r="R13" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var12_PE</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>118</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>21</v>
       </c>
@@ -11838,7 +13055,7 @@
         <v>0.1463476605754834</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>ABS(D14)</f>
         <v>0.17105372454987641</v>
       </c>
       <c r="H14" t="s">
@@ -11853,8 +13070,35 @@
       <c r="K14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.59856231472796084</v>
+      </c>
+      <c r="P14" s="26">
+        <f t="shared" si="1"/>
+        <v>0.19712462945592171</v>
+      </c>
+      <c r="R14" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var13_PE</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -11871,7 +13115,7 @@
         <v>0.12401181092535681</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f>ABS(D15)</f>
         <v>0.1611282209618701</v>
       </c>
       <c r="H15" t="s">
@@ -11886,8 +13130,31 @@
       <c r="K15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="26">
+        <f t="shared" si="0"/>
+        <v>0.74331488762149356</v>
+      </c>
+      <c r="P15" s="26">
+        <f t="shared" si="1"/>
+        <v>0.48662977524298712</v>
+      </c>
+      <c r="R15" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var14_LF</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>20</v>
       </c>
@@ -11904,7 +13171,7 @@
         <v>0.1610565123381752</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f>ABS(D16)</f>
         <v>0.14900906737718511</v>
       </c>
       <c r="H16" t="s">
@@ -11919,8 +13186,44 @@
       <c r="K16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.41943588951906502</v>
+      </c>
+      <c r="P16" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.1611282209618701</v>
+      </c>
+      <c r="R16" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var15_PE</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -11937,7 +13240,7 @@
         <v>0.21812944555499639</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>ABS(D17)</f>
         <v>0.14540237451948301</v>
       </c>
       <c r="H17" t="s">
@@ -11952,8 +13255,41 @@
       <c r="K17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.63695561368253362</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" si="1"/>
+        <v>0.27391122736506718</v>
+      </c>
+      <c r="R17" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var16_AQ</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V17" s="22"/>
+      <c r="Y17" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z17" s="30">
+        <f>(AA17+1)/2</f>
+        <v>0.85871644733027996</v>
+      </c>
+      <c r="AA17" s="30">
+        <v>0.71743289466056004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>19</v>
       </c>
@@ -11970,7 +13306,7 @@
         <v>0.1208986265883691</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f>ABS(D18)</f>
         <v>0.1333124062125817</v>
       </c>
       <c r="H18" t="s">
@@ -11982,8 +13318,45 @@
       <c r="K18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.49742397004032191</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="1"/>
+        <v>-5.1520599193561889E-3</v>
+      </c>
+      <c r="R18" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var17_LF</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y18" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z18" s="30">
+        <f>(AA18+1)/2</f>
+        <v>0.842616168389694</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>0.685232336779388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -12000,7 +13373,7 @@
         <v>0.18550611563629649</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f>ABS(D19)</f>
         <v>0.1248080011505075</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -12012,8 +13385,31 @@
       <c r="K19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.35507522076153503</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.28984955847693011</v>
+      </c>
+      <c r="R19" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var18_CL</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>8</v>
       </c>
@@ -12030,7 +13426,7 @@
         <v>0.1135230710941481</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f>ABS(D20)</f>
         <v>0.1159995937831925</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -12042,8 +13438,33 @@
       <c r="K20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="26">
+        <f t="shared" si="0"/>
+        <v>0.56665620310629083</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" si="1"/>
+        <v>0.1333124062125817</v>
+      </c>
+      <c r="R20" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var19_AQ</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V20" s="22"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>10</v>
       </c>
@@ -12060,7 +13481,7 @@
         <v>9.5174907633878147E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f>ABS(D21)</f>
         <v>0.10565083763728129</v>
       </c>
       <c r="J21" s="14" t="s">
@@ -12069,8 +13490,35 @@
       <c r="K21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="26">
+        <f t="shared" si="0"/>
+        <v>0.57450453368859256</v>
+      </c>
+      <c r="P21" s="26">
+        <f t="shared" si="1"/>
+        <v>0.14900906737718511</v>
+      </c>
+      <c r="R21" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var20_AQ</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -12087,14 +13535,39 @@
         <v>8.4850450542773515E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f>ABS(D22)</f>
         <v>0.100869734483964</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="26">
+        <f t="shared" si="0"/>
+        <v>0.41447313772506178</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.17105372454987641</v>
+      </c>
+      <c r="R22" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var21_LF</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V22" s="22"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>25</v>
       </c>
@@ -12111,14 +13584,39 @@
         <v>6.848833863268422E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f>ABS(D23)</f>
         <v>7.3477172292579995E-2</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="26">
+        <f t="shared" si="0"/>
+        <v>0.53099562339687323</v>
+      </c>
+      <c r="P23" s="26">
+        <f t="shared" si="1"/>
+        <v>6.1991246793746457E-2</v>
+      </c>
+      <c r="R23" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var22_AQ</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" s="22"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -12135,14 +13633,41 @@
         <v>6.8177205083098102E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f>ABS(D24)</f>
         <v>6.1991246793746457E-2</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="26">
+        <f t="shared" si="0"/>
+        <v>0.49037011290212462</v>
+      </c>
+      <c r="P24" s="26">
+        <f t="shared" si="1"/>
+        <v>-1.9259774195750871E-2</v>
+      </c>
+      <c r="R24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var23_PE</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>27</v>
       </c>
@@ -12159,14 +13684,41 @@
         <v>5.0664585751958653E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f>ABS(D25)</f>
         <v>4.2078039319832561E-2</v>
       </c>
       <c r="J25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N25" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="26">
+        <f t="shared" si="0"/>
+        <v>0.3293130723236275</v>
+      </c>
+      <c r="P25" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.341373855352745</v>
+      </c>
+      <c r="R25" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var24_LF</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -12183,14 +13735,39 @@
         <v>4.085806829645533E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f>ABS(D26)</f>
         <v>1.9259774195750871E-2</v>
       </c>
       <c r="J26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.53673858614629</v>
+      </c>
+      <c r="P26" s="26">
+        <f t="shared" si="1"/>
+        <v>7.3477172292579995E-2</v>
+      </c>
+      <c r="R26" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var25_LF</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" s="22"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>12</v>
       </c>
@@ -12207,14 +13784,41 @@
         <v>3.3315985040762393E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f>ABS(D27)</f>
         <v>1.6759876872463501E-2</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="26">
+        <f t="shared" si="0"/>
+        <v>0.65565373635604773</v>
+      </c>
+      <c r="P27" s="26">
+        <f t="shared" si="1"/>
+        <v>0.31130747271209552</v>
+      </c>
+      <c r="R27" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>var26_LF</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -12231,29 +13835,29 @@
         <v>3.6735680824519751E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f>ABS(D28)</f>
         <v>5.1520599193561889E-3</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J30" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J32" s="14" t="s">
         <v>32</v>
       </c>
